--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Network_Data_Sync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1B6F06B1-24CA-4EA0-A53E-9BD7924D674B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EB43710D-0536-4734-8A6F-6F3B4EC6A227}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
   </bookViews>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:IV41"/>
+    <sheetView tabSelected="1" topLeftCell="C128" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5249,6 +5249,9 @@
       <c r="D131" s="5" t="s">
         <v>524</v>
       </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
       <c r="G131">
         <v>33</v>
       </c>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Network_Data_Sync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EB43710D-0536-4734-8A6F-6F3B4EC6A227}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F899C825-78A9-4C06-8FD8-A12663BB2972}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="17970" yWindow="525" windowWidth="20355" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="528">
   <si>
     <t>ephysFN</t>
   </si>
@@ -836,9 +836,6 @@
   </si>
   <si>
     <t>CMA Evolution of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 57 (V4) evolution 191114(CRP). ch 57 (-3,-6) 3 1, SU 2/5 generate PCs for later PC space tuning</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
@@ -1692,6 +1689,12 @@
   </si>
   <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Manifold\beto-191111b\backup_11_11_2019_14_04_49</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 57 (V4) evolution 191114(CRP). ch 57 (-3,-6) 3 1, SU 2/5 generate PCs for later PC space tuning (this exp failed to pair with Manifold)</t>
+  </si>
+  <si>
+    <t>Freeview</t>
   </si>
 </sst>
 </file>
@@ -2106,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C128" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="D99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2115,7 +2118,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="70.5703125" customWidth="1"/>
-    <col min="4" max="4" width="108.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="8" width="9.28515625" customWidth="1"/>
@@ -2135,16 +2138,16 @@
         <v>217</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2161,7 +2164,7 @@
         <v>218</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2184,7 +2187,7 @@
         <v>219</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2207,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2230,7 +2233,7 @@
         <v>221</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2253,7 +2256,7 @@
         <v>222</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2276,7 +2279,7 @@
         <v>223</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2299,7 +2302,7 @@
         <v>224</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2322,7 +2325,7 @@
         <v>225</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2345,7 +2348,7 @@
         <v>226</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2368,7 +2371,7 @@
         <v>227</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2391,7 +2394,7 @@
         <v>228</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2414,7 +2417,7 @@
         <v>229</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2437,7 +2440,7 @@
         <v>230</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -2460,7 +2463,7 @@
         <v>231</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -2483,7 +2486,7 @@
         <v>232</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -2492,7 +2495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>233</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -2515,7 +2518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>234</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -2538,7 +2541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>235</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -2561,7 +2564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>236</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2584,7 +2587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>237</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2607,7 +2610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>238</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -2630,7 +2633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>239</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -2653,7 +2656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>240</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -2676,7 +2679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>241</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -2699,7 +2702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>242</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -2722,7 +2725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>243</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -2745,7 +2748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>244</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -2768,7 +2771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>245</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -2791,7 +2794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>246</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -2814,7 +2817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>247</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -2836,8 +2839,11 @@
       <c r="G31">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>248</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -2860,7 +2866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>249</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -2882,8 +2888,11 @@
       <c r="G33">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2897,7 +2906,7 @@
         <v>250</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -2906,7 +2915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>251</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -2928,8 +2937,11 @@
       <c r="G35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>252</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -2952,7 +2964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2966,7 +2978,7 @@
         <v>253</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -2974,8 +2986,11 @@
       <c r="G37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2989,7 +3004,7 @@
         <v>254</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -2998,7 +3013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3012,7 +3027,7 @@
         <v>255</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -3020,8 +3035,11 @@
       <c r="G39">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>256</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -3044,7 +3062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3052,13 +3070,13 @@
         <v>113</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -3066,8 +3084,11 @@
       <c r="G41">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -3081,7 +3102,7 @@
         <v>258</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -3089,8 +3110,11 @@
       <c r="G42">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,7 +3128,7 @@
         <v>259</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3112,8 +3136,11 @@
       <c r="G43">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -3127,7 +3154,7 @@
         <v>260</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -3135,8 +3162,11 @@
       <c r="G44">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -3150,7 +3180,7 @@
         <v>261</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -3158,8 +3188,11 @@
       <c r="G45">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -3173,7 +3206,7 @@
         <v>262</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -3181,8 +3214,11 @@
       <c r="G46">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3232,7 @@
         <v>263</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -3204,8 +3240,11 @@
       <c r="G47">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -3219,13 +3258,16 @@
         <v>264</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F48">
         <v>23</v>
       </c>
       <c r="G48">
         <v>58</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3242,13 +3284,16 @@
         <v>265</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F49">
         <v>23</v>
       </c>
       <c r="G49">
         <v>58</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3265,13 +3310,16 @@
         <v>266</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F50">
         <v>24</v>
       </c>
       <c r="G50">
         <v>50</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3288,13 +3336,16 @@
         <v>267</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F51">
         <v>24</v>
       </c>
       <c r="G51">
         <v>50</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3311,13 +3362,16 @@
         <v>268</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F52">
         <v>24</v>
       </c>
       <c r="G52">
         <v>50</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3331,16 +3385,17 @@
         <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>496</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E53" s="6"/>
       <c r="F53">
         <v>24</v>
       </c>
       <c r="G53">
         <v>57</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3354,16 +3409,19 @@
         <v>198</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F54">
         <v>25</v>
       </c>
       <c r="G54">
         <v>57</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3377,16 +3435,19 @@
         <v>199</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F55">
         <v>25</v>
       </c>
       <c r="G55">
         <v>57</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3400,16 +3461,19 @@
         <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F56">
         <v>25</v>
       </c>
       <c r="G56">
         <v>57</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3423,10 +3487,10 @@
         <v>201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -3449,10 +3513,10 @@
         <v>202</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -3475,10 +3539,10 @@
         <v>203</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -3501,16 +3565,19 @@
         <v>204</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F60">
         <v>27</v>
       </c>
       <c r="G60">
         <v>26</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3524,16 +3591,19 @@
         <v>205</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F61">
         <v>27</v>
       </c>
       <c r="G61">
         <v>26</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3547,16 +3617,19 @@
         <v>206</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F62">
         <v>27</v>
       </c>
       <c r="G62">
         <v>26</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3570,10 +3643,10 @@
         <v>207</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -3596,10 +3669,10 @@
         <v>208</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -3622,10 +3695,10 @@
         <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -3648,10 +3721,10 @@
         <v>210</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -3674,10 +3747,10 @@
         <v>208</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -3700,10 +3773,10 @@
         <v>211</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -3726,10 +3799,10 @@
         <v>212</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -3752,10 +3825,10 @@
         <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -3778,10 +3851,10 @@
         <v>214</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -3804,10 +3877,10 @@
         <v>215</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -3830,10 +3903,10 @@
         <v>216</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -3847,19 +3920,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E74" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -3873,19 +3946,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E75" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -3899,19 +3972,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E76" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -3925,19 +3998,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="E77" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -3951,19 +4024,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="E78" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -3977,19 +4050,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -4003,19 +4076,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -4029,19 +4102,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -4055,19 +4128,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -4081,19 +4154,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -4107,19 +4180,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -4133,19 +4206,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F85">
         <v>36</v>
@@ -4159,19 +4232,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -4185,19 +4258,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F87">
         <v>37</v>
@@ -4211,19 +4284,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -4237,19 +4310,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -4263,19 +4336,19 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F90">
         <v>38</v>
@@ -4289,19 +4362,19 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -4315,19 +4388,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F92">
         <v>39</v>
@@ -4341,19 +4414,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -4367,19 +4440,19 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -4393,19 +4466,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F95">
         <v>40</v>
@@ -4419,19 +4492,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -4445,19 +4518,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F97">
         <v>41</v>
@@ -4471,19 +4544,19 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -4497,19 +4570,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -4523,37 +4596,39 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E100" s="6"/>
+        <v>388</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="F100">
         <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F101">
         <v>42</v>
@@ -4567,19 +4642,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="D102" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -4593,19 +4668,19 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="D103" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -4619,19 +4694,19 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F104">
         <v>43</v>
@@ -4645,19 +4720,19 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -4671,19 +4746,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -4697,55 +4772,59 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" s="6"/>
+        <v>426</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="F107">
         <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E108" s="6"/>
+      <c r="E108" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="F108">
         <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F109">
         <v>44</v>
@@ -4759,19 +4838,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -4785,19 +4864,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -4811,19 +4890,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="E112" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F112">
         <v>45</v>
@@ -4837,19 +4916,19 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -4863,19 +4942,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -4889,19 +4968,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="E115" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -4909,19 +4988,19 @@
     </row>
     <row r="116" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B116" t="s">
         <v>458</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>459</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="E116" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4935,19 +5014,19 @@
     </row>
     <row r="117" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C117" t="s">
+        <v>463</v>
+      </c>
+      <c r="D117" t="s">
         <v>464</v>
       </c>
-      <c r="D117" t="s">
-        <v>465</v>
-      </c>
       <c r="E117" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -4955,19 +5034,19 @@
     </row>
     <row r="118" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -4981,19 +5060,19 @@
     </row>
     <row r="119" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -5007,19 +5086,19 @@
     </row>
     <row r="120" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>473</v>
+      </c>
+      <c r="B120" t="s">
         <v>474</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>475</v>
       </c>
-      <c r="C120" t="s">
-        <v>476</v>
-      </c>
       <c r="D120" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -5027,19 +5106,19 @@
     </row>
     <row r="121" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>476</v>
+      </c>
+      <c r="B121" t="s">
         <v>477</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>478</v>
       </c>
-      <c r="C121" t="s">
-        <v>479</v>
-      </c>
       <c r="D121" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F121">
         <v>4</v>
@@ -5053,16 +5132,16 @@
     </row>
     <row r="122" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>479</v>
+      </c>
+      <c r="B122" t="s">
         <v>480</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>481</v>
       </c>
-      <c r="C122" t="s">
-        <v>482</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E122" s="6"/>
       <c r="G122">
@@ -5074,19 +5153,19 @@
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>482</v>
+      </c>
+      <c r="B123" t="s">
         <v>483</v>
       </c>
-      <c r="B123" t="s">
-        <v>484</v>
-      </c>
       <c r="C123" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -5094,19 +5173,19 @@
     </row>
     <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>484</v>
+      </c>
+      <c r="B124" t="s">
         <v>485</v>
       </c>
-      <c r="B124" t="s">
-        <v>486</v>
-      </c>
       <c r="C124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -5114,19 +5193,19 @@
     </row>
     <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>486</v>
+      </c>
+      <c r="B125" t="s">
         <v>487</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>488</v>
       </c>
-      <c r="C125" t="s">
-        <v>489</v>
-      </c>
       <c r="D125" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F125">
         <v>5</v>
@@ -5140,33 +5219,33 @@
     </row>
     <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>501</v>
-      </c>
       <c r="D126" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>504</v>
-      </c>
       <c r="D127" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E127" s="6"/>
       <c r="G127">
@@ -5178,19 +5257,19 @@
     </row>
     <row r="128" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>507</v>
-      </c>
       <c r="D128" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F128">
         <v>6</v>
@@ -5204,16 +5283,16 @@
     </row>
     <row r="129" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>513</v>
-      </c>
       <c r="D129" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -5221,16 +5300,16 @@
     </row>
     <row r="130" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>515</v>
-      </c>
       <c r="C130" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5238,16 +5317,16 @@
     </row>
     <row r="131" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>518</v>
-      </c>
       <c r="D131" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -5261,19 +5340,19 @@
     </row>
     <row r="132" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>521</v>
-      </c>
       <c r="D132" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F132">
         <v>7</v>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Network_Data_Sync\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F899C825-78A9-4C06-8FD8-A12663BB2972}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410096B8-57DC-43EE-8749-8C30C2BD41BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="525" windowWidth="20355" windowHeight="11385"/>
+    <workbookView xWindow="16395" yWindow="2100" windowWidth="20355" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1700,7 +1699,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2106,11 +2105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2172,6 +2171,9 @@
       <c r="G2">
         <v>29</v>
       </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2195,6 +2197,9 @@
       <c r="G3">
         <v>29</v>
       </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2217,6 +2222,9 @@
       </c>
       <c r="G4">
         <v>6</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2241,6 +2249,9 @@
       <c r="G5">
         <v>6</v>
       </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -2264,6 +2275,9 @@
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2287,6 +2301,9 @@
       <c r="G7">
         <v>5</v>
       </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2310,6 +2327,9 @@
       <c r="G8">
         <v>20</v>
       </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2333,6 +2353,9 @@
       <c r="G9">
         <v>20</v>
       </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2356,6 +2379,9 @@
       <c r="G10">
         <v>19</v>
       </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2379,6 +2405,9 @@
       <c r="G11">
         <v>19</v>
       </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2402,6 +2431,9 @@
       <c r="G12">
         <v>13</v>
       </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2425,6 +2457,9 @@
       <c r="G13">
         <v>13</v>
       </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -2448,6 +2483,9 @@
       <c r="G14">
         <v>28</v>
       </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -2471,6 +2509,9 @@
       <c r="G15">
         <v>28</v>
       </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2494,6 +2535,9 @@
       <c r="G16">
         <v>15</v>
       </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -2517,6 +2561,9 @@
       <c r="G17">
         <v>15</v>
       </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2540,6 +2587,9 @@
       <c r="G18">
         <v>17</v>
       </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2563,6 +2613,9 @@
       <c r="G19">
         <v>17</v>
       </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2586,6 +2639,9 @@
       <c r="G20">
         <v>63</v>
       </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2609,6 +2665,9 @@
       <c r="G21">
         <v>63</v>
       </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -2632,6 +2691,9 @@
       <c r="G22">
         <v>26</v>
       </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -2655,6 +2717,9 @@
       <c r="G23">
         <v>26</v>
       </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -2678,6 +2743,9 @@
       <c r="G24">
         <v>20</v>
       </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2701,6 +2769,9 @@
       <c r="G25">
         <v>20</v>
       </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -2724,6 +2795,9 @@
       <c r="G26">
         <v>40</v>
       </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2747,6 +2821,9 @@
       <c r="G27">
         <v>40</v>
       </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -2770,6 +2847,9 @@
       <c r="G28">
         <v>42</v>
       </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2793,6 +2873,9 @@
       <c r="G29">
         <v>42</v>
       </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2816,6 +2899,9 @@
       <c r="G30">
         <v>35</v>
       </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -2865,6 +2951,9 @@
       <c r="G32">
         <v>36</v>
       </c>
+      <c r="H32">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -2914,6 +3003,9 @@
       <c r="G34">
         <v>34</v>
       </c>
+      <c r="H34">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -2963,6 +3055,9 @@
       <c r="G36">
         <v>37</v>
       </c>
+      <c r="H36">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -3012,6 +3107,9 @@
       <c r="G38">
         <v>49</v>
       </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -3061,6 +3159,9 @@
       <c r="G40">
         <v>60</v>
       </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -5217,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>498</v>
       </c>
@@ -5234,7 +5335,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>501</v>
       </c>
@@ -5255,7 +5356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>504</v>
       </c>
@@ -5281,7 +5382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>510</v>
       </c>
@@ -5298,7 +5399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>513</v>
       </c>
@@ -5315,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>515</v>
       </c>
@@ -5338,7 +5439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>518</v>
       </c>
@@ -5367,8 +5468,8 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1"/>
-    <hyperlink ref="C39" r:id="rId2"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410096B8-57DC-43EE-8749-8C30C2BD41BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA828819-8646-4E43-904A-849D4F8EDFC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="2100" windowWidth="20355" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="530">
   <si>
     <t>ephysFN</t>
   </si>
@@ -1694,6 +1694,12 @@
   </si>
   <si>
     <t>Freeview</t>
+  </si>
+  <si>
+    <t>Beto64chan-25112019-006_cmb</t>
+  </si>
+  <si>
+    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW). Combined.  For 41 chan [0 0 ] 3 deg 1  Selectivity starts 15:46 Starts s Consume 320 cc today  Ends 15:56 Should be combined with the last experiment to do analysis….</t>
   </si>
 </sst>
 </file>
@@ -1796,14 +1802,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2106,17 +2112,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="99.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
@@ -4214,9 +4220,7 @@
       <c r="D81" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>495</v>
-      </c>
+      <c r="E81" s="6"/>
       <c r="F81">
         <v>35</v>
       </c>
@@ -4240,9 +4244,7 @@
       <c r="D82" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>495</v>
-      </c>
+      <c r="E82" s="6"/>
       <c r="F82">
         <v>35</v>
       </c>
@@ -4255,16 +4257,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>318</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>329</v>
+        <v>529</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>495</v>
@@ -4281,16 +4281,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>495</v>
@@ -4307,42 +4307,42 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F85">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>495</v>
@@ -4359,42 +4359,42 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F87">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>44</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>495</v>
@@ -4411,16 +4411,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>495</v>
@@ -4437,42 +4437,42 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F90">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>495</v>
@@ -4489,42 +4489,42 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F92">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>46</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>495</v>
@@ -4541,16 +4541,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>495</v>
@@ -4567,42 +4567,42 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F95">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>495</v>
@@ -4619,42 +4619,42 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F97">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>47</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>495</v>
@@ -4671,16 +4671,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>495</v>
@@ -4697,62 +4697,62 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="F100">
         <v>41</v>
       </c>
+      <c r="G100">
+        <v>47</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="F101">
-        <v>42</v>
-      </c>
-      <c r="G101">
-        <v>38</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>495</v>
@@ -4769,16 +4769,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>495</v>
@@ -4795,42 +4795,42 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F104">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G104">
         <v>38</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>495</v>
@@ -4847,16 +4847,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>495</v>
@@ -4873,36 +4873,42 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="F107">
         <v>43</v>
       </c>
+      <c r="G107">
+        <v>38</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>527</v>
@@ -4913,42 +4919,36 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="F109">
-        <v>44</v>
-      </c>
-      <c r="G109">
         <v>43</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>495</v>
@@ -4965,16 +4965,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>495</v>
@@ -4991,42 +4991,42 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F112">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G112">
         <v>43</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>495</v>
@@ -5042,17 +5042,17 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>434</v>
+      <c r="A114" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>495</v>
@@ -5069,312 +5069,312 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F115">
+        <v>45</v>
+      </c>
+      <c r="G115">
+        <v>43</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B116" t="s">
-        <v>458</v>
-      </c>
-      <c r="C116" t="s">
-        <v>459</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>29</v>
-      </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>468</v>
+        <v>457</v>
+      </c>
+      <c r="B117" t="s">
+        <v>458</v>
       </c>
       <c r="C117" t="s">
-        <v>463</v>
-      </c>
-      <c r="D117" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>496</v>
       </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>29</v>
+      </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
+      </c>
+      <c r="C118" t="s">
+        <v>463</v>
       </c>
       <c r="D118" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>2</v>
-      </c>
-      <c r="G118">
-        <v>5</v>
-      </c>
-      <c r="H118">
-        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>461</v>
+        <v>471</v>
+      </c>
+      <c r="D119" t="s">
+        <v>462</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>496</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>473</v>
-      </c>
-      <c r="B120" t="s">
-        <v>474</v>
-      </c>
-      <c r="C120" t="s">
-        <v>475</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>489</v>
+      <c r="A120" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>496</v>
       </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>20</v>
+      </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B121" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C121" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F121">
-        <v>4</v>
-      </c>
-      <c r="G121">
-        <v>41</v>
-      </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B122" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C122" t="s">
-        <v>481</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E122" s="6"/>
+        <v>478</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
       <c r="G122">
         <v>41</v>
       </c>
       <c r="H122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" t="s">
+        <v>480</v>
+      </c>
+      <c r="C123" t="s">
+        <v>481</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="G123">
+        <v>41</v>
+      </c>
+      <c r="H123">
         <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>482</v>
-      </c>
-      <c r="B123" t="s">
-        <v>483</v>
-      </c>
-      <c r="C123" t="s">
-        <v>475</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H123">
-        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B124" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C124" t="s">
         <v>475</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>492</v>
+      <c r="D124" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>496</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B125" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C125" t="s">
-        <v>488</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F125">
-        <v>5</v>
-      </c>
-      <c r="G125">
-        <v>41</v>
-      </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>507</v>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>486</v>
+      </c>
+      <c r="B126" t="s">
+        <v>487</v>
+      </c>
+      <c r="C126" t="s">
+        <v>488</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>41</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="E127" s="6"/>
-      <c r="G127">
-        <v>26</v>
-      </c>
-      <c r="H127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F128">
-        <v>6</v>
-      </c>
+      <c r="E128" s="6"/>
       <c r="G128">
         <v>26</v>
       </c>
@@ -5384,84 +5384,110 @@
     </row>
     <row r="129" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+      <c r="G129">
+        <v>26</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B130" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="H129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>512</v>
       </c>
       <c r="D130" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="H130">
+      <c r="H131">
         <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>33</v>
-      </c>
-      <c r="H131">
-        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>33</v>
       </c>
       <c r="H132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>33</v>
+      </c>
+      <c r="H133">
         <v>4</v>
       </c>
     </row>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA828819-8646-4E43-904A-849D4F8EDFC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411DC096-B342-4BB3-BBC3-729DB6453566}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="554">
   <si>
     <t>ephysFN</t>
   </si>
@@ -1700,6 +1700,104 @@
   </si>
   <si>
     <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW). Combined.  For 41 chan [0 0 ] 3 deg 1  Selectivity starts 15:46 Starts s Consume 320 cc today  Ends 15:56 Should be combined with the last experiment to do analysis….</t>
+  </si>
+  <si>
+    <t>Beto-25022020-001</t>
+  </si>
+  <si>
+    <t>200225_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-02-25-Beto</t>
+  </si>
+  <si>
+    <t>Beto-25022020-002</t>
+  </si>
+  <si>
+    <t>200225_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>Beto-25022020-003</t>
+  </si>
+  <si>
+    <t>200225_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Beto-01\2020-02-25-12-37-08</t>
+  </si>
+  <si>
+    <t>Beto-25022020-004</t>
+  </si>
+  <si>
+    <t>200225_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Beto-02\2020-02-25-12-57-13</t>
+  </si>
+  <si>
+    <t>Beto-25022020-005</t>
+  </si>
+  <si>
+    <t>200225_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Beto-03\2020-02-25-13-19-41</t>
+  </si>
+  <si>
+    <t>Beto-25022020-006</t>
+  </si>
+  <si>
+    <t>200225_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-25-Beto-04\2020-02-25-13-40-58</t>
+  </si>
+  <si>
+    <t>001 RF Mapping starts 12:12
+chan 40 seems to have a well defined RF
+-1.5:0.5:1.5  0.75 deg</t>
+  </si>
+  <si>
+    <t>RedDim_Evol</t>
+  </si>
+  <si>
+    <t>002 RF Mapping starts 12:20
+-8:2:8 2 deg 10 min
+Good Foveal</t>
+  </si>
+  <si>
+    <t>003 generate_integrated
+Reduced Dimension .
+40 [0 -0.3] 3 1 CMAES_RD
+40 [0 -0.3] 3 1 CMAES
+ Terminate 20 blocks
+complete, stop at 12:55</t>
+  </si>
+  <si>
+    <t>004 generate_integrated
+43 [0 -0.3] 3 1 CMAES_RD
+43 [0 -0.3] 3 1 CMAES
+Start at 12:57
+No eye tracking on screen, -_- but he is locked in, working good, I trust it.
+We will take to 20 blocks ish
+Stopped at 1:17</t>
+  </si>
+  <si>
+    <t>005 generate_integrated
+Reduced Dimension .
+44 [0 -0.3] 3 1 CMAES_RD
+44 [0 -0.3] 3 1 CMAES
+ Terminate 20 blocks
+stopped at 1:40</t>
+  </si>
+  <si>
+    <t>006 generated_integrated 1:40
+40 [0 -0.3] 3 1 CMAES_RD
+40 [0 -0.3] 3 1 CMAES
+ Terminate 20 blocks
+trying this ch. again
+monkey starting to shake, may not go too much longer
+Stopped at 20 blocks, 2:10</t>
   </si>
 </sst>
 </file>
@@ -2112,18 +2210,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="99.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="8" width="9.28515625" customWidth="1"/>
@@ -5344,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>498</v>
       </c>
@@ -5361,7 +5459,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>501</v>
       </c>
@@ -5382,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>504</v>
       </c>
@@ -5408,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>510</v>
       </c>
@@ -5425,7 +5523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>513</v>
       </c>
@@ -5442,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>515</v>
       </c>
@@ -5465,7 +5563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>518</v>
       </c>
@@ -5489,6 +5587,150 @@
       </c>
       <c r="H133">
         <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>530</v>
+      </c>
+      <c r="B134" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134" t="s">
+        <v>532</v>
+      </c>
+      <c r="D134" t="s">
+        <v>547</v>
+      </c>
+      <c r="E134" t="s">
+        <v>548</v>
+      </c>
+      <c r="H134">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>533</v>
+      </c>
+      <c r="B135" t="s">
+        <v>534</v>
+      </c>
+      <c r="C135" t="s">
+        <v>532</v>
+      </c>
+      <c r="D135" t="s">
+        <v>549</v>
+      </c>
+      <c r="E135" t="s">
+        <v>548</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>535</v>
+      </c>
+      <c r="B136" t="s">
+        <v>536</v>
+      </c>
+      <c r="C136" t="s">
+        <v>537</v>
+      </c>
+      <c r="D136" t="s">
+        <v>550</v>
+      </c>
+      <c r="E136" t="s">
+        <v>548</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>40</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>538</v>
+      </c>
+      <c r="B137" t="s">
+        <v>539</v>
+      </c>
+      <c r="C137" t="s">
+        <v>540</v>
+      </c>
+      <c r="D137" t="s">
+        <v>551</v>
+      </c>
+      <c r="E137" t="s">
+        <v>548</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>43</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>541</v>
+      </c>
+      <c r="B138" t="s">
+        <v>542</v>
+      </c>
+      <c r="C138" t="s">
+        <v>543</v>
+      </c>
+      <c r="D138" t="s">
+        <v>552</v>
+      </c>
+      <c r="E138" t="s">
+        <v>548</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>44</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>544</v>
+      </c>
+      <c r="B139" t="s">
+        <v>545</v>
+      </c>
+      <c r="C139" t="s">
+        <v>546</v>
+      </c>
+      <c r="D139" t="s">
+        <v>553</v>
+      </c>
+      <c r="E139" t="s">
+        <v>548</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50AD9D-56A8-46F0-8CE0-AF1946AAC9FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="568">
   <si>
     <t>ephysFN</t>
   </si>
@@ -1219,7 +1225,7 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-23-Beto-01\2020-01-23-12-36-03</t>
   </si>
   <si>
-    <t xml:space="preserve">. </t>
+    <t>. </t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-27-Beto-01\2020-01-27-11-23-03</t>
@@ -1684,13 +1690,13 @@
 Blasting him, 300 ms, going to block 50 then calling it a day</t>
   </si>
   <si>
-    <t xml:space="preserve">Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
+    <t>Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
+  </si>
+  <si>
+    <t>Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
+  </si>
+  <si>
+    <t>Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
   </si>
   <si>
     <t>001 RFMapper 11:02 AM starts 
@@ -1851,8 +1857,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1911,15 +1917,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1961,7 +1975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1993,9 +2007,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2027,6 +2059,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2202,14 +2252,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2261,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2313,7 +2365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2339,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2365,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2391,7 +2443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2417,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2443,7 +2495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2469,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2495,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2521,7 +2573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2547,7 +2599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2573,7 +2625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +2651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2625,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2651,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2677,7 +2729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2703,7 +2755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2729,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2755,7 +2807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2781,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2807,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2833,7 +2885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2859,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2885,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2937,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2963,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2989,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3015,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3041,7 +3093,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3067,7 +3119,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3093,7 +3145,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3119,7 +3171,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3145,7 +3197,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3171,7 +3223,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3197,7 +3249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3223,7 +3275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -3249,7 +3301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3275,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3301,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3327,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3353,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3379,7 +3431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3405,7 +3457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3431,7 +3483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3457,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3483,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3509,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3535,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3561,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3584,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3610,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3636,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3662,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3688,7 +3740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3714,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3740,7 +3792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3766,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3792,7 +3844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3818,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3844,7 +3896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3870,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3896,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3922,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3948,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3974,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4000,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4026,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4052,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4078,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4104,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4130,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4156,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4182,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4208,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -4234,7 +4286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4260,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4286,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4309,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4332,7 +4384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4355,7 +4407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4381,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4407,7 +4459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4433,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4459,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4485,7 +4537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4511,7 +4563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4537,7 +4589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4563,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4589,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4615,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4641,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4667,7 +4719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4693,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4719,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4745,7 +4797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4771,7 +4823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4797,7 +4849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4817,7 +4869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -4843,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -4869,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -4895,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -4921,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -4947,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -4973,7 +5025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -4993,7 +5045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -5013,7 +5065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -5039,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -5065,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -5091,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -5117,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -5143,7 +5195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -5169,7 +5221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -5189,7 +5241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -5215,7 +5267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -5235,7 +5287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -5261,7 +5313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -5287,7 +5339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -5307,7 +5359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -5333,7 +5385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -5353,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -5373,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -5393,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -5419,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -5436,7 +5488,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -5456,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -5482,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -5499,7 +5551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -5516,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -5539,7 +5591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -5565,7 +5617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -5585,7 +5637,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -5605,7 +5657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -5631,7 +5683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -5657,7 +5709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -5683,7 +5735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -5709,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -5722,8 +5774,14 @@
       <c r="D140" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="E140" t="s">
+        <v>567</v>
+      </c>
+      <c r="H140">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -5736,8 +5794,14 @@
       <c r="D141" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="E141" t="s">
+        <v>567</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -5750,8 +5814,20 @@
       <c r="D142" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="E142" t="s">
+        <v>567</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -5763,6 +5839,18 @@
       </c>
       <c r="D143" t="s">
         <v>563</v>
+      </c>
+      <c r="E143" t="s">
+        <v>567</v>
+      </c>
+      <c r="F143">
+        <v>6</v>
+      </c>
+      <c r="G143">
+        <v>20</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50AD9D-56A8-46F0-8CE0-AF1946AAC9FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01995C10-8197-4D42-ACB9-F704D65D14F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="587">
   <si>
     <t>ephysFN</t>
   </si>
@@ -472,6 +472,21 @@
     <t>Beto-26022020-004</t>
   </si>
   <si>
+    <t>Beto-03032020-001</t>
+  </si>
+  <si>
+    <t>Beto-03032020-002</t>
+  </si>
+  <si>
+    <t>Beto-03032020-004</t>
+  </si>
+  <si>
+    <t>Beto-03032020-005</t>
+  </si>
+  <si>
+    <t>Beto-03032020-006</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -895,6 +910,21 @@
     <t>200226_Beto_generate_integrated(2)</t>
   </si>
   <si>
+    <t>200303_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200303_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200303_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200303_Beto_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200303_Beto_generate_integrated(6)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1286,6 +1316,18 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-02-26-Beto-02\2020-02-26-13-36-52</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-03-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-03-Beto-01\2020-03-03-12-35-26</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-03-Beto-02\2020-03-03-13-01-19</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-03-Beto-03\2020-03-03-13-36-50</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -1840,6 +1882,59 @@
 Monkey starting to protest…
 gets to gen 30!
 Actually the fr declines in the last few gens.</t>
+  </si>
+  <si>
+    <t>001 RFMapping
+-1.5:0.5:1.5 0.75 deg
+24 has a single unit vs hash structure?</t>
+  </si>
+  <si>
+    <t>002 RFMapping
+-8:2:8 2 deg
+Chan 24's RF looks good and
+003 generate integrated
+24 [-0.8 1] 3 1 ZOHA_Cylind
+24 [-0.8 1] 3 1 ZOHA_Cylind_ReducDim
+Forget to change the reference image!
+Abort the exp
+Aborted</t>
+  </si>
+  <si>
+    <t>004 generate_integrated starts 12:35
+Change the reference image!
+24 [-0.8 1] 3 1 ZOHA_Cylind
+24 [-0.8 1] 3 1 ZOHA_Cylind_ReducDim
+The reduced dimension one evolved, the full space didn't
+Seems the major contribution to evolution is the initial activity peak in the response.
+The high noise caused the norm evolution not working totally! So in full evolution, the Optimizer stuck at low norm and still live in noise.
+The low variability problem is big!
+Or maybe the norm evolution is not well controlled.
+Interesting case study.….
+Completed</t>
+  </si>
+  <si>
+    <t>005generate_integrated starts 1:01
+24 [-0.8 1] 3 1 CMAES
+24 [-0.8 1] 3 2 CMAES
+SU vs Hash type experiment! Also want to check if CMA is able to evolve from this thing. 
+He started today around noon, so working for 1.5 hr so far
+130 ms reward
+The "SU" seems moving towards the hash, and the score gets lower. (Lose the unit totally)
+Interesting case study.….
+Completed</t>
+  </si>
+  <si>
+    <t>006 generate_integrated starts 1:36
+59 [0 -0.3] 3 1 CMAES
+59 [0 -0.3] 3 1 ZOHA_Cylind
+Test the Cylindrical optimizer's capability!
+The cell seems non responding! Or suppressed by image a little bit.
+At gen 3 monkey gains motivation suddenly! And firing rate gets high at a second! The firing rate then stays high for a few generations.
+Maybe the cell is so suppressed….Both CMAES and Cylind is not very successful.
+Why this cell seems not suppressed during RF mapping, but suppressed in Evolution!
+Gets to 13 gens.
+Give up at 14 gen
+Completed</t>
   </si>
   <si>
     <t>Manifold</t>
@@ -2253,13 +2348,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2292,16 +2390,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2318,16 +2416,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2344,16 +2442,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2370,16 +2468,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2396,16 +2494,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="E6" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2422,16 +2520,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="E7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2448,16 +2546,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="E8" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2474,16 +2572,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2500,16 +2598,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2526,16 +2624,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="E11" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2552,16 +2650,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="E12" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2578,16 +2676,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="E13" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2604,16 +2702,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="E14" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -2630,16 +2728,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="E15" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -2656,16 +2754,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="E16" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -2682,16 +2780,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D17" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="E17" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -2708,16 +2806,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="E18" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -2734,16 +2832,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D19" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="E19" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -2760,16 +2858,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E20" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2786,16 +2884,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="E21" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2812,16 +2910,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D22" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="E22" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -2838,16 +2936,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="E23" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -2864,16 +2962,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D24" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="E24" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -2890,16 +2988,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="E25" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -2916,16 +3014,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="E26" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -2942,16 +3040,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="E27" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -2968,16 +3066,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="E28" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -2994,16 +3092,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="E29" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -3020,16 +3118,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D30" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E30" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3046,16 +3144,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D31" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E31" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -3072,16 +3170,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -3098,16 +3196,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D33" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="E33" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3124,16 +3222,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D34" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="E34" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -3150,16 +3248,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="E35" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -3176,16 +3274,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D36" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E36" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -3202,16 +3300,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D37" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E37" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -3228,16 +3326,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D38" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="E38" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -3254,16 +3352,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D39" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="E39" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -3280,16 +3378,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="D40" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="E40" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -3306,16 +3404,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E41" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -3332,16 +3430,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E42" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -3358,16 +3456,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="D43" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="E43" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3384,16 +3482,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D44" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E44" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -3410,16 +3508,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D45" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="E45" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -3436,16 +3534,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D46" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="E46" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -3462,16 +3560,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D47" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="E47" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -3488,16 +3586,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="E48" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -3514,16 +3612,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D49" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="E49" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -3540,16 +3638,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D50" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="E50" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -3566,16 +3664,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D51" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="E51" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -3592,16 +3690,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D52" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E52" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -3618,13 +3716,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D53" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -3641,16 +3739,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D54" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E54" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -3667,16 +3765,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D55" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E55" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -3693,16 +3791,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D56" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="E56" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -3719,16 +3817,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D57" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E57" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -3745,16 +3843,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D58" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="E58" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -3771,16 +3869,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D59" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="E59" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -3797,16 +3895,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D60" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="E60" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -3823,16 +3921,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D61" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="E61" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -3849,16 +3947,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D62" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E62" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -3875,16 +3973,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D63" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="E63" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -3901,16 +3999,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D64" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E64" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -3927,16 +4025,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D65" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -3953,16 +4051,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D66" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="E66" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -3979,16 +4077,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D67" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="E67" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4005,16 +4103,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D68" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="E68" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -4031,16 +4129,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D69" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="E69" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4057,16 +4155,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D70" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="E70" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -4083,16 +4181,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D71" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="E71" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -4109,16 +4207,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D72" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E72" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -4135,16 +4233,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D73" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="E73" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -4161,16 +4259,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="E74" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -4187,16 +4285,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D75" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="E75" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -4213,16 +4311,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D76" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="E76" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -4239,16 +4337,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D77" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="E77" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -4265,16 +4363,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D78" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="E78" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -4291,16 +4389,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D79" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="E79" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -4317,16 +4415,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E80" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -4343,13 +4441,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D81" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -4366,13 +4464,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D82" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -4389,13 +4487,13 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D83" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E83" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -4412,16 +4510,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D84" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="E84" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -4438,16 +4536,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D85" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="E85" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -4464,16 +4562,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D86" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="E86" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -4490,16 +4588,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D87" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="E87" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -4516,16 +4614,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D88" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E88" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -4542,16 +4640,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D89" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="E89" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -4568,16 +4666,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="E90" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -4594,16 +4692,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D91" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="E91" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -4620,16 +4718,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D92" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="E92" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -4646,16 +4744,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D93" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="E93" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -4672,16 +4770,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D94" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="E94" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -4698,16 +4796,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D95" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="E95" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -4724,16 +4822,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D96" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="E96" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -4750,16 +4848,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D97" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E97" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -4776,16 +4874,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D98" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="E98" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -4802,16 +4900,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D99" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="E99" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -4828,16 +4926,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D100" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="E100" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -4854,16 +4952,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D101" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="E101" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -4874,16 +4972,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D102" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="E102" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -4900,16 +4998,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D103" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="E103" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -4926,16 +5024,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C104" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D104" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E104" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -4952,16 +5050,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D105" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="E105" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -4978,16 +5076,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D106" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="E106" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -5004,16 +5102,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D107" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="E107" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -5030,16 +5128,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D108" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="E108" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -5050,16 +5148,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D109" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="E109" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -5070,16 +5168,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D110" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="E110" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -5096,16 +5194,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D111" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="E111" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -5122,16 +5220,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C112" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D112" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="E112" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -5148,16 +5246,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D113" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="E113" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -5174,16 +5272,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D114" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="E114" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -5200,16 +5298,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D115" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="E115" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -5226,16 +5324,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C116" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D116" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="E116" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -5246,16 +5344,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C117" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="E117" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5272,16 +5370,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C118" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D118" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E118" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -5292,16 +5390,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C119" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D119" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="E119" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -5318,16 +5416,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D120" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="E120" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -5344,16 +5442,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C121" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D121" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="E121" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -5364,16 +5462,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C122" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="E122" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -5390,13 +5488,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C123" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D123" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -5410,16 +5508,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C124" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D124" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="E124" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -5430,16 +5528,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D125" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="E125" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5450,16 +5548,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C126" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D126" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E126" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -5476,16 +5574,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="E127" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5493,13 +5591,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C128" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -5513,16 +5611,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C129" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D129" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="E129" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -5539,13 +5637,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C130" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D130" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -5556,13 +5654,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C131" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D131" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5573,13 +5671,13 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C132" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D132" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -5596,16 +5694,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C133" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D133" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="E133" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -5622,16 +5720,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D134" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E134" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -5642,16 +5740,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C135" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D135" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E135" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -5662,16 +5760,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C136" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D136" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="E136" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -5688,16 +5786,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C137" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D137" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="E137" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -5714,16 +5812,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D138" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="E138" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -5740,16 +5838,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C139" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D139" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="E139" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -5766,16 +5864,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D140" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="E140" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -5786,16 +5884,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D141" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="E141" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -5806,16 +5904,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C142" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D142" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="E142" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -5832,16 +5930,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D143" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="E143" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -5850,6 +5948,106 @@
         <v>20</v>
       </c>
       <c r="H143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>296</v>
+      </c>
+      <c r="C144" t="s">
+        <v>432</v>
+      </c>
+      <c r="D144" t="s">
+        <v>578</v>
+      </c>
+      <c r="E144" t="s">
+        <v>586</v>
+      </c>
+      <c r="H144">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" t="s">
+        <v>297</v>
+      </c>
+      <c r="C145" t="s">
+        <v>432</v>
+      </c>
+      <c r="D145" t="s">
+        <v>579</v>
+      </c>
+      <c r="E145" t="s">
+        <v>586</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" t="s">
+        <v>433</v>
+      </c>
+      <c r="D146" t="s">
+        <v>580</v>
+      </c>
+      <c r="E146" t="s">
+        <v>586</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" t="s">
+        <v>299</v>
+      </c>
+      <c r="C147" t="s">
+        <v>434</v>
+      </c>
+      <c r="D147" t="s">
+        <v>581</v>
+      </c>
+      <c r="E147" t="s">
+        <v>586</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" t="s">
+        <v>435</v>
+      </c>
+      <c r="D148" t="s">
+        <v>582</v>
+      </c>
+      <c r="E148" t="s">
+        <v>586</v>
+      </c>
+      <c r="H148">
         <v>3</v>
       </c>
     </row>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01995C10-8197-4D42-ACB9-F704D65D14F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41571AD4-D234-4FF0-A3D4-C4FF0B4F1A69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="656">
   <si>
     <t>ephysFN</t>
   </si>
@@ -487,6 +487,63 @@
     <t>Beto-03032020-006</t>
   </si>
   <si>
+    <t>Beto-06032020-001</t>
+  </si>
+  <si>
+    <t>Beto-06032020-004</t>
+  </si>
+  <si>
+    <t>Beto-09032020-001</t>
+  </si>
+  <si>
+    <t>Beto-09032020-002</t>
+  </si>
+  <si>
+    <t>Beto-09032020-004</t>
+  </si>
+  <si>
+    <t>Beto-09032020-005</t>
+  </si>
+  <si>
+    <t>Beto-10022020-001</t>
+  </si>
+  <si>
+    <t>Beto-10022020-002</t>
+  </si>
+  <si>
+    <t>Beto-10022020-005</t>
+  </si>
+  <si>
+    <t>Beto64chan-10022020-004</t>
+  </si>
+  <si>
+    <t>Beto64chan-10022020-006</t>
+  </si>
+  <si>
+    <t>Beto-07022020-004</t>
+  </si>
+  <si>
+    <t>Beto-14022020-001</t>
+  </si>
+  <si>
+    <t>Beto-14022020-002</t>
+  </si>
+  <si>
+    <t>Beto-14022020-003</t>
+  </si>
+  <si>
+    <t>Beto-19022020-004</t>
+  </si>
+  <si>
+    <t>Beto-20022020-001</t>
+  </si>
+  <si>
+    <t>Beto-20022020-002</t>
+  </si>
+  <si>
+    <t>Beto-20022020-003</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -925,6 +982,60 @@
     <t>200303_Beto_generate_integrated(6)</t>
   </si>
   <si>
+    <t>200306_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200306_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200309_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200309_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200309_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200309_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200210_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200210_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200210_Beto_generate_integrated(6)</t>
+  </si>
+  <si>
+    <t>200210_Beto_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200207_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200214_Beto_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>200214_Beto_rfMapper_basic(4)</t>
+  </si>
+  <si>
+    <t>200214_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200219_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200220_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200220_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200220_Beto_generate_integrated</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1328,6 +1439,39 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-03-Beto-03\2020-03-03-13-36-50</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-06-Beto-01\2020-03-06-12-11-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-09-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Beto-01\2020-03-09-14-58-23</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Beto-02\2020-03-09-15-44-10</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-10-Beto-01\2020-02-10-14-18-32</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-10-Beto-02\2020-02-10-14-43-14</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-07-Beto-02\2020-02-07-10-23-49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-02-14-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-14-Beto-01\2020-02-14-14-23-26</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-19-Beto-01\2020-02-19-14-23-48</t>
+  </si>
+  <si>
+    <t>Stimuli\2019-12-Evolutions\2020-02-20-Beto-01\2020-02-20-10-29-18</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -1937,6 +2081,158 @@
 Completed</t>
   </si>
   <si>
+    <t>Start 1147 rf map.
+Maybe try su vs hash in 24
+4 blocks complete at 1159</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 12:11
+24 [-0.5, 1.5] 3 1 CMAES
+24 [-0.5, 1.5] 3 2 CMAES
+Reward at 60
+Block 7, 1 is starting to climb!!
+Block 29, still climbing
+Stop at 1:16</t>
+  </si>
+  <si>
+    <t>001 RF mapping 14:29 started
+Takes a while to get Beto started.
+-1.5:0.5:1.5 0.75deg
+Completed</t>
+  </si>
+  <si>
+    <t>002 RF mapping starts 14:38
+-8:2:8 2deg
+works great!
+Completed</t>
+  </si>
+  <si>
+    <t>004 Generate Integrated
+5 [-0.5 1 ] 1 CMAES
+5 [-0.5 1 ] 1 ZOHA_Sphere_lr
+ZOHA is fast at first, but later it became slower and wandering around get passed by CMAES at around ~20 gens. (Seems the learning rate decay is too fast? Or not fast enough?)
+mu is 36.67 deg, exponentially converge to 7.33 deg at 50 generation
+Finish with 40mins, 40gens!
+Completed</t>
+  </si>
+  <si>
+    <t>005 Generate Integrated
+5 [-0.5 1 ] 1 CMAES
+5 [-0.5 1 ] 1 ZOHA_Sphere_lr
+Tune the Optimizer! Tune the exploration range, to make it more variable the intial mu is 50 deg, exponentially converge to 7.33 deg at 50 generation
+ZOHA and CMAES stay very close to each other!
+Make it to 30 gens
+Completed
+Completed</t>
+  </si>
+  <si>
+    <t>001 RFMapping  13:35 starts
+The Eye calibration takes a lot of time
+Monkey seems not in its mood in the Alfa's rig.
+Eye signal very bouncy/noisy</t>
+  </si>
+  <si>
+    <t>002
+2nd rf mapping with smaller image
+Seems like a 2 peaks under equator, may be 2 different RF from 2 different unit?
+Or is it edge effect, that it's the edge instead of the image center that excites the neuron?</t>
+  </si>
+  <si>
+    <t>005
+2:18 start, carlos moved eye scan, changed setting in both MonkLogic and iscan computer… looks so much better.
+Channel 39 SU, has 2 SU and 1 hash. Doing hash vs SU trial
+39 [0,  -0.5]  3 1 CMAES
+39 [0,  -0.5]  3 2 CMAES
+02:35:00</t>
+  </si>
+  <si>
+    <t>004 at 243 PM better isolation
+(6)?
+now it says alfa….
+Evolved images climbing, made it to block 20.
+Upped to 200 mL,
+Stopped at 3:19, plateaued. We were not using gabor stimuli
+complete</t>
+  </si>
+  <si>
+    <t>Selectivity basic, start at 3:22.
+Channel 39 [0, -0.5] 3 with gabors
+ended</t>
+  </si>
+  <si>
+    <t>004 at 1023
+SU VS HASH
+39 (0,-0.5) 3 1 CMAES, SU 1/5
+39 (0,-0.5) 3 2 CMAES
+MATLAB CRASHED!!!!!
+File seems intact, though</t>
+  </si>
+  <si>
+    <t>001 RFMapper starts 13:53
+Monkey is just not working ….. Sleep for a while
+-8:2:8 2 deg image!
+Coarse level mapping
+RFMapper Basic (3)
+Completed</t>
+  </si>
+  <si>
+    <t>002 RFMapping
+Monkey
+-1.5:0.5:1.5 1deg image
+It works well!!
+Also a 2 peak 2 spot Receptive field, This time there is a major one and a minor one.
+Finish 4 blocks in 5 mins!
+RFMapper Basic (4)
+Completed</t>
+  </si>
+  <si>
+    <t>003 generate_integrated 48 mins
+39 [0, -0.2] 3 1 CMAES
+39 [0, -0.2] 3 2 CMAES
+Start at 2:23
+This will be the only experiment for the day, so giving him lots of water
+Seems The reference images are not copied correctly but seems fine!(forget to use Gabor stimuli)
+Nice Evolution.
+Finished 15:13 Completed</t>
+  </si>
+  <si>
+    <t>004 generate_integrated starts 14:23 (go for 90 mins)
+ITI 390-500ms it's normal!
+25 [0 0 ] 3 1 CMAES
+25 [0 0 ] 3 2 CMAES
+seems the Hash is not very evolvable.???
+PSTH have visually responsive component but not very large?
+25 A evolves as normal, and 25 B is not very responsive….? But starts to evolve at 13
+Hash evolution is just not very successful .
+Complete</t>
+  </si>
+  <si>
+    <t>Hp at 930
+001 at 950 AM
+GOTTA FIX THAT WAITING FOR DATA ACQUISITION TO START TIMEOUT
+nice SU in 41
+still getting header words do not match error sometimes.
+he's not that engaged. 21 correct trials in 7 minutes. Yikes.
+850 ITI. Gotta fix that.
+15 minutes in, 65 trials. Oof.
+that 41 is not super responsive</t>
+  </si>
+  <si>
+    <t>002 at 1012 AM
+rf mapping, finer grid</t>
+  </si>
+  <si>
+    <t>003 at 1030 AM
+integrated, SU vs hash
+41, (0,-0.5) 3 1 'CMAES'
+41 (0,-0.5) 3 2 'CMAES'
+Block 23, still climbing, added 30 aq reward with 100 ms
+Stopped at 11:26, 28 blocks complete</t>
+  </si>
+  <si>
+    <t>SUHash</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -1947,6 +2243,9 @@
   </si>
   <si>
     <t>RedDim_Evol</t>
+  </si>
+  <si>
+    <t>200210_Beto_generate_integrated(2)</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2304,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2348,15 +2650,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2390,16 +2695,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2416,16 +2721,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="E3" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2442,16 +2747,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2468,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="E5" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2494,16 +2799,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="E6" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2520,16 +2825,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2546,16 +2851,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="E8" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2572,16 +2877,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2598,16 +2903,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="E10" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2624,16 +2929,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="E11" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2650,16 +2955,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2676,16 +2981,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -2702,16 +3007,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="D14" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="E14" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -2728,16 +3033,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="E15" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -2754,16 +3059,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="E16" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -2780,16 +3085,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -2806,16 +3111,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="E18" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -2832,16 +3137,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="E19" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -2858,16 +3163,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="E20" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2884,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="E21" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2910,16 +3215,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -2936,16 +3241,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -2962,16 +3267,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="E24" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -2988,16 +3293,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="D25" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="E25" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -3014,16 +3319,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="D26" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="E26" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -3040,16 +3345,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="E27" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -3066,16 +3371,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="D28" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -3092,16 +3397,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="D29" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="E29" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -3118,16 +3423,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="E30" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3144,16 +3449,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="E31" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -3170,16 +3475,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="E32" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -3196,16 +3501,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="D33" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="E33" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3222,16 +3527,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="D34" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="E34" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -3248,16 +3553,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="D35" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="E35" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -3274,16 +3579,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="E36" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -3300,16 +3605,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="D37" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="E37" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -3326,16 +3631,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="E38" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -3352,16 +3657,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="D39" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="E39" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -3378,16 +3683,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="E40" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -3404,16 +3709,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="E41" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -3430,16 +3735,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="E42" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -3456,16 +3761,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="D43" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="E43" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3482,16 +3787,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="D44" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="E44" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -3508,16 +3813,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="D45" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="E45" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -3534,16 +3839,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="D46" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="E46" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -3560,16 +3865,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="D47" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="E47" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -3586,16 +3891,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="D48" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="E48" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -3612,16 +3917,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="D49" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="E49" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -3638,16 +3943,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="D50" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="E50" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -3664,16 +3969,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="D51" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="E51" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -3690,16 +3995,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="D52" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="E52" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -3716,13 +4021,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D53" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -3739,16 +4044,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="D54" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="E54" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -3765,16 +4070,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="D55" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="E55" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -3791,16 +4096,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C56" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="D56" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="E56" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -3817,16 +4122,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="D57" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="E57" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -3843,16 +4148,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="E58" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -3869,16 +4174,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="D59" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="E59" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -3895,16 +4200,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="D60" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="E60" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -3921,16 +4226,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="D61" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="E61" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -3947,16 +4252,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="E62" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -3973,16 +4278,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C63" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="D63" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="E63" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -3999,16 +4304,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C64" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="E64" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -4025,16 +4330,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C65" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="D65" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="E65" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -4051,16 +4356,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="E66" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -4077,16 +4382,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D67" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="E67" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4103,16 +4408,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C68" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="E68" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -4129,16 +4434,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="E69" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4155,16 +4460,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="E70" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -4181,16 +4486,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="D71" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="E71" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -4207,16 +4512,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C72" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="E72" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -4233,16 +4538,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="E73" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -4259,16 +4564,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C74" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="D74" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="E74" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -4285,16 +4590,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="D75" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="E75" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -4311,16 +4616,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="E76" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -4337,16 +4642,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="D77" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="E77" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -4363,16 +4668,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="E78" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -4389,16 +4694,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="E79" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -4415,16 +4720,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s">
-        <v>378</v>
-      </c>
-      <c r="D80" t="s">
-        <v>514</v>
+        <v>415</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="E80" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -4441,13 +4746,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C81" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="D81" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -4464,13 +4769,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -4487,13 +4792,13 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="D83" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="E83" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -4510,16 +4815,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="D84" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="E84" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -4536,16 +4841,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C85" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="D85" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
       <c r="E85" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -4562,16 +4867,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="E86" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -4588,16 +4893,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C87" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="D87" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="E87" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -4614,16 +4919,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="E88" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -4640,16 +4945,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="D89" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="E89" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -4666,16 +4971,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="D90" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="E90" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -4692,16 +4997,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C91" t="s">
-        <v>387</v>
-      </c>
-      <c r="D91" t="s">
-        <v>525</v>
+        <v>424</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="E91" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -4718,16 +5023,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C92" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="E92" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -4744,16 +5049,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>389</v>
-      </c>
-      <c r="D93" t="s">
-        <v>527</v>
+        <v>426</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="E93" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -4770,16 +5075,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="D94" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="E94" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -4796,16 +5101,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
-      </c>
-      <c r="D95" t="s">
-        <v>529</v>
+        <v>428</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="E95" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -4822,16 +5127,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>392</v>
-      </c>
-      <c r="D96" t="s">
-        <v>530</v>
+        <v>429</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="E96" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -4848,16 +5153,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C97" t="s">
-        <v>393</v>
-      </c>
-      <c r="D97" t="s">
-        <v>531</v>
+        <v>430</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="E97" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -4874,16 +5179,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>394</v>
-      </c>
-      <c r="D98" t="s">
-        <v>532</v>
+        <v>431</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="E98" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -4900,16 +5205,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C99" t="s">
-        <v>395</v>
-      </c>
-      <c r="D99" t="s">
-        <v>533</v>
+        <v>432</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="E99" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -4926,16 +5231,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
-        <v>396</v>
-      </c>
-      <c r="D100" t="s">
-        <v>534</v>
+        <v>433</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="E100" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -4952,16 +5257,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="D101" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="E101" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -4972,16 +5277,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C102" t="s">
-        <v>398</v>
-      </c>
-      <c r="D102" t="s">
-        <v>536</v>
+        <v>435</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="E102" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -4998,16 +5303,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D103" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="E103" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -5024,16 +5329,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C104" t="s">
-        <v>400</v>
-      </c>
-      <c r="D104" t="s">
-        <v>538</v>
+        <v>437</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="E104" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -5050,16 +5355,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C105" t="s">
-        <v>401</v>
-      </c>
-      <c r="D105" t="s">
-        <v>539</v>
+        <v>438</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="E105" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -5076,16 +5381,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C106" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D106" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="E106" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -5102,16 +5407,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C107" t="s">
-        <v>402</v>
-      </c>
-      <c r="D107" t="s">
-        <v>541</v>
+        <v>439</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="E107" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -5128,16 +5433,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C108" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="D108" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="E108" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -5148,16 +5453,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="E109" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -5168,16 +5473,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C110" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="D110" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="E110" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -5194,16 +5499,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s">
-        <v>405</v>
-      </c>
-      <c r="D111" t="s">
-        <v>545</v>
+        <v>442</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="E111" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -5220,16 +5525,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C112" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="D112" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="E112" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -5246,16 +5551,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C113" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="D113" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="E113" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -5272,16 +5577,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="D114" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="E114" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -5298,16 +5603,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="D115" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="E115" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -5324,16 +5629,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C116" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="D116" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="E116" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -5344,16 +5649,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C117" t="s">
-        <v>410</v>
-      </c>
-      <c r="D117" t="s">
-        <v>551</v>
+        <v>447</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="E117" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5370,16 +5675,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C118" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="D118" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="E118" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -5390,16 +5695,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C119" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="D119" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
       <c r="E119" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -5416,16 +5721,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C120" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D120" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="E120" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -5442,16 +5747,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="C121" t="s">
-        <v>414</v>
-      </c>
-      <c r="D121" t="s">
-        <v>555</v>
+        <v>451</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="E121" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -5462,16 +5767,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C122" t="s">
-        <v>415</v>
-      </c>
-      <c r="D122" t="s">
-        <v>556</v>
+        <v>452</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="E122" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -5488,13 +5793,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="D123" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -5508,16 +5813,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>414</v>
-      </c>
-      <c r="D124" t="s">
-        <v>558</v>
+        <v>451</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="E124" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -5528,16 +5833,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C125" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="D125" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="E125" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5548,16 +5853,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C126" t="s">
-        <v>417</v>
-      </c>
-      <c r="D126" t="s">
-        <v>560</v>
+        <v>454</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="E126" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -5574,16 +5879,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C127" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="D127" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="E127" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5591,13 +5896,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>419</v>
-      </c>
-      <c r="D128" t="s">
-        <v>562</v>
+        <v>456</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -5611,16 +5916,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C129" t="s">
-        <v>420</v>
-      </c>
-      <c r="D129" t="s">
-        <v>563</v>
+        <v>457</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="E129" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -5637,13 +5942,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C130" t="s">
-        <v>421</v>
-      </c>
-      <c r="D130" t="s">
-        <v>564</v>
+        <v>458</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -5654,13 +5959,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C131" t="s">
-        <v>421</v>
-      </c>
-      <c r="D131" t="s">
-        <v>565</v>
+        <v>458</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5671,13 +5976,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C132" t="s">
-        <v>422</v>
-      </c>
-      <c r="D132" t="s">
-        <v>566</v>
+        <v>459</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E132" t="s">
+        <v>650</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -5694,16 +6002,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C133" t="s">
-        <v>423</v>
-      </c>
-      <c r="D133" t="s">
-        <v>567</v>
+        <v>460</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="E133" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -5720,16 +6028,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C134" t="s">
-        <v>424</v>
-      </c>
-      <c r="D134" t="s">
-        <v>568</v>
+        <v>461</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>616</v>
       </c>
       <c r="E134" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -5740,16 +6048,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
-      </c>
-      <c r="D135" t="s">
-        <v>569</v>
+        <v>461</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="E135" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -5760,16 +6068,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C136" t="s">
-        <v>425</v>
-      </c>
-      <c r="D136" t="s">
-        <v>570</v>
+        <v>462</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="E136" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -5786,16 +6094,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C137" t="s">
-        <v>426</v>
-      </c>
-      <c r="D137" t="s">
-        <v>571</v>
+        <v>463</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>619</v>
       </c>
       <c r="E137" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -5812,16 +6120,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C138" t="s">
-        <v>427</v>
-      </c>
-      <c r="D138" t="s">
-        <v>572</v>
+        <v>464</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="E138" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -5838,16 +6146,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C139" t="s">
-        <v>428</v>
-      </c>
-      <c r="D139" t="s">
-        <v>573</v>
+        <v>465</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="E139" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -5864,16 +6172,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C140" t="s">
-        <v>429</v>
-      </c>
-      <c r="D140" t="s">
-        <v>574</v>
+        <v>466</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="E140" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -5884,16 +6192,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C141" t="s">
-        <v>429</v>
-      </c>
-      <c r="D141" t="s">
-        <v>575</v>
+        <v>466</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="E141" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -5904,16 +6212,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C142" t="s">
-        <v>430</v>
-      </c>
-      <c r="D142" t="s">
-        <v>576</v>
+        <v>467</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>624</v>
       </c>
       <c r="E142" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -5930,16 +6238,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C143" t="s">
-        <v>431</v>
-      </c>
-      <c r="D143" t="s">
-        <v>577</v>
+        <v>468</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="E143" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -5956,16 +6264,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C144" t="s">
-        <v>432</v>
-      </c>
-      <c r="D144" t="s">
-        <v>578</v>
+        <v>469</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="E144" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -5976,16 +6284,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C145" t="s">
-        <v>432</v>
-      </c>
-      <c r="D145" t="s">
-        <v>579</v>
+        <v>469</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="E145" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -5996,16 +6304,22 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
-      </c>
-      <c r="D146" t="s">
-        <v>580</v>
+        <v>470</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E146" t="s">
-        <v>586</v>
+        <v>654</v>
+      </c>
+      <c r="F146">
+        <v>101</v>
+      </c>
+      <c r="G146">
+        <v>24</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -6016,39 +6330,398 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C147" t="s">
-        <v>434</v>
-      </c>
-      <c r="D147" t="s">
-        <v>581</v>
+        <v>471</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E147" t="s">
-        <v>586</v>
+        <v>650</v>
+      </c>
+      <c r="G147">
+        <v>24</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C148" t="s">
-        <v>435</v>
-      </c>
-      <c r="D148" t="s">
-        <v>582</v>
+        <v>472</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="E148" t="s">
-        <v>586</v>
+        <v>653</v>
+      </c>
+      <c r="F148">
+        <v>101</v>
+      </c>
+      <c r="G148">
+        <v>59</v>
       </c>
       <c r="H148">
         <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>322</v>
+      </c>
+      <c r="C149" t="s">
+        <v>474</v>
+      </c>
+      <c r="D149" t="s">
+        <v>633</v>
+      </c>
+      <c r="E149" t="s">
+        <v>653</v>
+      </c>
+      <c r="H149">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
+        <v>474</v>
+      </c>
+      <c r="D150" t="s">
+        <v>634</v>
+      </c>
+      <c r="E150" t="s">
+        <v>653</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" t="s">
+        <v>475</v>
+      </c>
+      <c r="D151" t="s">
+        <v>635</v>
+      </c>
+      <c r="E151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F151">
+        <v>102</v>
+      </c>
+      <c r="G151">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" t="s">
+        <v>325</v>
+      </c>
+      <c r="C152" t="s">
+        <v>476</v>
+      </c>
+      <c r="D152" t="s">
+        <v>636</v>
+      </c>
+      <c r="E152" t="s">
+        <v>653</v>
+      </c>
+      <c r="F152">
+        <v>103</v>
+      </c>
+      <c r="G152">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>320</v>
+      </c>
+      <c r="D153" t="s">
+        <v>631</v>
+      </c>
+      <c r="E153" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" t="s">
+        <v>473</v>
+      </c>
+      <c r="D154" t="s">
+        <v>632</v>
+      </c>
+      <c r="E154" t="s">
+        <v>650</v>
+      </c>
+      <c r="G154">
+        <v>24</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" t="s">
+        <v>637</v>
+      </c>
+      <c r="E155" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>327</v>
+      </c>
+      <c r="D156" t="s">
+        <v>638</v>
+      </c>
+      <c r="E156" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" t="s">
+        <v>655</v>
+      </c>
+      <c r="C157" t="s">
+        <v>477</v>
+      </c>
+      <c r="D157" t="s">
+        <v>639</v>
+      </c>
+      <c r="E157" t="s">
+        <v>650</v>
+      </c>
+      <c r="G157">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" t="s">
+        <v>478</v>
+      </c>
+      <c r="D158" t="s">
+        <v>640</v>
+      </c>
+      <c r="E158" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" t="s">
+        <v>329</v>
+      </c>
+      <c r="D159" t="s">
+        <v>641</v>
+      </c>
+      <c r="E159" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" t="s">
+        <v>479</v>
+      </c>
+      <c r="D160" t="s">
+        <v>642</v>
+      </c>
+      <c r="E160" t="s">
+        <v>650</v>
+      </c>
+      <c r="G160">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" t="s">
+        <v>480</v>
+      </c>
+      <c r="D161" t="s">
+        <v>643</v>
+      </c>
+      <c r="E161" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>332</v>
+      </c>
+      <c r="C162" t="s">
+        <v>480</v>
+      </c>
+      <c r="D162" t="s">
+        <v>644</v>
+      </c>
+      <c r="E162" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163" t="s">
+        <v>481</v>
+      </c>
+      <c r="D163" t="s">
+        <v>645</v>
+      </c>
+      <c r="E163" t="s">
+        <v>650</v>
+      </c>
+      <c r="G163">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" t="s">
+        <v>482</v>
+      </c>
+      <c r="D164" t="s">
+        <v>646</v>
+      </c>
+      <c r="E164" t="s">
+        <v>650</v>
+      </c>
+      <c r="G164">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" t="s">
+        <v>335</v>
+      </c>
+      <c r="D165" t="s">
+        <v>647</v>
+      </c>
+      <c r="E165" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166" t="s">
+        <v>648</v>
+      </c>
+      <c r="E166" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>337</v>
+      </c>
+      <c r="C167" t="s">
+        <v>483</v>
+      </c>
+      <c r="D167" t="s">
+        <v>649</v>
+      </c>
+      <c r="E167" t="s">
+        <v>650</v>
+      </c>
+      <c r="G167">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41571AD4-D234-4FF0-A3D4-C4FF0B4F1A69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2CA02-A834-4049-A7B6-F2C5AB76D3D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="657">
   <si>
     <t>ephysFN</t>
   </si>
@@ -2246,6 +2246,9 @@
   </si>
   <si>
     <t>200210_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>Optim_tuning</t>
   </si>
 </sst>
 </file>
@@ -2652,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,10 +6365,10 @@
         <v>630</v>
       </c>
       <c r="E148" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F148">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>59</v>
@@ -6388,7 +6391,7 @@
         <v>633</v>
       </c>
       <c r="E149" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -6408,7 +6411,7 @@
         <v>634</v>
       </c>
       <c r="E150" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -6428,10 +6431,10 @@
         <v>635</v>
       </c>
       <c r="E151" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F151">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="G151">
         <v>5</v>
@@ -6454,10 +6457,10 @@
         <v>636</v>
       </c>
       <c r="E152" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F152">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="G152">
         <v>5</v>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2CA02-A834-4049-A7B6-F2C5AB76D3D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26282F2-BF27-4FA8-9319-ACBB59FFE559}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="676">
   <si>
     <t>ephysFN</t>
   </si>
@@ -487,24 +487,24 @@
     <t>Beto-03032020-006</t>
   </si>
   <si>
+    <t>Beto-09032020-001</t>
+  </si>
+  <si>
+    <t>Beto-09032020-002</t>
+  </si>
+  <si>
+    <t>Beto-09032020-004</t>
+  </si>
+  <si>
+    <t>Beto-09032020-005</t>
+  </si>
+  <si>
     <t>Beto-06032020-001</t>
   </si>
   <si>
     <t>Beto-06032020-004</t>
   </si>
   <si>
-    <t>Beto-09032020-001</t>
-  </si>
-  <si>
-    <t>Beto-09032020-002</t>
-  </si>
-  <si>
-    <t>Beto-09032020-004</t>
-  </si>
-  <si>
-    <t>Beto-09032020-005</t>
-  </si>
-  <si>
     <t>Beto-10022020-001</t>
   </si>
   <si>
@@ -544,6 +544,21 @@
     <t>Beto-20022020-003</t>
   </si>
   <si>
+    <t>Beto-11032020-001</t>
+  </si>
+  <si>
+    <t>Beto-11032020-002</t>
+  </si>
+  <si>
+    <t>Beto-11032020-003</t>
+  </si>
+  <si>
+    <t>Beto-11032020-004</t>
+  </si>
+  <si>
+    <t>Beto-11032020-005</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -982,30 +997,33 @@
     <t>200303_Beto_generate_integrated(6)</t>
   </si>
   <si>
+    <t>200309_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200309_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200309_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200309_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
     <t>200306_Beto_rfMapper_basic</t>
   </si>
   <si>
     <t>200306_Beto_generate_integrated(3)</t>
   </si>
   <si>
-    <t>200309_Beto_rfMapper_basic</t>
-  </si>
-  <si>
-    <t>200309_Beto_rfMapper_basic(1)</t>
-  </si>
-  <si>
-    <t>200309_Beto_generate_integrated(3)</t>
-  </si>
-  <si>
-    <t>200309_Beto_generate_integrated(4)</t>
-  </si>
-  <si>
     <t>200210_Beto_rfMapper_basic</t>
   </si>
   <si>
     <t>200210_Beto_rfMapper_basic(1)</t>
   </si>
   <si>
+    <t>200210_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
     <t>200210_Beto_generate_integrated(6)</t>
   </si>
   <si>
@@ -1036,6 +1054,21 @@
     <t>200220_Beto_generate_integrated</t>
   </si>
   <si>
+    <t>200311_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200311_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200311_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200311_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200311_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1441,18 +1474,18 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-03-Beto-03\2020-03-03-13-36-50</t>
   </si>
   <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-09-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Beto-01\2020-03-09-14-58-23</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Beto-02\2020-03-09-15-44-10</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-06-Beto-01\2020-03-06-12-11-33</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-09-Beto</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Beto-01\2020-03-09-14-58-23</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-03-09-Beto-02\2020-03-09-15-44-10</t>
-  </si>
-  <si>
     <t>Stimuli\2019-12-Evolutions\2020-02-10-Beto-01\2020-02-10-14-18-32</t>
   </si>
   <si>
@@ -1472,6 +1505,18 @@
   </si>
   <si>
     <t>Stimuli\2019-12-Evolutions\2020-02-20-Beto-01\2020-02-20-10-29-18</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-11-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-11-Beto-01\2020-03-11-13-16-23</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-11-Beto-02\2020-03-11-14-18-56</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-11-Beto-03\2020-03-11-14-52-05</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -2081,20 +2126,6 @@
 Completed</t>
   </si>
   <si>
-    <t>Start 1147 rf map.
-Maybe try su vs hash in 24
-4 blocks complete at 1159</t>
-  </si>
-  <si>
-    <t>Generate integrated start at 12:11
-24 [-0.5, 1.5] 3 1 CMAES
-24 [-0.5, 1.5] 3 2 CMAES
-Reward at 60
-Block 7, 1 is starting to climb!!
-Block 29, still climbing
-Stop at 1:16</t>
-  </si>
-  <si>
     <t>001 RF mapping 14:29 started
 Takes a while to get Beto started.
 -1.5:0.5:1.5 0.75deg
@@ -2124,6 +2155,20 @@
 Make it to 30 gens
 Completed
 Completed</t>
+  </si>
+  <si>
+    <t>Start 1147 rf map.
+Maybe try su vs hash in 24
+4 blocks complete at 1159</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 12:11
+24 [-0.5, 1.5] 3 1 CMAES
+24 [-0.5, 1.5] 3 2 CMAES
+Reward at 60
+Block 7, 1 is starting to climb!!
+Block 29, still climbing
+Stop at 1:16</t>
   </si>
   <si>
     <t>001 RFMapping  13:35 starts
@@ -2230,22 +2275,84 @@
 Stopped at 11:26, 28 blocks complete</t>
   </si>
   <si>
+    <t>001 starts 12:49
+RFMapping  -8:2:8  2 deg,
+2cv
+Completed</t>
+  </si>
+  <si>
+    <t>002  starts
+6mins
+RFMapping  -1.5:.5:1.5 0.75 deg,
+Completed</t>
+  </si>
+  <si>
+    <t>003 starts  13:16
+IT channel
+30 [-0.6 1] 3 1 CMAES
+30 [-0.6 1] 3 1 ZOHA_Sphere_lr
+30 is a Really Hashy unit
+See what happens
+Decrease the convergence rate, decay from 50 to 7.33 deg at 100 generations instead of 50 generations (Slower decay facilitate exploration ~ 40 gens. )
+ZOHA_Sphere is doing really well! Outperform CMAES early on.
+At about gen 25 the 2 evolution crossed and seems CMAES starts to get more spike esp. later sustained spikes. (probablu the norm is higher )
+At gen 30 the exploration is around 28.5 deg and the mean response is higher than ZOHA
+Sigma is 2.66, 2.33
+Exploration mu is 28
+Maybe we still decay too fast?
+Or we really needs a high norm to get the neuron interested.
+At generation 36,
+Sigma = 2.36
+Spherical Exploration range = 25.9 deg 
+Spherical's step size is too small at this point, we are inferior
+Should use inverse function decay instead of exponential decay?
+Step 37
+Sigma 2.35
+Sphere degree 23.9
+ZOHA_Sphere_lr seems to be worse at after evolving for a while,
+Recorded the Matlab output! See we can reconstruct the sample diversity curve post hoc.
+Random thoughts:
+What's neuronal noise? How can that help or hinder evolution. Can we think about Hash as a weighted sum of a bunch of neurons with similar but different selectivity?
+45 gens for 58mins!
+Super Informative!
+Completed</t>
+  </si>
+  <si>
+    <t>004 starts  14:19
+30 [-0.6 1] 3 1 CMAES
+30 [-0.6 1] 3 1 ZOHA_Sphere_lr
+Exactly same as 003, but just change the decay rate of ZOHA_Sphere_lr to be linear instead of exponential, see slower decay will facilitate exploration at around 20-40 gens.
+However, neither CMA nor ZOHA evolves ~ 18 gens, not that informative.
+Actually the step size should be a function of evolving score! Not a function of generations. As many generations passed but score doesn't change much then you shouldn't tune your step size, you have to keep trying and moving.
+Completed, not very informative</t>
+  </si>
+  <si>
+    <t>005 starts 14:52
+20 [-0.6 1] 3 1 CMAES
+20 [-0.6 1] 3 1 ZOHA_Sphere_lr
+Linear decay from 50 to 7.33 in 100 generations, facilitates exploration.
+Finally try a unit with more signal. (PSTH looks super healthy! Low baseline high response.)
+(Eye signal lose again. Have to recalibrate from time to time. )
+In gen 8, gen 9 the scores of 2 optimizers goes up together. Quite correlated~ Seems promissing
+Add 100mL to finish this up.
+Around gen 12 CMA starts to look better than ZOHA, not sure why. Have to look deeper into both.
+Is that true that linear exploration is easier to memorize the evolved features than the Spherical one.
+Completed, quite informative</t>
+  </si>
+  <si>
+    <t>Manifold</t>
+  </si>
+  <si>
+    <t>Freeview</t>
+  </si>
+  <si>
+    <t>Optimizer_cmp</t>
+  </si>
+  <si>
     <t>SUHash</t>
   </si>
   <si>
-    <t>Manifold</t>
-  </si>
-  <si>
-    <t>Freeview</t>
-  </si>
-  <si>
-    <t>Optimizer_cmp</t>
-  </si>
-  <si>
     <t>RedDim_Evol</t>
-  </si>
-  <si>
-    <t>200210_Beto_generate_integrated(2)</t>
   </si>
   <si>
     <t>Optim_tuning</t>
@@ -2307,13 +2414,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2653,18 +2757,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" customWidth="1"/>
-    <col min="4" max="4" width="81.7109375" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2698,16 +2800,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2724,16 +2826,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2750,16 +2852,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="E4" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2776,16 +2878,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E5" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2802,16 +2904,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="E6" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2828,16 +2930,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="E7" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2854,16 +2956,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="E8" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2880,16 +2982,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="E9" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2906,16 +3008,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D10" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2932,16 +3034,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D11" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="E11" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2958,16 +3060,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="E12" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2984,16 +3086,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="E13" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3010,16 +3112,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="D14" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3036,16 +3138,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="E15" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3062,16 +3164,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D16" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3088,16 +3190,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D17" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="E17" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3114,16 +3216,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D18" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E18" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3140,16 +3242,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="E19" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3166,16 +3268,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="E20" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3192,16 +3294,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D21" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="E21" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3218,16 +3320,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D22" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="E22" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3244,16 +3346,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D23" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="E23" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3270,16 +3372,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D24" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="E24" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3296,16 +3398,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="D25" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="E25" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -3322,16 +3424,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D26" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="E26" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -3348,16 +3450,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D27" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="E27" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -3374,16 +3476,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D28" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="E28" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -3400,16 +3502,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D29" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="E29" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -3426,16 +3528,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="D30" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="E30" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3452,16 +3554,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="D31" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="E31" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -3478,16 +3580,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D32" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E32" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -3504,16 +3606,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D33" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="E33" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3530,16 +3632,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D34" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="E34" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -3556,16 +3658,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D35" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E35" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -3582,16 +3684,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E36" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -3608,16 +3710,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D37" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="E37" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -3634,16 +3736,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C38" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="E38" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -3660,16 +3762,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E39" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -3686,16 +3788,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D40" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="E40" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -3712,16 +3814,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D41" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="E41" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -3738,16 +3840,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D42" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="E42" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -3764,16 +3866,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D43" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="E43" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3790,16 +3892,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D44" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="E44" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -3816,16 +3918,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D45" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="E45" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -3842,16 +3944,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D46" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="E46" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -3868,16 +3970,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D47" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="E47" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -3894,16 +3996,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D48" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="E48" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -3920,16 +4022,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D49" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="E49" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -3946,16 +4048,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D50" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="E50" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -3972,16 +4074,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D51" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="E51" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -3998,16 +4100,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D52" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="E52" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4024,13 +4126,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D53" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4047,16 +4149,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C54" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D54" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="E54" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4073,16 +4175,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D55" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="E55" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4099,16 +4201,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D56" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="E56" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4125,16 +4227,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D57" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="E57" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4151,16 +4253,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="E58" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4177,16 +4279,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D59" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="E59" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4203,16 +4305,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D60" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="E60" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4229,16 +4331,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D61" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="E61" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -4255,16 +4357,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D62" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="E62" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -4281,16 +4383,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D63" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="E63" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -4307,16 +4409,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D64" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="E64" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -4333,16 +4435,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D65" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="E65" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -4359,16 +4461,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D66" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="E66" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -4385,16 +4487,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D67" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="E67" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4411,16 +4513,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D68" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="E68" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -4437,16 +4539,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D69" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="E69" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4463,16 +4565,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D70" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="E70" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -4489,16 +4591,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C71" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D71" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="E71" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -4515,16 +4617,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D72" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="E72" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -4541,16 +4643,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C73" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D73" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="E73" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -4567,16 +4669,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D74" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="E74" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -4593,16 +4695,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C75" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D75" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="E75" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -4619,16 +4721,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D76" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="E76" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -4645,16 +4747,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C77" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D77" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="E77" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -4671,16 +4773,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C78" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D78" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E78" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -4697,16 +4799,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="D79" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="E79" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -4723,16 +4825,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C80" t="s">
-        <v>415</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>562</v>
+        <v>426</v>
+      </c>
+      <c r="D80" t="s">
+        <v>577</v>
       </c>
       <c r="E80" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -4749,13 +4851,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C81" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D81" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -4772,13 +4874,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C82" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D82" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -4795,13 +4897,13 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D83" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="E83" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -4818,16 +4920,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D84" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="E84" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -4844,16 +4946,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C85" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D85" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="E85" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -4870,16 +4972,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C86" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D86" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="E86" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -4896,16 +4998,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D87" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="E87" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -4922,16 +5024,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D88" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="E88" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -4948,16 +5050,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D89" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="E89" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -4974,16 +5076,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D90" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="E90" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5000,16 +5102,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>424</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>573</v>
+        <v>435</v>
+      </c>
+      <c r="D91" t="s">
+        <v>588</v>
       </c>
       <c r="E91" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5026,16 +5128,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C92" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="D92" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="E92" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5052,16 +5154,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C93" t="s">
-        <v>426</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>575</v>
+        <v>437</v>
+      </c>
+      <c r="D93" t="s">
+        <v>590</v>
       </c>
       <c r="E93" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5078,16 +5180,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C94" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="D94" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="E94" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5104,16 +5206,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C95" t="s">
-        <v>428</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>577</v>
+        <v>439</v>
+      </c>
+      <c r="D95" t="s">
+        <v>592</v>
       </c>
       <c r="E95" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5130,16 +5232,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C96" t="s">
-        <v>429</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>578</v>
+        <v>440</v>
+      </c>
+      <c r="D96" t="s">
+        <v>593</v>
       </c>
       <c r="E96" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5156,16 +5258,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C97" t="s">
-        <v>430</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>579</v>
+        <v>441</v>
+      </c>
+      <c r="D97" t="s">
+        <v>594</v>
       </c>
       <c r="E97" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5182,16 +5284,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>431</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>580</v>
+        <v>442</v>
+      </c>
+      <c r="D98" t="s">
+        <v>595</v>
       </c>
       <c r="E98" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5208,16 +5310,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C99" t="s">
-        <v>432</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>581</v>
+        <v>443</v>
+      </c>
+      <c r="D99" t="s">
+        <v>596</v>
       </c>
       <c r="E99" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -5234,16 +5336,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
-        <v>433</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>582</v>
+        <v>444</v>
+      </c>
+      <c r="D100" t="s">
+        <v>597</v>
       </c>
       <c r="E100" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -5260,16 +5362,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C101" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D101" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="E101" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -5280,16 +5382,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C102" t="s">
-        <v>435</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>584</v>
+        <v>446</v>
+      </c>
+      <c r="D102" t="s">
+        <v>599</v>
       </c>
       <c r="E102" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -5306,16 +5408,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C103" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D103" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="E103" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -5332,16 +5434,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C104" t="s">
-        <v>437</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>586</v>
+        <v>448</v>
+      </c>
+      <c r="D104" t="s">
+        <v>601</v>
       </c>
       <c r="E104" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -5358,16 +5460,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s">
-        <v>438</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>587</v>
+        <v>449</v>
+      </c>
+      <c r="D105" t="s">
+        <v>602</v>
       </c>
       <c r="E105" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -5384,16 +5486,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C106" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D106" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="E106" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -5410,16 +5512,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
-        <v>439</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>589</v>
+        <v>450</v>
+      </c>
+      <c r="D107" t="s">
+        <v>604</v>
       </c>
       <c r="E107" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -5436,16 +5538,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C108" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D108" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="E108" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -5456,16 +5558,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C109" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D109" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="E109" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -5476,16 +5578,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C110" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D110" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E110" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -5502,16 +5604,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>593</v>
+        <v>453</v>
+      </c>
+      <c r="D111" t="s">
+        <v>608</v>
       </c>
       <c r="E111" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -5528,16 +5630,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C112" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D112" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="E112" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -5554,16 +5656,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C113" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D113" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="E113" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -5580,16 +5682,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C114" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D114" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="E114" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -5606,16 +5708,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C115" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D115" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="E115" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -5632,16 +5734,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C116" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D116" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="E116" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -5652,16 +5754,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C117" t="s">
-        <v>447</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>599</v>
+        <v>458</v>
+      </c>
+      <c r="D117" t="s">
+        <v>614</v>
       </c>
       <c r="E117" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5678,16 +5780,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C118" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D118" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="E118" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -5698,16 +5800,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C119" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D119" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="E119" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -5724,16 +5826,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D120" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="E120" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -5750,16 +5852,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C121" t="s">
-        <v>451</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>603</v>
+        <v>462</v>
+      </c>
+      <c r="D121" t="s">
+        <v>618</v>
       </c>
       <c r="E121" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -5770,16 +5872,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C122" t="s">
-        <v>452</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>604</v>
+        <v>463</v>
+      </c>
+      <c r="D122" t="s">
+        <v>619</v>
       </c>
       <c r="E122" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -5796,13 +5898,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C123" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D123" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -5816,16 +5918,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C124" t="s">
-        <v>451</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>606</v>
+        <v>462</v>
+      </c>
+      <c r="D124" t="s">
+        <v>621</v>
       </c>
       <c r="E124" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -5836,16 +5938,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C125" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D125" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="E125" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5856,16 +5958,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C126" t="s">
-        <v>454</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>608</v>
+        <v>465</v>
+      </c>
+      <c r="D126" t="s">
+        <v>623</v>
       </c>
       <c r="E126" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -5882,16 +5984,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D127" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="E127" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5899,13 +6001,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C128" t="s">
-        <v>456</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>610</v>
+        <v>467</v>
+      </c>
+      <c r="D128" t="s">
+        <v>625</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -5919,16 +6021,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C129" t="s">
-        <v>457</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>611</v>
+        <v>468</v>
+      </c>
+      <c r="D129" t="s">
+        <v>626</v>
       </c>
       <c r="E129" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -5945,13 +6047,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C130" t="s">
-        <v>458</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>612</v>
+        <v>469</v>
+      </c>
+      <c r="D130" t="s">
+        <v>627</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -5962,13 +6064,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C131" t="s">
-        <v>458</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>613</v>
+        <v>469</v>
+      </c>
+      <c r="D131" t="s">
+        <v>628</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5979,16 +6081,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C132" t="s">
-        <v>459</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>614</v>
+        <v>470</v>
+      </c>
+      <c r="D132" t="s">
+        <v>629</v>
       </c>
       <c r="E132" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6005,16 +6107,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C133" t="s">
-        <v>460</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>615</v>
+        <v>471</v>
+      </c>
+      <c r="D133" t="s">
+        <v>630</v>
       </c>
       <c r="E133" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6031,16 +6133,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C134" t="s">
-        <v>461</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>616</v>
+        <v>472</v>
+      </c>
+      <c r="D134" t="s">
+        <v>631</v>
       </c>
       <c r="E134" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -6051,16 +6153,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C135" t="s">
-        <v>461</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>617</v>
+        <v>472</v>
+      </c>
+      <c r="D135" t="s">
+        <v>632</v>
       </c>
       <c r="E135" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -6071,16 +6173,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C136" t="s">
-        <v>462</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>618</v>
+        <v>473</v>
+      </c>
+      <c r="D136" t="s">
+        <v>633</v>
       </c>
       <c r="E136" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6097,16 +6199,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C137" t="s">
-        <v>463</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>619</v>
+        <v>474</v>
+      </c>
+      <c r="D137" t="s">
+        <v>634</v>
       </c>
       <c r="E137" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6123,16 +6225,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C138" t="s">
-        <v>464</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>620</v>
+        <v>475</v>
+      </c>
+      <c r="D138" t="s">
+        <v>635</v>
       </c>
       <c r="E138" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6149,16 +6251,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C139" t="s">
-        <v>465</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>621</v>
+        <v>476</v>
+      </c>
+      <c r="D139" t="s">
+        <v>636</v>
       </c>
       <c r="E139" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6175,16 +6277,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C140" t="s">
-        <v>466</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>622</v>
+        <v>477</v>
+      </c>
+      <c r="D140" t="s">
+        <v>637</v>
       </c>
       <c r="E140" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -6195,16 +6297,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C141" t="s">
-        <v>466</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>623</v>
+        <v>477</v>
+      </c>
+      <c r="D141" t="s">
+        <v>638</v>
       </c>
       <c r="E141" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6215,16 +6317,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C142" t="s">
-        <v>467</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>624</v>
+        <v>478</v>
+      </c>
+      <c r="D142" t="s">
+        <v>639</v>
       </c>
       <c r="E142" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6241,16 +6343,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C143" t="s">
-        <v>468</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>625</v>
+        <v>479</v>
+      </c>
+      <c r="D143" t="s">
+        <v>640</v>
       </c>
       <c r="E143" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -6267,16 +6369,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C144" t="s">
-        <v>469</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>626</v>
+        <v>480</v>
+      </c>
+      <c r="D144" t="s">
+        <v>641</v>
       </c>
       <c r="E144" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -6287,16 +6389,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C145" t="s">
-        <v>469</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>627</v>
+        <v>480</v>
+      </c>
+      <c r="D145" t="s">
+        <v>642</v>
       </c>
       <c r="E145" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -6307,16 +6409,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C146" t="s">
-        <v>470</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>628</v>
+        <v>481</v>
+      </c>
+      <c r="D146" t="s">
+        <v>643</v>
       </c>
       <c r="E146" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -6333,16 +6435,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C147" t="s">
-        <v>471</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>629</v>
+        <v>482</v>
+      </c>
+      <c r="D147" t="s">
+        <v>644</v>
       </c>
       <c r="E147" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G147">
         <v>24</v>
@@ -6351,21 +6453,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C148" t="s">
-        <v>472</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>630</v>
+        <v>483</v>
+      </c>
+      <c r="D148" t="s">
+        <v>645</v>
       </c>
       <c r="E148" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -6379,19 +6481,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C149" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D149" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="E149" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -6399,19 +6501,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C150" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D150" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="E150" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -6419,19 +6521,19 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C151" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="E151" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6445,19 +6547,19 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C152" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D152" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="E152" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -6471,33 +6573,33 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D153" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="E153" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C154" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D154" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="E154" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G154">
         <v>24</v>
@@ -6511,13 +6613,13 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D155" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="E155" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -6525,13 +6627,13 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D156" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E156" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -6539,16 +6641,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>655</v>
+        <v>333</v>
       </c>
       <c r="C157" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D157" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="E157" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -6559,16 +6661,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C158" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D158" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="E158" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -6576,13 +6678,13 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D159" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="E159" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6590,141 +6692,253 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C160" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D160" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="E160" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G160">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C161" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D161" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="E161" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C162" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D162" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="E162" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C163" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D163" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="E163" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G163">
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C164" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D164" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="E164" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G164">
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D165" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="E165" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D166" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="E166" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C167" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D167" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="E167" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G167">
         <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>344</v>
+      </c>
+      <c r="C168" t="s">
+        <v>495</v>
+      </c>
+      <c r="D168" t="s">
+        <v>665</v>
+      </c>
+      <c r="E168" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169" t="s">
+        <v>495</v>
+      </c>
+      <c r="D169" t="s">
+        <v>666</v>
+      </c>
+      <c r="E169" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" t="s">
+        <v>496</v>
+      </c>
+      <c r="D170" t="s">
+        <v>667</v>
+      </c>
+      <c r="E170" t="s">
+        <v>675</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170">
+        <v>30</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>347</v>
+      </c>
+      <c r="C171" t="s">
+        <v>497</v>
+      </c>
+      <c r="D171" t="s">
+        <v>668</v>
+      </c>
+      <c r="E171" t="s">
+        <v>675</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171">
+        <v>30</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172" t="s">
+        <v>498</v>
+      </c>
+      <c r="D172" t="s">
+        <v>669</v>
+      </c>
+      <c r="E172" t="s">
+        <v>675</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+      <c r="G172">
+        <v>20</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26282F2-BF27-4FA8-9319-ACBB59FFE559}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3E8517-B5F4-4EE6-8B74-0B10EFB228D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3E8517-B5F4-4EE6-8B74-0B10EFB228D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="699">
   <si>
     <t>ephysFN</t>
   </si>
@@ -559,6 +553,24 @@
     <t>Beto-11032020-005</t>
   </si>
   <si>
+    <t>Beto-17032020-001</t>
+  </si>
+  <si>
+    <t>Beto-17032020-002</t>
+  </si>
+  <si>
+    <t>Beto-17032020-004</t>
+  </si>
+  <si>
+    <t>Beto-17032020-005</t>
+  </si>
+  <si>
+    <t>Beto-17032020-006</t>
+  </si>
+  <si>
+    <t>Beto-17032020-007</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1069,6 +1081,24 @@
     <t>200311_Beto_generate_integrated(2)</t>
   </si>
   <si>
+    <t>200317_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200317_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200317_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200317_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200317_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200317_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1399,7 +1429,7 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-23-Beto-01\2020-01-23-12-36-03</t>
   </si>
   <si>
-    <t>. </t>
+    <t xml:space="preserve">. </t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-27-Beto-01\2020-01-27-11-23-03</t>
@@ -1517,6 +1547,21 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-11-Beto-03\2020-03-11-14-52-05</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-17-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Beto-01\2020-03-17-13-04-35</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Beto-02\2020-03-17-13-28-48</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Beto-03\2020-03-17-14-04-57</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Beto-04\2020-03-17-14-42-52</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -1921,13 +1966,13 @@
 Blasting him, 300 ms, going to block 50 then calling it a day</t>
   </si>
   <si>
-    <t>Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
-  </si>
-  <si>
-    <t>Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
-  </si>
-  <si>
-    <t>Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
+    <t xml:space="preserve">Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
   </si>
   <si>
     <t>001 RFMapper 11:02 AM starts 
@@ -2340,6 +2385,82 @@
 Completed, quite informative</t>
   </si>
   <si>
+    <t>001 starts 12.
+-8:2:8</t>
+  </si>
+  <si>
+    <t>002 stars
+-1.5：0.75：1.5
+003 satar
+Trash.…</t>
+  </si>
+  <si>
+    <t>004  starts
+19 [0, 2.5] 5 1  ZOHA Sphere lr euclid
+Test the ZOHA Sphere lr euclid works on Beto
+He takes off pretty slow, around 25 gens
+23.2 deg
+Maybe switch to CMAES
+Unit 19 is super Hashy, maybe no clear selectivity
+Starts oscillation around 28 gens, maybe the step size  20deg is still too large here?
+22mins evolves a rounded thing there
+45 gens
+Completed</t>
+  </si>
+  <si>
+    <t>005 starts 13:28
+19 [0, 2.5] 5 1  CMAES
+Test the old fashion CMAES works. (Same setting )
+Evolves a Initial response in 3 rd gens
+CMA ES is not exceptionally good as well! So goo! We are comparable
+The rounded thing it got is quite different from the last one.
+10 mins 22 blocks
+Starts recruit more plateau and sustained activity !
+45 gens to match the last one
+Seems still CMAES has the power to recruit more activity
+Still works pretty well!
+45 gens, 25 mins
+Completed</t>
+  </si>
+  <si>
+    <t>6 starts
+19 [0, 2.5] 5 1  ZOHA_Sphere_Euclid_lr
+ZOHA Euclid lr
+Use the inverse law of exploration rate decay. From 70-15 in 100 gens
+Seems the PSTH evolution patten feels really like CMAES!
+9 gens, exploration ~ 48.4 deg. Step size 0.667
+So using huge step size can effectively get rid of the initialization effect.
+Starts growing at 16gens, current exploration 42.2 deg.
+20 gens 34.9 deg,
+at gen 28, it's around 30 deg, It's climbing very well just like CMAES.
+The growing trajectory looks very good.
+Seems still the eye thing in the image.
+Seems even more successful than the CMAES!
+Why no effect on the first 10 generations…… just random walk? Or is there something happening there.
+37 gens 27.6 deg
+End in 46 gens.
+This is very informative experiments
+Completed</t>
+  </si>
+  <si>
+    <t>007 starts 14:42
+19 [0, 2.5] 5 1  ZOHA_Sphere_Euclid_lr_RD
+Same inverse decaying rule as the last exp, just restricted to 50D subspace. , still can evolve, but seems cannot find the point.
+Gen 7 52.2 deg.
+# Maybe ZOHA reduced Dimension?
+Starts climbing at gen 7
+Exploration 46 deg, step size 0.42
+Slowly growing at 13 gens.
+16gens 38.5 deg
+20 gens 34.5 deg, step 0.303
+Plateaued super early around 16 gens cannot improve anymore.
+30 gens Exploration 29.2, step size 0.227.
+Oscillating around 27-32 gens, step size too large here?
+38 gens 27.3 deg
+34 mins for 38 blocks, 37 mins for 42 blocks.Gets to 46 blocks!
+Completed</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -2361,8 +2482,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2421,23 +2542,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2479,7 +2592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2511,27 +2624,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2563,24 +2658,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2756,20 +2833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="100.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2795,21 +2866,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2821,21 +2892,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="E3" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2847,21 +2918,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="E4" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2873,21 +2944,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="E5" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2899,21 +2970,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="E6" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2925,21 +2996,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="E7" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2951,21 +3022,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="E8" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2977,21 +3048,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="E9" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3003,21 +3074,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="E10" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3029,21 +3100,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="E11" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3055,21 +3126,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="E12" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3081,21 +3152,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="E13" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3107,21 +3178,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="E14" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3133,21 +3204,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="E15" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3159,21 +3230,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="E16" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3185,21 +3256,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="E17" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3211,21 +3282,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="E18" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3237,21 +3308,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="E19" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3263,21 +3334,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="E20" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3289,21 +3360,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="E21" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3315,21 +3386,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D22" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="E22" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3341,21 +3412,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D23" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="E23" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3367,21 +3438,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D24" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="E24" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3393,21 +3464,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D25" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="E25" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -3419,21 +3490,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D26" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="E26" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -3445,21 +3516,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D27" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="E27" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -3471,21 +3542,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D28" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="E28" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -3497,21 +3568,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D29" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="E29" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -3523,21 +3594,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D30" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="E30" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3549,21 +3620,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D31" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="E31" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -3575,21 +3646,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="D32" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="E32" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -3601,21 +3672,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D33" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="E33" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3627,21 +3698,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D34" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -3653,21 +3724,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C35" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D35" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="E35" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -3679,21 +3750,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="E36" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -3705,21 +3776,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D37" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="E37" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -3731,21 +3802,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D38" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="E38" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -3757,21 +3828,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D39" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="E39" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -3783,21 +3854,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D40" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="E40" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -3809,21 +3880,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="E41" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -3835,21 +3906,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D42" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="E42" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -3861,21 +3932,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D43" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="E43" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3887,21 +3958,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D44" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="E44" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -3913,21 +3984,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D45" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="E45" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -3939,21 +4010,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D46" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="E46" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -3965,21 +4036,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D47" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="E47" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -3991,21 +4062,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C48" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D48" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="E48" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -4017,21 +4088,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D49" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="E49" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -4043,21 +4114,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D50" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="E50" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4069,21 +4140,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D51" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="E51" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4095,21 +4166,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D52" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="E52" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4121,18 +4192,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D53" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4144,21 +4215,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D54" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="E54" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4170,21 +4241,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="D55" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="E55" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4196,21 +4267,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C56" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D56" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="E56" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4222,21 +4293,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D57" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="E57" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4248,21 +4319,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C58" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D58" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="E58" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4274,21 +4345,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="D59" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="E59" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4300,21 +4371,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D60" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="E60" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4326,21 +4397,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D61" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="E61" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -4352,21 +4423,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D62" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="E62" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -4378,21 +4449,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="D63" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="E63" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -4404,21 +4475,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D64" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="E64" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -4430,21 +4501,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D65" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="E65" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -4456,21 +4527,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D66" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="E66" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -4482,21 +4553,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D67" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="E67" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4508,21 +4579,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D68" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="E68" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -4534,21 +4605,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D69" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="E69" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4560,21 +4631,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D70" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="E70" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -4586,21 +4657,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D71" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="E71" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -4612,21 +4683,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D72" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="E72" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -4638,21 +4709,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D73" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="E73" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -4664,21 +4735,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C74" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D74" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="E74" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -4690,21 +4761,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C75" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D75" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="E75" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -4716,21 +4787,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D76" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="E76" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -4742,21 +4813,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D77" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="E77" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -4768,21 +4839,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D78" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="E78" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -4794,21 +4865,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D79" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="E79" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -4820,21 +4891,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D80" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="E80" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -4846,18 +4917,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C81" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D81" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -4869,18 +4940,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D82" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -4892,18 +4963,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D83" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="E83" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -4915,21 +4986,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D84" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="E84" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -4941,21 +5012,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D85" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="E85" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -4967,21 +5038,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C86" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D86" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="E86" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -4993,21 +5064,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D87" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="E87" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -5019,21 +5090,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D88" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="E88" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -5045,21 +5116,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D89" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E89" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -5071,21 +5142,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D90" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="E90" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5097,21 +5168,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="D91" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="E91" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5123,21 +5194,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D92" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="E92" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5149,21 +5220,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="D93" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="E93" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5175,21 +5246,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D94" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="E94" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5201,21 +5272,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D95" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="E95" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5227,21 +5298,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D96" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="E96" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5253,21 +5324,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C97" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D97" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="E97" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5279,21 +5350,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D98" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="E98" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5305,21 +5376,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C99" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D99" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="E99" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -5331,21 +5402,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C100" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D100" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="E100" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -5357,41 +5428,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C101" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="D101" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="E101" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="F101">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D102" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="E102" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -5403,21 +5474,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C103" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="D103" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="E103" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -5429,21 +5500,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C104" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D104" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="E104" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -5455,21 +5526,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C105" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D105" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="E105" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -5481,21 +5552,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C106" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="D106" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E106" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -5507,21 +5578,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C107" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D107" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="E107" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -5533,61 +5604,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C108" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D108" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="E108" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="F108">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D109" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="E109" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="F109">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D110" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="E110" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -5599,21 +5670,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D111" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="E111" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -5625,21 +5696,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D112" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="E112" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -5651,21 +5722,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D113" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="E113" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -5677,21 +5748,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C114" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D114" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="E114" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -5703,21 +5774,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D115" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="E115" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -5729,41 +5800,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C116" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D116" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="E116" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C117" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D117" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="E117" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5775,41 +5846,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="E118" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C119" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D119" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="E119" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -5821,21 +5892,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="D120" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="E120" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -5847,41 +5918,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C121" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D121" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="E121" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C122" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D122" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="E122" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -5893,18 +5964,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C123" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D123" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -5913,61 +5984,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D124" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="E124" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D125" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="E125" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D126" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="E126" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -5979,35 +6050,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C127" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D127" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="E127" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="D128" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -6016,21 +6087,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D129" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="E129" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -6042,55 +6113,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D130" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D131" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C132" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D132" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="E132" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6102,21 +6173,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C133" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D133" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="E133" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6128,61 +6199,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C134" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D134" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="E134" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="H134">
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D135" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="E135" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C136" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D136" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="E136" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6194,21 +6265,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C137" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D137" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="E137" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6220,21 +6291,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C138" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D138" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="E138" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6246,21 +6317,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C139" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D139" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="E139" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6272,61 +6343,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C140" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D140" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="E140" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="H140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C141" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D141" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="E141" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C142" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D142" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="E142" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6338,21 +6409,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C143" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D143" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="E143" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -6364,61 +6435,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C144" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D144" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="E144" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="H144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C145" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D145" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="E145" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C146" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D146" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="E146" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -6430,21 +6501,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D147" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="E147" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="G147">
         <v>24</v>
@@ -6453,21 +6524,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="D148" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="E148" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -6479,61 +6550,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C149" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D149" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="E149" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="H149">
         <v>0.75</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C150" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D150" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="E150" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D151" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="E151" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6545,21 +6616,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D152" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="E152" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -6571,35 +6642,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D153" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="E153" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C154" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D154" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="E154" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="G154">
         <v>24</v>
@@ -6608,276 +6679,276 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D155" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="E155" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D156" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E156" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C157" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D157" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="E157" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="G157">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C158" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D158" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="E158" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D159" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="E159" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C160" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D160" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="E160" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="G160">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C161" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D161" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="E161" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C162" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D162" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="E162" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C163" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D163" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="E163" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="G163">
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C164" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D164" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="E164" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="G164">
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D165" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="E165" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D166" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="E166" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C167" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D167" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="E167" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="G167">
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C168" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D168" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="E168" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C169" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D169" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="E169" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C170" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D170" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="E170" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -6889,21 +6960,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C171" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D171" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="E171" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -6915,21 +6986,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C172" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D172" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="E172" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -6939,6 +7010,108 @@
       </c>
       <c r="H172">
         <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" t="s">
+        <v>511</v>
+      </c>
+      <c r="D173" t="s">
+        <v>687</v>
+      </c>
+      <c r="E173" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" t="s">
+        <v>511</v>
+      </c>
+      <c r="D174" t="s">
+        <v>688</v>
+      </c>
+      <c r="E174" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" t="s">
+        <v>512</v>
+      </c>
+      <c r="D175" t="s">
+        <v>689</v>
+      </c>
+      <c r="E175" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" t="s">
+        <v>513</v>
+      </c>
+      <c r="D176" t="s">
+        <v>690</v>
+      </c>
+      <c r="E176" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" t="s">
+        <v>359</v>
+      </c>
+      <c r="C177" t="s">
+        <v>514</v>
+      </c>
+      <c r="D177" t="s">
+        <v>691</v>
+      </c>
+      <c r="E177" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" t="s">
+        <v>515</v>
+      </c>
+      <c r="D178" t="s">
+        <v>692</v>
+      </c>
+      <c r="E178" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="730">
   <si>
     <t>ephysFN</t>
   </si>
@@ -571,6 +571,30 @@
     <t>Beto-17032020-007</t>
   </si>
   <si>
+    <t>Beto-18032020-001</t>
+  </si>
+  <si>
+    <t>Beto-18032020-002</t>
+  </si>
+  <si>
+    <t>Beto-18032020-003</t>
+  </si>
+  <si>
+    <t>Beto-18032020-004</t>
+  </si>
+  <si>
+    <t>Beto-18032020-005</t>
+  </si>
+  <si>
+    <t>Beto-18032020-006</t>
+  </si>
+  <si>
+    <t>Beto-18032020-007</t>
+  </si>
+  <si>
+    <t>Beto-18032020-008</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1099,6 +1123,30 @@
     <t>200317_Beto_generate_integrated(4)</t>
   </si>
   <si>
+    <t>200318_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200318_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200318_Beto_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200318_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200318_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200318_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200318_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200318_Beto_generate_integrated(5)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1562,6 +1610,24 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-17-Beto-04\2020-03-17-14-42-52</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-18-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Beto-01\2020-03-18-12-07-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Beto-02\2020-03-18-12-21-38</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Beto-03\2020-03-18-12-51-20</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Beto-04\2020-03-18-13-30-57</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Beto-05\2020-03-18-14-10-20</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -2461,6 +2527,84 @@
 Completed</t>
   </si>
   <si>
+    <t>001 RFMapping 11:
+-8:8:8 
+Carlos' huge image test
+Completed</t>
+  </si>
+  <si>
+    <t>002 RFMapping starts 11:35
+-8:2:8
+Completed</t>
+  </si>
+  <si>
+    <t>003 RFMapping starts 11:49
+-4:1:4
+8 mins similar RF position
+Completed</t>
+  </si>
+  <si>
+    <t>004 Generate Integrated
+24 [-1.5 1.5 ] 4 1 CMAES
+Trying out basic optimizer, see if it can evolve!
+Seems work, Evolving very fast.
+Seems plateau really fast as well around 10 gens. Only 6 mins! Wow. Maybe 20 blocks
+Why Stuck so early? Gets some local maxima? 
+Completed</t>
+  </si>
+  <si>
+    <t>005 Generate Integrated
+24 [-1.5 1.5 ] 4 1 ZOHA_Sphere_lr_euclid
+24 [-1.5 1.5 ] 4 1 ZOHA_Sphere_lr_euclid_RD
+Test the reduced Dimension Comparison.
+Use the inverse decay exploration range. lr=1.5
+Inverse decay's initial learning rate is too large, should make it smaller. And learning rate * exploration exceeds pi/2 it's insane.
+(Gen 5 explor is 58.3 deg, step is 0.88 or 0.64)
+Gen 12 42 degs, step 0.474, 0.314, this is good.
+Gap exist! But quite small. (only 14 mins now! )
+Plateau around 15 gens
+Completed</t>
+  </si>
+  <si>
+    <t>006 Generate Integrated
+24 [-1.5 1.5 ] 4 1 ZOHA_Sphere_lr_euclid
+24 [-1.5 1.5 ] 4 1 ZOHA_Sphere_lr_euclid_RD
+Redo the reduced Dimension Comparison.
+Use the inverse decay exploration range. Lr=1.2 Decrease this to avoid overshoot. And this makes Sphere lr euclid grow just as fast as CMAES! No delay!
+gen 11, 45 deg 0.321.
+Interestingly, the reduced starts to grow at around gen 12. Making gap smaller.
+Finished in 30 mins
+Completed</t>
+  </si>
+  <si>
+    <t>007 Generate Integrated starts 13:30
+64 [-1.5 -2.5 ] 5 1 ZOHA_Sphere_lr_euclid
+64 [-1.5 -2.5 ] 5 1 ZOHA_Sphere_lr_euclid_RD
+Test the Reduced Dimension for V4 channel on Beto.
+ZOHA full saturates pretty fast!
+Seems there is still a gap and it's not small……
+Wow, gap gets closed…… as expected.
+Really the same as expected! It closes the gap finally.
+takes 35 min to get to 25 blocks! Good job.
+Completed</t>
+  </si>
+  <si>
+    <t>008 Generate Integrated starts 14:10
+64 [-1.5 -2.5 ] 5 1 ZOHA_Sphere_lr_euclid_RD
+64 [-1.5 -2.5 ] 5 1 ZOHA_Sphere_lr_euclid_RD
+Test the Reduced Dimension for V4 channel on Beto.
+See how large is the trial variability.
+The first one saturates pretty fast as well.
+the first one gets even higher than full, seemingly! OMG.
+At gen 10 the step size is around 0.376!
+Oh get back to normal… seems higher than Full evolution is just fluctuation.
+Gen 13 exploration aaround 41.8.
+Around 18 gens the 1st evolution grows again! Find something new to add to the image.
+Gets to ~ 30 gens……
+Add 100mL water to him!
+Completed</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -2477,6 +2621,9 @@
   </si>
   <si>
     <t>Optim_tuning</t>
+  </si>
+  <si>
+    <t>ReducDimen_Evol</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +2981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2871,16 +3018,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2897,16 +3044,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="E3" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2923,16 +3070,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E4" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2949,16 +3096,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="E5" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2975,16 +3122,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="E6" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3001,16 +3148,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="E7" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3027,16 +3174,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="E8" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -3053,16 +3200,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="E9" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3079,16 +3226,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="E10" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3105,16 +3252,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="E11" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3131,16 +3278,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="E12" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3157,16 +3304,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="E13" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3183,16 +3330,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="E14" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3209,16 +3356,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="E15" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3235,16 +3382,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D16" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="E16" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3261,16 +3408,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="E17" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3287,16 +3434,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="E18" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3313,16 +3460,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="E19" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3339,16 +3486,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="E20" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3365,16 +3512,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="E21" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3391,16 +3538,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="E22" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3417,16 +3564,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="E23" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3443,16 +3590,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="E24" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3469,16 +3616,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="E25" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -3495,16 +3642,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D26" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="E26" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -3521,16 +3668,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="E27" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -3547,16 +3694,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="E28" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -3573,16 +3720,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="E29" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -3599,16 +3746,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="E30" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3625,16 +3772,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="D31" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="E31" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -3651,16 +3798,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="E32" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -3677,16 +3824,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D33" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="E33" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3703,16 +3850,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D34" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="E34" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -3729,16 +3876,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="E35" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -3755,16 +3902,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="E36" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -3781,16 +3928,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="E37" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -3807,16 +3954,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="E38" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -3833,16 +3980,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="E39" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -3859,16 +4006,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="E40" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -3885,16 +4032,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="E41" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -3911,16 +4058,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D42" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="E42" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -3937,16 +4084,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="E43" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3963,16 +4110,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="E44" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -3989,16 +4136,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="E45" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -4015,16 +4162,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C46" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="E46" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -4041,16 +4188,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="E47" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -4067,16 +4214,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D48" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="E48" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -4093,16 +4240,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="D49" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="E49" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -4119,16 +4266,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D50" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="E50" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4145,16 +4292,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D51" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="E51" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4171,16 +4318,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="D52" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="E52" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4197,13 +4344,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="D53" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4220,16 +4367,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D54" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="E54" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4246,16 +4393,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D55" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="E55" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4272,16 +4419,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="D56" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="E56" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4298,16 +4445,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D57" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="E57" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4324,16 +4471,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="D58" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="E58" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4350,16 +4497,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D59" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="E59" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4376,16 +4523,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D60" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="E60" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4402,16 +4549,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="D61" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="E61" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -4428,16 +4575,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="D62" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="E62" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -4454,16 +4601,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="D63" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="E63" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -4480,16 +4627,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D64" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="E64" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -4506,16 +4653,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="D65" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="E65" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -4532,16 +4679,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C66" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="D66" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="E66" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -4558,16 +4705,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D67" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="E67" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4584,16 +4731,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="D68" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="E68" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -4610,16 +4757,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="D69" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="E69" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4636,16 +4783,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="D70" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="E70" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -4662,16 +4809,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="D71" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="E71" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -4688,16 +4835,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D72" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="E72" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -4714,16 +4861,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="D73" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="E73" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -4740,16 +4887,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="D74" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="E74" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -4766,16 +4913,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="D75" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="E75" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -4792,16 +4939,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D76" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="E76" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -4818,16 +4965,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C77" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="D77" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="E77" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -4844,16 +4991,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C78" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="D78" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="E78" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -4870,16 +5017,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C79" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="D79" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="E79" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -4896,16 +5043,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C80" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="D80" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="E80" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -4922,13 +5069,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="D81" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -4945,13 +5092,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="D82" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -4968,13 +5115,13 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="D83" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="E83" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -4991,16 +5138,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C84" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="D84" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="E84" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -5017,16 +5164,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C85" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="D85" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="E85" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -5043,16 +5190,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D86" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="E86" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -5069,16 +5216,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C87" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="D87" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="E87" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -5095,16 +5242,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C88" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="D88" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="E88" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -5121,16 +5268,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="E89" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -5147,16 +5294,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C90" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D90" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="E90" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5173,16 +5320,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C91" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D91" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="E91" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5199,16 +5346,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C92" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="D92" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="E92" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5225,16 +5372,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D93" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="E93" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5251,16 +5398,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D94" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="E94" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5277,16 +5424,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="D95" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="E95" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5303,16 +5450,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C96" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="D96" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="E96" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5329,16 +5476,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D97" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="E97" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5355,16 +5502,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="D98" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E98" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5381,16 +5528,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D99" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="E99" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -5407,16 +5554,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D100" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="E100" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -5433,16 +5580,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D101" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="E101" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -5453,16 +5600,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="D102" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="E102" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -5479,16 +5626,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D103" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="E103" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -5505,16 +5652,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D104" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="E104" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -5531,16 +5678,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D105" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="E105" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -5557,16 +5704,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D106" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="E106" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -5583,16 +5730,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C107" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D107" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="E107" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -5609,16 +5756,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D108" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="E108" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -5629,16 +5776,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D109" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="E109" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -5649,16 +5796,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="D110" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="E110" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -5675,16 +5822,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D111" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="E111" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -5701,16 +5848,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="D112" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="E112" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -5727,16 +5874,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C113" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D113" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="E113" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -5753,16 +5900,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D114" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="E114" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -5779,16 +5926,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C115" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D115" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="E115" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -5805,16 +5952,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C116" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D116" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="E116" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -5825,16 +5972,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C117" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="D117" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="E117" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5851,16 +5998,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="D118" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="E118" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -5871,16 +6018,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C119" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D119" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="E119" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -5897,16 +6044,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D120" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="E120" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -5923,16 +6070,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D121" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="E121" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -5943,16 +6090,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="D122" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="E122" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -5969,13 +6116,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="D123" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -5989,16 +6136,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C124" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D124" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="E124" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -6009,16 +6156,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C125" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D125" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="E125" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6029,16 +6176,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C126" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="D126" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="E126" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -6055,16 +6202,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="D127" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="E127" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6072,13 +6219,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D128" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -6092,16 +6239,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C129" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="D129" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="E129" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -6118,13 +6265,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C130" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="D130" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -6135,13 +6282,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C131" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="D131" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6152,16 +6299,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="D132" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="E132" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6178,16 +6325,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C133" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="E133" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6204,16 +6351,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="D134" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="E134" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -6224,16 +6371,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="D135" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="E135" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -6244,16 +6391,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C136" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="D136" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="E136" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6270,16 +6417,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C137" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="D137" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="E137" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6296,16 +6443,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C138" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="D138" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="E138" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6322,16 +6469,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="D139" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="E139" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6348,16 +6495,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C140" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D140" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="E140" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -6368,16 +6515,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C141" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D141" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="E141" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6388,16 +6535,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C142" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="D142" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="E142" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6414,16 +6561,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="D143" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="E143" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -6440,16 +6587,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C144" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="D144" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="E144" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -6460,16 +6607,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C145" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="D145" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="E145" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -6480,16 +6627,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C146" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="D146" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="E146" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -6506,16 +6653,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C147" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D147" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="E147" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="G147">
         <v>24</v>
@@ -6529,16 +6676,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C148" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="D148" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="E148" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -6555,16 +6702,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C149" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D149" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="E149" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -6575,16 +6722,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C150" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D150" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="E150" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -6595,16 +6742,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C151" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="D151" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="E151" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6621,16 +6768,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C152" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="D152" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="E152" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -6647,13 +6794,13 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D153" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="E153" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6661,16 +6808,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C154" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="D154" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="E154" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="G154">
         <v>24</v>
@@ -6684,13 +6831,13 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D155" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="E155" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6698,13 +6845,13 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D156" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="E156" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6712,16 +6859,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C157" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="D157" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="E157" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -6732,16 +6879,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C158" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="D158" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="E158" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6749,13 +6896,13 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D159" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="E159" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6763,16 +6910,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C160" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="D160" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="E160" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="G160">
         <v>39</v>
@@ -6783,16 +6930,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C161" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="D161" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="E161" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6800,16 +6947,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C162" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="D162" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="E162" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6817,16 +6964,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C163" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="D163" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="E163" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="G163">
         <v>39</v>
@@ -6837,16 +6984,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C164" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="D164" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="E164" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="G164">
         <v>25</v>
@@ -6857,13 +7004,13 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D165" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="E165" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6871,13 +7018,13 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D166" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="E166" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6885,16 +7032,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C167" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="D167" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="E167" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="G167">
         <v>41</v>
@@ -6905,16 +7052,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C168" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D168" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="E168" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6922,16 +7069,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D169" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="E169" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6939,16 +7086,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C170" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D170" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="E170" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -6965,16 +7112,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C171" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="D171" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="E171" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -6991,16 +7138,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C172" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="D172" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="E172" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -7017,16 +7164,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C173" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D173" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="E173" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7034,16 +7181,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C174" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D174" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="E174" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7051,16 +7198,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C175" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D175" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="E175" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7068,16 +7215,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C176" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D176" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="E176" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -7085,16 +7232,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C177" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="D177" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="E177" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -7102,16 +7249,152 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="D178" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="E178" t="s">
-        <v>698</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" t="s">
+        <v>532</v>
+      </c>
+      <c r="D179" t="s">
+        <v>715</v>
+      </c>
+      <c r="E179" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" t="s">
+        <v>370</v>
+      </c>
+      <c r="C180" t="s">
+        <v>532</v>
+      </c>
+      <c r="D180" t="s">
+        <v>716</v>
+      </c>
+      <c r="E180" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" t="s">
+        <v>532</v>
+      </c>
+      <c r="D181" t="s">
+        <v>717</v>
+      </c>
+      <c r="E181" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>372</v>
+      </c>
+      <c r="C182" t="s">
+        <v>533</v>
+      </c>
+      <c r="D182" t="s">
+        <v>718</v>
+      </c>
+      <c r="E182" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" t="s">
+        <v>534</v>
+      </c>
+      <c r="D183" t="s">
+        <v>719</v>
+      </c>
+      <c r="E183" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" t="s">
+        <v>535</v>
+      </c>
+      <c r="D184" t="s">
+        <v>720</v>
+      </c>
+      <c r="E184" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" t="s">
+        <v>536</v>
+      </c>
+      <c r="D185" t="s">
+        <v>721</v>
+      </c>
+      <c r="E185" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" t="s">
+        <v>537</v>
+      </c>
+      <c r="D186" t="s">
+        <v>722</v>
+      </c>
+      <c r="E186" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="777">
   <si>
     <t>ephysFN</t>
   </si>
@@ -595,6 +595,45 @@
     <t>Beto-18032020-008</t>
   </si>
   <si>
+    <t>Beto-19032020-001</t>
+  </si>
+  <si>
+    <t>Beto-19032020-002</t>
+  </si>
+  <si>
+    <t>Beto-19032020-003</t>
+  </si>
+  <si>
+    <t>Beto-19032020-004</t>
+  </si>
+  <si>
+    <t>Beto-19032020-005</t>
+  </si>
+  <si>
+    <t>Beto-19032020-006</t>
+  </si>
+  <si>
+    <t>Beto-20032020-001</t>
+  </si>
+  <si>
+    <t>Beto-20032020-002</t>
+  </si>
+  <si>
+    <t>Beto-20032020-003</t>
+  </si>
+  <si>
+    <t>Beto-20032020-004</t>
+  </si>
+  <si>
+    <t>Beto-20032020-005</t>
+  </si>
+  <si>
+    <t>Beto-20032020-006</t>
+  </si>
+  <si>
+    <t>Beto-20032020-007</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1147,6 +1186,45 @@
     <t>200318_Beto_generate_integrated(5)</t>
   </si>
   <si>
+    <t>200319_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200319_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200319_Beto_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200319_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200319_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200319_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200320_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200320_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200320_Beto_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200320_Beto_rfMapper_basic(3)</t>
+  </si>
+  <si>
+    <t>200320_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200320_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200320_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1628,6 +1706,30 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-18-Beto-05\2020-03-18-14-10-20</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-19-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Beto-01\2020-03-19-14-06-29</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Beto-02\2020-03-19-15-07-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-19-Beto-03\2020-03-19-15-50-58</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-06-RF-mapping\2020-03-20-Beto</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Beto-01\2020-03-20-09-41-52</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Beto-02\2020-03-20-10-36-13</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Beto-03\2020-03-20-11-17-46</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -2602,6 +2704,112 @@
 Around 18 gens the 1st evolution grows again! Find something new to add to the image.
 Gets to ~ 30 gens……
 Add 100mL water to him!
+Completed</t>
+  </si>
+  <si>
+    <t>001 RFMapping 13:
+-8:8:8 
+Carlos' huge image test
+Completed</t>
+  </si>
+  <si>
+    <t>002 RFMapping starts 13:36
+-8:2:8
+Mid image, 6mins
+Completed</t>
+  </si>
+  <si>
+    <t>003 RFMapping starts 13:49
+-2:1:2
+Completed</t>
+  </si>
+  <si>
+    <t>004 Generate Integrated starts 14:06
+25 [-1 -1.5 ] 4 1 ZOHA_Sphere_lr_euclid
+25 [-1 -1.5 ] 4 1 ZOHA_Sphere_lr_euclid_RD
+A little bit single unit, Maybe we should not split this unit.
+Still use the Inverse decay + 1.2 learning rate protocol
+Response is sparse.
+Starts taking off around gen 7, very slowly.
+Not very success to take off
+Not very successful in both……Not an informative comparison?
+Gen 13, Exploration 41.8 deg seems to take off…… Not really just flucturation.
+It's a good sign, Full evolution starts to dominate around 20 gens. Around 25 gens reduced starts to take off as well.
+Interestingly this evolution is pretty unstable, the score keep going up and down.
+Seems they plateau at around very different spots.
+Still growing! Exploration 29.2 - 28.2 degs. (This cell is more sensititve to finer changes? )
+Pretty large gap!
+27.3 deg, the cell still growng… Maybe single units really likes small exploration? The interaction goes.
+Really taking off! Around 45!
+Seems you really need to have a small learning rate for this cell to get to the top of mountain right?
+How could we test the sharpness of mountain hypothesis? Successfulness of different learning rate tuning schedule? 
+Great evolution! 51gens, the ZOHA full finally plateaued. 51 gens
+Completed</t>
+  </si>
+  <si>
+    <t>005 Generate Integrated starts 15:07
+25 [-1 -1.5 ] 4 1 CMAES
+See if CMAES can replicate the really late growing of response.
+Just curious, not relavent to current exp series, but can serve as control for the final activation level and the learning curve.
+CMAES goes up and down pretty fast.
+Seems CMAES's learning curve is smoother.
+Starts bumpping around.
+Seems it plateaus pretty early and didn't get the peak up there! Ends 60gens
+Completed</t>
+  </si>
+  <si>
+    <t>006 Generate Integrated starts 15:50
+39 [0 0 ] 3 2 ZOHA_Sphere_lr_euclid
+39 [0 0 ] 3 2 ZOHA_Sphere_lr_euclid_RD
+A fast V1 Hash Evolution comparison.
+Comes pretty close, just as predicted.
+maybe 11 generations are enough. Bump him up. 16mins 15 gens
+Completed</t>
+  </si>
+  <si>
+    <t>001 rf mapping -8:8:8
+Completed</t>
+  </si>
+  <si>
+    <t>002 rf mapping -4:4:4j
+Completed</t>
+  </si>
+  <si>
+    <t>003 rf mapping -2:2:2
+Completed</t>
+  </si>
+  <si>
+    <t>004 rf mapping -4:2:4
+Completed</t>
+  </si>
+  <si>
+    <t>005 at 941 AM
+integrated
+5 (0,0) 4 1 ZOHA full
+5 (0,0) 4 1 ZOHA red
+finished, 40 gens
+The BHV files seem to be deleted at first so I recover it and it's correct now!
+Basis saved.
+Completed</t>
+  </si>
+  <si>
+    <t>006 at 1036
+33 (0,0) 3 1 zoha full
+33 (0,0) 3 1 zoha red
+1046 AM complaining
+31 blocks completed…
+complaining
+BHV name is strange but it's coV name is strange burrect!
+Basis saved.
+Completed</t>
+  </si>
+  <si>
+    <t>007 1117
+58 (0,0) 3 1  zoha full
+58 (0,0) 3 1 zoha red
+Blasting him, last evolution for the day
+Bumping 1148
+Basis saved.
 Completed</t>
   </si>
   <si>
@@ -2981,7 +3189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3018,16 +3226,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="E2" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3044,16 +3252,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="E3" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3070,16 +3278,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="E4" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3096,16 +3304,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3122,16 +3330,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D6" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="E6" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3148,16 +3356,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="D7" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3174,16 +3382,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="E8" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -3200,16 +3408,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="E9" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3226,16 +3434,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3252,16 +3460,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D11" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="E11" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3278,16 +3486,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3304,16 +3512,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="E13" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3330,16 +3538,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3356,16 +3564,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D15" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E15" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3382,16 +3590,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D16" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="E16" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3408,16 +3616,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D17" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="E17" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3434,16 +3642,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="E18" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3460,16 +3668,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D19" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="E19" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3486,16 +3694,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D20" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="E20" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3512,16 +3720,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D21" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="E21" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3538,16 +3746,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="D22" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="E22" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3564,16 +3772,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D23" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="E23" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3590,16 +3798,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D24" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="E24" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3616,16 +3824,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D25" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="E25" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -3642,16 +3850,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="D26" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="E26" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -3668,16 +3876,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D27" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="E27" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -3694,16 +3902,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D28" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E28" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -3720,16 +3928,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D29" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="E29" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -3746,16 +3954,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D30" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="E30" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3772,16 +3980,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D31" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="E31" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -3798,16 +4006,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D32" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="E32" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -3824,16 +4032,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D33" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="E33" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3850,16 +4058,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D34" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="E34" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -3876,16 +4084,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D35" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="E35" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -3902,16 +4110,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D36" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="E36" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -3928,16 +4136,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="E37" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -3954,16 +4162,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D38" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="E38" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -3980,16 +4188,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="E39" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4006,16 +4214,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D40" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="E40" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4032,16 +4240,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D41" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="E41" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -4058,16 +4266,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D42" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="E42" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -4084,16 +4292,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D43" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="E43" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -4110,16 +4318,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C44" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D44" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="E44" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -4136,16 +4344,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D45" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="E45" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -4162,16 +4370,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D46" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="E46" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -4188,16 +4396,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D47" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="E47" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -4214,16 +4422,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D48" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="E48" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -4240,16 +4448,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D49" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="E49" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -4266,16 +4474,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D50" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="E50" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4292,16 +4500,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D51" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="E51" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4318,16 +4526,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D52" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="E52" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4344,13 +4552,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D53" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4367,16 +4575,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D54" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="E54" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4393,16 +4601,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D55" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="E55" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4419,16 +4627,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D56" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="E56" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4445,16 +4653,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D57" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="E57" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4471,16 +4679,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D58" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="E58" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4497,16 +4705,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D59" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="E59" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4523,16 +4731,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C60" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D60" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="E60" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4549,16 +4757,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D61" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="E61" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -4575,16 +4783,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C62" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="D62" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="E62" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -4601,16 +4809,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D63" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c r="E63" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -4627,16 +4835,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D64" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="E64" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -4653,16 +4861,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="D65" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="E65" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -4679,16 +4887,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="D66" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="E66" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -4705,16 +4913,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C67" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D67" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="E67" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4731,16 +4939,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="D68" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="E68" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -4757,16 +4965,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D69" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="E69" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4783,16 +4991,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C70" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D70" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="E70" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -4809,16 +5017,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C71" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D71" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="E71" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -4835,16 +5043,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C72" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D72" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="E72" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -4861,16 +5069,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C73" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D73" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="E73" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -4887,16 +5095,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C74" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D74" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="E74" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -4913,16 +5121,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C75" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="D75" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="E75" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -4939,16 +5147,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="D76" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="E76" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -4965,16 +5173,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C77" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="E77" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -4991,16 +5199,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C78" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="D78" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="E78" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5017,16 +5225,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="D79" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="E79" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -5043,16 +5251,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C80" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="D80" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="E80" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -5069,13 +5277,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C81" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D81" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -5092,13 +5300,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C82" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D82" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -5115,13 +5323,13 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D83" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="E83" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -5138,16 +5346,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="D84" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="E84" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -5164,16 +5372,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="D85" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="E85" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -5190,16 +5398,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C86" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="D86" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="E86" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -5216,16 +5424,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C87" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="D87" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="E87" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -5242,16 +5450,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C88" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="D88" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="E88" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -5268,16 +5476,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C89" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="D89" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="E89" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -5294,16 +5502,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C90" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="D90" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="E90" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5320,16 +5528,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C91" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="D91" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="E91" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5346,16 +5554,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C92" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="D92" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="E92" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5372,16 +5580,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C93" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="D93" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="E93" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5398,16 +5606,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C94" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D94" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="E94" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5424,16 +5632,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C95" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="D95" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="E95" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5450,16 +5658,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C96" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="D96" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="E96" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5476,16 +5684,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C97" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="D97" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="E97" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5502,16 +5710,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C98" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D98" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="E98" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5528,16 +5736,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C99" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="D99" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="E99" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -5554,16 +5762,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C100" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="D100" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="E100" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -5580,16 +5788,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C101" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="D101" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="E101" t="s">
-        <v>724</v>
+        <v>771</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -5600,16 +5808,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C102" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="D102" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="E102" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -5626,16 +5834,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C103" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="D103" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="E103" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -5652,16 +5860,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="D104" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="E104" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -5678,16 +5886,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C105" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="D105" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="E105" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -5704,16 +5912,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C106" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="D106" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="E106" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -5730,16 +5938,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C107" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="D107" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="E107" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -5756,16 +5964,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C108" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="D108" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="E108" t="s">
-        <v>724</v>
+        <v>771</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -5776,16 +5984,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C109" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="D109" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="E109" t="s">
-        <v>724</v>
+        <v>771</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -5796,16 +6004,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C110" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="D110" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="E110" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -5822,16 +6030,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C111" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="D111" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="E111" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -5848,16 +6056,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C112" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="D112" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="E112" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -5874,16 +6082,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C113" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="D113" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="E113" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -5900,16 +6108,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C114" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="D114" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="E114" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -5926,16 +6134,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C115" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="D115" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="E115" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -5952,16 +6160,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C116" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="D116" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="E116" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -5972,16 +6180,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C117" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="D117" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="E117" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -5998,16 +6206,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C118" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="D118" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="E118" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -6018,16 +6226,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C119" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="D119" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="E119" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6044,16 +6252,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C120" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="D120" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="E120" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -6070,16 +6278,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C121" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="D121" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="E121" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -6090,16 +6298,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C122" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="D122" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="E122" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6116,13 +6324,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C123" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="D123" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -6136,16 +6344,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C124" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="D124" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="E124" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -6156,16 +6364,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="D125" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="E125" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6176,16 +6384,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C126" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="D126" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="E126" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -6202,16 +6410,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C127" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="D127" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="E127" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6219,13 +6427,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C128" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="D128" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -6239,16 +6447,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="D129" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="E129" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -6265,13 +6473,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C130" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="D130" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -6282,13 +6490,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C131" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="D131" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6299,16 +6507,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C132" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="D132" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="E132" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6325,16 +6533,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C133" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="D133" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="E133" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6351,16 +6559,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C134" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="D134" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="E134" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -6371,16 +6579,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C135" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="D135" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="E135" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -6391,16 +6599,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C136" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D136" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="E136" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6417,16 +6625,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C137" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="D137" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="E137" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6443,16 +6651,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C138" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="D138" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="E138" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6469,16 +6677,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C139" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="D139" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="E139" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6495,16 +6703,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C140" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="D140" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="E140" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -6515,16 +6723,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C141" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="D141" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="E141" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6535,16 +6743,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C142" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="D142" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="E142" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6561,16 +6769,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C143" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="D143" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="E143" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -6587,16 +6795,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C144" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="D144" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="E144" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -6607,16 +6815,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C145" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="D145" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="E145" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -6627,16 +6835,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C146" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="D146" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="E146" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -6653,16 +6861,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C147" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="D147" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="E147" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G147">
         <v>24</v>
@@ -6676,16 +6884,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C148" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="D148" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="E148" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -6702,16 +6910,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C149" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="D149" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="E149" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -6722,16 +6930,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C150" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="D150" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="E150" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -6742,16 +6950,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C151" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="D151" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="E151" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6768,16 +6976,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C152" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="D152" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="E152" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -6794,13 +7002,13 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D153" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="E153" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6808,16 +7016,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C154" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="D154" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="E154" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G154">
         <v>24</v>
@@ -6831,13 +7039,13 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="D155" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="E155" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6845,13 +7053,13 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="D156" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="E156" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6859,16 +7067,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C157" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="D157" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="E157" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -6879,16 +7087,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D158" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="E158" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6896,13 +7104,13 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D159" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="E159" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6910,16 +7118,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C160" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D160" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="E160" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G160">
         <v>39</v>
@@ -6930,16 +7138,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C161" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="D161" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="E161" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6947,16 +7155,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C162" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="D162" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="E162" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6964,16 +7172,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C163" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="D163" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="E163" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G163">
         <v>39</v>
@@ -6984,16 +7192,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C164" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="D164" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="E164" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G164">
         <v>25</v>
@@ -7004,13 +7212,13 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D165" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="E165" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7018,13 +7226,13 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D166" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="E166" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7032,16 +7240,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C167" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="D167" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="E167" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="G167">
         <v>41</v>
@@ -7052,16 +7260,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C168" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="D168" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="E168" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7069,16 +7277,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C169" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="D169" t="s">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="E169" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7086,16 +7294,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C170" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="D170" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="E170" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -7112,16 +7320,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C171" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="D171" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="E171" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -7138,16 +7346,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C172" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="D172" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="E172" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -7164,16 +7372,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C173" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="D173" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="E173" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7181,16 +7389,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C174" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="D174" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="E174" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7198,16 +7406,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C175" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="D175" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="E175" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7215,186 +7423,452 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="D176" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="E176" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C177" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="D177" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="E177" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C178" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="D178" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="E178" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C179" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="D179" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="E179" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C180" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="D180" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="E180" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C181" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="D181" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="E181" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C182" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="D182" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="E182" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>776</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>24</v>
+      </c>
+      <c r="H182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C183" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="D183" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="E183" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>776</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>24</v>
+      </c>
+      <c r="H183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C184" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="D184" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="E184" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>776</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184">
+        <v>24</v>
+      </c>
+      <c r="H184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C185" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="D185" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="E185" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>776</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+      <c r="G185">
+        <v>64</v>
+      </c>
+      <c r="H185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C186" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="D186" t="s">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="E186" t="s">
-        <v>729</v>
+        <v>776</v>
+      </c>
+      <c r="F186">
+        <v>4</v>
+      </c>
+      <c r="G186">
+        <v>64</v>
+      </c>
+      <c r="H186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>390</v>
+      </c>
+      <c r="C187" t="s">
+        <v>564</v>
+      </c>
+      <c r="D187" t="s">
+        <v>757</v>
+      </c>
+      <c r="E187" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>391</v>
+      </c>
+      <c r="C188" t="s">
+        <v>564</v>
+      </c>
+      <c r="D188" t="s">
+        <v>758</v>
+      </c>
+      <c r="E188" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" t="s">
+        <v>392</v>
+      </c>
+      <c r="C189" t="s">
+        <v>564</v>
+      </c>
+      <c r="D189" t="s">
+        <v>759</v>
+      </c>
+      <c r="E189" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>393</v>
+      </c>
+      <c r="C190" t="s">
+        <v>565</v>
+      </c>
+      <c r="D190" t="s">
+        <v>760</v>
+      </c>
+      <c r="E190" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" t="s">
+        <v>394</v>
+      </c>
+      <c r="C191" t="s">
+        <v>566</v>
+      </c>
+      <c r="D191" t="s">
+        <v>761</v>
+      </c>
+      <c r="E191" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" t="s">
+        <v>395</v>
+      </c>
+      <c r="C192" t="s">
+        <v>567</v>
+      </c>
+      <c r="D192" t="s">
+        <v>762</v>
+      </c>
+      <c r="E192" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" t="s">
+        <v>396</v>
+      </c>
+      <c r="C193" t="s">
+        <v>568</v>
+      </c>
+      <c r="D193" t="s">
+        <v>763</v>
+      </c>
+      <c r="E193" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" t="s">
+        <v>397</v>
+      </c>
+      <c r="C194" t="s">
+        <v>568</v>
+      </c>
+      <c r="D194" t="s">
+        <v>764</v>
+      </c>
+      <c r="E194" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>201</v>
+      </c>
+      <c r="B195" t="s">
+        <v>398</v>
+      </c>
+      <c r="C195" t="s">
+        <v>568</v>
+      </c>
+      <c r="D195" t="s">
+        <v>765</v>
+      </c>
+      <c r="E195" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" t="s">
+        <v>399</v>
+      </c>
+      <c r="C196" t="s">
+        <v>568</v>
+      </c>
+      <c r="D196" t="s">
+        <v>766</v>
+      </c>
+      <c r="E196" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197" t="s">
+        <v>400</v>
+      </c>
+      <c r="C197" t="s">
+        <v>569</v>
+      </c>
+      <c r="D197" t="s">
+        <v>767</v>
+      </c>
+      <c r="E197" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" t="s">
+        <v>570</v>
+      </c>
+      <c r="D198" t="s">
+        <v>768</v>
+      </c>
+      <c r="E198" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199" t="s">
+        <v>402</v>
+      </c>
+      <c r="C199" t="s">
+        <v>571</v>
+      </c>
+      <c r="D199" t="s">
+        <v>769</v>
+      </c>
+      <c r="E199" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4D62E-1F37-41A1-915D-6F41F6DA7029}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="798">
   <si>
     <t>ephysFN</t>
   </si>
@@ -634,6 +640,24 @@
     <t>Beto-20032020-007</t>
   </si>
   <si>
+    <t>Beto-21032020-001</t>
+  </si>
+  <si>
+    <t>Beto-21032020-002</t>
+  </si>
+  <si>
+    <t>Beto-21032020-003</t>
+  </si>
+  <si>
+    <t>Beto-21032020-004</t>
+  </si>
+  <si>
+    <t>Beto-21032020-005</t>
+  </si>
+  <si>
+    <t>Beto-21032020-006</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1225,6 +1249,24 @@
     <t>200320_Beto_generate_integrated(3)</t>
   </si>
   <si>
+    <t>200321_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200321_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200321_Beto_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200321_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200321_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200321_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1555,7 +1597,7 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-23-Beto-01\2020-01-23-12-36-03</t>
   </si>
   <si>
-    <t xml:space="preserve">. </t>
+    <t>. </t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-27-Beto-01\2020-01-27-11-23-03</t>
@@ -1730,6 +1772,15 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-20-Beto-03\2020-03-20-11-17-46</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-21-Beto-01\2020-03-21-12-27-29</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-21-Beto-02\2020-03-21-13-14-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-03-21-Beto-03\2020-03-21-13-58-13</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -2134,13 +2185,13 @@
 Blasting him, 300 ms, going to block 50 then calling it a day</t>
   </si>
   <si>
-    <t xml:space="preserve">Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
+    <t>Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
+  </si>
+  <si>
+    <t>Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
+  </si>
+  <si>
+    <t>Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
   </si>
   <si>
     <t>001 RFMapper 11:02 AM starts 
@@ -2813,6 +2864,54 @@
 Completed</t>
   </si>
   <si>
+    <t>Hp at 12 PM
+001 rf mapping. Looking at 13
+at 1217 PM
+(-8:8:8) 8-deg
+some head wiggle
+SU in 13 is pretty tonic
+looks like fovea for RF center
+Completed</t>
+  </si>
+  <si>
+    <t>002 rf mapping
+-4:4:4, 4-deg
+still looks like fovea for RF center
+Completed</t>
+  </si>
+  <si>
+    <t>003 at 1221
+rf mapping
+-2:2:2, 2-deg width
+Completed</t>
+  </si>
+  <si>
+    <t>004 at 1227
+generate
+13 (0,0) 3 1 ZOHA full
+13 (0,0) 3 1 ZOHA red
+SU 2/5
+40 gens finished
+Completed</t>
+  </si>
+  <si>
+    <t>20 (-1,1) 3 1 zoha full
+20 (-1,1) 3 1 zoha red
+SU 2/5
+eye position going wacky
+30 gens completed
+Completed</t>
+  </si>
+  <si>
+    <t>006 at 158 PM
+46 (0,0) 3 1 zoha full
+46 (0,0) 3 1 zoha red
+monkey signaling he's near ready to go home
+looks like block 25 tops
+end at 233 PM
+Completed</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -2837,8 +2936,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2897,15 +2996,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2947,7 +3054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2979,9 +3086,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3013,6 +3138,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3188,14 +3331,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="I196" sqref="I196"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3221,21 +3371,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="E2" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3247,21 +3397,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="E3" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3273,21 +3423,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="E4" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3299,21 +3449,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="E5" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3325,21 +3475,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D6" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="E6" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3351,21 +3501,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="E7" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3377,21 +3527,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="E8" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -3403,21 +3553,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="D9" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E9" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3429,21 +3579,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D10" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="E10" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3455,21 +3605,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="E11" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3481,21 +3631,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="E12" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3507,21 +3657,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D13" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="E13" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3533,21 +3683,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D14" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="E14" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3559,21 +3709,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="E15" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3585,21 +3735,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D16" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="E16" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3611,21 +3761,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D17" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="E17" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3637,21 +3787,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="E18" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3663,21 +3813,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D19" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="E19" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3689,21 +3839,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D20" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="E20" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3715,21 +3865,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D21" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="E21" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3741,21 +3891,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D22" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E22" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3767,21 +3917,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="E23" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3793,21 +3943,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D24" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="E24" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3819,21 +3969,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D25" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="E25" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -3845,21 +3995,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D26" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -3871,21 +4021,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="E27" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -3897,21 +4047,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D28" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="E28" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -3923,21 +4073,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="E29" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -3949,21 +4099,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D30" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="E30" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3975,21 +4125,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D31" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="E31" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4001,21 +4151,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D32" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="E32" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4027,21 +4177,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D33" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="E33" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4053,21 +4203,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="D34" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="E34" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4079,21 +4229,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D35" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="E35" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4105,21 +4255,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="D36" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="E36" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4131,21 +4281,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D37" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="E37" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4157,21 +4307,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D38" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="E38" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4183,21 +4333,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D39" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="E39" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4209,21 +4359,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D40" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="E40" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4235,21 +4385,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D41" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="E41" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -4261,21 +4411,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D42" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="E42" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -4287,21 +4437,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C43" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D43" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="E43" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -4313,21 +4463,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="D44" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="E44" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -4339,21 +4489,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D45" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="E45" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -4365,21 +4515,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="D46" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="E46" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -4391,21 +4541,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C47" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D47" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="E47" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -4417,21 +4567,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D48" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="E48" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -4443,21 +4593,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D49" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="E49" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -4469,21 +4619,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D50" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="E50" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4495,21 +4645,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D51" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="E51" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4521,21 +4671,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D52" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E52" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4547,18 +4697,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C53" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D53" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4570,21 +4720,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C54" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D54" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="E54" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4596,21 +4746,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D55" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="E55" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4622,21 +4772,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D56" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="E56" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4648,21 +4798,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D57" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="E57" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4674,21 +4824,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D58" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="E58" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4700,21 +4850,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C59" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D59" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="E59" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4726,21 +4876,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C60" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="D60" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="E60" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4752,21 +4902,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C61" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D61" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="E61" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -4778,21 +4928,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D62" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="E62" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -4804,21 +4954,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C63" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D63" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="E63" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -4830,21 +4980,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C64" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D64" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="E64" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -4856,21 +5006,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C65" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D65" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="E65" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -4882,21 +5032,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="D66" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="E66" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -4908,21 +5058,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C67" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D67" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="E67" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4934,21 +5084,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D68" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E68" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -4960,21 +5110,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D69" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="E69" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4986,21 +5136,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D70" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="E70" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5012,21 +5162,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D71" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="E71" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5038,21 +5188,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C72" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D72" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="E72" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5064,21 +5214,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D73" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="E73" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5090,21 +5240,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C74" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D74" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="E74" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5116,21 +5266,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C75" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D75" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="E75" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5142,21 +5292,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C76" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D76" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="E76" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5168,21 +5318,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D77" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="E77" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5194,21 +5344,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D78" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="E78" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5220,21 +5370,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D79" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="E79" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -5246,21 +5396,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D80" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="E80" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -5272,18 +5422,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D81" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -5295,18 +5445,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D82" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -5318,18 +5468,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D83" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="E83" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -5341,21 +5491,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D84" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="E84" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -5367,21 +5517,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="D85" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="E85" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -5393,21 +5543,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D86" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="E86" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -5419,21 +5569,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C87" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D87" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="E87" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -5445,21 +5595,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D88" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="E88" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -5471,21 +5621,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="E89" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -5497,21 +5647,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D90" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="E90" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5523,21 +5673,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D91" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="E91" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5549,21 +5699,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D92" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="E92" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5575,21 +5725,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D93" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="E93" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5601,21 +5751,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D94" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="E94" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5627,21 +5777,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C95" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D95" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="E95" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5653,21 +5803,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C96" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D96" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="E96" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5679,21 +5829,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D97" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="E97" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5705,21 +5855,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C98" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D98" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="E98" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5731,21 +5881,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C99" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D99" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="E99" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -5757,21 +5907,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C100" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D100" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="E100" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -5783,41 +5933,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C101" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="D101" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="E101" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="F101">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C102" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D102" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="E102" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -5829,21 +5979,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C103" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D103" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="E103" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -5855,21 +6005,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C104" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D104" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="E104" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -5881,21 +6031,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C105" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="D105" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="E105" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -5907,21 +6057,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C106" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D106" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="E106" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -5933,21 +6083,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C107" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D107" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="E107" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -5959,61 +6109,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C108" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D108" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="E108" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="F108">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C109" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D109" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="E109" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="F109">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C110" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="D110" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="E110" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6025,21 +6175,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C111" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D111" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="E111" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6051,21 +6201,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C112" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="D112" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="E112" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6077,21 +6227,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C113" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="D113" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="E113" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6103,21 +6253,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C114" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D114" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="E114" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6129,21 +6279,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C115" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="D115" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="E115" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6155,41 +6305,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C116" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D116" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="E116" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C117" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D117" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="E117" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6201,41 +6351,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C118" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D118" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="E118" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C119" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="D119" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="E119" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6247,21 +6397,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C120" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D120" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="E120" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -6273,41 +6423,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C121" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D121" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="E121" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C122" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D122" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E122" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6319,18 +6469,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C123" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="D123" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -6339,61 +6489,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C124" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D124" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="E124" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C125" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D125" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="E125" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C126" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D126" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="E126" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -6405,35 +6555,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C127" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D127" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="E127" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C128" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D128" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -6442,21 +6592,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C129" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D129" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="E129" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -6468,55 +6618,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C130" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D130" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C131" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D131" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C132" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D132" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="E132" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6528,21 +6678,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C133" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D133" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="E133" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6554,61 +6704,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C134" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D134" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="E134" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="H134">
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C135" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D135" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="E135" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D136" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="E136" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6620,21 +6770,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C137" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D137" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="E137" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6646,21 +6796,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C138" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="D138" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="E138" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6672,21 +6822,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C139" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D139" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="E139" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6698,61 +6848,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C140" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D140" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="E140" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="H140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C141" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D141" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="E141" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C142" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="D142" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="E142" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6764,21 +6914,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="D143" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="E143" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -6790,61 +6940,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D144" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="E144" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="H144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C145" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D145" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="E145" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C146" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D146" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="E146" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -6856,21 +7006,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C147" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D147" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="E147" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="G147">
         <v>24</v>
@@ -6879,21 +7029,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C148" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D148" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="E148" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -6905,61 +7055,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C149" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D149" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="E149" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H149">
         <v>0.75</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C150" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D150" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="E150" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C151" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D151" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="E151" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6971,21 +7121,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C152" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="D152" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="E152" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -6997,35 +7147,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D153" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="E153" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C154" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D154" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="E154" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="G154">
         <v>24</v>
@@ -7034,276 +7184,276 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D155" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="E155" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D156" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="E156" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C157" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D157" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="E157" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="G157">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C158" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="D158" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="E158" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D159" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="E159" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C160" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D160" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="E160" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="G160">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C161" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="D161" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="E161" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C162" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="D162" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="E162" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C163" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D163" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="E163" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="G163">
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C164" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="D164" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="E164" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="G164">
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D165" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="E165" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D166" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="E166" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C167" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D167" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="E167" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="G167">
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C168" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D168" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="E168" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C169" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D169" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="E169" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C170" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D170" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="E170" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -7315,21 +7465,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C171" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="D171" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="E171" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -7341,21 +7491,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C172" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D172" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="E172" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -7367,174 +7517,174 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C173" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="D173" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="E173" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C174" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="D174" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="E174" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C175" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D175" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="E175" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C176" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D176" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="E176" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C177" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="D177" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="E177" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C178" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="D178" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="E178" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C179" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D179" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="E179" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C180" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D180" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="E180" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C181" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D181" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="E181" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C182" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D182" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="E182" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -7546,21 +7696,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C183" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D183" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="E183" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -7572,21 +7722,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C184" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D184" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="E184" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -7598,21 +7748,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C185" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D185" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="E185" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -7624,21 +7774,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D186" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="E186" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -7650,225 +7800,399 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C187" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D187" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="E187" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C188" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D188" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="E188" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C189" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D189" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="E189" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C190" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="D190" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="E190" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>797</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="G190">
+        <v>25</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C191" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D191" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="E191" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>797</v>
+      </c>
+      <c r="F191">
+        <v>6</v>
+      </c>
+      <c r="G191">
+        <v>25</v>
+      </c>
+      <c r="H191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C192" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D192" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="E192" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>797</v>
+      </c>
+      <c r="F192">
+        <v>7</v>
+      </c>
+      <c r="G192">
+        <v>39</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C193" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D193" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="E193" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C194" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D194" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="E194" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C195" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D195" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="E195" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C196" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D196" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="E196" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C197" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D197" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="E197" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>797</v>
+      </c>
+      <c r="F197">
+        <v>8</v>
+      </c>
+      <c r="G197">
+        <v>5</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C198" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D198" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="E198" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>797</v>
+      </c>
+      <c r="F198">
+        <v>9</v>
+      </c>
+      <c r="G198">
+        <v>33</v>
+      </c>
+      <c r="H198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C199" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D199" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="E199" t="s">
-        <v>776</v>
+        <v>797</v>
+      </c>
+      <c r="F199">
+        <v>10</v>
+      </c>
+      <c r="G199">
+        <v>58</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>206</v>
+      </c>
+      <c r="B200" t="s">
+        <v>409</v>
+      </c>
+      <c r="D200" t="s">
+        <v>785</v>
+      </c>
+      <c r="E200" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201" t="s">
+        <v>410</v>
+      </c>
+      <c r="D201" t="s">
+        <v>786</v>
+      </c>
+      <c r="E201" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>208</v>
+      </c>
+      <c r="B202" t="s">
+        <v>411</v>
+      </c>
+      <c r="D202" t="s">
+        <v>787</v>
+      </c>
+      <c r="E202" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" t="s">
+        <v>412</v>
+      </c>
+      <c r="C203" t="s">
+        <v>584</v>
+      </c>
+      <c r="D203" t="s">
+        <v>788</v>
+      </c>
+      <c r="E203" t="s">
+        <v>797</v>
+      </c>
+      <c r="F203">
+        <v>11</v>
+      </c>
+      <c r="G203">
+        <v>13</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" t="s">
+        <v>413</v>
+      </c>
+      <c r="C204" t="s">
+        <v>585</v>
+      </c>
+      <c r="D204" t="s">
+        <v>789</v>
+      </c>
+      <c r="E204" t="s">
+        <v>797</v>
+      </c>
+      <c r="F204">
+        <v>12</v>
+      </c>
+      <c r="G204">
+        <v>20</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>211</v>
+      </c>
+      <c r="B205" t="s">
+        <v>414</v>
+      </c>
+      <c r="C205" t="s">
+        <v>586</v>
+      </c>
+      <c r="D205" t="s">
+        <v>790</v>
+      </c>
+      <c r="E205" t="s">
+        <v>797</v>
+      </c>
+      <c r="F205">
+        <v>13</v>
+      </c>
+      <c r="G205">
+        <v>46</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4D62E-1F37-41A1-915D-6F41F6DA7029}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DAE3C6-4039-4165-8DFE-B8D6356E3FD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="798">
   <si>
     <t>ephysFN</t>
   </si>
@@ -1684,25 +1684,10 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-06-Beto-01\2020-03-06-12-11-33</t>
   </si>
   <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-10-Beto-01\2020-02-10-14-18-32</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-10-Beto-02\2020-02-10-14-43-14</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-07-Beto-02\2020-02-07-10-23-49</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2020-02-14-Beto</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-02-14-Beto-01\2020-02-14-14-23-26</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-19-Beto-01\2020-02-19-14-23-48</t>
-  </si>
-  <si>
-    <t>Stimuli\2019-12-Evolutions\2020-02-20-Beto-01\2020-02-20-10-29-18</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2020-03-11-Beto</t>
@@ -2931,6 +2916,21 @@
   </si>
   <si>
     <t>ReducDimen_Evol</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Beto-01\2020-02-10-14-18-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Beto-02\2020-02-10-14-43-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-07-Beto-02\2020-02-07-10-23-49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-19-Beto-01\2020-02-19-14-23-48</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Beto-01\2020-02-20-10-29-18</t>
   </si>
 </sst>
 </file>
@@ -2989,10 +2989,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3334,12 +3337,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" customWidth="1"/>
@@ -3382,10 +3386,10 @@
         <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3408,10 +3412,10 @@
         <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3434,10 +3438,10 @@
         <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3460,10 +3464,10 @@
         <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3486,10 +3490,10 @@
         <v>419</v>
       </c>
       <c r="D6" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E6" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3512,10 +3516,10 @@
         <v>420</v>
       </c>
       <c r="D7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3538,10 +3542,10 @@
         <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E8" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -3564,10 +3568,10 @@
         <v>422</v>
       </c>
       <c r="D9" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E9" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3590,10 +3594,10 @@
         <v>423</v>
       </c>
       <c r="D10" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E10" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3616,10 +3620,10 @@
         <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E11" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3642,10 +3646,10 @@
         <v>425</v>
       </c>
       <c r="D12" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E12" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3668,10 +3672,10 @@
         <v>426</v>
       </c>
       <c r="D13" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E13" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3694,10 +3698,10 @@
         <v>427</v>
       </c>
       <c r="D14" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E14" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3720,10 +3724,10 @@
         <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E15" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3746,10 +3750,10 @@
         <v>429</v>
       </c>
       <c r="D16" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E16" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3772,10 +3776,10 @@
         <v>430</v>
       </c>
       <c r="D17" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E17" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3798,10 +3802,10 @@
         <v>431</v>
       </c>
       <c r="D18" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E18" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3824,10 +3828,10 @@
         <v>432</v>
       </c>
       <c r="D19" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E19" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3850,10 +3854,10 @@
         <v>433</v>
       </c>
       <c r="D20" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E20" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3876,10 +3880,10 @@
         <v>434</v>
       </c>
       <c r="D21" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E21" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3902,10 +3906,10 @@
         <v>435</v>
       </c>
       <c r="D22" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E22" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3928,10 +3932,10 @@
         <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E23" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3954,10 +3958,10 @@
         <v>437</v>
       </c>
       <c r="D24" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E24" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3980,10 +3984,10 @@
         <v>438</v>
       </c>
       <c r="D25" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E25" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4006,10 +4010,10 @@
         <v>439</v>
       </c>
       <c r="D26" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -4032,10 +4036,10 @@
         <v>440</v>
       </c>
       <c r="D27" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E27" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -4058,10 +4062,10 @@
         <v>441</v>
       </c>
       <c r="D28" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E28" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -4084,10 +4088,10 @@
         <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E29" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -4110,10 +4114,10 @@
         <v>443</v>
       </c>
       <c r="D30" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E30" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -4136,10 +4140,10 @@
         <v>444</v>
       </c>
       <c r="D31" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E31" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4162,10 +4166,10 @@
         <v>445</v>
       </c>
       <c r="D32" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E32" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4188,10 +4192,10 @@
         <v>446</v>
       </c>
       <c r="D33" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E33" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4214,10 +4218,10 @@
         <v>447</v>
       </c>
       <c r="D34" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E34" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4240,10 +4244,10 @@
         <v>448</v>
       </c>
       <c r="D35" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E35" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4266,10 +4270,10 @@
         <v>449</v>
       </c>
       <c r="D36" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E36" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4292,10 +4296,10 @@
         <v>450</v>
       </c>
       <c r="D37" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E37" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4318,10 +4322,10 @@
         <v>451</v>
       </c>
       <c r="D38" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E38" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4344,10 +4348,10 @@
         <v>452</v>
       </c>
       <c r="D39" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E39" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4370,10 +4374,10 @@
         <v>453</v>
       </c>
       <c r="D40" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E40" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4396,10 +4400,10 @@
         <v>454</v>
       </c>
       <c r="D41" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E41" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -4422,10 +4426,10 @@
         <v>455</v>
       </c>
       <c r="D42" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E42" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -4448,10 +4452,10 @@
         <v>456</v>
       </c>
       <c r="D43" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E43" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -4474,10 +4478,10 @@
         <v>457</v>
       </c>
       <c r="D44" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E44" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -4500,10 +4504,10 @@
         <v>458</v>
       </c>
       <c r="D45" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E45" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -4526,10 +4530,10 @@
         <v>459</v>
       </c>
       <c r="D46" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E46" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -4552,10 +4556,10 @@
         <v>460</v>
       </c>
       <c r="D47" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E47" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -4578,10 +4582,10 @@
         <v>461</v>
       </c>
       <c r="D48" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E48" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -4604,10 +4608,10 @@
         <v>462</v>
       </c>
       <c r="D49" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E49" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -4630,10 +4634,10 @@
         <v>463</v>
       </c>
       <c r="D50" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E50" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4656,10 +4660,10 @@
         <v>464</v>
       </c>
       <c r="D51" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E51" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4682,10 +4686,10 @@
         <v>465</v>
       </c>
       <c r="D52" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E52" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4708,7 +4712,7 @@
         <v>466</v>
       </c>
       <c r="D53" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4731,10 +4735,10 @@
         <v>467</v>
       </c>
       <c r="D54" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E54" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4757,10 +4761,10 @@
         <v>468</v>
       </c>
       <c r="D55" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E55" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4783,10 +4787,10 @@
         <v>469</v>
       </c>
       <c r="D56" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E56" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4809,10 +4813,10 @@
         <v>470</v>
       </c>
       <c r="D57" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E57" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4835,10 +4839,10 @@
         <v>471</v>
       </c>
       <c r="D58" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E58" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4861,10 +4865,10 @@
         <v>472</v>
       </c>
       <c r="D59" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E59" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4887,10 +4891,10 @@
         <v>473</v>
       </c>
       <c r="D60" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E60" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4913,10 +4917,10 @@
         <v>474</v>
       </c>
       <c r="D61" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E61" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -4939,10 +4943,10 @@
         <v>475</v>
       </c>
       <c r="D62" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E62" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -4965,10 +4969,10 @@
         <v>476</v>
       </c>
       <c r="D63" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E63" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -4991,10 +4995,10 @@
         <v>477</v>
       </c>
       <c r="D64" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E64" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -5017,10 +5021,10 @@
         <v>478</v>
       </c>
       <c r="D65" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E65" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -5043,10 +5047,10 @@
         <v>479</v>
       </c>
       <c r="D66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E66" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -5069,10 +5073,10 @@
         <v>477</v>
       </c>
       <c r="D67" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E67" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -5095,10 +5099,10 @@
         <v>480</v>
       </c>
       <c r="D68" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E68" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -5121,10 +5125,10 @@
         <v>481</v>
       </c>
       <c r="D69" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E69" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -5147,10 +5151,10 @@
         <v>482</v>
       </c>
       <c r="D70" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E70" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5173,10 +5177,10 @@
         <v>483</v>
       </c>
       <c r="D71" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E71" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5199,10 +5203,10 @@
         <v>484</v>
       </c>
       <c r="D72" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E72" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5225,10 +5229,10 @@
         <v>485</v>
       </c>
       <c r="D73" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E73" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5251,10 +5255,10 @@
         <v>486</v>
       </c>
       <c r="D74" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E74" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5277,10 +5281,10 @@
         <v>487</v>
       </c>
       <c r="D75" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E75" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5303,10 +5307,10 @@
         <v>488</v>
       </c>
       <c r="D76" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E76" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5329,10 +5333,10 @@
         <v>489</v>
       </c>
       <c r="D77" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E77" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5355,10 +5359,10 @@
         <v>490</v>
       </c>
       <c r="D78" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E78" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5381,10 +5385,10 @@
         <v>491</v>
       </c>
       <c r="D79" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E79" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -5407,10 +5411,10 @@
         <v>492</v>
       </c>
       <c r="D80" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E80" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -5433,7 +5437,7 @@
         <v>493</v>
       </c>
       <c r="D81" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -5456,7 +5460,7 @@
         <v>493</v>
       </c>
       <c r="D82" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -5476,10 +5480,10 @@
         <v>493</v>
       </c>
       <c r="D83" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E83" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -5502,10 +5506,10 @@
         <v>494</v>
       </c>
       <c r="D84" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E84" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -5528,10 +5532,10 @@
         <v>495</v>
       </c>
       <c r="D85" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E85" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -5554,10 +5558,10 @@
         <v>496</v>
       </c>
       <c r="D86" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E86" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -5580,10 +5584,10 @@
         <v>497</v>
       </c>
       <c r="D87" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E87" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -5606,10 +5610,10 @@
         <v>498</v>
       </c>
       <c r="D88" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E88" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -5632,10 +5636,10 @@
         <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E89" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -5658,10 +5662,10 @@
         <v>500</v>
       </c>
       <c r="D90" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E90" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5684,10 +5688,10 @@
         <v>501</v>
       </c>
       <c r="D91" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E91" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5710,10 +5714,10 @@
         <v>502</v>
       </c>
       <c r="D92" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E92" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5736,10 +5740,10 @@
         <v>503</v>
       </c>
       <c r="D93" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E93" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5762,10 +5766,10 @@
         <v>504</v>
       </c>
       <c r="D94" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E94" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5788,10 +5792,10 @@
         <v>505</v>
       </c>
       <c r="D95" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E95" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5814,10 +5818,10 @@
         <v>506</v>
       </c>
       <c r="D96" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E96" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5840,10 +5844,10 @@
         <v>507</v>
       </c>
       <c r="D97" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E97" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5866,10 +5870,10 @@
         <v>508</v>
       </c>
       <c r="D98" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E98" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5892,10 +5896,10 @@
         <v>509</v>
       </c>
       <c r="D99" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E99" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -5918,10 +5922,10 @@
         <v>510</v>
       </c>
       <c r="D100" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E100" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -5944,10 +5948,10 @@
         <v>511</v>
       </c>
       <c r="D101" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E101" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -5964,10 +5968,10 @@
         <v>512</v>
       </c>
       <c r="D102" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E102" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -5990,10 +5994,10 @@
         <v>513</v>
       </c>
       <c r="D103" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E103" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -6016,10 +6020,10 @@
         <v>514</v>
       </c>
       <c r="D104" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E104" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -6042,10 +6046,10 @@
         <v>515</v>
       </c>
       <c r="D105" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E105" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -6068,10 +6072,10 @@
         <v>513</v>
       </c>
       <c r="D106" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E106" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -6094,10 +6098,10 @@
         <v>516</v>
       </c>
       <c r="D107" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E107" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -6120,10 +6124,10 @@
         <v>517</v>
       </c>
       <c r="D108" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E108" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -6140,10 +6144,10 @@
         <v>517</v>
       </c>
       <c r="D109" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E109" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -6160,10 +6164,10 @@
         <v>518</v>
       </c>
       <c r="D110" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E110" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6186,10 +6190,10 @@
         <v>519</v>
       </c>
       <c r="D111" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E111" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6212,10 +6216,10 @@
         <v>518</v>
       </c>
       <c r="D112" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E112" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6238,10 +6242,10 @@
         <v>520</v>
       </c>
       <c r="D113" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E113" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6264,10 +6268,10 @@
         <v>521</v>
       </c>
       <c r="D114" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E114" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6290,10 +6294,10 @@
         <v>522</v>
       </c>
       <c r="D115" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E115" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6316,10 +6320,10 @@
         <v>523</v>
       </c>
       <c r="D116" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E116" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -6336,10 +6340,10 @@
         <v>524</v>
       </c>
       <c r="D117" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E117" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6362,10 +6366,10 @@
         <v>525</v>
       </c>
       <c r="D118" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E118" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -6382,10 +6386,10 @@
         <v>526</v>
       </c>
       <c r="D119" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E119" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6408,10 +6412,10 @@
         <v>527</v>
       </c>
       <c r="D120" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E120" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -6434,10 +6438,10 @@
         <v>528</v>
       </c>
       <c r="D121" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E121" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -6454,10 +6458,10 @@
         <v>529</v>
       </c>
       <c r="D122" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E122" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6480,7 +6484,7 @@
         <v>530</v>
       </c>
       <c r="D123" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -6500,10 +6504,10 @@
         <v>528</v>
       </c>
       <c r="D124" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E124" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -6520,10 +6524,10 @@
         <v>528</v>
       </c>
       <c r="D125" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E125" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6540,10 +6544,10 @@
         <v>531</v>
       </c>
       <c r="D126" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E126" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -6566,10 +6570,10 @@
         <v>532</v>
       </c>
       <c r="D127" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E127" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6583,7 +6587,7 @@
         <v>533</v>
       </c>
       <c r="D128" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -6603,10 +6607,10 @@
         <v>534</v>
       </c>
       <c r="D129" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E129" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -6629,7 +6633,7 @@
         <v>535</v>
       </c>
       <c r="D130" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -6646,7 +6650,7 @@
         <v>535</v>
       </c>
       <c r="D131" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6663,10 +6667,10 @@
         <v>536</v>
       </c>
       <c r="D132" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E132" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6689,10 +6693,10 @@
         <v>537</v>
       </c>
       <c r="D133" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E133" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6715,10 +6719,10 @@
         <v>538</v>
       </c>
       <c r="D134" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E134" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -6735,10 +6739,10 @@
         <v>538</v>
       </c>
       <c r="D135" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E135" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -6755,10 +6759,10 @@
         <v>539</v>
       </c>
       <c r="D136" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E136" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6781,10 +6785,10 @@
         <v>540</v>
       </c>
       <c r="D137" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E137" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6807,10 +6811,10 @@
         <v>541</v>
       </c>
       <c r="D138" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E138" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6833,10 +6837,10 @@
         <v>542</v>
       </c>
       <c r="D139" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E139" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6859,10 +6863,10 @@
         <v>543</v>
       </c>
       <c r="D140" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E140" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -6879,10 +6883,10 @@
         <v>543</v>
       </c>
       <c r="D141" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E141" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6899,10 +6903,10 @@
         <v>544</v>
       </c>
       <c r="D142" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E142" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6925,10 +6929,10 @@
         <v>545</v>
       </c>
       <c r="D143" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E143" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -6951,10 +6955,10 @@
         <v>546</v>
       </c>
       <c r="D144" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E144" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -6971,10 +6975,10 @@
         <v>546</v>
       </c>
       <c r="D145" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E145" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -6991,10 +6995,10 @@
         <v>547</v>
       </c>
       <c r="D146" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E146" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -7017,10 +7021,13 @@
         <v>548</v>
       </c>
       <c r="D147" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E147" t="s">
-        <v>794</v>
+        <v>789</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
       </c>
       <c r="G147">
         <v>24</v>
@@ -7040,10 +7047,10 @@
         <v>549</v>
       </c>
       <c r="D148" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E148" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7066,10 +7073,10 @@
         <v>550</v>
       </c>
       <c r="D149" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E149" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -7086,10 +7093,10 @@
         <v>550</v>
       </c>
       <c r="D150" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E150" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -7106,10 +7113,10 @@
         <v>551</v>
       </c>
       <c r="D151" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E151" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7132,10 +7139,10 @@
         <v>552</v>
       </c>
       <c r="D152" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E152" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -7155,10 +7162,10 @@
         <v>362</v>
       </c>
       <c r="D153" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E153" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,10 +7179,13 @@
         <v>553</v>
       </c>
       <c r="D154" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E154" t="s">
-        <v>794</v>
+        <v>789</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
       </c>
       <c r="G154">
         <v>24</v>
@@ -7192,10 +7202,10 @@
         <v>364</v>
       </c>
       <c r="D155" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E155" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7206,10 +7216,10 @@
         <v>365</v>
       </c>
       <c r="D156" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E156" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7220,13 +7230,10 @@
         <v>366</v>
       </c>
       <c r="C157" t="s">
-        <v>554</v>
+        <v>793</v>
       </c>
       <c r="D157" t="s">
-        <v>742</v>
-      </c>
-      <c r="E157" t="s">
-        <v>794</v>
+        <v>737</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -7240,13 +7247,16 @@
         <v>367</v>
       </c>
       <c r="C158" t="s">
-        <v>555</v>
+        <v>794</v>
       </c>
       <c r="D158" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E158" t="s">
-        <v>794</v>
+        <v>789</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -7257,13 +7267,13 @@
         <v>368</v>
       </c>
       <c r="D159" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E159" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -7271,13 +7281,16 @@
         <v>369</v>
       </c>
       <c r="C160" t="s">
-        <v>556</v>
-      </c>
-      <c r="D160" t="s">
-        <v>745</v>
+        <v>795</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="E160" t="s">
-        <v>794</v>
+        <v>789</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
       </c>
       <c r="G160">
         <v>39</v>
@@ -7291,13 +7304,13 @@
         <v>370</v>
       </c>
       <c r="C161" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D161" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E161" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7308,13 +7321,13 @@
         <v>371</v>
       </c>
       <c r="C162" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D162" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E162" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7325,13 +7338,16 @@
         <v>372</v>
       </c>
       <c r="C163" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D163" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E163" t="s">
-        <v>794</v>
+        <v>789</v>
+      </c>
+      <c r="F163">
+        <v>6</v>
       </c>
       <c r="G163">
         <v>39</v>
@@ -7345,13 +7361,16 @@
         <v>373</v>
       </c>
       <c r="C164" t="s">
-        <v>559</v>
+        <v>796</v>
       </c>
       <c r="D164" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E164" t="s">
-        <v>794</v>
+        <v>789</v>
+      </c>
+      <c r="F164">
+        <v>7</v>
       </c>
       <c r="G164">
         <v>25</v>
@@ -7365,10 +7384,10 @@
         <v>374</v>
       </c>
       <c r="D165" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E165" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7379,10 +7398,10 @@
         <v>375</v>
       </c>
       <c r="D166" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E166" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7393,13 +7412,16 @@
         <v>376</v>
       </c>
       <c r="C167" t="s">
-        <v>560</v>
+        <v>797</v>
       </c>
       <c r="D167" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E167" t="s">
-        <v>794</v>
+        <v>789</v>
+      </c>
+      <c r="F167">
+        <v>8</v>
       </c>
       <c r="G167">
         <v>41</v>
@@ -7413,13 +7435,13 @@
         <v>377</v>
       </c>
       <c r="C168" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D168" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E168" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7430,13 +7452,13 @@
         <v>378</v>
       </c>
       <c r="C169" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D169" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E169" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7447,13 +7469,13 @@
         <v>379</v>
       </c>
       <c r="C170" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D170" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E170" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -7473,13 +7495,13 @@
         <v>380</v>
       </c>
       <c r="C171" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D171" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E171" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -7499,13 +7521,13 @@
         <v>381</v>
       </c>
       <c r="C172" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D172" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E172" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -7525,13 +7547,13 @@
         <v>382</v>
       </c>
       <c r="C173" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D173" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E173" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7542,13 +7564,13 @@
         <v>383</v>
       </c>
       <c r="C174" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D174" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E174" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7559,13 +7581,13 @@
         <v>384</v>
       </c>
       <c r="C175" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D175" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E175" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7576,13 +7598,13 @@
         <v>385</v>
       </c>
       <c r="C176" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D176" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E176" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -7593,13 +7615,13 @@
         <v>386</v>
       </c>
       <c r="C177" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D177" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E177" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7610,13 +7632,13 @@
         <v>387</v>
       </c>
       <c r="C178" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D178" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E178" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7627,13 +7649,13 @@
         <v>388</v>
       </c>
       <c r="C179" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D179" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E179" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7644,13 +7666,13 @@
         <v>389</v>
       </c>
       <c r="C180" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D180" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E180" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7661,13 +7683,13 @@
         <v>390</v>
       </c>
       <c r="C181" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D181" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E181" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7678,13 +7700,13 @@
         <v>391</v>
       </c>
       <c r="C182" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D182" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E182" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -7704,13 +7726,13 @@
         <v>392</v>
       </c>
       <c r="C183" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D183" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E183" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -7730,13 +7752,13 @@
         <v>393</v>
       </c>
       <c r="C184" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D184" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E184" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -7756,13 +7778,13 @@
         <v>394</v>
       </c>
       <c r="C185" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D185" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E185" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -7782,13 +7804,13 @@
         <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D186" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E186" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -7808,13 +7830,13 @@
         <v>396</v>
       </c>
       <c r="C187" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D187" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E187" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7825,13 +7847,13 @@
         <v>397</v>
       </c>
       <c r="C188" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D188" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E188" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -7842,13 +7864,13 @@
         <v>398</v>
       </c>
       <c r="C189" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D189" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E189" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -7859,13 +7881,13 @@
         <v>399</v>
       </c>
       <c r="C190" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D190" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E190" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -7885,13 +7907,13 @@
         <v>400</v>
       </c>
       <c r="C191" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D191" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E191" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -7911,13 +7933,13 @@
         <v>401</v>
       </c>
       <c r="C192" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D192" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E192" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -7937,13 +7959,13 @@
         <v>402</v>
       </c>
       <c r="C193" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D193" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E193" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7954,13 +7976,13 @@
         <v>403</v>
       </c>
       <c r="C194" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D194" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E194" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7971,13 +7993,13 @@
         <v>404</v>
       </c>
       <c r="C195" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D195" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E195" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -7988,13 +8010,13 @@
         <v>405</v>
       </c>
       <c r="C196" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D196" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E196" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8005,13 +8027,13 @@
         <v>406</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D197" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E197" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -8031,13 +8053,13 @@
         <v>407</v>
       </c>
       <c r="C198" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D198" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E198" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -8057,13 +8079,13 @@
         <v>408</v>
       </c>
       <c r="C199" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D199" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E199" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -8083,10 +8105,10 @@
         <v>409</v>
       </c>
       <c r="D200" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E200" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8097,10 +8119,10 @@
         <v>410</v>
       </c>
       <c r="D201" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E201" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8111,10 +8133,10 @@
         <v>411</v>
       </c>
       <c r="D202" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E202" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8125,13 +8147,13 @@
         <v>412</v>
       </c>
       <c r="C203" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D203" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E203" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -8151,13 +8173,13 @@
         <v>413</v>
       </c>
       <c r="C204" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D204" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E204" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -8177,13 +8199,13 @@
         <v>414</v>
       </c>
       <c r="C205" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D205" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E205" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F205">
         <v>13</v>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DAE3C6-4039-4165-8DFE-B8D6356E3FD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353D00A-89FD-4F33-BF38-FE8193AB3677}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="799">
   <si>
     <t>ephysFN</t>
   </si>
@@ -2931,6 +2931,9 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Beto-01\2020-02-20-10-29-18</t>
+  </si>
+  <si>
+    <t>191125_Beto_selectivity_basic(1)_cmb</t>
   </si>
 </sst>
 </file>
@@ -3337,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,6 +5479,9 @@
       <c r="A83" t="s">
         <v>89</v>
       </c>
+      <c r="B83" t="s">
+        <v>798</v>
+      </c>
       <c r="C83" t="s">
         <v>493</v>
       </c>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monkey_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353D00A-89FD-4F33-BF38-FE8193AB3677}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6097F-96E3-4CEC-80FC-9A2D9E3207A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="820">
   <si>
     <t>ephysFN</t>
   </si>
@@ -658,6 +658,24 @@
     <t>Beto-21032020-006</t>
   </si>
   <si>
+    <t>Beto-06042020-001</t>
+  </si>
+  <si>
+    <t>Beto-06042020-002</t>
+  </si>
+  <si>
+    <t>Beto-06042020-003</t>
+  </si>
+  <si>
+    <t>Beto-06042020-004</t>
+  </si>
+  <si>
+    <t>Beto-06042020-005</t>
+  </si>
+  <si>
+    <t>Beto-06042020-007</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -901,6 +919,9 @@
     <t>191125_Beto_selectivity_basic(2)</t>
   </si>
   <si>
+    <t>191125_Beto_selectivity_basic(1)_cmb</t>
+  </si>
+  <si>
     <t>191125_Beto_rfMapper_basic(1)</t>
   </si>
   <si>
@@ -1267,6 +1288,24 @@
     <t>200321_Beto_generate_integrated(2)</t>
   </si>
   <si>
+    <t>200406_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200406_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200406_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200406_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200406_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200406_Beto_rfMapper_basic(4)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1684,12 +1723,27 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-06-Beto-01\2020-03-06-12-11-33</t>
   </si>
   <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Beto-01\2020-02-10-14-18-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Beto-02\2020-02-10-14-43-14</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-07-Beto-02\2020-02-07-10-23-49</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2020-02-14-Beto</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-02-14-Beto-01\2020-02-14-14-23-26</t>
   </si>
   <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-19-Beto-01\2020-02-19-14-23-48</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Beto-01\2020-02-20-10-29-18</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-06-RF-mapping\2020-03-11-Beto</t>
   </si>
   <si>
@@ -1766,6 +1820,15 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-03-21-Beto-03\2020-03-21-13-58-13</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-06-Beto-01\2020-04-06-14-29-06</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-06-Beto-02\2020-04-06-15-04-49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-06-Beto-03\2020-04-06-15-27-25</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -2897,6 +2960,45 @@
 Completed</t>
   </si>
   <si>
+    <t>Hp at 210
+001 at 219 PM
+rf mapping, -8:8:8
+Completed</t>
+  </si>
+  <si>
+    <t>002 at 221
+rf mapping, -8:4:8
+Completed</t>
+  </si>
+  <si>
+    <t>003 at 230 PM
+Dirty single unit - more of a (2-3)/5
+29 (0,0) 3 1 zoha full, 29 (0,0) 3 1 zoha reduced, IT
+16 minutes in, full evolution taking off, very modest evolution by reduced
+40 generations, plateau
+Completed</t>
+  </si>
+  <si>
+    <t>004 at 304 PM
+55 (0,0) 3 1, zoha full; 55 (0,0) 3 1, zoha red, V4, MU 5/5
+successful evolution, 25 blocks
+Completed</t>
+  </si>
+  <si>
+    <t>005 at 327 PM
+36 (0,0) 2 1, zoha full, 36 (0,0) 2 1, zoha reduced, V1, MU 5/5
+upped to 150 ms rew. Guy's complainy now.
+will do 20 blocks then a mini-rf mapper
+Completed</t>
+  </si>
+  <si>
+    <t>rfMapper
+006 - error
+007 at 352 PM (paired with last bhv2)
+RF for 36 looks like is at (+1,-1)
+Completed</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -2916,24 +3018,6 @@
   </si>
   <si>
     <t>ReducDimen_Evol</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Beto-01\2020-02-10-14-18-32</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-10-Beto-02\2020-02-10-14-43-14</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-07-Beto-02\2020-02-07-10-23-49</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-19-Beto-01\2020-02-19-14-23-48</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-02-20-Beto-01\2020-02-20-10-29-18</t>
-  </si>
-  <si>
-    <t>191125_Beto_selectivity_basic(1)_cmb</t>
   </si>
 </sst>
 </file>
@@ -2992,13 +3076,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3338,18 +3419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3383,16 +3464,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="E2" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3409,16 +3490,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3435,16 +3516,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D4" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="E4" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3461,16 +3542,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="E5" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3487,16 +3568,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="D6" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3513,16 +3594,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="E7" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3539,16 +3620,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="E8" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -3565,16 +3646,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="D9" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="E9" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3591,16 +3672,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="E10" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3617,16 +3698,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="E11" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3643,16 +3724,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="E12" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3669,16 +3750,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D13" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="E13" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3695,16 +3776,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="E14" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3721,16 +3802,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D15" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="E15" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3747,16 +3828,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D16" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="E16" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3773,16 +3854,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D17" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="E17" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3799,16 +3880,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="D18" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="E18" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3825,16 +3906,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E19" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3851,16 +3932,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="E20" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3877,16 +3958,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="E21" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3903,16 +3984,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="D22" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="E22" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3929,16 +4010,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="D23" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="E23" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3955,16 +4036,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D24" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="E24" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -3981,16 +4062,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D25" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="E25" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4007,16 +4088,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="D26" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E26" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -4033,16 +4114,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="D27" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="E27" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -4059,16 +4140,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D28" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="E28" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -4085,16 +4166,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="D29" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="E29" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -4111,16 +4192,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="D30" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="E30" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -4137,16 +4218,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D31" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="E31" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4163,16 +4244,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D32" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="E32" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4189,16 +4270,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C33" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="D33" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="E33" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4215,16 +4296,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D34" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="E34" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4241,16 +4322,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D35" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="E35" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4267,16 +4348,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C36" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="D36" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="E36" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4293,16 +4374,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D37" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="E37" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4319,16 +4400,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D38" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="E38" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4345,16 +4426,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="D39" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="E39" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4371,16 +4452,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D40" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="E40" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4397,16 +4478,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C41" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D41" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="E41" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -4423,16 +4504,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D42" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="E42" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -4449,16 +4530,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C43" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D43" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="E43" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -4475,16 +4556,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="D44" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="E44" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -4501,16 +4582,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D45" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="E45" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -4527,16 +4608,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D46" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="E46" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -4553,16 +4634,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D47" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="E47" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -4579,16 +4660,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D48" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="E48" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -4605,16 +4686,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D49" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="E49" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -4631,16 +4712,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D50" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="E50" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4657,16 +4738,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D51" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="E51" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4683,16 +4764,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D52" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="E52" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4709,13 +4790,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4732,16 +4813,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C54" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D54" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="E54" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4758,16 +4839,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D55" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="E55" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4784,16 +4865,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="D56" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="E56" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4810,16 +4891,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D57" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="E57" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4836,16 +4917,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C58" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D58" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="E58" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4862,16 +4943,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D59" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="E59" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4888,16 +4969,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D60" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="E60" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4914,16 +4995,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C61" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D61" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="E61" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -4940,16 +5021,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D62" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="E62" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -4966,16 +5047,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D63" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="E63" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -4992,16 +5073,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C64" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="D64" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="E64" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -5018,16 +5099,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C65" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D65" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="E65" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -5044,16 +5125,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C66" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D66" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="E66" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -5070,16 +5151,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C67" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="D67" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="E67" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -5096,16 +5177,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C68" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D68" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="E68" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -5122,16 +5203,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C69" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D69" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="E69" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -5148,16 +5229,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D70" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="E70" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5174,16 +5255,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D71" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="E71" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5200,16 +5281,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C72" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D72" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="E72" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5226,16 +5307,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D73" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="E73" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5252,16 +5333,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C74" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="E74" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5278,16 +5359,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C75" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="D75" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
       <c r="E75" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5304,16 +5385,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C76" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D76" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="E76" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5330,16 +5411,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D77" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
       <c r="E77" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5356,16 +5437,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="D78" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="E78" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5382,16 +5463,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="D79" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="E79" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -5408,16 +5489,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C80" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="D80" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="E80" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -5434,13 +5515,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D81" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -5457,13 +5538,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -5480,16 +5561,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>798</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D83" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
       <c r="E83" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -5506,16 +5587,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C84" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D84" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="E84" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -5532,16 +5613,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C85" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="D85" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="E85" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -5558,16 +5639,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C86" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D86" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="E86" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -5584,16 +5665,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C87" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D87" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
       <c r="E87" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -5610,16 +5691,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C88" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="D88" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="E88" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -5636,16 +5717,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C89" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="D89" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="E89" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -5662,16 +5743,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C90" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D90" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="E90" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5688,16 +5769,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C91" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="D91" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="E91" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5714,16 +5795,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C92" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="D92" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="E92" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5740,16 +5821,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C93" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="D93" t="s">
-        <v>673</v>
+        <v>694</v>
       </c>
       <c r="E93" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5766,16 +5847,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C94" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D94" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="E94" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5792,16 +5873,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="D95" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="E95" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5818,16 +5899,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C96" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="D96" t="s">
-        <v>676</v>
+        <v>697</v>
       </c>
       <c r="E96" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5844,16 +5925,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C97" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D97" t="s">
-        <v>677</v>
+        <v>698</v>
       </c>
       <c r="E97" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5870,16 +5951,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C98" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="D98" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="E98" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5896,16 +5977,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C99" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D99" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="E99" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -5922,16 +6003,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C100" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D100" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="E100" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -5948,16 +6029,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C101" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="D101" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="E101" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -5968,16 +6049,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D102" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="E102" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -5994,16 +6075,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C103" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="D103" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="E103" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -6020,16 +6101,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C104" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="D104" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="E104" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -6046,16 +6127,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C105" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="D105" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="E105" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -6072,16 +6153,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C106" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="D106" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="E106" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -6098,16 +6179,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C107" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="D107" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="E107" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -6124,16 +6205,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="D108" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="E108" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -6144,16 +6225,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C109" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="D109" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="E109" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -6164,16 +6245,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C110" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D110" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="E110" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6190,16 +6271,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C111" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="E111" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6216,16 +6297,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C112" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D112" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="E112" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6242,16 +6323,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C113" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="D113" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="E113" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6268,16 +6349,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C114" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="D114" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="E114" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6294,16 +6375,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C115" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="D115" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="E115" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6320,16 +6401,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C116" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="D116" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="E116" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -6340,16 +6421,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C117" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="D117" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="E117" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6366,16 +6447,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C118" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D118" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="E118" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -6386,16 +6467,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C119" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="D119" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="E119" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6412,16 +6493,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C120" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D120" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="E120" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -6438,16 +6519,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C121" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="D121" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E121" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -6458,16 +6539,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C122" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="D122" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="E122" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6484,13 +6565,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C123" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="D123" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -6504,16 +6585,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C124" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="D124" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="E124" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -6524,16 +6605,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C125" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="D125" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="E125" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6544,16 +6625,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C126" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="D126" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="E126" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -6570,16 +6651,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C127" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="D127" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="E127" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6587,13 +6668,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C128" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D128" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -6607,16 +6688,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C129" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D129" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="E129" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -6633,13 +6714,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C130" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D130" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -6650,13 +6731,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C131" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="D131" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6667,16 +6748,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C132" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="D132" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="E132" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6693,16 +6774,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C133" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="D133" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="E133" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6719,16 +6800,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C134" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D134" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="E134" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -6739,16 +6820,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C135" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D135" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="E135" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -6759,16 +6840,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C136" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D136" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="E136" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6785,16 +6866,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C137" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="D137" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="E137" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6811,16 +6892,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C138" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="D138" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="E138" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6837,16 +6918,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C139" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="D139" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="E139" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6863,16 +6944,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C140" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="D140" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="E140" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -6883,16 +6964,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C141" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="D141" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="E141" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6903,16 +6984,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C142" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="D142" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="E142" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6929,16 +7010,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C143" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="D143" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="E143" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -6955,16 +7036,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C144" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="D144" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="E144" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -6975,16 +7056,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C145" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="D145" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="E145" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -6995,16 +7076,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C146" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="D146" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="E146" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -7021,16 +7102,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C147" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D147" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="E147" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -7047,16 +7128,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C148" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="D148" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="E148" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7073,16 +7154,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C149" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D149" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="E149" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -7093,16 +7174,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C150" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D150" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="E150" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -7113,16 +7194,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C151" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="D151" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="E151" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7139,16 +7220,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C152" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D152" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="E152" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -7165,13 +7246,13 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D153" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="E153" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7179,16 +7260,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="D154" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="E154" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -7205,13 +7286,13 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D155" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="E155" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7219,13 +7300,13 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D156" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="E156" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7233,13 +7314,13 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C157" t="s">
-        <v>793</v>
+        <v>567</v>
       </c>
       <c r="D157" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -7250,16 +7331,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C158" t="s">
-        <v>794</v>
+        <v>568</v>
       </c>
       <c r="D158" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="E158" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -7270,30 +7351,30 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D159" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="E159" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C160" t="s">
-        <v>795</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>740</v>
+        <v>569</v>
+      </c>
+      <c r="D160" t="s">
+        <v>761</v>
       </c>
       <c r="E160" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -7307,16 +7388,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C161" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="D161" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="E161" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7324,16 +7405,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C162" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="D162" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="E162" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7341,16 +7422,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C163" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="D163" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="E163" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -7364,16 +7445,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C164" t="s">
-        <v>796</v>
+        <v>572</v>
       </c>
       <c r="D164" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="E164" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -7387,13 +7468,13 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D165" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="E165" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7401,13 +7482,13 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D166" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="E166" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7415,16 +7496,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C167" t="s">
-        <v>797</v>
+        <v>573</v>
       </c>
       <c r="D167" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="E167" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -7438,16 +7519,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C168" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="D168" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="E168" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7455,16 +7536,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C169" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="D169" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="E169" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7472,16 +7553,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C170" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="D170" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="E170" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -7498,16 +7579,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C171" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="D171" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="E171" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -7524,16 +7605,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C172" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="D172" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="E172" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -7550,16 +7631,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C173" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="D173" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="E173" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7567,16 +7648,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C174" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="D174" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="E174" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7584,16 +7665,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C175" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="D175" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="E175" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7601,16 +7682,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C176" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="D176" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="E176" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -7618,16 +7699,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C177" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="D177" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="E177" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7635,16 +7716,16 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C178" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="D178" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="E178" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7652,16 +7733,16 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C179" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="D179" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="E179" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7669,16 +7750,16 @@
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C180" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="D180" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="E180" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7686,16 +7767,16 @@
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C181" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="D181" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="E181" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7703,16 +7784,16 @@
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C182" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="D182" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="E182" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -7729,16 +7810,16 @@
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C183" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="D183" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="E183" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -7755,16 +7836,16 @@
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C184" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="D184" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="E184" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -7781,16 +7862,16 @@
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C185" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="D185" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="E185" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -7807,16 +7888,16 @@
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C186" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="D186" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="E186" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -7833,16 +7914,16 @@
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C187" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="D187" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="E187" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7850,16 +7931,16 @@
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C188" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="D188" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="E188" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -7867,16 +7948,16 @@
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C189" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="D189" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="E189" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -7884,16 +7965,16 @@
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C190" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="D190" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="E190" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -7910,16 +7991,16 @@
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C191" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="D191" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="E191" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -7936,16 +8017,16 @@
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C192" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D192" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="E192" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -7962,16 +8043,16 @@
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C193" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="D193" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="E193" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7979,16 +8060,16 @@
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C194" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="D194" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="E194" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7996,16 +8077,16 @@
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C195" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="D195" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="E195" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8013,16 +8094,16 @@
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C196" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="D196" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="E196" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8030,16 +8111,16 @@
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C197" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="D197" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="E197" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -8056,16 +8137,16 @@
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C198" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="D198" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="E198" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -8082,16 +8163,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C199" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="D199" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="E199" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -8108,13 +8189,13 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D200" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="E200" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8122,13 +8203,13 @@
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D201" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="E201" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8136,13 +8217,13 @@
         <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D202" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="E202" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8150,16 +8231,16 @@
         <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C203" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="D203" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="E203" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -8176,16 +8257,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C204" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="D204" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="E204" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -8202,16 +8283,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C205" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="D205" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="E205" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -8221,6 +8302,126 @@
       </c>
       <c r="H205">
         <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206" t="s">
+        <v>422</v>
+      </c>
+      <c r="D206" t="s">
+        <v>807</v>
+      </c>
+      <c r="E206" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>213</v>
+      </c>
+      <c r="B207" t="s">
+        <v>423</v>
+      </c>
+      <c r="D207" t="s">
+        <v>808</v>
+      </c>
+      <c r="E207" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" t="s">
+        <v>424</v>
+      </c>
+      <c r="C208" t="s">
+        <v>600</v>
+      </c>
+      <c r="D208" t="s">
+        <v>809</v>
+      </c>
+      <c r="E208" t="s">
+        <v>819</v>
+      </c>
+      <c r="F208">
+        <v>14</v>
+      </c>
+      <c r="G208">
+        <v>29</v>
+      </c>
+      <c r="H208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" t="s">
+        <v>425</v>
+      </c>
+      <c r="C209" t="s">
+        <v>601</v>
+      </c>
+      <c r="D209" t="s">
+        <v>810</v>
+      </c>
+      <c r="E209" t="s">
+        <v>819</v>
+      </c>
+      <c r="F209">
+        <v>15</v>
+      </c>
+      <c r="G209">
+        <v>55</v>
+      </c>
+      <c r="H209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" t="s">
+        <v>426</v>
+      </c>
+      <c r="C210" t="s">
+        <v>602</v>
+      </c>
+      <c r="D210" t="s">
+        <v>811</v>
+      </c>
+      <c r="E210" t="s">
+        <v>819</v>
+      </c>
+      <c r="F210">
+        <v>16</v>
+      </c>
+      <c r="G210">
+        <v>36</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" t="s">
+        <v>427</v>
+      </c>
+      <c r="D211" t="s">
+        <v>812</v>
+      </c>
+      <c r="E211" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monkey_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6097F-96E3-4CEC-80FC-9A2D9E3207A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033D18C-C78F-4252-AE2A-79089A3BB71E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="909">
   <si>
     <t>ephysFN</t>
   </si>
@@ -676,6 +676,81 @@
     <t>Beto-06042020-007</t>
   </si>
   <si>
+    <t>Beto-08042020-001</t>
+  </si>
+  <si>
+    <t>Beto-08042020-002</t>
+  </si>
+  <si>
+    <t>Beto-08042020-003</t>
+  </si>
+  <si>
+    <t>Beto-08042020-004</t>
+  </si>
+  <si>
+    <t>Beto-08042020-005</t>
+  </si>
+  <si>
+    <t>Beto-10042020-001</t>
+  </si>
+  <si>
+    <t>Beto-10042020-002</t>
+  </si>
+  <si>
+    <t>Beto-10042020-003</t>
+  </si>
+  <si>
+    <t>Beto-10042020-004</t>
+  </si>
+  <si>
+    <t>Beto-10042020-006</t>
+  </si>
+  <si>
+    <t>Beto-10042020-007</t>
+  </si>
+  <si>
+    <t>Beto-13042020-001</t>
+  </si>
+  <si>
+    <t>Beto-13042020-002</t>
+  </si>
+  <si>
+    <t>Beto-13042020-003</t>
+  </si>
+  <si>
+    <t>Beto-13042020-004</t>
+  </si>
+  <si>
+    <t>Beto-13042020-005</t>
+  </si>
+  <si>
+    <t>Beto-15042020-001</t>
+  </si>
+  <si>
+    <t>Beto-15042020-002</t>
+  </si>
+  <si>
+    <t>Beto-15042020-003</t>
+  </si>
+  <si>
+    <t>Beto-15042020-004</t>
+  </si>
+  <si>
+    <t>Beto-17042020-001</t>
+  </si>
+  <si>
+    <t>Beto-17042020-002</t>
+  </si>
+  <si>
+    <t>Beto-17042020-003</t>
+  </si>
+  <si>
+    <t>Beto-17042020-004</t>
+  </si>
+  <si>
+    <t>Beto-17042020-005</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1306,6 +1381,81 @@
     <t>200406_Beto_rfMapper_basic(4)</t>
   </si>
   <si>
+    <t>200408_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200408_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200408_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200408_Beto_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200408_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200410_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200410_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200410_Beto_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200410_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200410_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200410_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200413_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200413_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200413_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200413_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200413_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200415_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200415_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200415_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200415_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200417_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200417_Beto_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200417_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200417_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200417_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1829,6 +1979,48 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-06-Beto-03\2020-04-06-15-27-25</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-08-Beto-01\2020-04-08-15-29-48</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Selectivity\2020-04-08-Beto-ch61</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-08-Beto-02\2020-04-08-16-16-46</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-01\2020-04-10-14-13-19</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-03\2020-04-10-15-13-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-13-Beto-01\2020-04-13-13-18-34</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-13-Beto-02\2020-04-13-14-09-59</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-13-Beto-03\2020-04-13-14-31-55</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-15-Beto-01\2020-04-15-11-05-07</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-15-Beto-02\2020-04-15-12-07-08</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-17-Beto-01\2020-04-17-10-50-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-17-Beto-02\2020-04-17-11-20-46</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-17-Beto-03\2020-04-17-11-40-35</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -2997,6 +3189,171 @@
 007 at 352 PM (paired with last bhv2)
 RF for 36 looks like is at (+1,-1)
 Completed</t>
+  </si>
+  <si>
+    <t>001 at 3:17 PM
+rf mapping -6:2:6 grid
+chan 61 (-3,-2.7) looking great</t>
+  </si>
+  <si>
+    <t>002 at 323 PM
+rf mapping, -2:1:2 at (-3,-2.7)
+Chan 61 is very responsive, target</t>
+  </si>
+  <si>
+    <t>003 at 329 PM
+generate_integrated
+61 (-2.8,-3) 3 1, ZOHA full
+61 (-2.8,-3) 3 1 ZOHA reduced
+full climbing. Not just above references but ok. We're at 33 completed</t>
+  </si>
+  <si>
+    <t>004 @ 408 PM
+selectivity using small set of Pasupathy shapes
+61 (-2.8,-3) 3-deg
+6 reps</t>
+  </si>
+  <si>
+    <t>005 at 4:16 PM
+15 (-1,0) 3 1 ZOHA
+15 (-1,0) 3 1 ZOHA Reduced, hash, 5/5
+complainy - 427 PM. At it for 70 min
+up to 130 ms. Has only had 100 cc
+450 PM 39 completed. Complainy. We can end at 40, seems fairly converged</t>
+  </si>
+  <si>
+    <t>Hp at around 150 PM
+001 at 158 PM
+rf mapping, -8:4:8, stimulus 4-deg</t>
+  </si>
+  <si>
+    <t>002 at 202 PM
+rf mapping -4:2:4, 2 deg</t>
+  </si>
+  <si>
+    <t>003 at 206 PM
+rf mapping -2:1:2, 1 deg</t>
+  </si>
+  <si>
+    <t>004 at 213 PM
+generate integrated
+18 (-0.8,0.8) 3 1 ZOHA full, 18 (-0.8,0.8) 3 1, ZOHA Red, Hash MU 5/5
+31 blocks, very minor increase in rate, didn't get even close to natural images.
+signal may be too crappy, but just to confirm, let's re-do 10 blocks with 5-degree stimuli
+completed, but no diagnostic evolution.</t>
+  </si>
+  <si>
+    <t>006 at 254 PM
+generate integrated
+41 (0,0) 2 1 ZOHA full, 41 (0,0) 2 1, ZOHA Red, Hash MU 5/5
+V1. Oh man, crummy PSTH!
+but worked. 20 generations, converged.
+completed</t>
+  </si>
+  <si>
+    <t>007 at
+313 PM
+49 (0,0) 2 1 ZOHA full, 49 (0,0) 2 1, ZOHA Red, Hash MU 5/5
+V4
+23-24 blocks completed. Converged.
+completed</t>
+  </si>
+  <si>
+    <t>Hp around 1 PM
+001 at 108 PM
+rf mapping at 4 deg (-8:4:8), 25 positions</t>
+  </si>
+  <si>
+    <t>002 at 113 PM
+rf mapping with 1-deg (-2:1:2)
+26: (-1,0)</t>
+  </si>
+  <si>
+    <t>003 at 118 PM
+generate integrated
+26 (-1,0) 3 1, zoha full; 26 (-1,0) 3 1 zoha reduced, hash 5/5</t>
+  </si>
+  <si>
+    <t>004 at 209 PM
+52 (0,-0.5) 2 1, zoha full and reduced, hash 5/5
+converging quick. Let's say 20 gens</t>
+  </si>
+  <si>
+    <t>005 at 232 PM
+43 (0,-0.5) 2 1, zoha full and reduced, has 5/5
+as many as we can get. Monkey signaling.
+oof, 7 generations and I think he is nearly done. Maybe 3 more</t>
+  </si>
+  <si>
+    <t>Hp at 1045
+001 @10:51 AM
+Rf mapping 3 °
+17 SU Looking great(-2,0)
+completed</t>
+  </si>
+  <si>
+    <t>002@10:55 AM
+Rf mapping 1-deg
+monkey napping
+completed</t>
+  </si>
+  <si>
+    <t>003@1105 AM
+generate integrated, 17 (-2,0.5) 3 1, zoha full, 17 (-2:0, 0:5) 3 I, zoha red. Su 1/5
+Struggling to keep fixation. wants to look@ object
+11:55 Am, first sign
+Note that full evolution is creating two little eyes, about same distance(Inter ocular) as one of the reference images
+Completed
+full zoha
+Reduced zoha</t>
+  </si>
+  <si>
+    <t>Oo8 at1207
+34 (-0:1,-0.3)2 1, zoha and zoha reduced, hash 5/5
+12:37 .PAM - guy about to end
+completed</t>
+  </si>
+  <si>
+    <t>Hp at 1020, betadine
+Rf map start at 1034
+2 degrees
+5blockscomplete at 1037
+completed</t>
+  </si>
+  <si>
+    <t>Rf 3 degrees start at 1038
+4 blocks complete at 1042
+28 0 3 2 degrees
+44
+completed</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1050
+Ch 28 SU
+28 [0 3] 2 1 zoha sphere lr Euclid
+28 [0 3] 2 1 zoha sphere lr Euclid reducdim
+20 blocks complete at 1113
+completed</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1121
+CH 51 hash
+51 [0 0] 2 1 zoha sphere lr Euclid
+51 [0 0] 2 1 zoha sphere lr Euclid reducdim
+Sounds visually responsive,  climbing already at block 4
+Starting to shake
+21 blocks complete at 1138
+completed</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1140
+Ch 44 MU
+44  [0 0] 2 1 zoha sphere lr Euclid
+44 [0 0] 2 1 zoha sphere lr Euclid reducdim
+Still shaking, we will see how far we get
+Starting to lose the 2 distinct units but it sounds vr and is climbing so well let it go
+20 blocks complete at 1204
+completed</t>
   </si>
   <si>
     <t>Manifold</t>
@@ -3419,18 +3776,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="H237" sqref="H237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3464,16 +3822,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="E2" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3490,16 +3848,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="E3" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3516,16 +3874,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="E4" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3542,16 +3900,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="D5" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3568,16 +3926,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="E6" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3594,16 +3952,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="E7" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3620,16 +3978,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="D8" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
       <c r="E8" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -3646,16 +4004,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
-        <v>610</v>
+        <v>674</v>
       </c>
       <c r="E9" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3672,16 +4030,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="D10" t="s">
-        <v>611</v>
+        <v>675</v>
       </c>
       <c r="E10" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3698,16 +4056,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="D11" t="s">
-        <v>612</v>
+        <v>676</v>
       </c>
       <c r="E11" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3724,16 +4082,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>613</v>
+        <v>677</v>
       </c>
       <c r="E12" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3750,16 +4108,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="D13" t="s">
-        <v>614</v>
+        <v>678</v>
       </c>
       <c r="E13" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3776,16 +4134,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="D14" t="s">
-        <v>615</v>
+        <v>679</v>
       </c>
       <c r="E14" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3802,16 +4160,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -3828,16 +4186,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3854,16 +4212,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="D17" t="s">
-        <v>618</v>
+        <v>682</v>
       </c>
       <c r="E17" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3880,16 +4238,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="D18" t="s">
-        <v>619</v>
+        <v>683</v>
       </c>
       <c r="E18" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -3906,16 +4264,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="D19" t="s">
-        <v>620</v>
+        <v>684</v>
       </c>
       <c r="E19" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -3932,16 +4290,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="D20" t="s">
-        <v>621</v>
+        <v>685</v>
       </c>
       <c r="E20" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3958,16 +4316,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="D21" t="s">
-        <v>622</v>
+        <v>686</v>
       </c>
       <c r="E21" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3984,16 +4342,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="D22" t="s">
-        <v>623</v>
+        <v>687</v>
       </c>
       <c r="E22" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -4010,16 +4368,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>624</v>
+        <v>688</v>
       </c>
       <c r="E23" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -4036,16 +4394,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="D24" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="E24" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -4062,16 +4420,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="D25" t="s">
-        <v>626</v>
+        <v>690</v>
       </c>
       <c r="E25" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4088,16 +4446,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="D26" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
       <c r="E26" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -4114,16 +4472,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="D27" t="s">
-        <v>628</v>
+        <v>692</v>
       </c>
       <c r="E27" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -4140,16 +4498,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="D28" t="s">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -4166,16 +4524,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="D29" t="s">
-        <v>630</v>
+        <v>694</v>
       </c>
       <c r="E29" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -4192,16 +4550,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="D30" t="s">
-        <v>631</v>
+        <v>695</v>
       </c>
       <c r="E30" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -4218,16 +4576,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="D31" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
       <c r="E31" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4244,16 +4602,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="D32" t="s">
-        <v>633</v>
+        <v>697</v>
       </c>
       <c r="E32" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4270,16 +4628,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="D33" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="E33" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4296,16 +4654,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="D34" t="s">
-        <v>635</v>
+        <v>699</v>
       </c>
       <c r="E34" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4322,16 +4680,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="D35" t="s">
-        <v>636</v>
+        <v>700</v>
       </c>
       <c r="E35" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4348,16 +4706,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="D36" t="s">
-        <v>637</v>
+        <v>701</v>
       </c>
       <c r="E36" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4374,16 +4732,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="D37" t="s">
-        <v>638</v>
+        <v>702</v>
       </c>
       <c r="E37" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4400,16 +4758,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C38" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="D38" t="s">
-        <v>639</v>
+        <v>703</v>
       </c>
       <c r="E38" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4426,16 +4784,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C39" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="D39" t="s">
-        <v>640</v>
+        <v>704</v>
       </c>
       <c r="E39" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4452,16 +4810,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="D40" t="s">
-        <v>641</v>
+        <v>705</v>
       </c>
       <c r="E40" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4478,16 +4836,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="D41" t="s">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="E41" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -4504,16 +4862,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="D42" t="s">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="E42" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -4530,16 +4888,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="D43" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="E43" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -4556,16 +4914,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="D44" t="s">
-        <v>645</v>
+        <v>709</v>
       </c>
       <c r="E44" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -4582,16 +4940,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="D45" t="s">
-        <v>646</v>
+        <v>710</v>
       </c>
       <c r="E45" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -4608,16 +4966,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="D46" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="E46" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -4634,16 +4992,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="D47" t="s">
-        <v>648</v>
+        <v>712</v>
       </c>
       <c r="E47" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -4660,16 +5018,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="D48" t="s">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="E48" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -4686,16 +5044,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C49" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="D49" t="s">
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="E49" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -4712,16 +5070,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C50" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="D50" t="s">
-        <v>651</v>
+        <v>715</v>
       </c>
       <c r="E50" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -4738,16 +5096,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C51" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="D51" t="s">
-        <v>652</v>
+        <v>716</v>
       </c>
       <c r="E51" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4764,16 +5122,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="D52" t="s">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="E52" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -4790,13 +5148,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C53" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="D53" t="s">
-        <v>654</v>
+        <v>718</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -4813,16 +5171,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C54" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="D54" t="s">
-        <v>655</v>
+        <v>719</v>
       </c>
       <c r="E54" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -4839,16 +5197,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="D55" t="s">
-        <v>656</v>
+        <v>720</v>
       </c>
       <c r="E55" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -4865,16 +5223,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C56" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="D56" t="s">
-        <v>657</v>
+        <v>721</v>
       </c>
       <c r="E56" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -4891,16 +5249,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="D57" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="E57" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -4917,16 +5275,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="D58" t="s">
-        <v>659</v>
+        <v>723</v>
       </c>
       <c r="E58" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -4943,16 +5301,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="D59" t="s">
-        <v>660</v>
+        <v>724</v>
       </c>
       <c r="E59" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -4969,16 +5327,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="D60" t="s">
-        <v>661</v>
+        <v>725</v>
       </c>
       <c r="E60" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -4995,16 +5353,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="D61" t="s">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="E61" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -5021,16 +5379,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="D62" t="s">
-        <v>663</v>
+        <v>727</v>
       </c>
       <c r="E62" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -5047,16 +5405,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="D63" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="E63" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -5073,16 +5431,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="D64" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="E64" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -5099,16 +5457,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="D65" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="E65" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -5125,16 +5483,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="D66" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="E66" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -5151,16 +5509,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="D67" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="E67" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -5177,16 +5535,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="D68" t="s">
-        <v>669</v>
+        <v>733</v>
       </c>
       <c r="E68" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -5203,16 +5561,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="D69" t="s">
-        <v>670</v>
+        <v>734</v>
       </c>
       <c r="E69" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -5229,16 +5587,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="D70" t="s">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="E70" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5255,16 +5613,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="D71" t="s">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="E71" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5281,16 +5639,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="D72" t="s">
-        <v>673</v>
+        <v>737</v>
       </c>
       <c r="E72" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5307,16 +5665,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="D73" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
       <c r="E73" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5333,16 +5691,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="D74" t="s">
-        <v>675</v>
+        <v>739</v>
       </c>
       <c r="E74" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5359,16 +5717,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D75" t="s">
-        <v>676</v>
+        <v>740</v>
       </c>
       <c r="E75" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5385,16 +5743,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="C76" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="D76" t="s">
-        <v>677</v>
+        <v>741</v>
       </c>
       <c r="E76" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5411,16 +5769,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="D77" t="s">
-        <v>678</v>
+        <v>742</v>
       </c>
       <c r="E77" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5437,16 +5795,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="D78" t="s">
-        <v>679</v>
+        <v>743</v>
       </c>
       <c r="E78" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5463,16 +5821,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="D79" t="s">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="E79" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -5489,16 +5847,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="D80" t="s">
-        <v>681</v>
+        <v>745</v>
       </c>
       <c r="E80" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -5515,13 +5873,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="D81" t="s">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -5538,13 +5896,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="D82" t="s">
-        <v>683</v>
+        <v>747</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -5561,16 +5919,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C83" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="D83" t="s">
-        <v>684</v>
+        <v>748</v>
       </c>
       <c r="E83" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -5587,16 +5945,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="D84" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
       <c r="E84" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -5613,16 +5971,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C85" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="D85" t="s">
-        <v>686</v>
+        <v>750</v>
       </c>
       <c r="E85" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -5639,16 +5997,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="C86" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="D86" t="s">
-        <v>687</v>
+        <v>751</v>
       </c>
       <c r="E86" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -5665,16 +6023,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="D87" t="s">
-        <v>688</v>
+        <v>752</v>
       </c>
       <c r="E87" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -5691,16 +6049,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C88" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="D88" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
       <c r="E88" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -5717,16 +6075,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="C89" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="D89" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="E89" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -5743,16 +6101,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C90" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="D90" t="s">
-        <v>691</v>
+        <v>755</v>
       </c>
       <c r="E90" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -5769,16 +6127,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="C91" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="D91" t="s">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="E91" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -5795,16 +6153,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="D92" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
       <c r="E92" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -5821,16 +6179,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C93" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="D93" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
       <c r="E93" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -5847,16 +6205,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C94" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="D94" t="s">
-        <v>695</v>
+        <v>759</v>
       </c>
       <c r="E94" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -5873,16 +6231,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="C95" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="D95" t="s">
-        <v>696</v>
+        <v>760</v>
       </c>
       <c r="E95" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -5899,16 +6257,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C96" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="D96" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="E96" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -5925,16 +6283,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C97" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="D97" t="s">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="E97" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -5951,16 +6309,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C98" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="D98" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
       <c r="E98" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -5977,16 +6335,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C99" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="D99" t="s">
-        <v>700</v>
+        <v>764</v>
       </c>
       <c r="E99" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -6003,16 +6361,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C100" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="D100" t="s">
-        <v>701</v>
+        <v>765</v>
       </c>
       <c r="E100" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -6029,16 +6387,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C101" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="D101" t="s">
-        <v>702</v>
+        <v>766</v>
       </c>
       <c r="E101" t="s">
-        <v>814</v>
+        <v>903</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -6049,16 +6407,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C102" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="D102" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="E102" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -6075,16 +6433,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="D103" t="s">
-        <v>704</v>
+        <v>768</v>
       </c>
       <c r="E103" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -6101,16 +6459,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="C104" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="D104" t="s">
-        <v>705</v>
+        <v>769</v>
       </c>
       <c r="E104" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -6127,16 +6485,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C105" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="D105" t="s">
-        <v>706</v>
+        <v>770</v>
       </c>
       <c r="E105" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -6153,16 +6511,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="C106" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="D106" t="s">
-        <v>707</v>
+        <v>771</v>
       </c>
       <c r="E106" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -6179,16 +6537,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C107" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="D107" t="s">
-        <v>708</v>
+        <v>772</v>
       </c>
       <c r="E107" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -6205,16 +6563,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C108" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="D108" t="s">
-        <v>709</v>
+        <v>773</v>
       </c>
       <c r="E108" t="s">
-        <v>814</v>
+        <v>903</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -6225,16 +6583,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C109" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="D109" t="s">
-        <v>710</v>
+        <v>774</v>
       </c>
       <c r="E109" t="s">
-        <v>814</v>
+        <v>903</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -6245,16 +6603,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="C110" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="D110" t="s">
-        <v>711</v>
+        <v>775</v>
       </c>
       <c r="E110" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6271,16 +6629,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="D111" t="s">
-        <v>712</v>
+        <v>776</v>
       </c>
       <c r="E111" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6297,16 +6655,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C112" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="D112" t="s">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="E112" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6323,16 +6681,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="C113" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="D113" t="s">
-        <v>714</v>
+        <v>778</v>
       </c>
       <c r="E113" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6349,16 +6707,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="C114" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="D114" t="s">
-        <v>715</v>
+        <v>779</v>
       </c>
       <c r="E114" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6375,16 +6733,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="C115" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="D115" t="s">
-        <v>716</v>
+        <v>780</v>
       </c>
       <c r="E115" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6401,16 +6759,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="C116" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="D116" t="s">
-        <v>717</v>
+        <v>781</v>
       </c>
       <c r="E116" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -6421,16 +6779,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C117" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="D117" t="s">
-        <v>718</v>
+        <v>782</v>
       </c>
       <c r="E117" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6447,16 +6805,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C118" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
       <c r="D118" t="s">
-        <v>719</v>
+        <v>783</v>
       </c>
       <c r="E118" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -6467,16 +6825,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="C119" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="D119" t="s">
-        <v>720</v>
+        <v>784</v>
       </c>
       <c r="E119" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6493,16 +6851,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C120" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="D120" t="s">
-        <v>721</v>
+        <v>785</v>
       </c>
       <c r="E120" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -6519,16 +6877,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="C121" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
       <c r="D121" t="s">
-        <v>722</v>
+        <v>786</v>
       </c>
       <c r="E121" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -6539,16 +6897,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="C122" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="D122" t="s">
-        <v>723</v>
+        <v>787</v>
       </c>
       <c r="E122" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6565,13 +6923,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="C123" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="D123" t="s">
-        <v>724</v>
+        <v>788</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -6585,16 +6943,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="C124" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
       <c r="D124" t="s">
-        <v>725</v>
+        <v>789</v>
       </c>
       <c r="E124" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -6605,16 +6963,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C125" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
       <c r="D125" t="s">
-        <v>726</v>
+        <v>790</v>
       </c>
       <c r="E125" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6625,16 +6983,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C126" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="D126" t="s">
-        <v>727</v>
+        <v>791</v>
       </c>
       <c r="E126" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -6651,16 +7009,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C127" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="D127" t="s">
-        <v>728</v>
+        <v>792</v>
       </c>
       <c r="E127" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6668,13 +7026,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="C128" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="D128" t="s">
-        <v>729</v>
+        <v>793</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -6688,16 +7046,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C129" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="D129" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="E129" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -6714,13 +7072,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C130" t="s">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="D130" t="s">
-        <v>731</v>
+        <v>795</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -6731,13 +7089,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="C131" t="s">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="D131" t="s">
-        <v>732</v>
+        <v>796</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -6748,16 +7106,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C132" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="D132" t="s">
-        <v>733</v>
+        <v>797</v>
       </c>
       <c r="E132" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6774,16 +7132,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C133" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D133" t="s">
-        <v>734</v>
+        <v>798</v>
       </c>
       <c r="E133" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6800,16 +7158,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C134" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="D134" t="s">
-        <v>735</v>
+        <v>799</v>
       </c>
       <c r="E134" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -6820,16 +7178,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C135" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="D135" t="s">
-        <v>736</v>
+        <v>800</v>
       </c>
       <c r="E135" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -6840,16 +7198,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="C136" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="D136" t="s">
-        <v>737</v>
+        <v>801</v>
       </c>
       <c r="E136" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6866,16 +7224,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
       <c r="D137" t="s">
-        <v>738</v>
+        <v>802</v>
       </c>
       <c r="E137" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -6892,16 +7250,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C138" t="s">
-        <v>554</v>
+        <v>604</v>
       </c>
       <c r="D138" t="s">
-        <v>739</v>
+        <v>803</v>
       </c>
       <c r="E138" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -6918,16 +7276,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="C139" t="s">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="D139" t="s">
-        <v>740</v>
+        <v>804</v>
       </c>
       <c r="E139" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -6944,16 +7302,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="C140" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="D140" t="s">
-        <v>741</v>
+        <v>805</v>
       </c>
       <c r="E140" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -6964,16 +7322,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C141" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="D141" t="s">
-        <v>742</v>
+        <v>806</v>
       </c>
       <c r="E141" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6984,16 +7342,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C142" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="D142" t="s">
-        <v>743</v>
+        <v>807</v>
       </c>
       <c r="E142" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -7010,16 +7368,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="C143" t="s">
-        <v>558</v>
+        <v>608</v>
       </c>
       <c r="D143" t="s">
-        <v>744</v>
+        <v>808</v>
       </c>
       <c r="E143" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -7036,16 +7394,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C144" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
       <c r="D144" t="s">
-        <v>745</v>
+        <v>809</v>
       </c>
       <c r="E144" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -7056,16 +7414,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="C145" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
       <c r="D145" t="s">
-        <v>746</v>
+        <v>810</v>
       </c>
       <c r="E145" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -7076,16 +7434,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="C146" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="D146" t="s">
-        <v>747</v>
+        <v>811</v>
       </c>
       <c r="E146" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -7102,16 +7460,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="C147" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="D147" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="E147" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -7128,16 +7486,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="C148" t="s">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="D148" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="E148" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7154,16 +7512,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="C149" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
       <c r="D149" t="s">
-        <v>750</v>
+        <v>814</v>
       </c>
       <c r="E149" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -7174,16 +7532,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C150" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
       <c r="D150" t="s">
-        <v>751</v>
+        <v>815</v>
       </c>
       <c r="E150" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -7194,16 +7552,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="C151" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="D151" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
       <c r="E151" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7220,16 +7578,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="C152" t="s">
-        <v>565</v>
+        <v>615</v>
       </c>
       <c r="D152" t="s">
-        <v>753</v>
+        <v>817</v>
       </c>
       <c r="E152" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -7246,13 +7604,13 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D153" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="E153" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7260,16 +7618,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C154" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
       <c r="D154" t="s">
-        <v>755</v>
+        <v>819</v>
       </c>
       <c r="E154" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -7286,13 +7644,13 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D155" t="s">
-        <v>756</v>
+        <v>820</v>
       </c>
       <c r="E155" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7300,13 +7658,13 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="D156" t="s">
-        <v>757</v>
+        <v>821</v>
       </c>
       <c r="E156" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7314,13 +7672,13 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C157" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="D157" t="s">
-        <v>758</v>
+        <v>822</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -7331,16 +7689,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C158" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
       <c r="D158" t="s">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="E158" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -7351,13 +7709,13 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D159" t="s">
-        <v>760</v>
+        <v>824</v>
       </c>
       <c r="E159" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7365,16 +7723,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="C160" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="D160" t="s">
-        <v>761</v>
+        <v>825</v>
       </c>
       <c r="E160" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -7388,16 +7746,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="C161" t="s">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="D161" t="s">
-        <v>762</v>
+        <v>826</v>
       </c>
       <c r="E161" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7405,16 +7763,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C162" t="s">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="D162" t="s">
-        <v>763</v>
+        <v>827</v>
       </c>
       <c r="E162" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7422,16 +7780,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="C163" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
       <c r="D163" t="s">
-        <v>764</v>
+        <v>828</v>
       </c>
       <c r="E163" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -7445,16 +7803,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="C164" t="s">
-        <v>572</v>
+        <v>622</v>
       </c>
       <c r="D164" t="s">
-        <v>765</v>
+        <v>829</v>
       </c>
       <c r="E164" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -7468,13 +7826,13 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="D165" t="s">
-        <v>766</v>
+        <v>830</v>
       </c>
       <c r="E165" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7482,13 +7840,13 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D166" t="s">
-        <v>767</v>
+        <v>831</v>
       </c>
       <c r="E166" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7496,16 +7854,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="C167" t="s">
-        <v>573</v>
+        <v>623</v>
       </c>
       <c r="D167" t="s">
-        <v>768</v>
+        <v>832</v>
       </c>
       <c r="E167" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -7519,16 +7877,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C168" t="s">
-        <v>574</v>
+        <v>624</v>
       </c>
       <c r="D168" t="s">
-        <v>769</v>
+        <v>833</v>
       </c>
       <c r="E168" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7536,16 +7894,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="C169" t="s">
-        <v>574</v>
+        <v>624</v>
       </c>
       <c r="D169" t="s">
-        <v>770</v>
+        <v>834</v>
       </c>
       <c r="E169" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7553,16 +7911,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C170" t="s">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="D170" t="s">
-        <v>771</v>
+        <v>835</v>
       </c>
       <c r="E170" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -7579,16 +7937,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="C171" t="s">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="D171" t="s">
-        <v>772</v>
+        <v>836</v>
       </c>
       <c r="E171" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -7605,16 +7963,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="C172" t="s">
-        <v>577</v>
+        <v>627</v>
       </c>
       <c r="D172" t="s">
-        <v>773</v>
+        <v>837</v>
       </c>
       <c r="E172" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -7631,16 +7989,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C173" t="s">
-        <v>578</v>
+        <v>628</v>
       </c>
       <c r="D173" t="s">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="E173" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7648,16 +8006,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="C174" t="s">
-        <v>578</v>
+        <v>628</v>
       </c>
       <c r="D174" t="s">
-        <v>775</v>
+        <v>839</v>
       </c>
       <c r="E174" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7665,16 +8023,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="C175" t="s">
-        <v>579</v>
+        <v>629</v>
       </c>
       <c r="D175" t="s">
-        <v>776</v>
+        <v>840</v>
       </c>
       <c r="E175" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7682,16 +8040,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C176" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="D176" t="s">
-        <v>777</v>
+        <v>841</v>
       </c>
       <c r="E176" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -7699,16 +8057,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="C177" t="s">
-        <v>581</v>
+        <v>631</v>
       </c>
       <c r="D177" t="s">
-        <v>778</v>
+        <v>842</v>
       </c>
       <c r="E177" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7716,16 +8074,16 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="C178" t="s">
-        <v>582</v>
+        <v>632</v>
       </c>
       <c r="D178" t="s">
-        <v>779</v>
+        <v>843</v>
       </c>
       <c r="E178" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7733,16 +8091,16 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="C179" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="D179" t="s">
-        <v>780</v>
+        <v>844</v>
       </c>
       <c r="E179" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7750,16 +8108,16 @@
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C180" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="D180" t="s">
-        <v>781</v>
+        <v>845</v>
       </c>
       <c r="E180" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7767,16 +8125,16 @@
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="C181" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="D181" t="s">
-        <v>782</v>
+        <v>846</v>
       </c>
       <c r="E181" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7784,16 +8142,16 @@
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="C182" t="s">
-        <v>584</v>
+        <v>634</v>
       </c>
       <c r="D182" t="s">
-        <v>783</v>
+        <v>847</v>
       </c>
       <c r="E182" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -7810,16 +8168,16 @@
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C183" t="s">
-        <v>585</v>
+        <v>635</v>
       </c>
       <c r="D183" t="s">
-        <v>784</v>
+        <v>848</v>
       </c>
       <c r="E183" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -7836,16 +8194,16 @@
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="C184" t="s">
-        <v>586</v>
+        <v>636</v>
       </c>
       <c r="D184" t="s">
-        <v>785</v>
+        <v>849</v>
       </c>
       <c r="E184" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -7862,16 +8220,16 @@
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C185" t="s">
-        <v>587</v>
+        <v>637</v>
       </c>
       <c r="D185" t="s">
-        <v>786</v>
+        <v>850</v>
       </c>
       <c r="E185" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -7888,16 +8246,16 @@
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C186" t="s">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="D186" t="s">
-        <v>787</v>
+        <v>851</v>
       </c>
       <c r="E186" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -7914,16 +8272,16 @@
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="C187" t="s">
-        <v>589</v>
+        <v>639</v>
       </c>
       <c r="D187" t="s">
-        <v>788</v>
+        <v>852</v>
       </c>
       <c r="E187" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7931,16 +8289,16 @@
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C188" t="s">
-        <v>589</v>
+        <v>639</v>
       </c>
       <c r="D188" t="s">
-        <v>789</v>
+        <v>853</v>
       </c>
       <c r="E188" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -7948,16 +8306,16 @@
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C189" t="s">
-        <v>589</v>
+        <v>639</v>
       </c>
       <c r="D189" t="s">
-        <v>790</v>
+        <v>854</v>
       </c>
       <c r="E189" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -7965,16 +8323,16 @@
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="C190" t="s">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="D190" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="E190" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -7991,16 +8349,16 @@
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="C191" t="s">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="D191" t="s">
-        <v>792</v>
+        <v>856</v>
       </c>
       <c r="E191" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -8017,16 +8375,16 @@
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="C192" t="s">
-        <v>592</v>
+        <v>642</v>
       </c>
       <c r="D192" t="s">
-        <v>793</v>
+        <v>857</v>
       </c>
       <c r="E192" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -8043,16 +8401,16 @@
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="C193" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="D193" t="s">
-        <v>794</v>
+        <v>858</v>
       </c>
       <c r="E193" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8060,16 +8418,16 @@
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C194" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="D194" t="s">
-        <v>795</v>
+        <v>859</v>
       </c>
       <c r="E194" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8077,16 +8435,16 @@
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C195" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="D195" t="s">
-        <v>796</v>
+        <v>860</v>
       </c>
       <c r="E195" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8094,16 +8452,16 @@
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="C196" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="D196" t="s">
-        <v>797</v>
+        <v>861</v>
       </c>
       <c r="E196" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8111,16 +8469,16 @@
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="C197" t="s">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="D197" t="s">
-        <v>798</v>
+        <v>862</v>
       </c>
       <c r="E197" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -8137,16 +8495,16 @@
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="C198" t="s">
-        <v>595</v>
+        <v>645</v>
       </c>
       <c r="D198" t="s">
-        <v>799</v>
+        <v>863</v>
       </c>
       <c r="E198" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -8163,16 +8521,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="C199" t="s">
-        <v>596</v>
+        <v>646</v>
       </c>
       <c r="D199" t="s">
-        <v>800</v>
+        <v>864</v>
       </c>
       <c r="E199" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -8189,13 +8547,13 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="D200" t="s">
-        <v>801</v>
+        <v>865</v>
       </c>
       <c r="E200" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8203,13 +8561,13 @@
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="D201" t="s">
-        <v>802</v>
+        <v>866</v>
       </c>
       <c r="E201" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8217,13 +8575,13 @@
         <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="D202" t="s">
-        <v>803</v>
+        <v>867</v>
       </c>
       <c r="E202" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8231,16 +8589,16 @@
         <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C203" t="s">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="D203" t="s">
-        <v>804</v>
+        <v>868</v>
       </c>
       <c r="E203" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -8257,16 +8615,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C204" t="s">
-        <v>598</v>
+        <v>648</v>
       </c>
       <c r="D204" t="s">
-        <v>805</v>
+        <v>869</v>
       </c>
       <c r="E204" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -8283,16 +8641,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C205" t="s">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="D205" t="s">
-        <v>806</v>
+        <v>870</v>
       </c>
       <c r="E205" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -8309,13 +8667,13 @@
         <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="D206" t="s">
-        <v>807</v>
+        <v>871</v>
       </c>
       <c r="E206" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8323,13 +8681,13 @@
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="D207" t="s">
-        <v>808</v>
+        <v>872</v>
       </c>
       <c r="E207" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8337,16 +8695,16 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="C208" t="s">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="D208" t="s">
-        <v>809</v>
+        <v>873</v>
       </c>
       <c r="E208" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F208">
         <v>14</v>
@@ -8363,16 +8721,16 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="C209" t="s">
-        <v>601</v>
+        <v>651</v>
       </c>
       <c r="D209" t="s">
-        <v>810</v>
+        <v>874</v>
       </c>
       <c r="E209" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F209">
         <v>15</v>
@@ -8389,16 +8747,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C210" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="D210" t="s">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="E210" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F210">
         <v>16</v>
@@ -8415,13 +8773,519 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D211" t="s">
-        <v>812</v>
+        <v>876</v>
       </c>
       <c r="E211" t="s">
-        <v>819</v>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" t="s">
+        <v>453</v>
+      </c>
+      <c r="D212" t="s">
+        <v>877</v>
+      </c>
+      <c r="E212" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" t="s">
+        <v>454</v>
+      </c>
+      <c r="D213" t="s">
+        <v>878</v>
+      </c>
+      <c r="E213" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" t="s">
+        <v>455</v>
+      </c>
+      <c r="C214" t="s">
+        <v>653</v>
+      </c>
+      <c r="D214" t="s">
+        <v>879</v>
+      </c>
+      <c r="E214" t="s">
+        <v>908</v>
+      </c>
+      <c r="F214">
+        <v>17</v>
+      </c>
+      <c r="G214">
+        <v>61</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" t="s">
+        <v>456</v>
+      </c>
+      <c r="C215" t="s">
+        <v>654</v>
+      </c>
+      <c r="D215" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" t="s">
+        <v>457</v>
+      </c>
+      <c r="C216" t="s">
+        <v>655</v>
+      </c>
+      <c r="D216" t="s">
+        <v>881</v>
+      </c>
+      <c r="E216" t="s">
+        <v>908</v>
+      </c>
+      <c r="F216">
+        <v>18</v>
+      </c>
+      <c r="G216">
+        <v>15</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" t="s">
+        <v>458</v>
+      </c>
+      <c r="D217" t="s">
+        <v>882</v>
+      </c>
+      <c r="E217" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" t="s">
+        <v>459</v>
+      </c>
+      <c r="D218" t="s">
+        <v>883</v>
+      </c>
+      <c r="E218" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" t="s">
+        <v>460</v>
+      </c>
+      <c r="D219" t="s">
+        <v>884</v>
+      </c>
+      <c r="E219" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" t="s">
+        <v>461</v>
+      </c>
+      <c r="C220" t="s">
+        <v>656</v>
+      </c>
+      <c r="D220" t="s">
+        <v>885</v>
+      </c>
+      <c r="E220" t="s">
+        <v>908</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
+      <c r="G220">
+        <v>18</v>
+      </c>
+      <c r="H220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" t="s">
+        <v>462</v>
+      </c>
+      <c r="C221" t="s">
+        <v>657</v>
+      </c>
+      <c r="D221" t="s">
+        <v>886</v>
+      </c>
+      <c r="E221" t="s">
+        <v>908</v>
+      </c>
+      <c r="F221">
+        <v>20</v>
+      </c>
+      <c r="G221">
+        <v>41</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" t="s">
+        <v>463</v>
+      </c>
+      <c r="C222" t="s">
+        <v>658</v>
+      </c>
+      <c r="D222" t="s">
+        <v>887</v>
+      </c>
+      <c r="E222" t="s">
+        <v>908</v>
+      </c>
+      <c r="F222">
+        <v>21</v>
+      </c>
+      <c r="G222">
+        <v>49</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" t="s">
+        <v>464</v>
+      </c>
+      <c r="D223" t="s">
+        <v>888</v>
+      </c>
+      <c r="E223" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" t="s">
+        <v>465</v>
+      </c>
+      <c r="D224" t="s">
+        <v>889</v>
+      </c>
+      <c r="E224" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" t="s">
+        <v>466</v>
+      </c>
+      <c r="C225" t="s">
+        <v>659</v>
+      </c>
+      <c r="D225" t="s">
+        <v>890</v>
+      </c>
+      <c r="E225" t="s">
+        <v>908</v>
+      </c>
+      <c r="F225">
+        <v>22</v>
+      </c>
+      <c r="G225">
+        <v>26</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" t="s">
+        <v>467</v>
+      </c>
+      <c r="C226" t="s">
+        <v>660</v>
+      </c>
+      <c r="D226" t="s">
+        <v>891</v>
+      </c>
+      <c r="E226" t="s">
+        <v>908</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226">
+        <v>52</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" t="s">
+        <v>468</v>
+      </c>
+      <c r="C227" t="s">
+        <v>661</v>
+      </c>
+      <c r="D227" t="s">
+        <v>892</v>
+      </c>
+      <c r="E227" t="s">
+        <v>908</v>
+      </c>
+      <c r="F227">
+        <v>24</v>
+      </c>
+      <c r="G227">
+        <v>43</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" t="s">
+        <v>469</v>
+      </c>
+      <c r="D228" t="s">
+        <v>893</v>
+      </c>
+      <c r="E228" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" t="s">
+        <v>470</v>
+      </c>
+      <c r="D229" t="s">
+        <v>894</v>
+      </c>
+      <c r="E229" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" t="s">
+        <v>471</v>
+      </c>
+      <c r="C230" t="s">
+        <v>662</v>
+      </c>
+      <c r="D230" t="s">
+        <v>895</v>
+      </c>
+      <c r="E230" t="s">
+        <v>908</v>
+      </c>
+      <c r="F230">
+        <v>25</v>
+      </c>
+      <c r="G230">
+        <v>17</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" t="s">
+        <v>472</v>
+      </c>
+      <c r="C231" t="s">
+        <v>663</v>
+      </c>
+      <c r="D231" t="s">
+        <v>896</v>
+      </c>
+      <c r="E231" t="s">
+        <v>908</v>
+      </c>
+      <c r="F231">
+        <v>26</v>
+      </c>
+      <c r="G231">
+        <v>34</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+      <c r="B232" t="s">
+        <v>473</v>
+      </c>
+      <c r="D232" t="s">
+        <v>897</v>
+      </c>
+      <c r="E232" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233" t="s">
+        <v>474</v>
+      </c>
+      <c r="D233" t="s">
+        <v>898</v>
+      </c>
+      <c r="E233" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" t="s">
+        <v>475</v>
+      </c>
+      <c r="C234" t="s">
+        <v>664</v>
+      </c>
+      <c r="D234" t="s">
+        <v>899</v>
+      </c>
+      <c r="E234" t="s">
+        <v>908</v>
+      </c>
+      <c r="F234">
+        <v>27</v>
+      </c>
+      <c r="G234">
+        <v>28</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235" t="s">
+        <v>476</v>
+      </c>
+      <c r="C235" t="s">
+        <v>665</v>
+      </c>
+      <c r="D235" t="s">
+        <v>900</v>
+      </c>
+      <c r="E235" t="s">
+        <v>908</v>
+      </c>
+      <c r="F235">
+        <v>28</v>
+      </c>
+      <c r="G235">
+        <v>51</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" t="s">
+        <v>477</v>
+      </c>
+      <c r="C236" t="s">
+        <v>666</v>
+      </c>
+      <c r="D236" t="s">
+        <v>901</v>
+      </c>
+      <c r="E236" t="s">
+        <v>908</v>
+      </c>
+      <c r="F236">
+        <v>29</v>
+      </c>
+      <c r="G236">
+        <v>44</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033D18C-C78F-4252-AE2A-79089A3BB71E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F80B2-0E2B-425B-AD38-C3FA8FB646A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2250" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="953">
   <si>
     <t>ephysFN</t>
   </si>
@@ -751,6 +751,42 @@
     <t>Beto-17042020-005</t>
   </si>
   <si>
+    <t>Beto-20042020-001</t>
+  </si>
+  <si>
+    <t>Beto-20042020-002</t>
+  </si>
+  <si>
+    <t>Beto-20042020-003</t>
+  </si>
+  <si>
+    <t>Beto-23042020-001</t>
+  </si>
+  <si>
+    <t>Beto-23042020-002</t>
+  </si>
+  <si>
+    <t>Beto-23042020-003</t>
+  </si>
+  <si>
+    <t>Beto-23042020-004</t>
+  </si>
+  <si>
+    <t>Beto-23042020-005</t>
+  </si>
+  <si>
+    <t>Beto-27042020-001</t>
+  </si>
+  <si>
+    <t>Beto-27042020-002</t>
+  </si>
+  <si>
+    <t>Beto-27042020-003</t>
+  </si>
+  <si>
+    <t>Beto-27042020-004</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1456,6 +1492,42 @@
     <t>200417_Beto_generate_integrated(2)</t>
   </si>
   <si>
+    <t>200420_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200420_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200420_Beto_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200423_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200423_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200423_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200423_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200423_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200427_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200427_Beto_generate_integrated_156PM</t>
+  </si>
+  <si>
+    <t>200427_Beto_generate_integrated(1)_215</t>
+  </si>
+  <si>
+    <t>200427_Beto_generate_integrated_239</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -2021,6 +2093,30 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-17-Beto-03\2020-04-17-11-40-35</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-20-Beto-01\2020-04-20-13-57-28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-Selectivity\bigSetHalf</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-23-Beto-01\2020-04-23-10-28-42</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-23-Beto-02\2020-04-23-10-54-09</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-23-Beto-03\2020-04-23-11-14-17</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-27-Beto-01\2020-04-27-13-56-12</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-27-Beto-02\2020-04-27-14-15-54</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-27-Beto-03\2020-04-27-14-39-36</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -3353,6 +3449,78 @@
 Still shaking, we will see how far we get
 Starting to lose the 2 distinct units but it sounds vr and is climbing so well let it go
 20 blocks complete at 1204
+completed</t>
+  </si>
+  <si>
+    <t>001 @ 1:38 PM. Had lots of fixation noise. Had to readjust camera. Fixation better now, but he is not enthusiastic. expect short day.</t>
+  </si>
+  <si>
+    <t>002 @I: 57 IM
+1(0,0)3 I ZOHA full and red, hash 5/5
+RF looked solid but PSTH meh
+climbing
+2:23 Monkey complainy
+converging@ about 33 will stop @ 40</t>
+  </si>
+  <si>
+    <t>003 @ 237 PM
+screening selectivity with~ 300 Images, big set half
+Done I block. complaining at 246 PM
+259 PM. Oof. so complainy. Better call it soon, done at304</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hp at 950
+Rf mapper started at 959
+5 blocks completed at 1009
+completed</t>
+  </si>
+  <si>
+    <t>Generate integrated
+Ch 50 (0 0) 2 1 zoha
+Ch 50
+Crashed at 1025</t>
+  </si>
+  <si>
+    <t>003 at 10:29 am
+post crash. 50,(0,0) 2 1 , zoha full and reduced
+converged.24 blocks complete @10:50
+completed</t>
+  </si>
+  <si>
+    <t>004 generate integrate start@10:54
+converged quickly...
+Ch 63(0,0)2 1 zona full and reduced20 blocks complete @11:11
+completed</t>
+  </si>
+  <si>
+    <t>005 generate integrated
+start @11:14
+ch 62(0,0)21 zo ha full and reduced climbing quickly
+blasting him_320+35
+he is starting to protest20 blocks@ 11:37 complete
+completed</t>
+  </si>
+  <si>
+    <t>hp @ 135
+001 @140 PM RF mapping 1,3,8
+55% performance. Adjust expectations accordingly!
+completed</t>
+  </si>
+  <si>
+    <t>002@1:56 PM
+35(0,-0.5)2 1 zoha full and reduced, 5/5 mu hash . converged by block 15
+completed</t>
+  </si>
+  <si>
+    <t>003@216 PM
+45 ( 0, -0.5) 2 1 1, zoha full+ red...5/5 hash.
+226 PM complaining
+completed</t>
+  </si>
+  <si>
+    <t>40@ 240
+40(0,-0.5) 2 1, 5/5 hash, zOha full and red
+accidentally deleted prev. bhv file.
 completed</t>
   </si>
   <si>
@@ -3776,19 +3944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="H237" sqref="H237"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F249" sqref="F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3822,16 +3988,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D2" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="E2" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3848,16 +4014,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="E3" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3874,16 +4040,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="D4" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3900,16 +4066,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D5" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="E5" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3926,16 +4092,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="E6" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3952,16 +4118,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="E7" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3978,16 +4144,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="D8" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -4004,16 +4170,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="D9" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="E9" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -4030,16 +4196,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="E10" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4056,16 +4222,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="D11" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="E11" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4082,16 +4248,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D12" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="E12" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -4108,16 +4274,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="E13" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -4134,16 +4300,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="D14" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="E14" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -4160,16 +4326,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D15" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="E15" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -4186,16 +4352,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="D16" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="E16" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -4212,16 +4378,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="D17" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="E17" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4238,16 +4404,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="E18" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -4264,16 +4430,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="D19" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="E19" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -4290,16 +4456,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C20" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="D20" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="E20" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -4316,16 +4482,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="D21" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="E21" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -4342,16 +4508,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="D22" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="E22" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -4368,16 +4534,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="D23" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="E23" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -4394,16 +4560,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="D24" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="E24" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -4420,16 +4586,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D25" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="E25" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4446,16 +4612,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="D26" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="E26" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -4472,16 +4638,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="D27" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="E27" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -4498,16 +4664,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="D28" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="E28" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -4524,16 +4690,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C29" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="D29" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="E29" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -4550,16 +4716,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C30" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="D30" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="E30" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -4576,16 +4742,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C31" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="D31" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="E31" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4602,16 +4768,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C32" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="D32" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="E32" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4628,16 +4794,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C33" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D33" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="E33" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4654,16 +4820,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C34" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="D34" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="E34" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4680,16 +4846,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C35" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D35" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="E35" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4706,16 +4872,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="D36" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="E36" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4732,16 +4898,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C37" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="D37" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="E37" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4758,16 +4924,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="D38" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="E38" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4784,16 +4950,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C39" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="D39" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="E39" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4810,16 +4976,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C40" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="D40" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="E40" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4836,16 +5002,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C41" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="D41" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="E41" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -4862,16 +5028,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C42" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D42" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="E42" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -4888,16 +5054,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C43" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="D43" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="E43" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -4914,16 +5080,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="D44" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="E44" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -4940,16 +5106,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="D45" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="E45" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -4966,16 +5132,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D46" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="E46" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -4992,16 +5158,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C47" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D47" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="E47" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -5018,16 +5184,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="D48" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="E48" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -5044,16 +5210,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="D49" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="E49" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -5070,16 +5236,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="D50" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="E50" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -5096,16 +5262,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D51" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="E51" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -5122,16 +5288,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C52" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D52" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="E52" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -5148,13 +5314,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C53" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D53" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -5171,16 +5337,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="D54" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="E54" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -5197,16 +5363,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="D55" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="E55" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -5223,16 +5389,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C56" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="D56" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="E56" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -5249,16 +5415,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="D57" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="E57" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -5275,16 +5441,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="D58" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="E58" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -5301,16 +5467,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="D59" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="E59" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -5327,16 +5493,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C60" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D60" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="E60" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -5353,16 +5519,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="D61" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="E61" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -5379,16 +5545,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C62" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="D62" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="E62" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -5405,16 +5571,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="D63" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="E63" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -5431,16 +5597,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C64" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="D64" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="E64" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -5457,16 +5623,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C65" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="D65" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="E65" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -5483,16 +5649,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="D66" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="E66" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -5509,16 +5675,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="D67" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="E67" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -5535,16 +5701,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C68" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="D68" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="E68" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -5561,16 +5727,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C69" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="D69" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="E69" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -5587,16 +5753,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="D70" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="E70" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5613,16 +5779,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C71" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="D71" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="E71" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5639,16 +5805,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C72" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D72" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="E72" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5665,16 +5831,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C73" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="D73" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="E73" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5691,16 +5857,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C74" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="D74" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="E74" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5717,16 +5883,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C75" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="D75" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="E75" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5743,16 +5909,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C76" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="D76" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="E76" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5769,16 +5935,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C77" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="D77" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="E77" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5795,16 +5961,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C78" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="D78" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="E78" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5821,16 +5987,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="D79" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="E79" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -5847,16 +6013,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C80" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="D80" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="E80" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -5873,13 +6039,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C81" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="D81" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -5896,13 +6062,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C82" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="D82" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -5919,16 +6085,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="D83" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="E83" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -5945,16 +6111,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="D84" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="E84" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -5971,16 +6137,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C85" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="D85" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="E85" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -5997,16 +6163,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="D86" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
       <c r="E86" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -6023,16 +6189,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C87" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="D87" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="E87" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -6049,16 +6215,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C88" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="D88" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="E88" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -6075,16 +6241,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C89" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="D89" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="E89" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -6101,16 +6267,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C90" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="D90" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="E90" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -6127,16 +6293,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C91" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="D91" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="E91" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -6153,16 +6319,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="D92" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
       <c r="E92" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -6179,16 +6345,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C93" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="D93" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="E93" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -6205,16 +6371,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="D94" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
       <c r="E94" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -6231,16 +6397,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C95" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="D95" t="s">
-        <v>760</v>
+        <v>792</v>
       </c>
       <c r="E95" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -6257,16 +6423,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C96" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="D96" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
       <c r="E96" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -6283,16 +6449,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C97" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="D97" t="s">
-        <v>762</v>
+        <v>794</v>
       </c>
       <c r="E97" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -6309,16 +6475,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="D98" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
       <c r="E98" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -6335,16 +6501,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C99" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="D99" t="s">
-        <v>764</v>
+        <v>796</v>
       </c>
       <c r="E99" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -6361,16 +6527,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C100" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="D100" t="s">
-        <v>765</v>
+        <v>797</v>
       </c>
       <c r="E100" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -6387,16 +6553,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C101" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="D101" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="E101" t="s">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -6407,16 +6573,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C102" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="D102" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="E102" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -6433,16 +6599,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C103" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="D103" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="E103" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -6459,16 +6625,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C104" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="D104" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
       <c r="E104" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -6485,16 +6651,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C105" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="D105" t="s">
-        <v>770</v>
+        <v>802</v>
       </c>
       <c r="E105" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -6511,16 +6677,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C106" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="D106" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="E106" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -6537,16 +6703,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C107" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="D107" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="E107" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -6563,16 +6729,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="D108" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="E108" t="s">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -6583,16 +6749,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="D109" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="E109" t="s">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -6603,16 +6769,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C110" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="D110" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="E110" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6629,16 +6795,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C111" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="D111" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
       <c r="E111" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6655,16 +6821,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C112" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="D112" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="E112" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6681,16 +6847,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C113" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="D113" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="E113" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6707,16 +6873,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C114" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="D114" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="E114" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6733,16 +6899,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C115" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="D115" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="E115" t="s">
-        <v>902</v>
+        <v>946</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6759,16 +6925,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C116" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="D116" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="E116" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -6779,16 +6945,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C117" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="D117" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="E117" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6805,16 +6971,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C118" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="D118" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="E118" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -6825,16 +6991,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C119" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="D119" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="E119" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6851,16 +7017,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C120" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="D120" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="E120" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -6877,16 +7043,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C121" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="D121" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="E121" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -6897,16 +7063,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C122" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="D122" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
       <c r="E122" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6923,13 +7089,13 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C123" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="D123" t="s">
-        <v>788</v>
+        <v>820</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -6943,16 +7109,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C124" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="D124" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="E124" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -6963,16 +7129,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C125" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="D125" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="E125" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6983,16 +7149,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C126" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="D126" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="E126" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -7009,16 +7175,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C127" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="D127" t="s">
-        <v>792</v>
+        <v>824</v>
       </c>
       <c r="E127" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7026,13 +7192,13 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C128" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="D128" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -7046,16 +7212,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C129" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="D129" t="s">
-        <v>794</v>
+        <v>826</v>
       </c>
       <c r="E129" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -7072,13 +7238,13 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C130" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="D130" t="s">
-        <v>795</v>
+        <v>827</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -7089,13 +7255,13 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C131" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="D131" t="s">
-        <v>796</v>
+        <v>828</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -7106,16 +7272,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C132" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="D132" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="E132" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -7132,16 +7298,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C133" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="D133" t="s">
-        <v>798</v>
+        <v>830</v>
       </c>
       <c r="E133" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -7158,16 +7324,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C134" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D134" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="E134" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -7178,16 +7344,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C135" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D135" t="s">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="E135" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -7198,16 +7364,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C136" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="D136" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="E136" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -7224,16 +7390,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C137" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="D137" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
       <c r="E137" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -7250,16 +7416,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C138" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="D138" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="E138" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -7276,16 +7442,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C139" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="D139" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
       <c r="E139" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -7302,16 +7468,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C140" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D140" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E140" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -7322,16 +7488,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C141" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D141" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="E141" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -7342,16 +7508,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C142" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="D142" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="E142" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -7368,16 +7534,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C143" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="D143" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="E143" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -7394,16 +7560,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C144" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="D144" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="E144" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -7414,16 +7580,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C145" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="D145" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="E145" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -7434,16 +7600,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C146" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="D146" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="E146" t="s">
-        <v>906</v>
+        <v>950</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -7460,16 +7626,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C147" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="D147" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="E147" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -7486,16 +7652,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C148" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="D148" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="E148" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7512,16 +7678,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C149" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="D149" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="E149" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -7532,16 +7698,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C150" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="D150" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="E150" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -7552,16 +7718,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C151" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="D151" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="E151" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7578,16 +7744,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C152" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="D152" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="E152" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -7604,13 +7770,13 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D153" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="E153" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7618,16 +7784,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C154" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="D154" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="E154" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -7644,13 +7810,13 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D155" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="E155" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7658,13 +7824,13 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D156" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="E156" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,13 +7838,13 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C157" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="D157" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -7689,16 +7855,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C158" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="D158" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="E158" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -7709,13 +7875,13 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D159" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="E159" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7723,16 +7889,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C160" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="D160" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="E160" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -7746,16 +7912,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C161" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="D161" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="E161" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7763,16 +7929,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C162" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="D162" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
       <c r="E162" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7780,16 +7946,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="D163" t="s">
-        <v>828</v>
+        <v>860</v>
       </c>
       <c r="E163" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -7803,16 +7969,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C164" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="D164" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="E164" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -7826,13 +7992,13 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="D165" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="E165" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7840,13 +8006,13 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D166" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="E166" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7854,16 +8020,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C167" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="D167" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="E167" t="s">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -7877,16 +8043,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C168" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="D168" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="E168" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7894,16 +8060,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C169" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="D169" t="s">
-        <v>834</v>
+        <v>866</v>
       </c>
       <c r="E169" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7911,16 +8077,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C170" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="D170" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="E170" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -7937,16 +8103,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C171" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="D171" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
       <c r="E171" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -7963,16 +8129,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C172" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="D172" t="s">
-        <v>837</v>
+        <v>869</v>
       </c>
       <c r="E172" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -7989,16 +8155,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C173" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="D173" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="E173" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8006,16 +8172,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C174" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="D174" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="E174" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8023,16 +8189,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C175" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="D175" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="E175" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8040,16 +8206,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="D176" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="E176" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8057,16 +8223,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C177" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="D177" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="E177" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8074,16 +8240,16 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C178" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="D178" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="E178" t="s">
-        <v>907</v>
+        <v>951</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8091,16 +8257,16 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C179" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="D179" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="E179" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8108,16 +8274,16 @@
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C180" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="D180" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="E180" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8125,16 +8291,16 @@
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C181" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="D181" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="E181" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8142,16 +8308,16 @@
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C182" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="D182" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="E182" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8168,16 +8334,16 @@
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C183" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="D183" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="E183" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -8194,16 +8360,16 @@
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C184" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="D184" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="E184" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -8220,16 +8386,16 @@
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C185" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="D185" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
       <c r="E185" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -8246,16 +8412,16 @@
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C186" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="D186" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="E186" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -8272,16 +8438,16 @@
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C187" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="D187" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="E187" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8289,16 +8455,16 @@
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C188" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="D188" t="s">
-        <v>853</v>
+        <v>885</v>
       </c>
       <c r="E188" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8306,16 +8472,16 @@
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C189" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="D189" t="s">
-        <v>854</v>
+        <v>886</v>
       </c>
       <c r="E189" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8323,16 +8489,16 @@
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C190" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="D190" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="E190" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -8349,16 +8515,16 @@
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C191" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="D191" t="s">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="E191" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -8375,16 +8541,16 @@
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C192" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="D192" t="s">
-        <v>857</v>
+        <v>889</v>
       </c>
       <c r="E192" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -8401,16 +8567,16 @@
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C193" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="D193" t="s">
-        <v>858</v>
+        <v>890</v>
       </c>
       <c r="E193" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8418,16 +8584,16 @@
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C194" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="D194" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="E194" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8435,16 +8601,16 @@
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C195" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="D195" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="E195" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8452,16 +8618,16 @@
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C196" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="D196" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="E196" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8469,16 +8635,16 @@
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C197" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="D197" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="E197" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -8495,16 +8661,16 @@
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C198" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="D198" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
       <c r="E198" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -8521,16 +8687,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C199" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="D199" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="E199" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -8547,13 +8713,13 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D200" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="E200" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8561,13 +8727,13 @@
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D201" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
       <c r="E201" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8575,13 +8741,13 @@
         <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D202" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
       <c r="E202" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8589,16 +8755,16 @@
         <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C203" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="D203" t="s">
-        <v>868</v>
+        <v>900</v>
       </c>
       <c r="E203" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -8615,16 +8781,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C204" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="D204" t="s">
-        <v>869</v>
+        <v>901</v>
       </c>
       <c r="E204" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -8641,16 +8807,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C205" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="D205" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="E205" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -8667,13 +8833,13 @@
         <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="D206" t="s">
-        <v>871</v>
+        <v>903</v>
       </c>
       <c r="E206" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8681,13 +8847,13 @@
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D207" t="s">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="E207" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8695,16 +8861,16 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C208" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="D208" t="s">
-        <v>873</v>
+        <v>905</v>
       </c>
       <c r="E208" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F208">
         <v>14</v>
@@ -8721,16 +8887,16 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C209" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="D209" t="s">
-        <v>874</v>
+        <v>906</v>
       </c>
       <c r="E209" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F209">
         <v>15</v>
@@ -8747,16 +8913,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C210" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="D210" t="s">
-        <v>875</v>
+        <v>907</v>
       </c>
       <c r="E210" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F210">
         <v>16</v>
@@ -8773,13 +8939,13 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D211" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
       <c r="E211" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -8787,13 +8953,13 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D212" t="s">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="E212" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -8801,13 +8967,13 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D213" t="s">
-        <v>878</v>
+        <v>910</v>
       </c>
       <c r="E213" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -8815,16 +8981,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C214" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="D214" t="s">
-        <v>879</v>
+        <v>911</v>
       </c>
       <c r="E214" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F214">
         <v>17</v>
@@ -8841,13 +9007,13 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C215" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="D215" t="s">
-        <v>880</v>
+        <v>912</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -8855,16 +9021,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C216" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="D216" t="s">
-        <v>881</v>
+        <v>913</v>
       </c>
       <c r="E216" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F216">
         <v>18</v>
@@ -8881,13 +9047,13 @@
         <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D217" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="E217" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -8895,13 +9061,13 @@
         <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D218" t="s">
-        <v>883</v>
+        <v>915</v>
       </c>
       <c r="E218" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -8909,13 +9075,13 @@
         <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D219" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="E219" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -8923,16 +9089,16 @@
         <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C220" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="D220" t="s">
-        <v>885</v>
+        <v>917</v>
       </c>
       <c r="E220" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -8949,16 +9115,16 @@
         <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C221" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="D221" t="s">
-        <v>886</v>
+        <v>918</v>
       </c>
       <c r="E221" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F221">
         <v>20</v>
@@ -8975,16 +9141,16 @@
         <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C222" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="D222" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
       <c r="E222" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F222">
         <v>21</v>
@@ -9001,13 +9167,13 @@
         <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D223" t="s">
-        <v>888</v>
+        <v>920</v>
       </c>
       <c r="E223" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9015,13 +9181,13 @@
         <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D224" t="s">
-        <v>889</v>
+        <v>921</v>
       </c>
       <c r="E224" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9029,16 +9195,16 @@
         <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C225" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="D225" t="s">
-        <v>890</v>
+        <v>922</v>
       </c>
       <c r="E225" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F225">
         <v>22</v>
@@ -9055,16 +9221,16 @@
         <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C226" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="D226" t="s">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="E226" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F226">
         <v>23</v>
@@ -9081,16 +9247,16 @@
         <v>233</v>
       </c>
       <c r="B227" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C227" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="D227" t="s">
-        <v>892</v>
+        <v>924</v>
       </c>
       <c r="E227" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F227">
         <v>24</v>
@@ -9107,13 +9273,13 @@
         <v>234</v>
       </c>
       <c r="B228" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D228" t="s">
-        <v>893</v>
+        <v>925</v>
       </c>
       <c r="E228" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9121,13 +9287,13 @@
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D229" t="s">
-        <v>894</v>
+        <v>926</v>
       </c>
       <c r="E229" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9135,16 +9301,16 @@
         <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C230" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="D230" t="s">
-        <v>895</v>
+        <v>927</v>
       </c>
       <c r="E230" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F230">
         <v>25</v>
@@ -9161,16 +9327,16 @@
         <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C231" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="D231" t="s">
-        <v>896</v>
+        <v>928</v>
       </c>
       <c r="E231" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F231">
         <v>26</v>
@@ -9187,13 +9353,13 @@
         <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D232" t="s">
-        <v>897</v>
+        <v>929</v>
       </c>
       <c r="E232" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9201,13 +9367,13 @@
         <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D233" t="s">
-        <v>898</v>
+        <v>930</v>
       </c>
       <c r="E233" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -9215,16 +9381,16 @@
         <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C234" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="D234" t="s">
-        <v>899</v>
+        <v>931</v>
       </c>
       <c r="E234" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F234">
         <v>27</v>
@@ -9241,16 +9407,16 @@
         <v>241</v>
       </c>
       <c r="B235" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C235" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="D235" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="E235" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F235">
         <v>28</v>
@@ -9267,16 +9433,16 @@
         <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C236" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="D236" t="s">
-        <v>901</v>
+        <v>933</v>
       </c>
       <c r="E236" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="F236">
         <v>29</v>
@@ -9285,6 +9451,255 @@
         <v>44</v>
       </c>
       <c r="H236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" t="s">
+        <v>490</v>
+      </c>
+      <c r="D237" t="s">
+        <v>934</v>
+      </c>
+      <c r="E237" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>244</v>
+      </c>
+      <c r="B238" t="s">
+        <v>491</v>
+      </c>
+      <c r="C238" t="s">
+        <v>691</v>
+      </c>
+      <c r="D238" t="s">
+        <v>935</v>
+      </c>
+      <c r="E238" t="s">
+        <v>952</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>245</v>
+      </c>
+      <c r="B239" t="s">
+        <v>492</v>
+      </c>
+      <c r="C239" t="s">
+        <v>692</v>
+      </c>
+      <c r="D239" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+      <c r="B240" t="s">
+        <v>493</v>
+      </c>
+      <c r="D240" t="s">
+        <v>937</v>
+      </c>
+      <c r="E240" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241" t="s">
+        <v>494</v>
+      </c>
+      <c r="D241" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242" t="s">
+        <v>495</v>
+      </c>
+      <c r="C242" t="s">
+        <v>693</v>
+      </c>
+      <c r="D242" t="s">
+        <v>939</v>
+      </c>
+      <c r="E242" t="s">
+        <v>952</v>
+      </c>
+      <c r="F242">
+        <v>31</v>
+      </c>
+      <c r="G242">
+        <v>50</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243" t="s">
+        <v>496</v>
+      </c>
+      <c r="C243" t="s">
+        <v>694</v>
+      </c>
+      <c r="D243" t="s">
+        <v>940</v>
+      </c>
+      <c r="E243" t="s">
+        <v>952</v>
+      </c>
+      <c r="F243">
+        <v>32</v>
+      </c>
+      <c r="G243">
+        <v>63</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>250</v>
+      </c>
+      <c r="B244" t="s">
+        <v>497</v>
+      </c>
+      <c r="C244" t="s">
+        <v>695</v>
+      </c>
+      <c r="D244" t="s">
+        <v>941</v>
+      </c>
+      <c r="E244" t="s">
+        <v>952</v>
+      </c>
+      <c r="F244">
+        <v>33</v>
+      </c>
+      <c r="G244">
+        <v>62</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245" t="s">
+        <v>498</v>
+      </c>
+      <c r="D245" t="s">
+        <v>942</v>
+      </c>
+      <c r="E245" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246" t="s">
+        <v>499</v>
+      </c>
+      <c r="C246" t="s">
+        <v>696</v>
+      </c>
+      <c r="D246" t="s">
+        <v>943</v>
+      </c>
+      <c r="E246" t="s">
+        <v>952</v>
+      </c>
+      <c r="F246">
+        <v>34</v>
+      </c>
+      <c r="G246">
+        <v>35</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247" t="s">
+        <v>500</v>
+      </c>
+      <c r="C247" t="s">
+        <v>697</v>
+      </c>
+      <c r="D247" t="s">
+        <v>944</v>
+      </c>
+      <c r="E247" t="s">
+        <v>952</v>
+      </c>
+      <c r="F247">
+        <v>35</v>
+      </c>
+      <c r="G247">
+        <v>45</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248" t="s">
+        <v>501</v>
+      </c>
+      <c r="C248" t="s">
+        <v>698</v>
+      </c>
+      <c r="D248" t="s">
+        <v>945</v>
+      </c>
+      <c r="E248" t="s">
+        <v>952</v>
+      </c>
+      <c r="F248">
+        <v>36</v>
+      </c>
+      <c r="G248">
+        <v>40</v>
+      </c>
+      <c r="H248">
         <v>2</v>
       </c>
     </row>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F80B2-0E2B-425B-AD38-C3FA8FB646A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AA5CA-AD49-464D-8C61-DC6340116AA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2250" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2063,9 +2063,6 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-01\2020-04-10-14-13-19</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-02</t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-03\2020-04-10-15-13-34</t>
@@ -3543,6 +3540,9 @@
   </si>
   <si>
     <t>ReducDimen_Evol</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-02\2020-04-10-14-54-53</t>
   </si>
 </sst>
 </file>
@@ -3946,13 +3946,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="92.42578125" customWidth="1"/>
     <col min="4" max="4" width="89.140625" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
@@ -3994,10 +3995,10 @@
         <v>502</v>
       </c>
       <c r="D2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4020,10 +4021,10 @@
         <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4046,10 +4047,10 @@
         <v>504</v>
       </c>
       <c r="D4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -4072,10 +4073,10 @@
         <v>505</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4098,10 +4099,10 @@
         <v>506</v>
       </c>
       <c r="D6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4124,10 +4125,10 @@
         <v>507</v>
       </c>
       <c r="D7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -4150,10 +4151,10 @@
         <v>508</v>
       </c>
       <c r="D8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -4176,10 +4177,10 @@
         <v>509</v>
       </c>
       <c r="D9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -4202,10 +4203,10 @@
         <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4228,10 +4229,10 @@
         <v>511</v>
       </c>
       <c r="D11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4254,10 +4255,10 @@
         <v>512</v>
       </c>
       <c r="D12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -4280,10 +4281,10 @@
         <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -4306,10 +4307,10 @@
         <v>514</v>
       </c>
       <c r="D14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -4332,10 +4333,10 @@
         <v>515</v>
       </c>
       <c r="D15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -4358,10 +4359,10 @@
         <v>516</v>
       </c>
       <c r="D16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -4384,10 +4385,10 @@
         <v>517</v>
       </c>
       <c r="D17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4410,10 +4411,10 @@
         <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -4436,10 +4437,10 @@
         <v>519</v>
       </c>
       <c r="D19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -4462,10 +4463,10 @@
         <v>520</v>
       </c>
       <c r="D20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -4488,10 +4489,10 @@
         <v>521</v>
       </c>
       <c r="D21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -4514,10 +4515,10 @@
         <v>522</v>
       </c>
       <c r="D22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -4540,10 +4541,10 @@
         <v>523</v>
       </c>
       <c r="D23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E23" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -4566,10 +4567,10 @@
         <v>524</v>
       </c>
       <c r="D24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -4592,10 +4593,10 @@
         <v>525</v>
       </c>
       <c r="D25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4618,10 +4619,10 @@
         <v>526</v>
       </c>
       <c r="D26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -4644,10 +4645,10 @@
         <v>527</v>
       </c>
       <c r="D27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -4670,10 +4671,10 @@
         <v>528</v>
       </c>
       <c r="D28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -4696,10 +4697,10 @@
         <v>529</v>
       </c>
       <c r="D29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E29" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -4722,10 +4723,10 @@
         <v>530</v>
       </c>
       <c r="D30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E30" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -4748,10 +4749,10 @@
         <v>531</v>
       </c>
       <c r="D31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E31" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4774,10 +4775,10 @@
         <v>532</v>
       </c>
       <c r="D32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E32" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4800,10 +4801,10 @@
         <v>533</v>
       </c>
       <c r="D33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4826,10 +4827,10 @@
         <v>534</v>
       </c>
       <c r="D34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E34" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4852,10 +4853,10 @@
         <v>535</v>
       </c>
       <c r="D35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4878,10 +4879,10 @@
         <v>536</v>
       </c>
       <c r="D36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E36" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4904,10 +4905,10 @@
         <v>537</v>
       </c>
       <c r="D37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E37" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4930,10 +4931,10 @@
         <v>538</v>
       </c>
       <c r="D38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E38" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4956,10 +4957,10 @@
         <v>539</v>
       </c>
       <c r="D39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E39" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4982,10 +4983,10 @@
         <v>540</v>
       </c>
       <c r="D40" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E40" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -5008,10 +5009,10 @@
         <v>541</v>
       </c>
       <c r="D41" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E41" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -5034,10 +5035,10 @@
         <v>542</v>
       </c>
       <c r="D42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E42" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -5060,10 +5061,10 @@
         <v>543</v>
       </c>
       <c r="D43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E43" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -5086,10 +5087,10 @@
         <v>544</v>
       </c>
       <c r="D44" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E44" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -5112,10 +5113,10 @@
         <v>545</v>
       </c>
       <c r="D45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -5138,10 +5139,10 @@
         <v>546</v>
       </c>
       <c r="D46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -5164,10 +5165,10 @@
         <v>547</v>
       </c>
       <c r="D47" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E47" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -5190,10 +5191,10 @@
         <v>548</v>
       </c>
       <c r="D48" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E48" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -5216,10 +5217,10 @@
         <v>549</v>
       </c>
       <c r="D49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E49" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -5242,10 +5243,10 @@
         <v>550</v>
       </c>
       <c r="D50" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E50" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -5268,10 +5269,10 @@
         <v>551</v>
       </c>
       <c r="D51" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E51" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -5294,10 +5295,10 @@
         <v>552</v>
       </c>
       <c r="D52" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E52" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -5320,7 +5321,7 @@
         <v>553</v>
       </c>
       <c r="D53" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -5343,10 +5344,10 @@
         <v>554</v>
       </c>
       <c r="D54" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E54" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -5369,10 +5370,10 @@
         <v>555</v>
       </c>
       <c r="D55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -5395,10 +5396,10 @@
         <v>556</v>
       </c>
       <c r="D56" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E56" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -5421,10 +5422,10 @@
         <v>557</v>
       </c>
       <c r="D57" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E57" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -5447,10 +5448,10 @@
         <v>558</v>
       </c>
       <c r="D58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E58" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -5473,10 +5474,10 @@
         <v>559</v>
       </c>
       <c r="D59" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E59" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -5499,10 +5500,10 @@
         <v>560</v>
       </c>
       <c r="D60" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E60" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -5525,10 +5526,10 @@
         <v>561</v>
       </c>
       <c r="D61" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E61" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -5551,10 +5552,10 @@
         <v>562</v>
       </c>
       <c r="D62" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E62" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -5577,10 +5578,10 @@
         <v>563</v>
       </c>
       <c r="D63" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E63" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -5603,10 +5604,10 @@
         <v>564</v>
       </c>
       <c r="D64" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E64" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -5629,10 +5630,10 @@
         <v>565</v>
       </c>
       <c r="D65" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E65" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -5655,10 +5656,10 @@
         <v>566</v>
       </c>
       <c r="D66" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E66" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -5681,10 +5682,10 @@
         <v>564</v>
       </c>
       <c r="D67" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E67" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -5707,10 +5708,10 @@
         <v>567</v>
       </c>
       <c r="D68" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E68" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -5733,10 +5734,10 @@
         <v>568</v>
       </c>
       <c r="D69" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E69" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -5759,10 +5760,10 @@
         <v>569</v>
       </c>
       <c r="D70" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E70" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5785,10 +5786,10 @@
         <v>570</v>
       </c>
       <c r="D71" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E71" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5811,10 +5812,10 @@
         <v>571</v>
       </c>
       <c r="D72" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E72" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5837,10 +5838,10 @@
         <v>572</v>
       </c>
       <c r="D73" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E73" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5863,10 +5864,10 @@
         <v>573</v>
       </c>
       <c r="D74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E74" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5889,10 +5890,10 @@
         <v>574</v>
       </c>
       <c r="D75" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E75" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5915,10 +5916,10 @@
         <v>575</v>
       </c>
       <c r="D76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E76" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5941,10 +5942,10 @@
         <v>576</v>
       </c>
       <c r="D77" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E77" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5967,10 +5968,10 @@
         <v>577</v>
       </c>
       <c r="D78" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E78" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5993,10 +5994,10 @@
         <v>578</v>
       </c>
       <c r="D79" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E79" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -6019,10 +6020,10 @@
         <v>579</v>
       </c>
       <c r="D80" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E80" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -6045,7 +6046,7 @@
         <v>580</v>
       </c>
       <c r="D81" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -6068,7 +6069,7 @@
         <v>580</v>
       </c>
       <c r="D82" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -6091,10 +6092,10 @@
         <v>580</v>
       </c>
       <c r="D83" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E83" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -6117,10 +6118,10 @@
         <v>581</v>
       </c>
       <c r="D84" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E84" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -6143,10 +6144,10 @@
         <v>582</v>
       </c>
       <c r="D85" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E85" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -6169,10 +6170,10 @@
         <v>583</v>
       </c>
       <c r="D86" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E86" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -6195,10 +6196,10 @@
         <v>584</v>
       </c>
       <c r="D87" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E87" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -6221,10 +6222,10 @@
         <v>585</v>
       </c>
       <c r="D88" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E88" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -6247,10 +6248,10 @@
         <v>586</v>
       </c>
       <c r="D89" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E89" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -6273,10 +6274,10 @@
         <v>587</v>
       </c>
       <c r="D90" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E90" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -6299,10 +6300,10 @@
         <v>588</v>
       </c>
       <c r="D91" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E91" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -6325,10 +6326,10 @@
         <v>589</v>
       </c>
       <c r="D92" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E92" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -6351,10 +6352,10 @@
         <v>590</v>
       </c>
       <c r="D93" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E93" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -6377,10 +6378,10 @@
         <v>591</v>
       </c>
       <c r="D94" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E94" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -6403,10 +6404,10 @@
         <v>592</v>
       </c>
       <c r="D95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E95" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -6429,10 +6430,10 @@
         <v>593</v>
       </c>
       <c r="D96" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E96" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -6455,10 +6456,10 @@
         <v>594</v>
       </c>
       <c r="D97" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E97" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -6481,10 +6482,10 @@
         <v>595</v>
       </c>
       <c r="D98" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E98" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -6507,10 +6508,10 @@
         <v>596</v>
       </c>
       <c r="D99" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E99" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -6533,10 +6534,10 @@
         <v>597</v>
       </c>
       <c r="D100" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E100" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -6559,10 +6560,10 @@
         <v>598</v>
       </c>
       <c r="D101" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E101" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F101">
         <v>41</v>
@@ -6579,10 +6580,10 @@
         <v>599</v>
       </c>
       <c r="D102" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E102" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -6605,10 +6606,10 @@
         <v>600</v>
       </c>
       <c r="D103" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E103" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -6631,10 +6632,10 @@
         <v>601</v>
       </c>
       <c r="D104" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E104" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -6657,10 +6658,10 @@
         <v>602</v>
       </c>
       <c r="D105" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E105" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -6683,10 +6684,10 @@
         <v>600</v>
       </c>
       <c r="D106" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E106" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -6709,10 +6710,10 @@
         <v>603</v>
       </c>
       <c r="D107" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E107" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -6735,10 +6736,10 @@
         <v>604</v>
       </c>
       <c r="D108" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E108" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F108">
         <v>43</v>
@@ -6755,10 +6756,10 @@
         <v>604</v>
       </c>
       <c r="D109" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E109" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F109">
         <v>43</v>
@@ -6775,10 +6776,10 @@
         <v>605</v>
       </c>
       <c r="D110" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E110" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6801,10 +6802,10 @@
         <v>606</v>
       </c>
       <c r="D111" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E111" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6827,10 +6828,10 @@
         <v>605</v>
       </c>
       <c r="D112" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E112" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6853,10 +6854,10 @@
         <v>607</v>
       </c>
       <c r="D113" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E113" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6879,10 +6880,10 @@
         <v>608</v>
       </c>
       <c r="D114" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E114" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6905,10 +6906,10 @@
         <v>609</v>
       </c>
       <c r="D115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E115" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6931,10 +6932,10 @@
         <v>610</v>
       </c>
       <c r="D116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E116" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -6951,10 +6952,10 @@
         <v>611</v>
       </c>
       <c r="D117" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E117" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6977,10 +6978,10 @@
         <v>612</v>
       </c>
       <c r="D118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E118" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -6997,10 +6998,10 @@
         <v>613</v>
       </c>
       <c r="D119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E119" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -7023,10 +7024,10 @@
         <v>614</v>
       </c>
       <c r="D120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E120" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -7049,10 +7050,10 @@
         <v>615</v>
       </c>
       <c r="D121" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E121" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -7069,10 +7070,10 @@
         <v>616</v>
       </c>
       <c r="D122" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E122" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -7095,7 +7096,7 @@
         <v>617</v>
       </c>
       <c r="D123" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -7115,10 +7116,10 @@
         <v>615</v>
       </c>
       <c r="D124" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E124" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -7135,10 +7136,10 @@
         <v>615</v>
       </c>
       <c r="D125" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E125" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -7155,10 +7156,10 @@
         <v>618</v>
       </c>
       <c r="D126" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E126" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -7181,10 +7182,10 @@
         <v>619</v>
       </c>
       <c r="D127" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E127" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7198,7 +7199,7 @@
         <v>620</v>
       </c>
       <c r="D128" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -7218,10 +7219,10 @@
         <v>621</v>
       </c>
       <c r="D129" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E129" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -7244,7 +7245,7 @@
         <v>622</v>
       </c>
       <c r="D130" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -7261,7 +7262,7 @@
         <v>622</v>
       </c>
       <c r="D131" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -7278,10 +7279,10 @@
         <v>623</v>
       </c>
       <c r="D132" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E132" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -7304,10 +7305,10 @@
         <v>624</v>
       </c>
       <c r="D133" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E133" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -7330,10 +7331,10 @@
         <v>625</v>
       </c>
       <c r="D134" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E134" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H134">
         <v>0.75</v>
@@ -7350,10 +7351,10 @@
         <v>625</v>
       </c>
       <c r="D135" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E135" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -7370,10 +7371,10 @@
         <v>626</v>
       </c>
       <c r="D136" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E136" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -7396,10 +7397,10 @@
         <v>627</v>
       </c>
       <c r="D137" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E137" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -7422,10 +7423,10 @@
         <v>628</v>
       </c>
       <c r="D138" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E138" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -7448,10 +7449,10 @@
         <v>629</v>
       </c>
       <c r="D139" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E139" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -7474,10 +7475,10 @@
         <v>630</v>
       </c>
       <c r="D140" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E140" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H140">
         <v>0.75</v>
@@ -7494,10 +7495,10 @@
         <v>630</v>
       </c>
       <c r="D141" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E141" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -7514,10 +7515,10 @@
         <v>631</v>
       </c>
       <c r="D142" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E142" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -7540,10 +7541,10 @@
         <v>632</v>
       </c>
       <c r="D143" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E143" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -7566,10 +7567,10 @@
         <v>633</v>
       </c>
       <c r="D144" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E144" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H144">
         <v>0.75</v>
@@ -7586,10 +7587,10 @@
         <v>633</v>
       </c>
       <c r="D145" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E145" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -7606,10 +7607,10 @@
         <v>634</v>
       </c>
       <c r="D146" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E146" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -7632,10 +7633,10 @@
         <v>635</v>
       </c>
       <c r="D147" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E147" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -7658,10 +7659,10 @@
         <v>636</v>
       </c>
       <c r="D148" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E148" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7684,10 +7685,10 @@
         <v>637</v>
       </c>
       <c r="D149" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E149" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H149">
         <v>0.75</v>
@@ -7704,10 +7705,10 @@
         <v>637</v>
       </c>
       <c r="D150" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E150" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -7724,10 +7725,10 @@
         <v>638</v>
       </c>
       <c r="D151" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E151" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7750,10 +7751,10 @@
         <v>639</v>
       </c>
       <c r="D152" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E152" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -7773,10 +7774,10 @@
         <v>406</v>
       </c>
       <c r="D153" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E153" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7790,10 +7791,10 @@
         <v>640</v>
       </c>
       <c r="D154" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E154" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -7813,10 +7814,10 @@
         <v>408</v>
       </c>
       <c r="D155" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E155" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7827,10 +7828,10 @@
         <v>409</v>
       </c>
       <c r="D156" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E156" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -7844,7 +7845,7 @@
         <v>641</v>
       </c>
       <c r="D157" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G157">
         <v>39</v>
@@ -7861,10 +7862,10 @@
         <v>642</v>
       </c>
       <c r="D158" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E158" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F158">
         <v>4</v>
@@ -7878,10 +7879,10 @@
         <v>412</v>
       </c>
       <c r="D159" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E159" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -7895,10 +7896,10 @@
         <v>643</v>
       </c>
       <c r="D160" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E160" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -7918,10 +7919,10 @@
         <v>644</v>
       </c>
       <c r="D161" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E161" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7935,10 +7936,10 @@
         <v>644</v>
       </c>
       <c r="D162" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E162" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -7952,10 +7953,10 @@
         <v>645</v>
       </c>
       <c r="D163" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E163" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -7975,10 +7976,10 @@
         <v>646</v>
       </c>
       <c r="D164" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E164" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -7995,10 +7996,10 @@
         <v>418</v>
       </c>
       <c r="D165" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E165" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -8009,10 +8010,10 @@
         <v>419</v>
       </c>
       <c r="D166" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E166" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -8026,10 +8027,10 @@
         <v>647</v>
       </c>
       <c r="D167" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E167" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -8049,10 +8050,10 @@
         <v>648</v>
       </c>
       <c r="D168" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E168" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8066,10 +8067,10 @@
         <v>648</v>
       </c>
       <c r="D169" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E169" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8083,10 +8084,10 @@
         <v>649</v>
       </c>
       <c r="D170" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E170" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -8109,10 +8110,10 @@
         <v>650</v>
       </c>
       <c r="D171" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E171" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -8135,10 +8136,10 @@
         <v>651</v>
       </c>
       <c r="D172" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E172" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -8161,10 +8162,10 @@
         <v>652</v>
       </c>
       <c r="D173" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E173" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8178,10 +8179,10 @@
         <v>652</v>
       </c>
       <c r="D174" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E174" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8195,10 +8196,10 @@
         <v>653</v>
       </c>
       <c r="D175" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E175" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8212,10 +8213,10 @@
         <v>654</v>
       </c>
       <c r="D176" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E176" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8229,10 +8230,10 @@
         <v>655</v>
       </c>
       <c r="D177" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E177" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8246,10 +8247,10 @@
         <v>656</v>
       </c>
       <c r="D178" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E178" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8263,10 +8264,10 @@
         <v>657</v>
       </c>
       <c r="D179" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E179" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8280,10 +8281,10 @@
         <v>657</v>
       </c>
       <c r="D180" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E180" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8297,10 +8298,10 @@
         <v>657</v>
       </c>
       <c r="D181" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E181" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8314,10 +8315,10 @@
         <v>658</v>
       </c>
       <c r="D182" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E182" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8340,10 +8341,10 @@
         <v>659</v>
       </c>
       <c r="D183" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E183" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -8366,10 +8367,10 @@
         <v>660</v>
       </c>
       <c r="D184" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E184" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -8392,10 +8393,10 @@
         <v>661</v>
       </c>
       <c r="D185" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E185" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -8418,10 +8419,10 @@
         <v>662</v>
       </c>
       <c r="D186" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E186" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -8444,10 +8445,10 @@
         <v>663</v>
       </c>
       <c r="D187" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E187" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8461,10 +8462,10 @@
         <v>663</v>
       </c>
       <c r="D188" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E188" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8478,10 +8479,10 @@
         <v>663</v>
       </c>
       <c r="D189" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E189" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8495,10 +8496,10 @@
         <v>664</v>
       </c>
       <c r="D190" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E190" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -8521,10 +8522,10 @@
         <v>665</v>
       </c>
       <c r="D191" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E191" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -8547,10 +8548,10 @@
         <v>666</v>
       </c>
       <c r="D192" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E192" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -8573,10 +8574,10 @@
         <v>667</v>
       </c>
       <c r="D193" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E193" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8590,10 +8591,10 @@
         <v>667</v>
       </c>
       <c r="D194" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E194" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8607,10 +8608,10 @@
         <v>667</v>
       </c>
       <c r="D195" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E195" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8624,10 +8625,10 @@
         <v>667</v>
       </c>
       <c r="D196" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E196" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -8641,10 +8642,10 @@
         <v>668</v>
       </c>
       <c r="D197" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E197" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -8667,10 +8668,10 @@
         <v>669</v>
       </c>
       <c r="D198" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E198" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -8693,10 +8694,10 @@
         <v>670</v>
       </c>
       <c r="D199" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E199" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -8716,10 +8717,10 @@
         <v>453</v>
       </c>
       <c r="D200" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E200" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -8730,10 +8731,10 @@
         <v>454</v>
       </c>
       <c r="D201" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E201" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -8744,10 +8745,10 @@
         <v>455</v>
       </c>
       <c r="D202" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E202" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8761,10 +8762,10 @@
         <v>671</v>
       </c>
       <c r="D203" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E203" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -8787,10 +8788,10 @@
         <v>672</v>
       </c>
       <c r="D204" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E204" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -8813,10 +8814,10 @@
         <v>673</v>
       </c>
       <c r="D205" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E205" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -8836,10 +8837,10 @@
         <v>459</v>
       </c>
       <c r="D206" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E206" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8850,10 +8851,10 @@
         <v>460</v>
       </c>
       <c r="D207" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E207" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8867,10 +8868,10 @@
         <v>674</v>
       </c>
       <c r="D208" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E208" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F208">
         <v>14</v>
@@ -8893,10 +8894,10 @@
         <v>675</v>
       </c>
       <c r="D209" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E209" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F209">
         <v>15</v>
@@ -8919,10 +8920,10 @@
         <v>676</v>
       </c>
       <c r="D210" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E210" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F210">
         <v>16</v>
@@ -8942,10 +8943,10 @@
         <v>464</v>
       </c>
       <c r="D211" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E211" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -8956,10 +8957,10 @@
         <v>465</v>
       </c>
       <c r="D212" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E212" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -8970,10 +8971,10 @@
         <v>466</v>
       </c>
       <c r="D213" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E213" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -8987,10 +8988,10 @@
         <v>677</v>
       </c>
       <c r="D214" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E214" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F214">
         <v>17</v>
@@ -9013,7 +9014,7 @@
         <v>678</v>
       </c>
       <c r="D215" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -9027,10 +9028,10 @@
         <v>679</v>
       </c>
       <c r="D216" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E216" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F216">
         <v>18</v>
@@ -9050,10 +9051,10 @@
         <v>470</v>
       </c>
       <c r="D217" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E217" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -9064,10 +9065,10 @@
         <v>471</v>
       </c>
       <c r="D218" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E218" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9078,10 +9079,10 @@
         <v>472</v>
       </c>
       <c r="D219" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E219" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9095,10 +9096,10 @@
         <v>680</v>
       </c>
       <c r="D220" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E220" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -9118,13 +9119,13 @@
         <v>474</v>
       </c>
       <c r="C221" t="s">
-        <v>681</v>
+        <v>952</v>
       </c>
       <c r="D221" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E221" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F221">
         <v>20</v>
@@ -9144,13 +9145,13 @@
         <v>475</v>
       </c>
       <c r="C222" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D222" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E222" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F222">
         <v>21</v>
@@ -9170,10 +9171,10 @@
         <v>476</v>
       </c>
       <c r="D223" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E223" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -9184,10 +9185,10 @@
         <v>477</v>
       </c>
       <c r="D224" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E224" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -9198,13 +9199,13 @@
         <v>478</v>
       </c>
       <c r="C225" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D225" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E225" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F225">
         <v>22</v>
@@ -9224,13 +9225,13 @@
         <v>479</v>
       </c>
       <c r="C226" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D226" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E226" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F226">
         <v>23</v>
@@ -9250,13 +9251,13 @@
         <v>480</v>
       </c>
       <c r="C227" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D227" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E227" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F227">
         <v>24</v>
@@ -9276,10 +9277,10 @@
         <v>481</v>
       </c>
       <c r="D228" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E228" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9290,10 +9291,10 @@
         <v>482</v>
       </c>
       <c r="D229" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E229" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9304,13 +9305,13 @@
         <v>483</v>
       </c>
       <c r="C230" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D230" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E230" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F230">
         <v>25</v>
@@ -9330,13 +9331,13 @@
         <v>484</v>
       </c>
       <c r="C231" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D231" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E231" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F231">
         <v>26</v>
@@ -9356,10 +9357,10 @@
         <v>485</v>
       </c>
       <c r="D232" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E232" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9370,10 +9371,10 @@
         <v>486</v>
       </c>
       <c r="D233" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E233" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -9384,13 +9385,13 @@
         <v>487</v>
       </c>
       <c r="C234" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D234" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E234" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F234">
         <v>27</v>
@@ -9410,13 +9411,13 @@
         <v>488</v>
       </c>
       <c r="C235" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D235" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E235" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F235">
         <v>28</v>
@@ -9436,13 +9437,13 @@
         <v>489</v>
       </c>
       <c r="C236" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D236" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E236" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F236">
         <v>29</v>
@@ -9462,10 +9463,10 @@
         <v>490</v>
       </c>
       <c r="D237" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E237" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -9476,13 +9477,13 @@
         <v>491</v>
       </c>
       <c r="C238" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D238" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E238" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F238">
         <v>30</v>
@@ -9502,10 +9503,10 @@
         <v>492</v>
       </c>
       <c r="C239" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D239" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -9516,10 +9517,10 @@
         <v>493</v>
       </c>
       <c r="D240" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E240" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -9530,7 +9531,7 @@
         <v>494</v>
       </c>
       <c r="D241" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -9541,13 +9542,13 @@
         <v>495</v>
       </c>
       <c r="C242" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D242" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E242" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F242">
         <v>31</v>
@@ -9567,13 +9568,13 @@
         <v>496</v>
       </c>
       <c r="C243" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D243" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E243" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -9593,13 +9594,13 @@
         <v>497</v>
       </c>
       <c r="C244" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D244" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E244" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F244">
         <v>33</v>
@@ -9619,10 +9620,10 @@
         <v>498</v>
       </c>
       <c r="D245" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E245" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -9633,13 +9634,13 @@
         <v>499</v>
       </c>
       <c r="C246" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D246" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E246" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F246">
         <v>34</v>
@@ -9659,13 +9660,13 @@
         <v>500</v>
       </c>
       <c r="C247" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D247" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E247" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F247">
         <v>35</v>
@@ -9685,13 +9686,13 @@
         <v>501</v>
       </c>
       <c r="C248" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D248" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E248" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F248">
         <v>36</v>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AA5CA-AD49-464D-8C61-DC6340116AA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB562E-DE52-4EB4-8CB6-EE3BD289FF52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3947,7 +3947,7 @@
   <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB562E-DE52-4EB4-8CB6-EE3BD289FF52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1560" windowWidth="26295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="961">
   <si>
     <t>ephysFN</t>
   </si>
@@ -787,6 +781,12 @@
     <t>Beto-27042020-004</t>
   </si>
   <si>
+    <t>Beto-22052020-001</t>
+  </si>
+  <si>
+    <t>Beto-22052020-002</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1528,6 +1528,12 @@
     <t>200427_Beto_generate_integrated_239</t>
   </si>
   <si>
+    <t>200522_Beto_rfMapper_basic(1)</t>
+  </si>
+  <si>
+    <t>200522_Beto_selectivity_basic(1)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1858,7 +1864,7 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-23-Beto-01\2020-01-23-12-36-03</t>
   </si>
   <si>
-    <t>. </t>
+    <t xml:space="preserve">. </t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-27-Beto-01\2020-01-27-11-23-03</t>
@@ -2065,6 +2071,9 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-01\2020-04-10-14-13-19</t>
   </si>
   <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-02\2020-04-10-14-54-53</t>
+  </si>
+  <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-03\2020-04-10-15-13-34</t>
   </si>
   <si>
@@ -2114,6 +2123,9 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-04-27-Beto-03\2020-04-27-14-39-36</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Style-Transfer-Stimuli\2020-05-21a Alfa</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
@@ -2518,13 +2530,13 @@
 Blasting him, 300 ms, going to block 50 then calling it a day</t>
   </si>
   <si>
-    <t>Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
-  </si>
-  <si>
-    <t>Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
-  </si>
-  <si>
-    <t>Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
+    <t xml:space="preserve">Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
   </si>
   <si>
     <t>001 RFMapper 11:02 AM starts 
@@ -3521,6 +3533,24 @@
 completed</t>
   </si>
   <si>
+    <t>In rig at 928
+Rf map start 937.
+Sleepy, taking nap breaks
+4 blocks complete stopped at 948
+ completed</t>
+  </si>
+  <si>
+    <t>Selectivity-Basic start at 954
+2 locations, -2.5,2.5 &amp; 0,0. Both at 3 degrees
+267 images total, want to get through 4-6 blocks
+Wow already shaking and only ~40 minutes in....
+Back on track, takes him about 10 minutes a block
+4 blocks complete! In 42 minutes. I'm blasting him and see if
+We can get another block or 2 done
+6 blocks 1103
+completed</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -3542,14 +3572,14 @@
     <t>ReducDimen_Evol</t>
   </si>
   <si>
-    <t>N:\Stimuli\2019-12-Evolutions\2020-04-10-Beto-02\2020-04-10-14-54-53</t>
+    <t>Style</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3608,23 +3638,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3666,7 +3688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3698,27 +3720,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3750,24 +3754,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3943,22 +3929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" customWidth="1"/>
-    <col min="4" max="4" width="89.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3984,21 +3962,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="E2" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4010,21 +3988,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D3" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E3" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4036,21 +4014,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E4" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -4062,21 +4040,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="E5" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4088,21 +4066,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E6" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4114,21 +4092,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="E7" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -4140,21 +4118,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D8" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="E8" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -4166,21 +4144,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D9" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="E9" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -4192,21 +4170,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D10" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E10" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4218,21 +4196,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D11" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="E11" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4244,21 +4222,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D12" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E12" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -4270,21 +4248,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D13" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="E13" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -4296,21 +4274,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D14" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="E14" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -4322,21 +4300,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D15" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="E15" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -4348,21 +4326,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D16" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="E16" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -4374,21 +4352,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D17" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E17" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4400,21 +4378,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D18" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="E18" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -4426,21 +4404,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D19" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="E19" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -4452,21 +4430,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D20" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E20" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -4478,21 +4456,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D21" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E21" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -4504,21 +4482,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D22" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E22" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -4530,21 +4508,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D23" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="E23" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -4556,21 +4534,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D24" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="E24" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -4582,21 +4560,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D25" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="E25" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4608,21 +4586,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D26" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E26" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -4634,21 +4612,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D27" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E27" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -4660,21 +4638,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D28" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="E28" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -4686,21 +4664,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D29" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E29" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -4712,21 +4690,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D30" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E30" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -4738,21 +4716,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D31" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E31" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4764,21 +4742,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="E32" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4790,21 +4768,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D33" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E33" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4816,21 +4794,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D34" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E34" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4842,21 +4820,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D35" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E35" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4868,21 +4846,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D36" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="E36" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4894,21 +4872,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D37" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="E37" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4920,21 +4898,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D38" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E38" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4946,21 +4924,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D39" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="E39" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4972,21 +4950,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D40" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E40" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4998,21 +4976,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C41" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D41" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="E41" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -5024,21 +5002,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C42" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D42" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E42" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -5050,21 +5028,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D43" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E43" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -5076,21 +5054,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D44" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E44" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -5102,21 +5080,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C45" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D45" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="E45" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -5128,21 +5106,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D46" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="E46" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -5154,21 +5132,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D47" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E47" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -5180,21 +5158,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D48" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E48" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -5206,21 +5184,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C49" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D49" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="E49" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -5232,21 +5210,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C50" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D50" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="E50" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -5258,21 +5236,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D51" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E51" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -5284,21 +5262,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C52" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D52" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="E52" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -5310,18 +5288,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D53" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -5333,21 +5311,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C54" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D54" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E54" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -5359,21 +5337,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C55" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D55" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="E55" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -5385,21 +5363,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C56" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D56" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="E56" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -5411,21 +5389,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D57" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E57" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -5437,21 +5415,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C58" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D58" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="E58" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -5463,21 +5441,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D59" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E59" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -5489,21 +5467,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D60" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E60" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -5515,21 +5493,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D61" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="E61" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -5541,21 +5519,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D62" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="E62" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -5567,21 +5545,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D63" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="E63" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -5593,21 +5571,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D64" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E64" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -5619,21 +5597,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C65" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D65" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="E65" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -5645,21 +5623,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D66" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E66" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -5671,21 +5649,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D67" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E67" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -5697,21 +5675,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D68" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="E68" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -5723,21 +5701,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C69" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D69" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="E69" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -5749,21 +5727,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C70" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D70" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="E70" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5775,21 +5753,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C71" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D71" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E71" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5801,21 +5779,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C72" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D72" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="E72" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5827,21 +5805,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D73" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E73" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5853,21 +5831,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C74" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D74" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E74" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5879,21 +5857,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C75" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D75" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="E75" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5905,21 +5883,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C76" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D76" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E76" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5931,21 +5909,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D77" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="E77" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5957,21 +5935,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C78" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D78" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="E78" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5983,21 +5961,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C79" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D79" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E79" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -6009,21 +5987,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D80" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="E80" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -6035,18 +6013,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C81" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D81" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -6058,18 +6036,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C82" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D82" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -6081,21 +6059,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C83" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D83" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E83" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -6107,21 +6085,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C84" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D84" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="E84" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -6133,21 +6111,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C85" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D85" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="E85" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -6159,21 +6137,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D86" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="E86" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -6185,21 +6163,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C87" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D87" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E87" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -6211,21 +6189,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C88" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D88" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="E88" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -6237,21 +6215,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C89" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D89" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="E89" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -6263,21 +6241,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C90" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D90" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E90" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -6289,21 +6267,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D91" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="E91" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -6315,21 +6293,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C92" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D92" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="E92" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -6341,21 +6319,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C93" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D93" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="E93" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -6367,21 +6345,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C94" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D94" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="E94" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -6393,21 +6371,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C95" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D95" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E95" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -6419,21 +6397,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C96" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D96" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="E96" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -6445,21 +6423,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C97" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D97" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="E97" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -6471,21 +6449,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D98" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="E98" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -6497,21 +6475,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C99" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D99" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="E99" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -6523,21 +6501,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C100" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D100" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="E100" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -6549,41 +6527,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C101" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D101" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E101" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="F101">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C102" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D102" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="E102" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -6595,21 +6573,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C103" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D103" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="E103" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -6621,21 +6599,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C104" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D104" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="E104" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -6647,21 +6625,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C105" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D105" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="E105" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -6673,21 +6651,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C106" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D106" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="E106" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -6699,21 +6677,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C107" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D107" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E107" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -6725,61 +6703,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C108" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D108" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="E108" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="F108">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D109" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="E109" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="F109">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C110" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D110" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E110" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6791,21 +6769,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C111" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D111" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E111" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6817,21 +6795,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C112" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D112" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="E112" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6843,21 +6821,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C113" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D113" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="E113" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6869,21 +6847,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C114" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D114" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="E114" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6895,21 +6873,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C115" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D115" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="E115" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6921,41 +6899,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C116" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D116" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="E116" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C117" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D117" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="E117" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6967,41 +6945,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C118" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D118" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="E118" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C119" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D119" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="E119" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -7013,21 +6991,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C120" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D120" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="E120" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -7039,41 +7017,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C121" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D121" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="E121" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C122" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D122" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="E122" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -7085,18 +7063,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C123" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D123" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -7105,61 +7083,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C124" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D124" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="E124" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C125" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D125" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="E125" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C126" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D126" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="E126" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -7171,35 +7149,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C127" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D127" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="E127" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C128" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D128" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -7208,21 +7186,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D129" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E129" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -7234,55 +7212,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D130" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C131" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D131" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C132" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D132" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E132" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -7294,21 +7272,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C133" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D133" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="E133" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -7320,61 +7298,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C134" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D134" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="E134" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H134">
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C135" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D135" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="E135" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C136" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D136" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E136" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -7386,21 +7364,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C137" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D137" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E137" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -7412,21 +7390,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C138" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D138" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="E138" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -7438,21 +7416,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C139" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D139" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E139" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -7464,61 +7442,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C140" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D140" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="E140" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C141" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D141" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="E141" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C142" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D142" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="E142" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -7530,21 +7508,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C143" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D143" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="E143" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -7556,61 +7534,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C144" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D144" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="E144" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C145" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D145" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="E145" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C146" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D146" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="E146" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -7622,21 +7600,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C147" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D147" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E147" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -7648,21 +7626,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C148" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D148" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="E148" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7674,61 +7652,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C149" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D149" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="E149" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="H149">
         <v>0.75</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C150" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D150" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E150" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C151" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D151" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="E151" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7740,21 +7718,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C152" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D152" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="E152" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -7766,35 +7744,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D153" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E153" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C154" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D154" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="E154" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -7806,100 +7784,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D155" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="E155" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D156" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E156" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C157" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D157" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="G157">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C158" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D158" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="E158" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D159" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="E159" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C160" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D160" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E160" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -7908,55 +7886,55 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C161" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D161" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E161" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C162" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D162" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E162" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C163" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D163" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="E163" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -7965,21 +7943,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C164" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D164" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="E164" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -7988,49 +7966,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D165" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="E165" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D166" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="E166" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C167" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D167" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E167" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -8039,55 +8017,55 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C168" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D168" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E168" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C169" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D169" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="E169" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C170" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D170" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="E170" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -8099,21 +8077,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C171" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D171" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="E171" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -8125,21 +8103,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C172" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D172" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="E172" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -8151,174 +8129,174 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C173" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D173" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="E173" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C174" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D174" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E174" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C175" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D175" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E175" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C176" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D176" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E176" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C177" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D177" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="E177" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C178" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D178" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="E178" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D179" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E179" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C180" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D180" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="E180" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C181" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D181" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="E181" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C182" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D182" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E182" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8330,21 +8308,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C183" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D183" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="E183" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -8356,21 +8334,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C184" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D184" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="E184" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -8382,21 +8360,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C185" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D185" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="E185" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -8408,21 +8386,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C186" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D186" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="E186" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -8434,72 +8412,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C187" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D187" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="E187" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C188" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D188" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="E188" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C189" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D189" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="E189" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C190" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D190" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="E190" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -8511,21 +8489,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C191" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D191" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="E191" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -8537,21 +8515,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C192" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D192" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="E192" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -8563,89 +8541,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C193" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D193" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="E193" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C194" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D194" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="E194" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C195" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D195" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="E195" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C196" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D196" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="E196" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C197" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D197" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="E197" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -8657,21 +8635,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C198" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D198" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="E198" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -8683,21 +8661,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C199" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D199" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E199" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -8709,63 +8687,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D200" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E200" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D201" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E201" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D202" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E202" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C203" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D203" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="E203" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -8777,21 +8755,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C204" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D204" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E204" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -8803,21 +8781,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C205" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D205" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E205" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -8829,49 +8807,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D206" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="E206" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D207" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E207" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C208" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D208" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E208" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F208">
         <v>14</v>
@@ -8883,21 +8861,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C209" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D209" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E209" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F209">
         <v>15</v>
@@ -8909,21 +8887,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C210" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D210" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E210" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F210">
         <v>16</v>
@@ -8935,63 +8913,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D211" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E211" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D212" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="E212" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D213" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E213" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C214" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D214" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="E214" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F214">
         <v>17</v>
@@ -9003,35 +8981,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C215" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D215" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C216" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D216" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E216" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F216">
         <v>18</v>
@@ -9043,63 +9021,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D217" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="E217" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D218" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="E218" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D219" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="E219" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C220" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D220" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E220" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -9111,21 +9089,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C221" t="s">
-        <v>952</v>
+        <v>685</v>
       </c>
       <c r="D221" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E221" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F221">
         <v>20</v>
@@ -9137,21 +9115,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C222" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="D222" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E222" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F222">
         <v>21</v>
@@ -9163,49 +9141,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D223" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="E223" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D224" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="E224" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C225" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="D225" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E225" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F225">
         <v>22</v>
@@ -9217,21 +9195,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C226" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D226" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="E226" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F226">
         <v>23</v>
@@ -9243,21 +9221,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>233</v>
       </c>
       <c r="B227" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C227" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D227" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="E227" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F227">
         <v>24</v>
@@ -9269,49 +9247,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>234</v>
       </c>
       <c r="B228" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D228" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="E228" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D229" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="E229" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C230" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D230" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="E230" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F230">
         <v>25</v>
@@ -9323,21 +9301,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C231" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D231" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="E231" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F231">
         <v>26</v>
@@ -9349,49 +9327,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D232" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E232" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D233" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="E233" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C234" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D234" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="E234" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F234">
         <v>27</v>
@@ -9403,21 +9381,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>241</v>
       </c>
       <c r="B235" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C235" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="D235" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="E235" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F235">
         <v>28</v>
@@ -9429,21 +9407,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C236" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="D236" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="E236" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F236">
         <v>29</v>
@@ -9455,35 +9433,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>243</v>
       </c>
       <c r="B237" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D237" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="E237" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>244</v>
       </c>
       <c r="B238" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C238" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D238" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="E238" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F238">
         <v>30</v>
@@ -9495,60 +9473,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C239" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D239" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D240" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="E240" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>247</v>
       </c>
       <c r="B241" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D241" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>248</v>
       </c>
       <c r="B242" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C242" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D242" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="E242" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F242">
         <v>31</v>
@@ -9560,21 +9538,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C243" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="D243" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="E243" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -9586,21 +9564,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>250</v>
       </c>
       <c r="B244" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C244" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D244" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="E244" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F244">
         <v>33</v>
@@ -9612,35 +9590,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>251</v>
       </c>
       <c r="B245" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D245" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="E245" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>252</v>
       </c>
       <c r="B246" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C246" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D246" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="E246" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F246">
         <v>34</v>
@@ -9652,21 +9630,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C247" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="D247" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="E247" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F247">
         <v>35</v>
@@ -9678,21 +9656,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>254</v>
       </c>
       <c r="B248" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C248" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D248" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="E248" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F248">
         <v>36</v>
@@ -9702,6 +9680,37 @@
       </c>
       <c r="H248">
         <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249" t="s">
+        <v>504</v>
+      </c>
+      <c r="D249" t="s">
+        <v>951</v>
+      </c>
+      <c r="E249" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250" t="s">
+        <v>505</v>
+      </c>
+      <c r="C250" t="s">
+        <v>703</v>
+      </c>
+      <c r="D250" t="s">
+        <v>952</v>
+      </c>
+      <c r="E250" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EB3E4-BEF0-4FBF-86BD-FF297F78CD60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1864,7 +1870,7 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-23-Beto-01\2020-01-23-12-36-03</t>
   </si>
   <si>
-    <t xml:space="preserve">. </t>
+    <t>. </t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-27-Beto-01\2020-01-27-11-23-03</t>
@@ -2126,274 +2132,6 @@
   </si>
   <si>
     <t>N:\Stimuli\2020-Style-Transfer-Stimuli\2020-05-21a Alfa</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen}</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 29 191002. generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 6 evolution 191003(CRP). Fewer Reps 408 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively, +10 last gen +12 gabor + 23 reference image}</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 6 191003(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 5 evolution 191007(CRP). Fewer Reps 373 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 5 191007(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 20 evolution 191008(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 20 191008(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 19 evolution 191009(BXW). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 19 191009(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 13 evolution 191010(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 13 191010(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 28 evolution 191011(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 28 191011(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 15 evolution 191015(CRP BXW). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 15 191015(CRP BXW). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 17 evolution 191016(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 17 191016(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 63 evolution 191017(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 63 191017(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Following Evolution of Ch 26  191030(CRP) Explore in the PC2-3 space only and add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 26 191030(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 20 evolution 191031(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 20 191031(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 40 evolution 191105(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 40 evolution 191105(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 42 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 42 evolution 191106(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 35 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 35 evolution 191106(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 36 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 36 evolution 191107(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 34 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 34 evolution 191107(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 37 evolution 191108(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 37 evolution 191108(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 49 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 49 (V4) evolution 191111(BXW). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 60 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 60 (V4) evolution 191111(BXW). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 56 (V4) evolution 191112(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 56 (V4) evolution 191112(CRP). generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 54 (V4) evolution 191113(BXW). chan 54 [-4.8 -6.3] -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 58 (V4) evolution 191113(BXW). chan MU 58 [-3 -4] 3 deg -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 50 (V4) evolution 191114(CRP). chan MU ch 50 (-5,-6) -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 57 (V4) evolution 191114(CRP). ch 57 (-3,-6) 3 1, SU 2/5 generate PCs for later PC space tuning (this exp failed to pair with Manifold)</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 57 (V4) evolution 191115(CRP). ch  57 (-3,-4) 4-deg, grid -2:0.5:2</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 1, MU 5/5 generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5 -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5 -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5 -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5) -1.5:0.5:1.5</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  generate PCs for later PC space tuning</t>
-  </si>
-  <si>
-    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 1-deg evolution 48 (0,0) 1 1 , hash (MU 5/5)</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48 (0,0) 1 1 , hash (MU 5/5)  generate PCs for later PC space tuning Had an error about missing a generator picture. Not sure what that was about.responsive enough, I guess:</t>
-  </si>
-  <si>
-    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 3-deg evolution 48 (0,0) 3 1 , hash (MU 5/5)</t>
-  </si>
-  <si>
-    <t>RFMapping Ch 48 (V1) evolution 191122(CRP) heatmap  48 (-1.5:0.5:1.5) at 3 deg</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48  evolution 48 (0,0) 3 1 , hash (MU 5/5) . initial responses seem a bit lower - maybe about 40 spikes/s vs 50-60 in the previous experiment. We want to know how long before we get past 100 sp/s (took about 6 generations before) huh, got to 120 in 7 generations… has been going for 22 minutes, taking long naps, 27 completed</t>
-  </si>
-  <si>
-    <t>Selectivity for the first exp CMA Evolution of Ch 41 (V1) evolution 191125(BXW). For 41 chan [0 0 ] 1 deg 1</t>
-  </si>
-  <si>
-    <t>CMA Evolution of 2nd Ch 41 (V1) evolution 191125(BXW) 1 deg evolution  41 [0 0] 1 deg 1 Note some artifacts related to the magnets, rewards or the sounds. There is a huge amplitude response for such things.  Successful, growing features. 
-[ seems the baseline images are just too bad for evoking activities in these channelsEvolv from 50 – 150</t>
-  </si>
-  <si>
-    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  Monkey logic crushed midway because of a mistake...... Don't select reset during experiments!</t>
-  </si>
-  <si>
-    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  Selectivity starts 15:46 Starts s Consume 320 cc today  Ends 15:56 Should be combined with the last experiment to do analysis….</t>
-  </si>
-  <si>
-    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW). Combined.  For 41 chan [0 0 ] 3 deg 1  Selectivity starts 15:46 Starts s Consume 320 cc today  Ends 15:56 Should be combined with the last experiment to do analysis….</t>
-  </si>
-  <si>
-    <t>RF Mapping for Ch 41 (V1), 191125(BXW) 41 [0 0 ] 3 deg 1  Starts from 50 – 150 in 40 gens</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 41 (V1) evolution 191125(BXW) 41 [0 0 ] 3 deg 1  Evoked also has higher rate  Going up at around 8 gens.  Climbing towards plateau around 25 gens. Climbing again at around 20 gens   Climb again at around 30 gens? Stops at 35</t>
-  </si>
-  <si>
-    <t>manifold for first Evolution Ch 44 (V1) 191126(CRP) images presented at 1-deg 44 (0,0) 1 MU 5/5 pasupathy shapes doing great!</t>
-  </si>
-  <si>
-    <t>Evolution Ch 44 (V1) 191126(CRP) evolution 44 (0,0) 1 1 , MU 5/5 (hash)</t>
-  </si>
-  <si>
-    <t>manifold for second Evolution Ch 44 (V1) 191126(CRP) images presented at 3-deg 44 (0,0) 3 1, MU 5/5 (hash) 5 completed blocks at</t>
-  </si>
-  <si>
-    <t>Evolution Ch 44 (V1) 191126(CRP) heatmap for evolution 44 (0,0) 3 1, MU 5/5 (hash)</t>
-  </si>
-  <si>
-    <t>Evolution Ch 44 (V1) 191126(CRP) 44 (0,0) 3 1, MU 5/5 (hash) interesting! Very suppressed by surround!</t>
   </si>
   <si>
     <t>005  starts 12:36  Manifold for 1st Evolution 
@@ -2530,13 +2268,13 @@
 Blasting him, 300 ms, going to block 50 then calling it a day</t>
   </si>
   <si>
-    <t xml:space="preserve">Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
+    <t>Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
+  </si>
+  <si>
+    <t>Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
+  </si>
+  <si>
+    <t>Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
   </si>
   <si>
     <t>001 RFMapper 11:02 AM starts 
@@ -3574,12 +3312,862 @@
   <si>
     <t>Style</t>
   </si>
+  <si>
+    <t>CMA Evolution of Ch 6 191003(CRP). generate PCs for later PC space tuning  001 parallel evolution
+Ch 6 (-0.5,0) 3 1 SU 1/5
+7 MINUTES in, he's at 20%, because he keeps trying to drift to the center of the image, and his fixation window prevents him from doing so
+23 minutes in, 207 PM, 26%
+43 minutes in, currently on block 36.
+he pretty much shakes the chair continuously now, bangs the collar chain about
+46 minutes in, block 39.
+70 rew baseline, 15 per consecutive trial, up to 155
+completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 6 evolution 191003(CRP). Fewer Reps 408 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively, +10 last gen +12 gabor + 23 reference image}  002 manifold selectivity
+started at 234 PM,
+alas, not working well. Has done 33 trials. We need many many more…
+192 correct trials in 20 minutes
+307 correct trials in 30 minutes. Ok, that's  10 trials a minute. Another 10 minutes?</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 5 evolution 191007(CRP). Fewer Reps 373 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,  005
+finishing around 3:15 PM, so that's 1 hour and 45 minutes or so</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 20 evolution 191008(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+006 - selectivity with manifold
+1246, shakes begin, 100 cc consumed
+91 correct trials, block one completed
+48% performance, took almost 10 minutes for this block. Oof.
+will try to get to block 5 (4 * 91 + 1 = 365  correct trials)
+113 PM, block 5 (424 correct trials), bumped him up to 200 ms rew + acquisition
+he's had almost 200 cc.</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 5 191007(CRP). generate PCs for later PC space tuning Evolution, 
+003
+(2)
+Ch 5 (-0.5,0) 3 1 , MU 3/5
+shakey, oh so shakey. May be training day.
+monkey misbehaving, will stop at block 20 and try to do
+nice evo
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 29 191002. generate PCs for later PC space tuning 
+Testing Binxu's PC-sampling method
+started at 234 PM
+Ch. 29 (-0.5,0) 3 1, SU 2/5
+evolution continues to go up as of block 27
+performance is low: 318/1037. Oof
+256, shake and bake 
+increased fixation window to 1-deg radius
+2:34, 33 blocks completed, seems to be rising still
+314, increased reward to 70 + acquisition
+Completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen} 
+003 started at 324, Binxu manifold
+374 unique images, and he's not fixating great, so we may not finish this experiment in terms of enough reps
+must work until 4 PM at least
+terribly behaved. Increased reward to 170 ms. He's good at training me…
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 20 191008(CRP). generate PCs for later PC space tuning
+003
+1214 PM
+Chan 20 (-0.5,0) 3 1
+hash 4/5
+seems very visually responsive
+7 minutes in, 13 blocks, 62%
+shroud of turin face evolved
+completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 19 evolution 191009(BXW). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+003
+Selectivity 
+Perform really well and quick 
+Start 14:54PM 
+320: has done 5 full reps
+has been working for 1 hour 40 minutes
+Norm 401
+nice evo
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 19 191009(CRP). generate PCs for later PC space tuning
+002 
+Chan 19 (-0.5,0) 3 1
+MU 5/5
+started at 150 PM
+69% performance. 
+evolution plateauing early…
+it's rising very slowly. Trying to make a little face.
+minute 25, generation 41, still not a super stimulus
+super stimulus as of two generations ago (225 PM)
+it's been 35 minutes so here come the shakes
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 13 evolution 191010(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+003 147 PM
+selectivity manifold
+201 PM, 100 cc, first shake
+been shaking periodically but performance 67%
+finished at 228 PM
+Norm 386
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 13 191010(CRP). generate PCs for later PC space tuning
+002, 111 PM
+the hash is very responsive
+13 (-0.5,0) 3 1
+MU 5/5
+002 (2)
+137 PM, block 48, good evolution, has been at 71%
+ended at 146 PM
+Nice evo
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 28 evolution 191011(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+002 manifold selectivity
+started at 145 PM
+repetition 3, at 155 PM, bumping
+lost IP address - experiment was frozen for a bit of time. Should still be ok, though
+Norm 300 ! Not very large</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 28 191011(CRP). generate PCs for later PC space tuning
+001
+117 pm
+CH 28, (-0.5,0) 3 1 mu 3/5
+nicely responsive, kind of brisk
+shaking already, 122 PM
+143 ended
+Completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 15 evolution 191015(CRP BXW). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+005 starts 14:59
+Ch 15 (-0.5, 0) 3 1
+Shakes a bit at first
+Shakes strongly at around 15:16 
+But give up soon.....
+Add quisition reward 25
+Ends with 6 reps + 
+Goodenough
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 15 191015(CRP BXW). generate PCs for later PC space tuning
+003 starts at 14:26
+ch 15 (-0.5,0) 3 1
+quite responsive, consistent with previous manifold data
+Starts to slowly grow up at ~ block 5
+Match nature images at around block 10 (7min) 
+PSTH of evolved and natural images match quite well!
+Works quite well today! Very quiet
+Double the rate at around  25-30 block
+Natual image firing rate seems  to go down
+40 generations 
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 17 191016(CRP). generate PCs for later PC space tuning
+001
+220 PM
+17 (-0.5,0) 3 1
+4/5 hash
+Pretty visually responsive
+climbing very slowly, block 35
+at block 80, a windows update thing appeared. 
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 17 evolution 191016(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+002 
+selectivity. Started at 319 PM
+Norm 421
+by block 4, 332 PM, he's had almost 200 cc.
+300 cc, ended at 351 PM
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 63 evolution 191017(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+Started manifold testing at 401 PM
+by 413 PM, we have 2 blocks completed. Around 120 cc consumed. At block 4, I will bump him up
+completed
+NO REFERENCE IMAGES</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 63 191017(CRP). generate PCs for later PC space tuning
+006 evolution 
+63 (-1,-3) 3 1
+SU 2/5
+very  visually responsive, evolving
+353, bumping bumping
+super stimulus at block 31, about 100 cc consumed. Maybe a few more generations to confirm we have plateaued 
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 26 191030(CRP). generate PCs for later PC space tuning
+001 at 1017 AM
+26 (0,0) 4 1 SU 1/5
+sparse but visually responsive
+Performing at 61%, 10 minutes in, 14 generations
+1034 AM, 67% performance
+looks like a pair of eyes</t>
+  </si>
+  <si>
+    <t>Following Evolution of Ch 26  191030(CRP) Explore in the PC2-3 space only and add the pasupathy images to it. white background 4 rotations.
+003 at 1124 PM
+selectivity - manifold and pasupathies
+26 (0,0) 4
+PC2-3
+15 minutes in, has had around 200 cc so far
+70%, but I have him at 170 ms rew + acq rate
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 20 evolution 191031(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 selectivity
+20 (-3, 0) 4 1, SU 1/5
+completed
+REFERENCES INCLUDED</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 20 191031(CRP). generate PCs for later PC space tuning
+002 at 1:30 PM
+evolution
+20 (-3, 0) 4 1, SU 1/5
+evolved pair of black eyes at the edge of the picture. Not a lot of invariance. Probably could come back to 3-deg.
+will do up to block 51
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 40 evolution 191105(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 at 1150 AM
+40 (-0.3,0) 2 1
+selectivity using PC2 manifolds for evolution 191105_Beto_generate_parallel(1)
+7 reps after 31 minutes. Interesting results
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 40 evolution 191105(CRP). generate PCs for later PC space tuning
+003 at 1123 AM
+evolution
+40 (-0.3,0) 2 1,  Hash 4/5
+67%, 17 minutes in, block 26. Has been fairly flat for a bit, but just trying to get to 30
+made it to 29, then he fell asleep. But rates really plateaued, so fine
+completed, entered into Matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 42 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+005 at 150 PM
+selectivity for manifold, using
+Ch 42 (-0.3, -1.0) 2 1,  MU 5/5
+PC2 images
+at 81%
+4 blocks completed so far, 14 minutes in. We can probably stop at 5 blocks completed and start another evo, although he seems to be starting to complain
+completed at 5 reps
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 42 evolution 191106(CRP). generate PCs for later PC space tuning
+003 at 113 PM
+evolution
+42 (-0.3, -1.0) 2 1, MU 5/5
+weakly visually responsive
+Climbing slowly but surely
+completed at gen 45
+entered into Matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 35 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+008 at 242 PM
+manifold
+35 (0,-0.5) 2 1, MU 5/5
+191106_Beto_generate_parallel
+let's see if we can get at least 2 reps, but may have to continue tomorrow. Maybe it'll show the same results
+REALLY GETS HIS WIND BACK WITH 200 ms rew plus acq reward
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 35 evolution 191106(CRP). generate PCs for later PC space tuning
+007 at 219 PM
+evolution
+35 (0,-0.5) 2 1, MU 5/5
+looks responsive
+23 completed generations, and looks fairly asymptoted
+it's 138 minutes and I don't think he'll give us much more.
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 36 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 at 106 PM
+selectivity
+36 (-0.3,-1.0) 1.5, 1, MU 5/5
+completed after 5 reps
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 36 evolution 191107(CRP). generate PCs for later PC space tuning
+004 at 1230 PM
+36 (-0.3,-1.0) 1.5, 1, MU 5/5
+Seems pretty visually responsive to the synthetic textures, even from the outset
+ok will stop at 30 completed blocks
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 34 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+012 at 219 PM
+manifold selectivity
+34 (-0.2,-0.4) 1.5 1, MU 3/5 
+completed 2 reps already, going for more
+increased reward to 180 + acq reward
+300 cc so far
+229 PM
+this channel shows some pasupathies that contain something in its preferred stimulus!
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 34 evolution 191107(CRP). generate PCs for later PC space tuning
+010 at 150 PM
+evolution
+34 (-0.2,-0.4) 1.5 1, MU 3/5 
+fairly visually responsive
+performance at 77%
+202 PM currently at 21 blocks completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 37 evolution 191108(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 at 1109 
+selectivity over manifold
+37 (0,-1) 1.5 1, MU 4/5 hash
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 37 evolution 191108(CRP). generate PCs for later PC space tuning
+003 at 10:30 AM
+evolution
+37 (0,-1) 1.5 1, MU 4/5 hash
+weakly visually responsive, but sure
+hash goes nice and quiet when he naps
+10 minutes in, 63% participation
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 49 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006  13:28  Manifold 
+norm 359
+49 [-4.3 -5.5] 3 1
+Performance at around 70% 
+17 mins 
+Just got around 110mL. Still have time for more work
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 49 (V4) evolution 191111(BXW). generate PCs for later PC space tuning
+003 starts 12:38 PM 
+49 (-4.4,-5.4) 3 1, quite single unit 
+responsive and nice PSTH
+going up at gen 5 ! Good 
+Saturated?! All white in the field?
+Gradually going up again at around gen 15! 
+Meandering between 25-30 gen 
+The increased firing rate is majorly on the initial response. 
+However starting from 30 gen it's climbing up again. 
+Seems more and more later time bin activity is recruited !! A dual peak activity???
+30 gen it's 
+35 gen it starts going up again. And the peak become wider, and much more sustained! 
+Even at 40 it can still go up! 
+Seems saturated around ~50. 
+Really the response get much more sustained at later phase of the exp. (Stimuli driven? What changed?
+Or just inner state?)
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 60 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+011 at 224 PM
+manifold for 
+60 (-2.3,-3) 3 1
+he's complaining and moving…has had around 250 cc
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 60 (V4) evolution 191111(BXW). generate PCs for later PC space tuning
+010 generate_parallel at 14:05
+chan 60 [-2.3, -3] 3 deg multiunit-4/5
+There is an obvious off response from gratings. 
+And the on response to evolved and gratings are largely similar. 
+Going up at gen 5 
+Getting more and more sustained in later generations.
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 56 (V4) evolution 191112(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 at 102 pm ish
+manifold
+ch 56 (-3,-2.4) 3
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 56 (V4) evolution 191112(CRP). generate PCs for later PC space tuning
+002 at 1206 PM
+evolution
+56 (-3,-2.4) 3 1, Hash 4/5
+1218 PM, sleeping  a lot, 61% performance. Maybe a one evolution day
+really late taking off, but there it is</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 Selective Basic starts 12:39
+Norm 348
+colorful images are generated
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  generate PCs for later PC space tuning
+004 generate parallel starts 11:54
+chan 54 [-4.8 -6.3] 3 deg 
+Definitely visually responsive ~100 rate. 
+ evoke more sustained response, synthesized evoke more initial response. Very different time course from pasupathy and the synthesized images. 
+PSTH not changing much till 5 gen. 
+The off response get changed a little bit. 
+At gen 10, it starts to add up a bit. 
+The dynamics starts to change! From more transient resonse to more delayed sustained response. 
+Evolution is not super successful . 
+Starts to go up after 15 gen. 
+More and more sustained response is evoked by the later generation evoked images! Feedback recurrent thing?
+Become very sustained at around 30 gens ! (first peak doesn't change much! But the later activity is recruited. )
+22 min 35 gens
+Got a super contrast black white image! 
+~40 gens! Still meandering 
+completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 54 (V4) evolution 191113(BXW). chan 54 [-4.8 -6.3] -1.5:0.5:1.5
+005 RF mapping 
+chan 54 [-4.8 -6.3] -1.5:0.5:1.5  
+3 size image
+actually right down! Black whit part
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+012 selectivity  starts 13:55
+MU 58 [-3 -4 ] 3 deg 
+Norm 308 
+Goes to 30mL 
+Consume 380 mL today!! 
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 58 (V4) evolution 191113(BXW). chan MU 58 [-3 -4] 3 deg -1.5:0.5:1.5
+011 rf mapping 
+MU 58 [-3 -4] 3 deg
+Localize to top left of the image. 
+So it's some white thing ? No? 
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  generate PCs for later PC space tuning
+010 generate parallel start 13:22
+MU 58 [-3 -4] 3 deg 
+Responsive visually!! 
+(gets to 200mL)
+Both Gabor and synthesisze shows similar time course. 
+Starts climbing up at around 5 gens 
+Activity during 100-150 ms gets recruited more and more! 
+The synthesized become much more sustained and longer than the gabors around 8 gen. 
+Also got a quite Dark and White image thing! 
+Maybe plateaued ~16 
+Bumping up the reward around 17gen. Starts working again. 
+Gets quite saturated at 25gens. 
+Going up again! At around 27 gen
+Gets super sustained! Going up quite a bit.  
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+007 at 118 PM
+selectivity - manifold
+ch 50 (-5,-6) 3 -degrees
+surprisingly, the pasupathy shapes are just as effective here! She'll be happy
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 50 (V4) evolution 191114(CRP). chan MU ch 50 (-5,-6) -1.5:0.5:1.5
+006 at 111 PM
+rf mapping - heatmap
+ch 50 (-5,-6) -1.5:0.5:1.5
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  generate PCs for later PC space tuning
+004 at 1226
+evolution
+50 (-5,-6) 3 1, MU 3.5/5
+climbing very slowly. He's not working great - 60% participation
+late spike, at around generation 45</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 57 (V4) evolution 191114(CRP). ch 57 (-3,-6) 3 1, SU 2/5 generate PCs for later PC space tuning (this exp failed to pair with Manifold)
+009 at 151 PM
+Evolution
+ch 57 (-3,-6) 3 1, SU 2/5, very visually responsive
+it's evolving, but the monkey appears to want to finish now
+should try this again tomorrow to complete manifold. Actually, might want to start this evolution tomorrow using the current genotypes, or something from generation 20
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 57 (V4) evolution 191115(CRP). ch  57 (-3,-4) 4-deg, grid -2:0.5:2
+004 at 146 PM
+heatmap
+57 (-3,-4) 4-deg, grid -2:0.5:2
+42%, wants to look at it
+eye recalibration. Maybe an offset?</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+005 at 157 PM
+manifold selectivity 
+56 (-3,-4) 4-deg (????? Is it 57 or 56)
+Norm 424
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 1, MU 5/5 generate PCs for later PC space tuning
+003 at 1256 PM
+57 (-3,-4) 4 1, MU 5/5
+Much more sustained activity
+climbing slowly but ok
+he's taking very long naps. Seems like a one-evolution day
+Go to gen 72, norm 424
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 Selectivity Basic starts 14:14
+Norm 319 
+6-7 gens good
+ Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU -1.5:0.5:1.5
+004 RF mapping for heatmap starts 14:05
+chan 55 [-2.5 -2.8] 1 3 MU 
+PSTH waveform looks just like the evolved one! 
+Norm 319
+Surprisingly, it's not the most salient part in our eye! It's the black and white thing. 
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  generate PCs for later PC space tuning
+003  Evolution 
+Starts 13:38 PM - 2:01 
+chan 55 [-2.5 -2.8] 1 3 MU 
+Both curve going up right away ! Cool  
+Sleep at 13:41 
+Climb up really quick! 
+Also gets more sustained, the peak extended
+Recurrency
+Gets the visual cortex to fire sustainedly 
+What does that mean?
+Around 20 generation gets a even higher secondary peak around 100ms ! (TaisingLee's feedback result?)
+Nearly plateau around 25-30 generations. 
+Secondary peak gets insanely high! 
+Monkey works quite well today! 
+The evolution seems quite successful and sustained now! 
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+008 at 105 PM
+manifold, selectivity, for
+ch 26 (-2.1 -0.6) 3 1, SU 1/5
+upped reward to 120 ms, has had 200 cc almost?!
+131 PM, almost done, 6 full reps, 300 cc
+completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5 -1.5:0.5:1.5
+007 at 1254 
+heatmap for ch 26 (-2.1 -0.6) 3 1, SU 1/5
+he's fixating terribly…
+finished, 4 reps
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  generate PCs for later PC space tuning
+006 at 1212 PM
+evolution
+ch 26 (-2.1 -0.6) 3 1, SU 1/5
+looks to have a strong off-response. Maybe we should change window
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+007 Manifold experiment starts 
+39 [0 0] 3
+PC23 manifold for the 1st experiment 
+Continues - 15:50
+Norm 297
+Complete</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5 -1.5:0.5:1.5
+004 RF mapping 14:41 starts
+For the 3 deg image in 1st evolution today 
+39 [0 0 ] 3 
+1.5:0.5:1.5
+Complete</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  generate PCs for later PC space tuning
+002 at 203 PM
+Generate
+ch 39, MU 4/5
+responsive
+(0,0) 3 1
+Complete
+Project_BigEvo</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 Manifold experiment starts 14:57 
+39 [0 0] 1 
+PC23 manifold for the 2nd evolution. 
+Seems more plateaued as many V1 evolutions 
+Norm 302 
+Complete</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5 -1.5:0.5:1.5
+005 RF mapping 
+For the 1 deg evolved image from the 2nd evolution today. 
+39 [0 0 ] 1  
+-0.5:0.25:0.5
+Seems he is quite attentive for this experiment! Why 
+Eye movement seems to be too large for the mapping to work 
+Complete</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  generate PCs for later PC space tuning
+003 at 221 PM
+evolution
+ch 39 (0,0) 1 1
+test to see if we can evolve something as efficiently as with 
+Plateaued around 23 gens. ~ 300 activations. 
+Higher initial response. 
+~ stop ~ 31 
+Complete</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+008 at 206 PM
+45 (-0.3,0.2) 3 1 
+manifold
+reward at 130 ms plus acq
+working well, at 86%, has had around 200 cc so far
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5) -1.5:0.5:1.5
+005 at 123 PM
+Heatmap (0,0) -1.5:0.5:1.5
+45 (0,0) 3 1, hash (MU 5/5)
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  generate PCs for later PC space tuning
+004 at 
+evolution
+45 (0,0) 3 1, hash (MU 5/5)
+started initial responses at around 80 and 120
+lost eye movements! Paused experiment
+looks like it got there faster:
+will go up to 30 completed blocks, then heatmap with this evolution
+Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+Manifold with 1-deg
+006 at 136 PM
+first evolution image, at 
+looks peaky-ish?
+shaking a bit, bumped him to 100 once he resumed work. 
+Put him up to 130, he's been working a while… only had 175 mL. </t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  generate PCs for later PC space tuning
+003 at 1242
+evolution 
+45 (0,0) 1 1, hash (MU 5/5)
+responses much higher, at 70 and 120, so stimulus better positioned
+He's taking a nap, 68% performance so far
+we'll go to generation 30 then try again with 3-deg stimulus
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 1-deg evolution 48 (0,0) 1 1 , hash (MU 5/5)
+006 at 1252
+manifold for 1-deg evolution
+48 (0,0) 1 1 , hash (MU 5/5)
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48 (0,0) 1 1 , hash (MU 5/5)  generate PCs for later PC space tuning Had an error about missing a generator picture. Not sure what that was about.responsive enough, I guess:
+002 at 1143 AM
+evolution
+48 (0,0) 1 1 , hash (MU 5/5)
+Had an error about missing a generator picture. Not sure what that was about.
+responsive enough, I guess:</t>
+  </si>
+  <si>
+    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 3-deg evolution 48 (0,0) 3 1 , hash (MU 5/5)
+007 at 109 PM
+manifold for 3-deg evolution
+48 (0,0) 3 1 , hash (MU 5/5)
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Ch 48 (V1) evolution 191122(CRP) heatmap  48 (-1.5:0.5:1.5) at 3 deg
+004 at 1231 PM
+heatmap 
+48 (-1.5:0.5:1.5) at 3 deg
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48  evolution 48 (0,0) 3 1 , hash (MU 5/5) .
+ 003 at 1205 PM
+evolution
+48 (0,0) 3 1 , hash (MU 5/5)
+initial responses seem a bit lower - maybe about 40 spikes/s vs 50-60 in the previous experiment. We want to know how long before we get past 100 sp/s (took about 6 generations before)
+huh, got to 120 in 7 generations…
+has been going for 22 minutes, taking long naps, 27 completed</t>
+  </si>
+  <si>
+    <t>Selectivity for the first exp CMA Evolution of Ch 41 (V1) evolution 191125(BXW). For 41 chan [0 0 ] 1 deg 1
+005 Selectivity for the first exp  
+For 41 chan [0 0 ] 1 deg 1  
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of 2nd Ch 41 (V1) evolution 191125(BXW) 1 deg evolution  41 [0 0] 1 deg 1 002 starts 14:54
+1 deg evolution 
+41 [0 0] 1 deg 1 
+Note some artifacts related to the magnets, rewards or the sounds. 
+There is a huge amplitude response for such things. 
+Successful, growing features. 
+[ seems the baseline images are just too bad for evoking activities in these channels
+Evolv from 50 – 150 
+Completed</t>
+  </si>
+  <si>
+    <t>Evolution Ch 44 (V1) 191126(CRP) 44 (0,0) 3 1, MU 5/5 (hash) interesting! Very suppressed by surround!
+003 at 116 PM
+44 (0,0) 3 1, MU 5/5 (hash)
+interesting! Very suppressed by surround!
+Project_BigEvo</t>
+  </si>
+  <si>
+    <t>Evolution Ch 44 (V1) 191126(CRP) heatmap for evolution 44 (0,0) 3 1, MU 5/5 (hash)
+004 at 141 PM
+heatmap for evolution 44 (0,0) 3 1, MU 5/5 (hash)</t>
+  </si>
+  <si>
+    <t>manifold for second Evolution Ch 44 (V1) 191126(CRP) images presented at 3-deg 44 (0,0) 3 1, MU 5/5 (hash) 5 completed blocks at
+006 at 203 PM
+manifold for second evolution, images presented at 3-deg
+44 (0,0) 3 1, MU 5/5 (hash)
+5 completed blocks at</t>
+  </si>
+  <si>
+    <t>Evolution Ch 44 (V1) 191126(CRP) evolution 44 (0,0) 1 1 , MU 5/5 (hash)
+002 at 1255 PM
+evolution
+44 (0,0) 1 1 , MU 5/5 (hash)
+Will go to 30 completed generations
+about 200 spikes per s
+Project_BigEvo</t>
+  </si>
+  <si>
+    <t>manifold for first Evolution Ch 44 (V1) 191126(CRP) images presented at 1-deg 44 (0,0) 1 MU 5/5 pasupathy shapes doing great!
+005 at 
+manifold for first evolution, images presented at 1-deg
+44 (0,0) 1 MU 5/5
+pasupathy shapes doing great!
+5 completed blocks</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 41 (V1) evolution 191125(BXW) 41 [0 0 ] 3 deg 1  Evoked also has higher rate  
+003 
+41 [0 0 ] 3 deg 1 
+Evoked also has higher rate 
+Going up at around 8 gens. 
+Climbing towards plateau around 25 gens. 
+Climbing again at around 20 gens 
+Climb again at around 30 gens? 
+Stops at 35 
+Completed</t>
+  </si>
+  <si>
+    <t>RF Mapping for Ch 41 (V1), 191125(BXW) 41 [0 0 ] 3 deg 1  Starts from 50 – 150 in 40 gens
+004  Heat map 
+41 [0 0 ] 3 deg 1 
+Starts from 50 – 150 in 40 gens 
+Completed</t>
+  </si>
+  <si>
+    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1 
+006 Selectivity Manifold Experiment  for the second evolution  bvb 
+For 41 chan [0 0 ] 3 deg 1 
+Monkey logic crushed midway because of a mistake......
+Don't select reset during experiments! 
+Complete but incomplete</t>
+  </si>
+  <si>
+    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  
+007 Selectivity starts 15:46 
+Starts s
+Consume 320 cc today 
+Ends 15:56
+Should be combined with the last experiment to do analysis…..
+Completed</t>
+  </si>
+  <si>
+    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW). Combined. 
+Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1 
+006 Selectivity Manifold Experiment  for the second evolution  bvb 
+For 41 chan [0 0 ] 3 deg 1 
+Monkey logic crushed midway because of a mistake......
+Don't select reset during experiments! 
+Complete but incomplete
+Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  
+007 Selectivity starts 15:46 
+Starts s
+Consume 320 cc today 
+Ends 15:56
+Should be combined with the last experiment to do analysis…..
+Completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3631,22 +4219,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3688,7 +4287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3720,9 +4319,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3754,6 +4371,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3929,14 +4564,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +4605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3972,11 +4615,11 @@
       <c r="C2" t="s">
         <v>506</v>
       </c>
-      <c r="D2" t="s">
-        <v>704</v>
+      <c r="D2" s="2" t="s">
+        <v>878</v>
       </c>
       <c r="E2" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3988,7 +4631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3998,11 +4641,11 @@
       <c r="C3" t="s">
         <v>507</v>
       </c>
-      <c r="D3" t="s">
-        <v>705</v>
+      <c r="D3" s="2" t="s">
+        <v>877</v>
       </c>
       <c r="E3" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4014,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4024,11 +4667,11 @@
       <c r="C4" t="s">
         <v>508</v>
       </c>
-      <c r="D4" t="s">
-        <v>706</v>
+      <c r="D4" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="E4" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -4040,7 +4683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4050,11 +4693,11 @@
       <c r="C5" t="s">
         <v>509</v>
       </c>
-      <c r="D5" t="s">
-        <v>707</v>
+      <c r="D5" s="2" t="s">
+        <v>872</v>
       </c>
       <c r="E5" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4066,7 +4709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4076,11 +4719,11 @@
       <c r="C6" t="s">
         <v>510</v>
       </c>
-      <c r="D6" t="s">
-        <v>708</v>
+      <c r="D6" s="2" t="s">
+        <v>874</v>
       </c>
       <c r="E6" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4092,7 +4735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4102,11 +4745,11 @@
       <c r="C7" t="s">
         <v>511</v>
       </c>
-      <c r="D7" t="s">
-        <v>709</v>
+      <c r="D7" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="E7" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -4118,7 +4761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4128,11 +4771,11 @@
       <c r="C8" t="s">
         <v>512</v>
       </c>
-      <c r="D8" t="s">
-        <v>710</v>
+      <c r="D8" s="2" t="s">
+        <v>875</v>
       </c>
       <c r="E8" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -4144,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4154,11 +4797,11 @@
       <c r="C9" t="s">
         <v>513</v>
       </c>
-      <c r="D9" t="s">
-        <v>711</v>
+      <c r="D9" s="2" t="s">
+        <v>879</v>
       </c>
       <c r="E9" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -4170,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4180,11 +4823,11 @@
       <c r="C10" t="s">
         <v>514</v>
       </c>
-      <c r="D10" t="s">
-        <v>712</v>
+      <c r="D10" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="E10" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4196,7 +4839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4206,11 +4849,11 @@
       <c r="C11" t="s">
         <v>515</v>
       </c>
-      <c r="D11" t="s">
-        <v>713</v>
+      <c r="D11" s="2" t="s">
+        <v>881</v>
       </c>
       <c r="E11" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4222,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4232,11 +4875,11 @@
       <c r="C12" t="s">
         <v>516</v>
       </c>
-      <c r="D12" t="s">
-        <v>714</v>
+      <c r="D12" s="2" t="s">
+        <v>882</v>
       </c>
       <c r="E12" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -4248,7 +4891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4258,11 +4901,11 @@
       <c r="C13" t="s">
         <v>517</v>
       </c>
-      <c r="D13" t="s">
-        <v>715</v>
+      <c r="D13" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="E13" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -4274,7 +4917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4284,11 +4927,11 @@
       <c r="C14" t="s">
         <v>518</v>
       </c>
-      <c r="D14" t="s">
-        <v>716</v>
+      <c r="D14" s="2" t="s">
+        <v>884</v>
       </c>
       <c r="E14" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -4300,7 +4943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4310,11 +4953,11 @@
       <c r="C15" t="s">
         <v>519</v>
       </c>
-      <c r="D15" t="s">
-        <v>717</v>
+      <c r="D15" s="2" t="s">
+        <v>885</v>
       </c>
       <c r="E15" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -4326,7 +4969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4336,11 +4979,11 @@
       <c r="C16" t="s">
         <v>520</v>
       </c>
-      <c r="D16" t="s">
-        <v>718</v>
+      <c r="D16" s="2" t="s">
+        <v>886</v>
       </c>
       <c r="E16" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -4352,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4362,11 +5005,11 @@
       <c r="C17" t="s">
         <v>521</v>
       </c>
-      <c r="D17" t="s">
-        <v>719</v>
+      <c r="D17" s="2" t="s">
+        <v>887</v>
       </c>
       <c r="E17" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4378,7 +5021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4388,11 +5031,11 @@
       <c r="C18" t="s">
         <v>522</v>
       </c>
-      <c r="D18" t="s">
-        <v>720</v>
+      <c r="D18" s="2" t="s">
+        <v>889</v>
       </c>
       <c r="E18" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -4404,7 +5047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4414,11 +5057,11 @@
       <c r="C19" t="s">
         <v>523</v>
       </c>
-      <c r="D19" t="s">
-        <v>721</v>
+      <c r="D19" s="2" t="s">
+        <v>888</v>
       </c>
       <c r="E19" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -4430,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4440,11 +5083,11 @@
       <c r="C20" t="s">
         <v>524</v>
       </c>
-      <c r="D20" t="s">
-        <v>722</v>
+      <c r="D20" s="2" t="s">
+        <v>890</v>
       </c>
       <c r="E20" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -4456,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4466,11 +5109,11 @@
       <c r="C21" t="s">
         <v>525</v>
       </c>
-      <c r="D21" t="s">
-        <v>723</v>
+      <c r="D21" s="2" t="s">
+        <v>891</v>
       </c>
       <c r="E21" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -4482,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4492,11 +5135,11 @@
       <c r="C22" t="s">
         <v>526</v>
       </c>
-      <c r="D22" t="s">
-        <v>724</v>
+      <c r="D22" s="2" t="s">
+        <v>893</v>
       </c>
       <c r="E22" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -4508,7 +5151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -4518,11 +5161,11 @@
       <c r="C23" t="s">
         <v>527</v>
       </c>
-      <c r="D23" t="s">
-        <v>725</v>
+      <c r="D23" s="2" t="s">
+        <v>892</v>
       </c>
       <c r="E23" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -4534,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4544,11 +5187,11 @@
       <c r="C24" t="s">
         <v>528</v>
       </c>
-      <c r="D24" t="s">
-        <v>726</v>
+      <c r="D24" s="2" t="s">
+        <v>894</v>
       </c>
       <c r="E24" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -4560,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4570,11 +5213,11 @@
       <c r="C25" t="s">
         <v>529</v>
       </c>
-      <c r="D25" t="s">
-        <v>727</v>
+      <c r="D25" s="2" t="s">
+        <v>895</v>
       </c>
       <c r="E25" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4586,7 +5229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4596,11 +5239,11 @@
       <c r="C26" t="s">
         <v>530</v>
       </c>
-      <c r="D26" t="s">
-        <v>728</v>
+      <c r="D26" s="2" t="s">
+        <v>896</v>
       </c>
       <c r="E26" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -4612,7 +5255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4622,11 +5265,11 @@
       <c r="C27" t="s">
         <v>531</v>
       </c>
-      <c r="D27" t="s">
-        <v>729</v>
+      <c r="D27" s="2" t="s">
+        <v>897</v>
       </c>
       <c r="E27" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -4638,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4648,11 +5291,11 @@
       <c r="C28" t="s">
         <v>532</v>
       </c>
-      <c r="D28" t="s">
-        <v>730</v>
+      <c r="D28" s="2" t="s">
+        <v>898</v>
       </c>
       <c r="E28" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -4664,7 +5307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4674,11 +5317,11 @@
       <c r="C29" t="s">
         <v>533</v>
       </c>
-      <c r="D29" t="s">
-        <v>731</v>
+      <c r="D29" s="2" t="s">
+        <v>899</v>
       </c>
       <c r="E29" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -4690,7 +5333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4700,11 +5343,11 @@
       <c r="C30" t="s">
         <v>534</v>
       </c>
-      <c r="D30" t="s">
-        <v>732</v>
+      <c r="D30" s="2" t="s">
+        <v>900</v>
       </c>
       <c r="E30" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -4716,7 +5359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4726,11 +5369,11 @@
       <c r="C31" t="s">
         <v>535</v>
       </c>
-      <c r="D31" t="s">
-        <v>733</v>
+      <c r="D31" s="2" t="s">
+        <v>901</v>
       </c>
       <c r="E31" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -4742,7 +5385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4752,11 +5395,11 @@
       <c r="C32" t="s">
         <v>536</v>
       </c>
-      <c r="D32" t="s">
-        <v>734</v>
+      <c r="D32" s="2" t="s">
+        <v>902</v>
       </c>
       <c r="E32" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -4768,7 +5411,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4778,11 +5421,11 @@
       <c r="C33" t="s">
         <v>537</v>
       </c>
-      <c r="D33" t="s">
-        <v>735</v>
+      <c r="D33" s="2" t="s">
+        <v>903</v>
       </c>
       <c r="E33" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -4794,7 +5437,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4804,11 +5447,11 @@
       <c r="C34" t="s">
         <v>538</v>
       </c>
-      <c r="D34" t="s">
-        <v>736</v>
+      <c r="D34" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="E34" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -4820,7 +5463,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4830,11 +5473,11 @@
       <c r="C35" t="s">
         <v>539</v>
       </c>
-      <c r="D35" t="s">
-        <v>737</v>
+      <c r="D35" s="2" t="s">
+        <v>905</v>
       </c>
       <c r="E35" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -4846,7 +5489,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4856,11 +5499,11 @@
       <c r="C36" t="s">
         <v>540</v>
       </c>
-      <c r="D36" t="s">
-        <v>738</v>
+      <c r="D36" s="2" t="s">
+        <v>906</v>
       </c>
       <c r="E36" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -4872,7 +5515,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4882,11 +5525,11 @@
       <c r="C37" t="s">
         <v>541</v>
       </c>
-      <c r="D37" t="s">
-        <v>739</v>
+      <c r="D37" s="2" t="s">
+        <v>907</v>
       </c>
       <c r="E37" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -4898,7 +5541,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4908,11 +5551,11 @@
       <c r="C38" t="s">
         <v>542</v>
       </c>
-      <c r="D38" t="s">
-        <v>740</v>
+      <c r="D38" s="2" t="s">
+        <v>908</v>
       </c>
       <c r="E38" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -4924,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -4934,11 +5577,11 @@
       <c r="C39" t="s">
         <v>543</v>
       </c>
-      <c r="D39" t="s">
-        <v>741</v>
+      <c r="D39" s="2" t="s">
+        <v>909</v>
       </c>
       <c r="E39" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -4950,7 +5593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -4960,11 +5603,11 @@
       <c r="C40" t="s">
         <v>544</v>
       </c>
-      <c r="D40" t="s">
-        <v>742</v>
+      <c r="D40" s="2" t="s">
+        <v>910</v>
       </c>
       <c r="E40" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -4976,7 +5619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4986,11 +5629,11 @@
       <c r="C41" t="s">
         <v>545</v>
       </c>
-      <c r="D41" t="s">
-        <v>743</v>
+      <c r="D41" s="2" t="s">
+        <v>911</v>
       </c>
       <c r="E41" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -5002,7 +5645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5012,11 +5655,11 @@
       <c r="C42" t="s">
         <v>546</v>
       </c>
-      <c r="D42" t="s">
-        <v>744</v>
+      <c r="D42" s="2" t="s">
+        <v>912</v>
       </c>
       <c r="E42" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -5028,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5038,11 +5681,11 @@
       <c r="C43" t="s">
         <v>547</v>
       </c>
-      <c r="D43" t="s">
-        <v>745</v>
+      <c r="D43" s="2" t="s">
+        <v>913</v>
       </c>
       <c r="E43" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -5054,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5064,11 +5707,11 @@
       <c r="C44" t="s">
         <v>548</v>
       </c>
-      <c r="D44" t="s">
-        <v>746</v>
+      <c r="D44" s="2" t="s">
+        <v>914</v>
       </c>
       <c r="E44" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -5080,7 +5723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5090,11 +5733,11 @@
       <c r="C45" t="s">
         <v>549</v>
       </c>
-      <c r="D45" t="s">
-        <v>747</v>
+      <c r="D45" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="E45" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -5106,7 +5749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -5116,11 +5759,11 @@
       <c r="C46" t="s">
         <v>550</v>
       </c>
-      <c r="D46" t="s">
-        <v>748</v>
+      <c r="D46" s="2" t="s">
+        <v>915</v>
       </c>
       <c r="E46" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -5132,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -5142,11 +5785,11 @@
       <c r="C47" t="s">
         <v>551</v>
       </c>
-      <c r="D47" t="s">
-        <v>749</v>
+      <c r="D47" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="E47" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -5158,7 +5801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -5168,11 +5811,11 @@
       <c r="C48" t="s">
         <v>552</v>
       </c>
-      <c r="D48" t="s">
-        <v>750</v>
+      <c r="D48" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="E48" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -5184,7 +5827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -5194,11 +5837,11 @@
       <c r="C49" t="s">
         <v>553</v>
       </c>
-      <c r="D49" t="s">
-        <v>751</v>
+      <c r="D49" s="2" t="s">
+        <v>919</v>
       </c>
       <c r="E49" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -5210,7 +5853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -5220,11 +5863,11 @@
       <c r="C50" t="s">
         <v>554</v>
       </c>
-      <c r="D50" t="s">
-        <v>752</v>
+      <c r="D50" s="2" t="s">
+        <v>920</v>
       </c>
       <c r="E50" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -5236,7 +5879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -5246,11 +5889,11 @@
       <c r="C51" t="s">
         <v>555</v>
       </c>
-      <c r="D51" t="s">
-        <v>753</v>
+      <c r="D51" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="E51" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -5262,7 +5905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5272,11 +5915,11 @@
       <c r="C52" t="s">
         <v>556</v>
       </c>
-      <c r="D52" t="s">
-        <v>754</v>
+      <c r="D52" s="2" t="s">
+        <v>922</v>
       </c>
       <c r="E52" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -5288,7 +5931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -5298,8 +5941,8 @@
       <c r="C53" t="s">
         <v>557</v>
       </c>
-      <c r="D53" t="s">
-        <v>755</v>
+      <c r="D53" s="2" t="s">
+        <v>923</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -5311,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -5321,11 +5964,11 @@
       <c r="C54" t="s">
         <v>558</v>
       </c>
-      <c r="D54" t="s">
-        <v>756</v>
+      <c r="D54" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="E54" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -5337,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -5347,11 +5990,11 @@
       <c r="C55" t="s">
         <v>559</v>
       </c>
-      <c r="D55" t="s">
-        <v>757</v>
+      <c r="D55" s="2" t="s">
+        <v>924</v>
       </c>
       <c r="E55" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -5363,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -5373,11 +6016,11 @@
       <c r="C56" t="s">
         <v>560</v>
       </c>
-      <c r="D56" t="s">
-        <v>758</v>
+      <c r="D56" s="2" t="s">
+        <v>926</v>
       </c>
       <c r="E56" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -5389,7 +6032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -5399,11 +6042,11 @@
       <c r="C57" t="s">
         <v>561</v>
       </c>
-      <c r="D57" t="s">
-        <v>759</v>
+      <c r="D57" s="2" t="s">
+        <v>927</v>
       </c>
       <c r="E57" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -5415,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -5425,11 +6068,11 @@
       <c r="C58" t="s">
         <v>562</v>
       </c>
-      <c r="D58" t="s">
-        <v>760</v>
+      <c r="D58" s="2" t="s">
+        <v>928</v>
       </c>
       <c r="E58" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -5441,7 +6084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -5451,11 +6094,11 @@
       <c r="C59" t="s">
         <v>563</v>
       </c>
-      <c r="D59" t="s">
-        <v>761</v>
+      <c r="D59" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="E59" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -5467,7 +6110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -5477,11 +6120,11 @@
       <c r="C60" t="s">
         <v>564</v>
       </c>
-      <c r="D60" t="s">
-        <v>762</v>
+      <c r="D60" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="E60" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -5493,7 +6136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -5503,11 +6146,11 @@
       <c r="C61" t="s">
         <v>565</v>
       </c>
-      <c r="D61" t="s">
-        <v>763</v>
+      <c r="D61" s="2" t="s">
+        <v>931</v>
       </c>
       <c r="E61" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -5519,7 +6162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -5529,11 +6172,11 @@
       <c r="C62" t="s">
         <v>566</v>
       </c>
-      <c r="D62" t="s">
-        <v>764</v>
+      <c r="D62" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="E62" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -5545,7 +6188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -5555,11 +6198,11 @@
       <c r="C63" t="s">
         <v>567</v>
       </c>
-      <c r="D63" t="s">
-        <v>765</v>
+      <c r="D63" s="2" t="s">
+        <v>933</v>
       </c>
       <c r="E63" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -5571,7 +6214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -5581,11 +6224,11 @@
       <c r="C64" t="s">
         <v>568</v>
       </c>
-      <c r="D64" t="s">
-        <v>766</v>
+      <c r="D64" s="2" t="s">
+        <v>934</v>
       </c>
       <c r="E64" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -5597,7 +6240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -5607,11 +6250,11 @@
       <c r="C65" t="s">
         <v>569</v>
       </c>
-      <c r="D65" t="s">
-        <v>767</v>
+      <c r="D65" s="2" t="s">
+        <v>935</v>
       </c>
       <c r="E65" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -5623,7 +6266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -5633,11 +6276,11 @@
       <c r="C66" t="s">
         <v>570</v>
       </c>
-      <c r="D66" t="s">
-        <v>768</v>
+      <c r="D66" s="2" t="s">
+        <v>936</v>
       </c>
       <c r="E66" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -5649,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -5659,11 +6302,11 @@
       <c r="C67" t="s">
         <v>568</v>
       </c>
-      <c r="D67" t="s">
-        <v>769</v>
+      <c r="D67" s="2" t="s">
+        <v>937</v>
       </c>
       <c r="E67" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -5675,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -5685,11 +6328,11 @@
       <c r="C68" t="s">
         <v>571</v>
       </c>
-      <c r="D68" t="s">
-        <v>770</v>
+      <c r="D68" s="2" t="s">
+        <v>938</v>
       </c>
       <c r="E68" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -5701,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -5711,11 +6354,11 @@
       <c r="C69" t="s">
         <v>572</v>
       </c>
-      <c r="D69" t="s">
-        <v>771</v>
+      <c r="D69" s="2" t="s">
+        <v>939</v>
       </c>
       <c r="E69" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -5727,7 +6370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -5737,11 +6380,11 @@
       <c r="C70" t="s">
         <v>573</v>
       </c>
-      <c r="D70" t="s">
-        <v>772</v>
+      <c r="D70" s="2" t="s">
+        <v>940</v>
       </c>
       <c r="E70" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -5753,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -5763,11 +6406,11 @@
       <c r="C71" t="s">
         <v>574</v>
       </c>
-      <c r="D71" t="s">
-        <v>773</v>
+      <c r="D71" s="2" t="s">
+        <v>941</v>
       </c>
       <c r="E71" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -5779,7 +6422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -5789,11 +6432,11 @@
       <c r="C72" t="s">
         <v>575</v>
       </c>
-      <c r="D72" t="s">
-        <v>774</v>
+      <c r="D72" s="2" t="s">
+        <v>942</v>
       </c>
       <c r="E72" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -5805,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -5815,11 +6458,11 @@
       <c r="C73" t="s">
         <v>576</v>
       </c>
-      <c r="D73" t="s">
-        <v>775</v>
+      <c r="D73" s="2" t="s">
+        <v>943</v>
       </c>
       <c r="E73" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -5831,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -5841,11 +6484,11 @@
       <c r="C74" t="s">
         <v>577</v>
       </c>
-      <c r="D74" t="s">
-        <v>776</v>
+      <c r="D74" s="2" t="s">
+        <v>944</v>
       </c>
       <c r="E74" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -5857,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -5867,11 +6510,11 @@
       <c r="C75" t="s">
         <v>578</v>
       </c>
-      <c r="D75" t="s">
-        <v>777</v>
+      <c r="D75" s="2" t="s">
+        <v>945</v>
       </c>
       <c r="E75" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -5883,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5893,11 +6536,11 @@
       <c r="C76" t="s">
         <v>579</v>
       </c>
-      <c r="D76" t="s">
-        <v>778</v>
+      <c r="D76" s="2" t="s">
+        <v>946</v>
       </c>
       <c r="E76" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -5909,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5919,11 +6562,11 @@
       <c r="C77" t="s">
         <v>580</v>
       </c>
-      <c r="D77" t="s">
-        <v>779</v>
+      <c r="D77" s="2" t="s">
+        <v>947</v>
       </c>
       <c r="E77" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -5935,7 +6578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -5945,11 +6588,11 @@
       <c r="C78" t="s">
         <v>581</v>
       </c>
-      <c r="D78" t="s">
-        <v>780</v>
+      <c r="D78" s="2" t="s">
+        <v>948</v>
       </c>
       <c r="E78" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -5961,7 +6604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -5971,11 +6614,11 @@
       <c r="C79" t="s">
         <v>582</v>
       </c>
-      <c r="D79" t="s">
-        <v>781</v>
+      <c r="D79" s="2" t="s">
+        <v>949</v>
       </c>
       <c r="E79" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -5987,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -5997,11 +6640,11 @@
       <c r="C80" t="s">
         <v>583</v>
       </c>
-      <c r="D80" t="s">
-        <v>782</v>
+      <c r="D80" s="2" t="s">
+        <v>950</v>
       </c>
       <c r="E80" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -6013,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -6023,8 +6666,8 @@
       <c r="C81" t="s">
         <v>584</v>
       </c>
-      <c r="D81" t="s">
-        <v>783</v>
+      <c r="D81" s="2" t="s">
+        <v>958</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -6036,7 +6679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -6046,8 +6689,8 @@
       <c r="C82" t="s">
         <v>584</v>
       </c>
-      <c r="D82" t="s">
-        <v>784</v>
+      <c r="D82" s="2" t="s">
+        <v>959</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -6059,7 +6702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -6069,11 +6712,11 @@
       <c r="C83" t="s">
         <v>584</v>
       </c>
-      <c r="D83" t="s">
-        <v>785</v>
+      <c r="D83" s="2" t="s">
+        <v>960</v>
       </c>
       <c r="E83" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -6085,7 +6728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -6095,11 +6738,11 @@
       <c r="C84" t="s">
         <v>585</v>
       </c>
-      <c r="D84" t="s">
-        <v>786</v>
+      <c r="D84" s="2" t="s">
+        <v>957</v>
       </c>
       <c r="E84" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -6111,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -6121,11 +6764,11 @@
       <c r="C85" t="s">
         <v>586</v>
       </c>
-      <c r="D85" t="s">
-        <v>787</v>
+      <c r="D85" s="2" t="s">
+        <v>956</v>
       </c>
       <c r="E85" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -6137,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -6147,11 +6790,11 @@
       <c r="C86" t="s">
         <v>587</v>
       </c>
-      <c r="D86" t="s">
-        <v>788</v>
+      <c r="D86" s="2" t="s">
+        <v>955</v>
       </c>
       <c r="E86" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -6163,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -6173,11 +6816,11 @@
       <c r="C87" t="s">
         <v>588</v>
       </c>
-      <c r="D87" t="s">
-        <v>789</v>
+      <c r="D87" s="2" t="s">
+        <v>954</v>
       </c>
       <c r="E87" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -6189,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -6199,11 +6842,11 @@
       <c r="C88" t="s">
         <v>589</v>
       </c>
-      <c r="D88" t="s">
-        <v>790</v>
+      <c r="D88" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="E88" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -6215,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -6225,11 +6868,11 @@
       <c r="C89" t="s">
         <v>590</v>
       </c>
-      <c r="D89" t="s">
-        <v>791</v>
+      <c r="D89" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="E89" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -6241,7 +6884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -6251,11 +6894,11 @@
       <c r="C90" t="s">
         <v>591</v>
       </c>
-      <c r="D90" t="s">
-        <v>792</v>
+      <c r="D90" s="2" t="s">
+        <v>951</v>
       </c>
       <c r="E90" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -6267,7 +6910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -6278,10 +6921,10 @@
         <v>592</v>
       </c>
       <c r="D91" t="s">
-        <v>793</v>
+        <v>704</v>
       </c>
       <c r="E91" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -6293,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -6304,10 +6947,10 @@
         <v>593</v>
       </c>
       <c r="D92" t="s">
-        <v>794</v>
+        <v>705</v>
       </c>
       <c r="E92" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -6319,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -6330,10 +6973,10 @@
         <v>594</v>
       </c>
       <c r="D93" t="s">
-        <v>795</v>
+        <v>706</v>
       </c>
       <c r="E93" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -6345,7 +6988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -6356,10 +6999,10 @@
         <v>595</v>
       </c>
       <c r="D94" t="s">
-        <v>796</v>
+        <v>707</v>
       </c>
       <c r="E94" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -6371,7 +7014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -6382,10 +7025,10 @@
         <v>596</v>
       </c>
       <c r="D95" t="s">
-        <v>797</v>
+        <v>708</v>
       </c>
       <c r="E95" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -6397,7 +7040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -6408,10 +7051,10 @@
         <v>597</v>
       </c>
       <c r="D96" t="s">
-        <v>798</v>
+        <v>709</v>
       </c>
       <c r="E96" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -6423,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -6434,10 +7077,10 @@
         <v>598</v>
       </c>
       <c r="D97" t="s">
-        <v>799</v>
+        <v>710</v>
       </c>
       <c r="E97" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -6449,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -6460,10 +7103,10 @@
         <v>599</v>
       </c>
       <c r="D98" t="s">
-        <v>800</v>
+        <v>711</v>
       </c>
       <c r="E98" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -6475,7 +7118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -6486,10 +7129,10 @@
         <v>600</v>
       </c>
       <c r="D99" t="s">
-        <v>801</v>
+        <v>712</v>
       </c>
       <c r="E99" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -6501,7 +7144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -6512,10 +7155,10 @@
         <v>601</v>
       </c>
       <c r="D100" t="s">
-        <v>802</v>
+        <v>713</v>
       </c>
       <c r="E100" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -6527,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -6538,16 +7181,16 @@
         <v>602</v>
       </c>
       <c r="D101" t="s">
-        <v>803</v>
+        <v>714</v>
       </c>
       <c r="E101" t="s">
-        <v>954</v>
+        <v>865</v>
       </c>
       <c r="F101">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -6558,10 +7201,10 @@
         <v>603</v>
       </c>
       <c r="D102" t="s">
-        <v>804</v>
+        <v>715</v>
       </c>
       <c r="E102" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -6573,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -6584,10 +7227,10 @@
         <v>604</v>
       </c>
       <c r="D103" t="s">
-        <v>805</v>
+        <v>716</v>
       </c>
       <c r="E103" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -6599,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -6610,10 +7253,10 @@
         <v>605</v>
       </c>
       <c r="D104" t="s">
-        <v>806</v>
+        <v>717</v>
       </c>
       <c r="E104" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -6625,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -6636,10 +7279,10 @@
         <v>606</v>
       </c>
       <c r="D105" t="s">
-        <v>807</v>
+        <v>718</v>
       </c>
       <c r="E105" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -6651,7 +7294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -6662,10 +7305,10 @@
         <v>604</v>
       </c>
       <c r="D106" t="s">
-        <v>808</v>
+        <v>719</v>
       </c>
       <c r="E106" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -6677,7 +7320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -6688,10 +7331,10 @@
         <v>607</v>
       </c>
       <c r="D107" t="s">
-        <v>809</v>
+        <v>720</v>
       </c>
       <c r="E107" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -6703,7 +7346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -6714,16 +7357,16 @@
         <v>608</v>
       </c>
       <c r="D108" t="s">
-        <v>810</v>
+        <v>721</v>
       </c>
       <c r="E108" t="s">
-        <v>954</v>
+        <v>865</v>
       </c>
       <c r="F108">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -6734,16 +7377,16 @@
         <v>608</v>
       </c>
       <c r="D109" t="s">
-        <v>811</v>
+        <v>722</v>
       </c>
       <c r="E109" t="s">
-        <v>954</v>
+        <v>865</v>
       </c>
       <c r="F109">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -6754,10 +7397,10 @@
         <v>609</v>
       </c>
       <c r="D110" t="s">
-        <v>812</v>
+        <v>723</v>
       </c>
       <c r="E110" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -6769,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -6780,10 +7423,10 @@
         <v>610</v>
       </c>
       <c r="D111" t="s">
-        <v>813</v>
+        <v>724</v>
       </c>
       <c r="E111" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -6795,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -6806,10 +7449,10 @@
         <v>609</v>
       </c>
       <c r="D112" t="s">
-        <v>814</v>
+        <v>725</v>
       </c>
       <c r="E112" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -6821,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -6832,10 +7475,10 @@
         <v>611</v>
       </c>
       <c r="D113" t="s">
-        <v>815</v>
+        <v>726</v>
       </c>
       <c r="E113" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -6847,7 +7490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -6858,10 +7501,10 @@
         <v>612</v>
       </c>
       <c r="D114" t="s">
-        <v>816</v>
+        <v>727</v>
       </c>
       <c r="E114" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -6873,7 +7516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -6884,10 +7527,10 @@
         <v>613</v>
       </c>
       <c r="D115" t="s">
-        <v>817</v>
+        <v>728</v>
       </c>
       <c r="E115" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -6899,7 +7542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -6910,16 +7553,16 @@
         <v>614</v>
       </c>
       <c r="D116" t="s">
-        <v>818</v>
+        <v>729</v>
       </c>
       <c r="E116" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -6930,10 +7573,10 @@
         <v>615</v>
       </c>
       <c r="D117" t="s">
-        <v>819</v>
+        <v>730</v>
       </c>
       <c r="E117" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -6945,7 +7588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -6956,16 +7599,16 @@
         <v>616</v>
       </c>
       <c r="D118" t="s">
-        <v>820</v>
+        <v>731</v>
       </c>
       <c r="E118" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -6976,10 +7619,10 @@
         <v>617</v>
       </c>
       <c r="D119" t="s">
-        <v>821</v>
+        <v>732</v>
       </c>
       <c r="E119" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6991,7 +7634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -7002,10 +7645,10 @@
         <v>618</v>
       </c>
       <c r="D120" t="s">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="E120" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -7017,7 +7660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -7028,16 +7671,16 @@
         <v>619</v>
       </c>
       <c r="D121" t="s">
-        <v>823</v>
+        <v>734</v>
       </c>
       <c r="E121" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -7048,10 +7691,10 @@
         <v>620</v>
       </c>
       <c r="D122" t="s">
-        <v>824</v>
+        <v>735</v>
       </c>
       <c r="E122" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -7063,7 +7706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -7074,7 +7717,7 @@
         <v>621</v>
       </c>
       <c r="D123" t="s">
-        <v>825</v>
+        <v>736</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -7083,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -7094,16 +7737,16 @@
         <v>619</v>
       </c>
       <c r="D124" t="s">
-        <v>826</v>
+        <v>737</v>
       </c>
       <c r="E124" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -7114,16 +7757,16 @@
         <v>619</v>
       </c>
       <c r="D125" t="s">
-        <v>827</v>
+        <v>738</v>
       </c>
       <c r="E125" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -7134,10 +7777,10 @@
         <v>622</v>
       </c>
       <c r="D126" t="s">
-        <v>828</v>
+        <v>739</v>
       </c>
       <c r="E126" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -7149,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -7160,13 +7803,13 @@
         <v>623</v>
       </c>
       <c r="D127" t="s">
-        <v>829</v>
+        <v>740</v>
       </c>
       <c r="E127" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -7177,7 +7820,7 @@
         <v>624</v>
       </c>
       <c r="D128" t="s">
-        <v>830</v>
+        <v>741</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -7186,7 +7829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -7197,10 +7840,10 @@
         <v>625</v>
       </c>
       <c r="D129" t="s">
-        <v>831</v>
+        <v>742</v>
       </c>
       <c r="E129" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -7212,7 +7855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -7223,13 +7866,13 @@
         <v>626</v>
       </c>
       <c r="D130" t="s">
-        <v>832</v>
+        <v>743</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -7240,13 +7883,13 @@
         <v>626</v>
       </c>
       <c r="D131" t="s">
-        <v>833</v>
+        <v>744</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -7257,10 +7900,10 @@
         <v>627</v>
       </c>
       <c r="D132" t="s">
-        <v>834</v>
+        <v>745</v>
       </c>
       <c r="E132" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -7272,7 +7915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -7283,10 +7926,10 @@
         <v>628</v>
       </c>
       <c r="D133" t="s">
-        <v>835</v>
+        <v>746</v>
       </c>
       <c r="E133" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -7298,7 +7941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -7309,16 +7952,16 @@
         <v>629</v>
       </c>
       <c r="D134" t="s">
-        <v>836</v>
+        <v>747</v>
       </c>
       <c r="E134" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="H134">
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -7329,16 +7972,16 @@
         <v>629</v>
       </c>
       <c r="D135" t="s">
-        <v>837</v>
+        <v>748</v>
       </c>
       <c r="E135" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -7349,10 +7992,10 @@
         <v>630</v>
       </c>
       <c r="D136" t="s">
-        <v>838</v>
+        <v>749</v>
       </c>
       <c r="E136" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -7364,7 +8007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -7375,10 +8018,10 @@
         <v>631</v>
       </c>
       <c r="D137" t="s">
-        <v>839</v>
+        <v>750</v>
       </c>
       <c r="E137" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -7390,7 +8033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -7401,10 +8044,10 @@
         <v>632</v>
       </c>
       <c r="D138" t="s">
-        <v>840</v>
+        <v>751</v>
       </c>
       <c r="E138" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -7416,7 +8059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -7427,10 +8070,10 @@
         <v>633</v>
       </c>
       <c r="D139" t="s">
-        <v>841</v>
+        <v>752</v>
       </c>
       <c r="E139" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -7442,7 +8085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -7453,16 +8096,16 @@
         <v>634</v>
       </c>
       <c r="D140" t="s">
-        <v>842</v>
+        <v>753</v>
       </c>
       <c r="E140" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="H140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -7473,16 +8116,16 @@
         <v>634</v>
       </c>
       <c r="D141" t="s">
-        <v>843</v>
+        <v>754</v>
       </c>
       <c r="E141" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -7493,10 +8136,10 @@
         <v>635</v>
       </c>
       <c r="D142" t="s">
-        <v>844</v>
+        <v>755</v>
       </c>
       <c r="E142" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -7508,7 +8151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -7519,10 +8162,10 @@
         <v>636</v>
       </c>
       <c r="D143" t="s">
-        <v>845</v>
+        <v>756</v>
       </c>
       <c r="E143" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -7534,7 +8177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -7545,16 +8188,16 @@
         <v>637</v>
       </c>
       <c r="D144" t="s">
-        <v>846</v>
+        <v>757</v>
       </c>
       <c r="E144" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="H144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -7565,16 +8208,16 @@
         <v>637</v>
       </c>
       <c r="D145" t="s">
-        <v>847</v>
+        <v>758</v>
       </c>
       <c r="E145" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -7585,10 +8228,10 @@
         <v>638</v>
       </c>
       <c r="D146" t="s">
-        <v>848</v>
+        <v>759</v>
       </c>
       <c r="E146" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -7600,7 +8243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -7611,10 +8254,10 @@
         <v>639</v>
       </c>
       <c r="D147" t="s">
-        <v>849</v>
+        <v>760</v>
       </c>
       <c r="E147" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -7626,7 +8269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -7637,10 +8280,10 @@
         <v>640</v>
       </c>
       <c r="D148" t="s">
-        <v>850</v>
+        <v>761</v>
       </c>
       <c r="E148" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -7652,7 +8295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -7663,16 +8306,16 @@
         <v>641</v>
       </c>
       <c r="D149" t="s">
-        <v>851</v>
+        <v>762</v>
       </c>
       <c r="E149" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="H149">
         <v>0.75</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -7683,16 +8326,16 @@
         <v>641</v>
       </c>
       <c r="D150" t="s">
-        <v>852</v>
+        <v>763</v>
       </c>
       <c r="E150" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -7703,10 +8346,10 @@
         <v>642</v>
       </c>
       <c r="D151" t="s">
-        <v>853</v>
+        <v>764</v>
       </c>
       <c r="E151" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7718,7 +8361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -7729,10 +8372,10 @@
         <v>643</v>
       </c>
       <c r="D152" t="s">
-        <v>854</v>
+        <v>765</v>
       </c>
       <c r="E152" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -7744,7 +8387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -7752,13 +8395,13 @@
         <v>408</v>
       </c>
       <c r="D153" t="s">
-        <v>855</v>
+        <v>766</v>
       </c>
       <c r="E153" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -7769,10 +8412,10 @@
         <v>644</v>
       </c>
       <c r="D154" t="s">
-        <v>856</v>
+        <v>767</v>
       </c>
       <c r="E154" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -7784,7 +8427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -7792,13 +8435,13 @@
         <v>410</v>
       </c>
       <c r="D155" t="s">
-        <v>857</v>
+        <v>768</v>
       </c>
       <c r="E155" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -7806,13 +8449,13 @@
         <v>411</v>
       </c>
       <c r="D156" t="s">
-        <v>858</v>
+        <v>769</v>
       </c>
       <c r="E156" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -7823,13 +8466,13 @@
         <v>645</v>
       </c>
       <c r="D157" t="s">
-        <v>859</v>
+        <v>770</v>
       </c>
       <c r="G157">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -7840,16 +8483,16 @@
         <v>646</v>
       </c>
       <c r="D158" t="s">
-        <v>860</v>
+        <v>771</v>
       </c>
       <c r="E158" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -7857,13 +8500,13 @@
         <v>414</v>
       </c>
       <c r="D159" t="s">
-        <v>861</v>
+        <v>772</v>
       </c>
       <c r="E159" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -7874,10 +8517,10 @@
         <v>647</v>
       </c>
       <c r="D160" t="s">
-        <v>862</v>
+        <v>773</v>
       </c>
       <c r="E160" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -7886,7 +8529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -7897,13 +8540,13 @@
         <v>648</v>
       </c>
       <c r="D161" t="s">
-        <v>863</v>
+        <v>774</v>
       </c>
       <c r="E161" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -7914,13 +8557,13 @@
         <v>648</v>
       </c>
       <c r="D162" t="s">
-        <v>864</v>
+        <v>775</v>
       </c>
       <c r="E162" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7931,10 +8574,10 @@
         <v>649</v>
       </c>
       <c r="D163" t="s">
-        <v>865</v>
+        <v>776</v>
       </c>
       <c r="E163" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -7943,7 +8586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7954,10 +8597,10 @@
         <v>650</v>
       </c>
       <c r="D164" t="s">
-        <v>866</v>
+        <v>777</v>
       </c>
       <c r="E164" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -7966,7 +8609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -7974,13 +8617,13 @@
         <v>420</v>
       </c>
       <c r="D165" t="s">
+        <v>778</v>
+      </c>
+      <c r="E165" t="s">
         <v>867</v>
       </c>
-      <c r="E165" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -7988,13 +8631,13 @@
         <v>421</v>
       </c>
       <c r="D166" t="s">
-        <v>868</v>
+        <v>779</v>
       </c>
       <c r="E166" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -8005,10 +8648,10 @@
         <v>651</v>
       </c>
       <c r="D167" t="s">
-        <v>869</v>
+        <v>780</v>
       </c>
       <c r="E167" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -8017,7 +8660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -8028,13 +8671,13 @@
         <v>652</v>
       </c>
       <c r="D168" t="s">
-        <v>870</v>
+        <v>781</v>
       </c>
       <c r="E168" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -8045,13 +8688,13 @@
         <v>652</v>
       </c>
       <c r="D169" t="s">
-        <v>871</v>
+        <v>782</v>
       </c>
       <c r="E169" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -8062,10 +8705,10 @@
         <v>653</v>
       </c>
       <c r="D170" t="s">
-        <v>872</v>
+        <v>783</v>
       </c>
       <c r="E170" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -8077,7 +8720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -8088,10 +8731,10 @@
         <v>654</v>
       </c>
       <c r="D171" t="s">
-        <v>873</v>
+        <v>784</v>
       </c>
       <c r="E171" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -8103,7 +8746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -8114,10 +8757,10 @@
         <v>655</v>
       </c>
       <c r="D172" t="s">
-        <v>874</v>
+        <v>785</v>
       </c>
       <c r="E172" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -8129,7 +8772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -8140,13 +8783,13 @@
         <v>656</v>
       </c>
       <c r="D173" t="s">
-        <v>875</v>
+        <v>786</v>
       </c>
       <c r="E173" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -8157,13 +8800,13 @@
         <v>656</v>
       </c>
       <c r="D174" t="s">
-        <v>876</v>
+        <v>787</v>
       </c>
       <c r="E174" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -8174,13 +8817,13 @@
         <v>657</v>
       </c>
       <c r="D175" t="s">
-        <v>877</v>
+        <v>788</v>
       </c>
       <c r="E175" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -8191,13 +8834,13 @@
         <v>658</v>
       </c>
       <c r="D176" t="s">
-        <v>878</v>
+        <v>789</v>
       </c>
       <c r="E176" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -8208,13 +8851,13 @@
         <v>659</v>
       </c>
       <c r="D177" t="s">
-        <v>879</v>
+        <v>790</v>
       </c>
       <c r="E177" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -8225,13 +8868,13 @@
         <v>660</v>
       </c>
       <c r="D178" t="s">
-        <v>880</v>
+        <v>791</v>
       </c>
       <c r="E178" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -8242,13 +8885,13 @@
         <v>661</v>
       </c>
       <c r="D179" t="s">
-        <v>881</v>
+        <v>792</v>
       </c>
       <c r="E179" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -8259,13 +8902,13 @@
         <v>661</v>
       </c>
       <c r="D180" t="s">
-        <v>882</v>
+        <v>793</v>
       </c>
       <c r="E180" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -8276,13 +8919,13 @@
         <v>661</v>
       </c>
       <c r="D181" t="s">
-        <v>883</v>
+        <v>794</v>
       </c>
       <c r="E181" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -8293,10 +8936,10 @@
         <v>662</v>
       </c>
       <c r="D182" t="s">
-        <v>884</v>
+        <v>795</v>
       </c>
       <c r="E182" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8308,7 +8951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -8319,10 +8962,10 @@
         <v>663</v>
       </c>
       <c r="D183" t="s">
-        <v>885</v>
+        <v>796</v>
       </c>
       <c r="E183" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -8334,7 +8977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -8345,10 +8988,10 @@
         <v>664</v>
       </c>
       <c r="D184" t="s">
-        <v>886</v>
+        <v>797</v>
       </c>
       <c r="E184" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -8360,7 +9003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -8371,10 +9014,10 @@
         <v>665</v>
       </c>
       <c r="D185" t="s">
-        <v>887</v>
+        <v>798</v>
       </c>
       <c r="E185" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -8386,7 +9029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -8397,10 +9040,10 @@
         <v>666</v>
       </c>
       <c r="D186" t="s">
-        <v>888</v>
+        <v>799</v>
       </c>
       <c r="E186" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -8412,7 +9055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -8423,13 +9066,13 @@
         <v>667</v>
       </c>
       <c r="D187" t="s">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="E187" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -8440,13 +9083,13 @@
         <v>667</v>
       </c>
       <c r="D188" t="s">
-        <v>890</v>
+        <v>801</v>
       </c>
       <c r="E188" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -8457,13 +9100,13 @@
         <v>667</v>
       </c>
       <c r="D189" t="s">
-        <v>891</v>
+        <v>802</v>
       </c>
       <c r="E189" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -8474,10 +9117,10 @@
         <v>668</v>
       </c>
       <c r="D190" t="s">
-        <v>892</v>
+        <v>803</v>
       </c>
       <c r="E190" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -8489,7 +9132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -8500,10 +9143,10 @@
         <v>669</v>
       </c>
       <c r="D191" t="s">
-        <v>893</v>
+        <v>804</v>
       </c>
       <c r="E191" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -8515,7 +9158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -8526,10 +9169,10 @@
         <v>670</v>
       </c>
       <c r="D192" t="s">
-        <v>894</v>
+        <v>805</v>
       </c>
       <c r="E192" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -8541,7 +9184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -8552,13 +9195,13 @@
         <v>671</v>
       </c>
       <c r="D193" t="s">
-        <v>895</v>
+        <v>806</v>
       </c>
       <c r="E193" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -8569,13 +9212,13 @@
         <v>671</v>
       </c>
       <c r="D194" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="E194" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -8586,13 +9229,13 @@
         <v>671</v>
       </c>
       <c r="D195" t="s">
-        <v>897</v>
+        <v>808</v>
       </c>
       <c r="E195" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -8603,13 +9246,13 @@
         <v>671</v>
       </c>
       <c r="D196" t="s">
-        <v>898</v>
+        <v>809</v>
       </c>
       <c r="E196" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -8620,10 +9263,10 @@
         <v>672</v>
       </c>
       <c r="D197" t="s">
-        <v>899</v>
+        <v>810</v>
       </c>
       <c r="E197" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -8635,7 +9278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -8646,10 +9289,10 @@
         <v>673</v>
       </c>
       <c r="D198" t="s">
-        <v>900</v>
+        <v>811</v>
       </c>
       <c r="E198" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -8661,7 +9304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -8672,10 +9315,10 @@
         <v>674</v>
       </c>
       <c r="D199" t="s">
-        <v>901</v>
+        <v>812</v>
       </c>
       <c r="E199" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -8687,7 +9330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -8695,13 +9338,13 @@
         <v>455</v>
       </c>
       <c r="D200" t="s">
-        <v>902</v>
+        <v>813</v>
       </c>
       <c r="E200" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -8709,13 +9352,13 @@
         <v>456</v>
       </c>
       <c r="D201" t="s">
-        <v>903</v>
+        <v>814</v>
       </c>
       <c r="E201" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -8723,13 +9366,13 @@
         <v>457</v>
       </c>
       <c r="D202" t="s">
-        <v>904</v>
+        <v>815</v>
       </c>
       <c r="E202" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8740,10 +9383,10 @@
         <v>675</v>
       </c>
       <c r="D203" t="s">
-        <v>905</v>
+        <v>816</v>
       </c>
       <c r="E203" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -8755,7 +9398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -8766,10 +9409,10 @@
         <v>676</v>
       </c>
       <c r="D204" t="s">
-        <v>906</v>
+        <v>817</v>
       </c>
       <c r="E204" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -8781,7 +9424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -8792,10 +9435,10 @@
         <v>677</v>
       </c>
       <c r="D205" t="s">
-        <v>907</v>
+        <v>818</v>
       </c>
       <c r="E205" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -8807,7 +9450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -8815,13 +9458,13 @@
         <v>461</v>
       </c>
       <c r="D206" t="s">
-        <v>908</v>
+        <v>819</v>
       </c>
       <c r="E206" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -8829,13 +9472,13 @@
         <v>462</v>
       </c>
       <c r="D207" t="s">
-        <v>909</v>
+        <v>820</v>
       </c>
       <c r="E207" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -8846,10 +9489,10 @@
         <v>678</v>
       </c>
       <c r="D208" t="s">
-        <v>910</v>
+        <v>821</v>
       </c>
       <c r="E208" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F208">
         <v>14</v>
@@ -8861,7 +9504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -8872,10 +9515,10 @@
         <v>679</v>
       </c>
       <c r="D209" t="s">
-        <v>911</v>
+        <v>822</v>
       </c>
       <c r="E209" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F209">
         <v>15</v>
@@ -8887,7 +9530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8898,10 +9541,10 @@
         <v>680</v>
       </c>
       <c r="D210" t="s">
-        <v>912</v>
+        <v>823</v>
       </c>
       <c r="E210" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F210">
         <v>16</v>
@@ -8913,7 +9556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -8921,13 +9564,13 @@
         <v>466</v>
       </c>
       <c r="D211" t="s">
-        <v>913</v>
+        <v>824</v>
       </c>
       <c r="E211" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -8935,13 +9578,13 @@
         <v>467</v>
       </c>
       <c r="D212" t="s">
-        <v>914</v>
+        <v>825</v>
       </c>
       <c r="E212" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -8949,13 +9592,13 @@
         <v>468</v>
       </c>
       <c r="D213" t="s">
-        <v>915</v>
+        <v>826</v>
       </c>
       <c r="E213" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8966,10 +9609,10 @@
         <v>681</v>
       </c>
       <c r="D214" t="s">
-        <v>916</v>
+        <v>827</v>
       </c>
       <c r="E214" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F214">
         <v>17</v>
@@ -8981,7 +9624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8992,10 +9635,10 @@
         <v>682</v>
       </c>
       <c r="D215" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -9006,10 +9649,10 @@
         <v>683</v>
       </c>
       <c r="D216" t="s">
-        <v>918</v>
+        <v>829</v>
       </c>
       <c r="E216" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F216">
         <v>18</v>
@@ -9021,7 +9664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -9029,13 +9672,13 @@
         <v>472</v>
       </c>
       <c r="D217" t="s">
-        <v>919</v>
+        <v>830</v>
       </c>
       <c r="E217" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -9043,13 +9686,13 @@
         <v>473</v>
       </c>
       <c r="D218" t="s">
-        <v>920</v>
+        <v>831</v>
       </c>
       <c r="E218" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -9057,13 +9700,13 @@
         <v>474</v>
       </c>
       <c r="D219" t="s">
-        <v>921</v>
+        <v>832</v>
       </c>
       <c r="E219" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -9074,10 +9717,10 @@
         <v>684</v>
       </c>
       <c r="D220" t="s">
-        <v>922</v>
+        <v>833</v>
       </c>
       <c r="E220" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -9089,7 +9732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -9100,10 +9743,10 @@
         <v>685</v>
       </c>
       <c r="D221" t="s">
-        <v>923</v>
+        <v>834</v>
       </c>
       <c r="E221" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F221">
         <v>20</v>
@@ -9115,7 +9758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -9126,10 +9769,10 @@
         <v>686</v>
       </c>
       <c r="D222" t="s">
-        <v>924</v>
+        <v>835</v>
       </c>
       <c r="E222" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F222">
         <v>21</v>
@@ -9141,7 +9784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -9149,13 +9792,13 @@
         <v>478</v>
       </c>
       <c r="D223" t="s">
-        <v>925</v>
+        <v>836</v>
       </c>
       <c r="E223" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -9163,13 +9806,13 @@
         <v>479</v>
       </c>
       <c r="D224" t="s">
-        <v>926</v>
+        <v>837</v>
       </c>
       <c r="E224" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -9180,10 +9823,10 @@
         <v>687</v>
       </c>
       <c r="D225" t="s">
-        <v>927</v>
+        <v>838</v>
       </c>
       <c r="E225" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F225">
         <v>22</v>
@@ -9195,7 +9838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -9206,10 +9849,10 @@
         <v>688</v>
       </c>
       <c r="D226" t="s">
-        <v>928</v>
+        <v>839</v>
       </c>
       <c r="E226" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F226">
         <v>23</v>
@@ -9221,7 +9864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -9232,10 +9875,10 @@
         <v>689</v>
       </c>
       <c r="D227" t="s">
-        <v>929</v>
+        <v>840</v>
       </c>
       <c r="E227" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F227">
         <v>24</v>
@@ -9247,7 +9890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -9255,13 +9898,13 @@
         <v>483</v>
       </c>
       <c r="D228" t="s">
-        <v>930</v>
+        <v>841</v>
       </c>
       <c r="E228" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -9269,13 +9912,13 @@
         <v>484</v>
       </c>
       <c r="D229" t="s">
-        <v>931</v>
+        <v>842</v>
       </c>
       <c r="E229" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -9286,10 +9929,10 @@
         <v>690</v>
       </c>
       <c r="D230" t="s">
-        <v>932</v>
+        <v>843</v>
       </c>
       <c r="E230" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F230">
         <v>25</v>
@@ -9301,7 +9944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -9312,10 +9955,10 @@
         <v>691</v>
       </c>
       <c r="D231" t="s">
-        <v>933</v>
+        <v>844</v>
       </c>
       <c r="E231" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F231">
         <v>26</v>
@@ -9327,7 +9970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -9335,13 +9978,13 @@
         <v>487</v>
       </c>
       <c r="D232" t="s">
-        <v>934</v>
+        <v>845</v>
       </c>
       <c r="E232" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -9349,13 +9992,13 @@
         <v>488</v>
       </c>
       <c r="D233" t="s">
-        <v>935</v>
+        <v>846</v>
       </c>
       <c r="E233" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -9366,10 +10009,10 @@
         <v>692</v>
       </c>
       <c r="D234" t="s">
-        <v>936</v>
+        <v>847</v>
       </c>
       <c r="E234" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F234">
         <v>27</v>
@@ -9381,7 +10024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -9392,10 +10035,10 @@
         <v>693</v>
       </c>
       <c r="D235" t="s">
-        <v>937</v>
+        <v>848</v>
       </c>
       <c r="E235" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F235">
         <v>28</v>
@@ -9407,7 +10050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -9418,10 +10061,10 @@
         <v>694</v>
       </c>
       <c r="D236" t="s">
-        <v>938</v>
+        <v>849</v>
       </c>
       <c r="E236" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F236">
         <v>29</v>
@@ -9433,7 +10076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -9441,13 +10084,13 @@
         <v>492</v>
       </c>
       <c r="D237" t="s">
-        <v>939</v>
+        <v>850</v>
       </c>
       <c r="E237" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -9458,10 +10101,10 @@
         <v>695</v>
       </c>
       <c r="D238" t="s">
-        <v>940</v>
+        <v>851</v>
       </c>
       <c r="E238" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F238">
         <v>30</v>
@@ -9473,7 +10116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -9484,10 +10127,10 @@
         <v>696</v>
       </c>
       <c r="D239" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -9495,13 +10138,13 @@
         <v>495</v>
       </c>
       <c r="D240" t="s">
-        <v>942</v>
+        <v>853</v>
       </c>
       <c r="E240" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -9509,10 +10152,10 @@
         <v>496</v>
       </c>
       <c r="D241" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -9523,10 +10166,10 @@
         <v>697</v>
       </c>
       <c r="D242" t="s">
-        <v>944</v>
+        <v>855</v>
       </c>
       <c r="E242" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F242">
         <v>31</v>
@@ -9538,7 +10181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -9549,10 +10192,10 @@
         <v>698</v>
       </c>
       <c r="D243" t="s">
-        <v>945</v>
+        <v>856</v>
       </c>
       <c r="E243" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -9564,7 +10207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -9575,10 +10218,10 @@
         <v>699</v>
       </c>
       <c r="D244" t="s">
-        <v>946</v>
+        <v>857</v>
       </c>
       <c r="E244" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F244">
         <v>33</v>
@@ -9590,7 +10233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -9598,13 +10241,13 @@
         <v>500</v>
       </c>
       <c r="D245" t="s">
-        <v>947</v>
+        <v>858</v>
       </c>
       <c r="E245" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -9615,10 +10258,10 @@
         <v>700</v>
       </c>
       <c r="D246" t="s">
-        <v>948</v>
+        <v>859</v>
       </c>
       <c r="E246" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F246">
         <v>34</v>
@@ -9630,7 +10273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9641,10 +10284,10 @@
         <v>701</v>
       </c>
       <c r="D247" t="s">
-        <v>949</v>
+        <v>860</v>
       </c>
       <c r="E247" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F247">
         <v>35</v>
@@ -9656,7 +10299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9667,10 +10310,10 @@
         <v>702</v>
       </c>
       <c r="D248" t="s">
-        <v>950</v>
+        <v>861</v>
       </c>
       <c r="E248" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="F248">
         <v>36</v>
@@ -9682,7 +10325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -9690,13 +10333,13 @@
         <v>504</v>
       </c>
       <c r="D249" t="s">
-        <v>951</v>
+        <v>862</v>
       </c>
       <c r="E249" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -9707,10 +10350,10 @@
         <v>703</v>
       </c>
       <c r="D250" t="s">
-        <v>952</v>
+        <v>863</v>
       </c>
       <c r="E250" t="s">
-        <v>960</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EB3E4-BEF0-4FBF-86BD-FF297F78CD60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1104">
   <si>
     <t>ephysFN</t>
   </si>
@@ -793,6 +787,120 @@
     <t>Beto-22052020-002</t>
   </si>
   <si>
+    <t>Beto-11052020-001</t>
+  </si>
+  <si>
+    <t>Beto-11052020-002</t>
+  </si>
+  <si>
+    <t>Beto-11052020-003</t>
+  </si>
+  <si>
+    <t>Beto-11052020-004</t>
+  </si>
+  <si>
+    <t>Beto-11052020-005</t>
+  </si>
+  <si>
+    <t>Beto-15052020-001</t>
+  </si>
+  <si>
+    <t>Beto-15052020-002</t>
+  </si>
+  <si>
+    <t>Beto-15052020-003</t>
+  </si>
+  <si>
+    <t>Beto-15052020-004</t>
+  </si>
+  <si>
+    <t>Beto-15052020-005</t>
+  </si>
+  <si>
+    <t>Beto-15052020-006</t>
+  </si>
+  <si>
+    <t>Beto-18052020-001</t>
+  </si>
+  <si>
+    <t>Beto-18052020-002</t>
+  </si>
+  <si>
+    <t>Beto-18052020-003</t>
+  </si>
+  <si>
+    <t>Beto-18052020-004</t>
+  </si>
+  <si>
+    <t>Beto-19052020-001</t>
+  </si>
+  <si>
+    <t>Beto-19052020-002</t>
+  </si>
+  <si>
+    <t>Beto-19052020-003</t>
+  </si>
+  <si>
+    <t>Beto-19052020-004</t>
+  </si>
+  <si>
+    <t>Beto-19052020-005</t>
+  </si>
+  <si>
+    <t>Beto-19052020-006</t>
+  </si>
+  <si>
+    <t>Beto-19052020-007</t>
+  </si>
+  <si>
+    <t>Beto-27052020-002</t>
+  </si>
+  <si>
+    <t>Beto-27052020-004</t>
+  </si>
+  <si>
+    <t>Beto-27052020-005</t>
+  </si>
+  <si>
+    <t>Beto-27052020-006</t>
+  </si>
+  <si>
+    <t>Beto-27052020-007</t>
+  </si>
+  <si>
+    <t>Beto-29052020-001</t>
+  </si>
+  <si>
+    <t>Beto-29052020-002</t>
+  </si>
+  <si>
+    <t>Beto-29052020-003</t>
+  </si>
+  <si>
+    <t>Beto-02062020-001</t>
+  </si>
+  <si>
+    <t>Beto-02062020-002</t>
+  </si>
+  <si>
+    <t>Beto-12062020-004</t>
+  </si>
+  <si>
+    <t>Beto-12062020-005</t>
+  </si>
+  <si>
+    <t>Beto-15062020-001</t>
+  </si>
+  <si>
+    <t>Beto-15062020-002</t>
+  </si>
+  <si>
+    <t>Beto-15062020-003</t>
+  </si>
+  <si>
+    <t>Beto-15062020-004</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1540,6 +1648,120 @@
     <t>200522_Beto_selectivity_basic(1)</t>
   </si>
   <si>
+    <t>200511_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200511_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200511_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200511_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200511_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200515_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200515_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200515_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200515_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200515_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200515_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200518_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200518_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200518_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200518_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200519_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200519_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200519_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200519_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200519_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200519_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
+    <t>200519_Beto_generate_integrated(5)</t>
+  </si>
+  <si>
+    <t>200527_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200527_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200527_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200527_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200527_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200529_Beto_rfMapper_basic(2)</t>
+  </si>
+  <si>
+    <t>200529_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200529_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200602_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200602_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200612_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200612_Beto_generate_integrated(1)</t>
+  </si>
+  <si>
+    <t>200615_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200615_Beto_generate_integrated(2)</t>
+  </si>
+  <si>
+    <t>200615_Beto_generate_integrated(3)</t>
+  </si>
+  <si>
+    <t>200615_Beto_generate_integrated(4)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -1870,7 +2092,7 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-23-Beto-01\2020-01-23-12-36-03</t>
   </si>
   <si>
-    <t>. </t>
+    <t xml:space="preserve">. </t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-27-Beto-01\2020-01-27-11-23-03</t>
@@ -2132,6 +2354,940 @@
   </si>
   <si>
     <t>N:\Stimuli\2020-Style-Transfer-Stimuli\2020-05-21a Alfa</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-11-Beto-01\2020-05-11-14-55-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-11-Beto-02\2020-05-11-15-07-39</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-11-Beto-03\2020-05-11-15-26-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-15-Beto-01\2020-05-15-10-14-11</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-15-Beto-02\2020-05-15-10-27-00</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-15-Beto-03\2020-05-15-10-41-12</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-15-Beto-04\2020-05-15-10-57-27</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-15-Beto-05\2020-05-15-11-15-49</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-18-Beto-01\2020-05-18-14-30-58</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-18-Beto-02\2020-05-18-14-46-15</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-19-Beto-01\2020-05-19-10-02-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-19-Beto-02\2020-05-19-10-15-07</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-19-Beto-03\2020-05-19-10-26-48</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-19-Beto-04\2020-05-19-10-41-35</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-19-Beto-05\2020-05-19-10-57-28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-19-Beto-06\2020-05-19-11-12-51</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-27-Beto-01\2020-05-27-11-48-28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-27-Beto-02\2020-05-27-12-08-28</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-27-Beto-03\2020-05-27-12-28-26</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-27-Beto-04\2020-05-27-12-43-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-29-Beto-01\2020-05-29-11-51-31</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-05-29-Beto-02\2020-05-29-12-06-53</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-06-02-Beto-01\2020-06-02-09-35-18</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-06-12-Beto-01\2020-06-12-11-53-39</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-06-12-Beto-02\2020-06-12-12-05-29</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-06-15-Beto-01\2020-06-15-10-49-33</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-06-15-Beto-02\2020-06-15-11-07-07</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2019-12-Evolutions\2020-06-15-Beto-03\2020-06-15-11-26-32</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen} 
+003 started at 324, Binxu manifold
+374 unique images, and he's not fixating great, so we may not finish this experiment in terms of enough reps
+must work until 4 PM at least
+terribly behaved. Increased reward to 170 ms. He's good at training me…
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 29 191002. generate PCs for later PC space tuning 
+Testing Binxu's PC-sampling method
+started at 234 PM
+Ch. 29 (-0.5,0) 3 1, SU 2/5
+evolution continues to go up as of block 27
+performance is low: 318/1037. Oof
+256, shake and bake 
+increased fixation window to 1-deg radius
+2:34, 33 blocks completed, seems to be rising still
+314, increased reward to 70 + acquisition
+Completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 6 evolution 191003(CRP). Fewer Reps 408 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively, +10 last gen +12 gabor + 23 reference image}  002 manifold selectivity
+started at 234 PM,
+alas, not working well. Has done 33 trials. We need many many more…
+192 correct trials in 20 minutes
+307 correct trials in 30 minutes. Ok, that's  10 trials a minute. Another 10 minutes?</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 6 191003(CRP). generate PCs for later PC space tuning  001 parallel evolution
+Ch 6 (-0.5,0) 3 1 SU 1/5
+7 MINUTES in, he's at 20%, because he keeps trying to drift to the center of the image, and his fixation window prevents him from doing so
+23 minutes in, 207 PM, 26%
+43 minutes in, currently on block 36.
+he pretty much shakes the chair continuously now, bangs the collar chain about
+46 minutes in, block 39.
+70 rew baseline, 15 per consecutive trial, up to 155
+completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 5 evolution 191007(CRP). Fewer Reps 373 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,  005
+finishing around 3:15 PM, so that's 1 hour and 45 minutes or so</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 5 191007(CRP). generate PCs for later PC space tuning Evolution, 
+003
+(2)
+Ch 5 (-0.5,0) 3 1 , MU 3/5
+shakey, oh so shakey. May be training day.
+monkey misbehaving, will stop at block 20 and try to do
+nice evo
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 20 evolution 191008(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+006 - selectivity with manifold
+1246, shakes begin, 100 cc consumed
+91 correct trials, block one completed
+48% performance, took almost 10 minutes for this block. Oof.
+will try to get to block 5 (4 * 91 + 1 = 365  correct trials)
+113 PM, block 5 (424 correct trials), bumped him up to 200 ms rew + acquisition
+he's had almost 200 cc.</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 20 191008(CRP). generate PCs for later PC space tuning
+003
+1214 PM
+Chan 20 (-0.5,0) 3 1
+hash 4/5
+seems very visually responsive
+7 minutes in, 13 blocks, 62%
+shroud of turin face evolved
+completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 19 evolution 191009(BXW). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+003
+Selectivity 
+Perform really well and quick 
+Start 14:54PM 
+320: has done 5 full reps
+has been working for 1 hour 40 minutes
+Norm 401
+nice evo
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 19 191009(CRP). generate PCs for later PC space tuning
+002 
+Chan 19 (-0.5,0) 3 1
+MU 5/5
+started at 150 PM
+69% performance. 
+evolution plateauing early…
+it's rising very slowly. Trying to make a little face.
+minute 25, generation 41, still not a super stimulus
+super stimulus as of two generations ago (225 PM)
+it's been 35 minutes so here come the shakes
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 13 evolution 191010(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+003 147 PM
+selectivity manifold
+201 PM, 100 cc, first shake
+been shaking periodically but performance 67%
+finished at 228 PM
+Norm 386
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 13 191010(CRP). generate PCs for later PC space tuning
+002, 111 PM
+the hash is very responsive
+13 (-0.5,0) 3 1
+MU 5/5
+002 (2)
+137 PM, block 48, good evolution, has been at 71%
+ended at 146 PM
+Nice evo
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 28 evolution 191011(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+002 manifold selectivity
+started at 145 PM
+repetition 3, at 155 PM, bumping
+lost IP address - experiment was frozen for a bit of time. Should still be ok, though
+Norm 300 ! Not very large</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 28 191011(CRP). generate PCs for later PC space tuning
+001
+117 pm
+CH 28, (-0.5,0) 3 1 mu 3/5
+nicely responsive, kind of brisk
+shaking already, 122 PM
+143 ended
+Completed
+entered into matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 15 evolution 191015(CRP BXW). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+005 starts 14:59
+Ch 15 (-0.5, 0) 3 1
+Shakes a bit at first
+Shakes strongly at around 15:16 
+But give up soon.....
+Add quisition reward 25
+Ends with 6 reps + 
+Goodenough
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 15 191015(CRP BXW). generate PCs for later PC space tuning
+003 starts at 14:26
+ch 15 (-0.5,0) 3 1
+quite responsive, consistent with previous manifold data
+Starts to slowly grow up at ~ block 5
+Match nature images at around block 10 (7min) 
+PSTH of evolved and natural images match quite well!
+Works quite well today! Very quiet
+Double the rate at around  25-30 block
+Natual image firing rate seems  to go down
+40 generations 
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 17 evolution 191016(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+002 
+selectivity. Started at 319 PM
+Norm 421
+by block 4, 332 PM, he's had almost 200 cc.
+300 cc, ended at 351 PM
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 17 191016(CRP). generate PCs for later PC space tuning
+001
+220 PM
+17 (-0.5,0) 3 1
+4/5 hash
+Pretty visually responsive
+climbing very slowly, block 35
+at block 80, a windows update thing appeared. 
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 63 evolution 191017(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
+Started manifold testing at 401 PM
+by 413 PM, we have 2 blocks completed. Around 120 cc consumed. At block 4, I will bump him up
+completed
+NO REFERENCE IMAGES</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 63 191017(CRP). generate PCs for later PC space tuning
+006 evolution 
+63 (-1,-3) 3 1
+SU 2/5
+very  visually responsive, evolving
+353, bumping bumping
+super stimulus at block 31, about 100 cc consumed. Maybe a few more generations to confirm we have plateaued 
+completed</t>
+  </si>
+  <si>
+    <t>Following Evolution of Ch 26  191030(CRP) Explore in the PC2-3 space only and add the pasupathy images to it. white background 4 rotations.
+003 at 1124 PM
+selectivity - manifold and pasupathies
+26 (0,0) 4
+PC2-3
+15 minutes in, has had around 200 cc so far
+70%, but I have him at 170 ms rew + acq rate
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 26 191030(CRP). generate PCs for later PC space tuning
+001 at 1017 AM
+26 (0,0) 4 1 SU 1/5
+sparse but visually responsive
+Performing at 61%, 10 minutes in, 14 generations
+1034 AM, 67% performance
+looks like a pair of eyes</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 20 evolution 191031(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 selectivity
+20 (-3, 0) 4 1, SU 1/5
+completed
+REFERENCES INCLUDED</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 20 191031(CRP). generate PCs for later PC space tuning
+002 at 1:30 PM
+evolution
+20 (-3, 0) 4 1, SU 1/5
+evolved pair of black eyes at the edge of the picture. Not a lot of invariance. Probably could come back to 3-deg.
+will do up to block 51
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 40 evolution 191105(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 at 1150 AM
+40 (-0.3,0) 2 1
+selectivity using PC2 manifolds for evolution 191105_Beto_generate_parallel(1)
+7 reps after 31 minutes. Interesting results
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 40 evolution 191105(CRP). generate PCs for later PC space tuning
+003 at 1123 AM
+evolution
+40 (-0.3,0) 2 1,  Hash 4/5
+67%, 17 minutes in, block 26. Has been fairly flat for a bit, but just trying to get to 30
+made it to 29, then he fell asleep. But rates really plateaued, so fine
+completed, entered into Matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 42 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+005 at 150 PM
+selectivity for manifold, using
+Ch 42 (-0.3, -1.0) 2 1,  MU 5/5
+PC2 images
+at 81%
+4 blocks completed so far, 14 minutes in. We can probably stop at 5 blocks completed and start another evo, although he seems to be starting to complain
+completed at 5 reps
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 42 evolution 191106(CRP). generate PCs for later PC space tuning
+003 at 113 PM
+evolution
+42 (-0.3, -1.0) 2 1, MU 5/5
+weakly visually responsive
+Climbing slowly but surely
+completed at gen 45
+entered into Matlab</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 35 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+008 at 242 PM
+manifold
+35 (0,-0.5) 2 1, MU 5/5
+191106_Beto_generate_parallel
+let's see if we can get at least 2 reps, but may have to continue tomorrow. Maybe it'll show the same results
+REALLY GETS HIS WIND BACK WITH 200 ms rew plus acq reward
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 35 evolution 191106(CRP). generate PCs for later PC space tuning
+007 at 219 PM
+evolution
+35 (0,-0.5) 2 1, MU 5/5
+looks responsive
+23 completed generations, and looks fairly asymptoted
+it's 138 minutes and I don't think he'll give us much more.
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 36 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 at 106 PM
+selectivity
+36 (-0.3,-1.0) 1.5, 1, MU 5/5
+completed after 5 reps
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 36 evolution 191107(CRP). generate PCs for later PC space tuning
+004 at 1230 PM
+36 (-0.3,-1.0) 1.5, 1, MU 5/5
+Seems pretty visually responsive to the synthetic textures, even from the outset
+ok will stop at 30 completed blocks
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 34 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+012 at 219 PM
+manifold selectivity
+34 (-0.2,-0.4) 1.5 1, MU 3/5 
+completed 2 reps already, going for more
+increased reward to 180 + acq reward
+300 cc so far
+229 PM
+this channel shows some pasupathies that contain something in its preferred stimulus!
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 34 evolution 191107(CRP). generate PCs for later PC space tuning
+010 at 150 PM
+evolution
+34 (-0.2,-0.4) 1.5 1, MU 3/5 
+fairly visually responsive
+performance at 77%
+202 PM currently at 21 blocks completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 37 evolution 191108(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 at 1109 
+selectivity over manifold
+37 (0,-1) 1.5 1, MU 4/5 hash
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 37 evolution 191108(CRP). generate PCs for later PC space tuning
+003 at 10:30 AM
+evolution
+37 (0,-1) 1.5 1, MU 4/5 hash
+weakly visually responsive, but sure
+hash goes nice and quiet when he naps
+10 minutes in, 63% participation
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 49 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006  13:28  Manifold 
+norm 359
+49 [-4.3 -5.5] 3 1
+Performance at around 70% 
+17 mins 
+Just got around 110mL. Still have time for more work
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 49 (V4) evolution 191111(BXW). generate PCs for later PC space tuning
+003 starts 12:38 PM 
+49 (-4.4,-5.4) 3 1, quite single unit 
+responsive and nice PSTH
+going up at gen 5 ! Good 
+Saturated?! All white in the field?
+Gradually going up again at around gen 15! 
+Meandering between 25-30 gen 
+The increased firing rate is majorly on the initial response. 
+However starting from 30 gen it's climbing up again. 
+Seems more and more later time bin activity is recruited !! A dual peak activity???
+30 gen it's 
+35 gen it starts going up again. And the peak become wider, and much more sustained! 
+Even at 40 it can still go up! 
+Seems saturated around ~50. 
+Really the response get much more sustained at later phase of the exp. (Stimuli driven? What changed?
+Or just inner state?)
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 60 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+011 at 224 PM
+manifold for 
+60 (-2.3,-3) 3 1
+he's complaining and moving…has had around 250 cc
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 60 (V4) evolution 191111(BXW). generate PCs for later PC space tuning
+010 generate_parallel at 14:05
+chan 60 [-2.3, -3] 3 deg multiunit-4/5
+There is an obvious off response from gratings. 
+And the on response to evolved and gratings are largely similar. 
+Going up at gen 5 
+Getting more and more sustained in later generations.
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 56 (V4) evolution 191112(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+004 at 102 pm ish
+manifold
+ch 56 (-3,-2.4) 3
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 56 (V4) evolution 191112(CRP). generate PCs for later PC space tuning
+002 at 1206 PM
+evolution
+56 (-3,-2.4) 3 1, Hash 4/5
+1218 PM, sleeping  a lot, 61% performance. Maybe a one evolution day
+really late taking off, but there it is</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 Selective Basic starts 12:39
+Norm 348
+colorful images are generated
+completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 54 (V4) evolution 191113(BXW). chan 54 [-4.8 -6.3] -1.5:0.5:1.5
+005 RF mapping 
+chan 54 [-4.8 -6.3] -1.5:0.5:1.5  
+3 size image
+actually right down! Black whit part
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  generate PCs for later PC space tuning
+004 generate parallel starts 11:54
+chan 54 [-4.8 -6.3] 3 deg 
+Definitely visually responsive ~100 rate. 
+ evoke more sustained response, synthesized evoke more initial response. Very different time course from pasupathy and the synthesized images. 
+PSTH not changing much till 5 gen. 
+The off response get changed a little bit. 
+At gen 10, it starts to add up a bit. 
+The dynamics starts to change! From more transient resonse to more delayed sustained response. 
+Evolution is not super successful . 
+Starts to go up after 15 gen. 
+More and more sustained response is evoked by the later generation evoked images! Feedback recurrent thing?
+Become very sustained at around 30 gens ! (first peak doesn't change much! But the later activity is recruited. )
+22 min 35 gens
+Got a super contrast black white image! 
+~40 gens! Still meandering 
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+012 selectivity  starts 13:55
+MU 58 [-3 -4 ] 3 deg 
+Norm 308 
+Goes to 30mL 
+Consume 380 mL today!! 
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 58 (V4) evolution 191113(BXW). chan MU 58 [-3 -4] 3 deg -1.5:0.5:1.5
+011 rf mapping 
+MU 58 [-3 -4] 3 deg
+Localize to top left of the image. 
+So it's some white thing ? No? 
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  generate PCs for later PC space tuning
+010 generate parallel start 13:22
+MU 58 [-3 -4] 3 deg 
+Responsive visually!! 
+(gets to 200mL)
+Both Gabor and synthesisze shows similar time course. 
+Starts climbing up at around 5 gens 
+Activity during 100-150 ms gets recruited more and more! 
+The synthesized become much more sustained and longer than the gabors around 8 gen. 
+Also got a quite Dark and White image thing! 
+Maybe plateaued ~16 
+Bumping up the reward around 17gen. Starts working again. 
+Gets quite saturated at 25gens. 
+Going up again! At around 27 gen
+Gets super sustained! Going up quite a bit.  
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+007 at 118 PM
+selectivity - manifold
+ch 50 (-5,-6) 3 -degrees
+surprisingly, the pasupathy shapes are just as effective here! She'll be happy
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 50 (V4) evolution 191114(CRP). chan MU ch 50 (-5,-6) -1.5:0.5:1.5
+006 at 111 PM
+rf mapping - heatmap
+ch 50 (-5,-6) -1.5:0.5:1.5
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  generate PCs for later PC space tuning
+004 at 1226
+evolution
+50 (-5,-6) 3 1, MU 3.5/5
+climbing very slowly. He's not working great - 60% participation
+late spike, at around generation 45</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 57 (V4) evolution 191114(CRP). ch 57 (-3,-6) 3 1, SU 2/5 generate PCs for later PC space tuning (this exp failed to pair with Manifold)
+009 at 151 PM
+Evolution
+ch 57 (-3,-6) 3 1, SU 2/5, very visually responsive
+it's evolving, but the monkey appears to want to finish now
+should try this again tomorrow to complete manifold. Actually, might want to start this evolution tomorrow using the current genotypes, or something from generation 20
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+005 at 157 PM
+manifold selectivity 
+56 (-3,-4) 4-deg (????? Is it 57 or 56)
+Norm 424
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 57 (V4) evolution 191115(CRP). ch  57 (-3,-4) 4-deg, grid -2:0.5:2
+004 at 146 PM
+heatmap
+57 (-3,-4) 4-deg, grid -2:0.5:2
+42%, wants to look at it
+eye recalibration. Maybe an offset?</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 1, MU 5/5 generate PCs for later PC space tuning
+003 at 1256 PM
+57 (-3,-4) 4 1, MU 5/5
+Much more sustained activity
+climbing slowly but ok
+he's taking very long naps. Seems like a one-evolution day
+Go to gen 72, norm 424
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 Selectivity Basic starts 14:14
+Norm 319 
+6-7 gens good
+ Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU -1.5:0.5:1.5
+004 RF mapping for heatmap starts 14:05
+chan 55 [-2.5 -2.8] 1 3 MU 
+PSTH waveform looks just like the evolved one! 
+Norm 319
+Surprisingly, it's not the most salient part in our eye! It's the black and white thing. 
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  generate PCs for later PC space tuning
+003  Evolution 
+Starts 13:38 PM - 2:01 
+chan 55 [-2.5 -2.8] 1 3 MU 
+Both curve going up right away ! Cool  
+Sleep at 13:41 
+Climb up really quick! 
+Also gets more sustained, the peak extended
+Recurrency
+Gets the visual cortex to fire sustainedly 
+What does that mean?
+Around 20 generation gets a even higher secondary peak around 100ms ! (TaisingLee's feedback result?)
+Nearly plateau around 25-30 generations. 
+Secondary peak gets insanely high! 
+Monkey works quite well today! 
+The evolution seems quite successful and sustained now! 
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+008 at 105 PM
+manifold, selectivity, for
+ch 26 (-2.1 -0.6) 3 1, SU 1/5
+upped reward to 120 ms, has had 200 cc almost?!
+131 PM, almost done, 6 full reps, 300 cc
+completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5 -1.5:0.5:1.5
+007 at 1254 
+heatmap for ch 26 (-2.1 -0.6) 3 1, SU 1/5
+he's fixating terribly…
+finished, 4 reps
+completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  generate PCs for later PC space tuning
+006 at 1212 PM
+evolution
+ch 26 (-2.1 -0.6) 3 1, SU 1/5
+looks to have a strong off-response. Maybe we should change window
+completed</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+007 Manifold experiment starts 
+39 [0 0] 3
+PC23 manifold for the 1st experiment 
+Continues - 15:50
+Norm 297
+Complete</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5 -1.5:0.5:1.5
+004 RF mapping 14:41 starts
+For the 3 deg image in 1st evolution today 
+39 [0 0 ] 3 
+1.5:0.5:1.5
+Complete</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  generate PCs for later PC space tuning
+002 at 203 PM
+Generate
+ch 39, MU 4/5
+responsive
+(0,0) 3 1
+Complete
+Project_BigEvo</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+006 Manifold experiment starts 14:57 
+39 [0 0] 1 
+PC23 manifold for the 2nd evolution. 
+Seems more plateaued as many V1 evolutions 
+Norm 302 
+Complete</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5 -1.5:0.5:1.5
+005 RF mapping 
+For the 1 deg evolved image from the 2nd evolution today. 
+39 [0 0 ] 1  
+-0.5:0.25:0.5
+Seems he is quite attentive for this experiment! Why 
+Eye movement seems to be too large for the mapping to work 
+Complete</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  generate PCs for later PC space tuning
+003 at 221 PM
+evolution
+ch 39 (0,0) 1 1
+test to see if we can evolve something as efficiently as with 
+Plateaued around 23 gens. ~ 300 activations. 
+Higher initial response. 
+~ stop ~ 31 
+Complete</t>
+  </si>
+  <si>
+    <t>Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+008 at 206 PM
+45 (-0.3,0.2) 3 1 
+manifold
+reward at 130 ms plus acq
+working well, at 86%, has had around 200 cc so far
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Heatmap of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5) -1.5:0.5:1.5
+005 at 123 PM
+Heatmap (0,0) -1.5:0.5:1.5
+45 (0,0) 3 1, hash (MU 5/5)
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  generate PCs for later PC space tuning
+004 at 
+evolution
+45 (0,0) 3 1, hash (MU 5/5)
+started initial responses at around 80 and 120
+lost eye movements! Paused experiment
+looks like it got there faster:
+will go up to 30 completed blocks, then heatmap with this evolution
+Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
+Manifold with 1-deg
+006 at 136 PM
+first evolution image, at 
+looks peaky-ish?
+shaking a bit, bumped him to 100 once he resumed work. 
+Put him up to 130, he's been working a while… only had 175 mL. </t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  generate PCs for later PC space tuning
+003 at 1242
+evolution 
+45 (0,0) 1 1, hash (MU 5/5)
+responses much higher, at 70 and 120, so stimulus better positioned
+He's taking a nap, 68% performance so far
+we'll go to generation 30 then try again with 3-deg stimulus
+Completed</t>
+  </si>
+  <si>
+    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 1-deg evolution 48 (0,0) 1 1 , hash (MU 5/5)
+006 at 1252
+manifold for 1-deg evolution
+48 (0,0) 1 1 , hash (MU 5/5)
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48 (0,0) 1 1 , hash (MU 5/5)  generate PCs for later PC space tuning Had an error about missing a generator picture. Not sure what that was about.responsive enough, I guess:
+002 at 1143 AM
+evolution
+48 (0,0) 1 1 , hash (MU 5/5)
+Had an error about missing a generator picture. Not sure what that was about.
+responsive enough, I guess:</t>
+  </si>
+  <si>
+    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 3-deg evolution 48 (0,0) 3 1 , hash (MU 5/5)
+007 at 109 PM
+manifold for 3-deg evolution
+48 (0,0) 3 1 , hash (MU 5/5)
+Completed</t>
+  </si>
+  <si>
+    <t>RFMapping Ch 48 (V1) evolution 191122(CRP) heatmap  48 (-1.5:0.5:1.5) at 3 deg
+004 at 1231 PM
+heatmap 
+48 (-1.5:0.5:1.5) at 3 deg
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48  evolution 48 (0,0) 3 1 , hash (MU 5/5) .
+ 003 at 1205 PM
+evolution
+48 (0,0) 3 1 , hash (MU 5/5)
+initial responses seem a bit lower - maybe about 40 spikes/s vs 50-60 in the previous experiment. We want to know how long before we get past 100 sp/s (took about 6 generations before)
+huh, got to 120 in 7 generations…
+has been going for 22 minutes, taking long naps, 27 completed</t>
+  </si>
+  <si>
+    <t>Selectivity for the first exp CMA Evolution of Ch 41 (V1) evolution 191125(BXW). For 41 chan [0 0 ] 1 deg 1
+005 Selectivity for the first exp  
+For 41 chan [0 0 ] 1 deg 1  
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of 2nd Ch 41 (V1) evolution 191125(BXW) 1 deg evolution  41 [0 0] 1 deg 1 002 starts 14:54
+1 deg evolution 
+41 [0 0] 1 deg 1 
+Note some artifacts related to the magnets, rewards or the sounds. 
+There is a huge amplitude response for such things. 
+Successful, growing features. 
+[ seems the baseline images are just too bad for evoking activities in these channels
+Evolv from 50 – 150 
+Completed</t>
+  </si>
+  <si>
+    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1 
+006 Selectivity Manifold Experiment  for the second evolution  bvb 
+For 41 chan [0 0 ] 3 deg 1 
+Monkey logic crushed midway because of a mistake......
+Don't select reset during experiments! 
+Complete but incomplete</t>
+  </si>
+  <si>
+    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  
+007 Selectivity starts 15:46 
+Starts s
+Consume 320 cc today 
+Ends 15:56
+Should be combined with the last experiment to do analysis…..
+Completed</t>
+  </si>
+  <si>
+    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW). Combined. 
+Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1 
+006 Selectivity Manifold Experiment  for the second evolution  bvb 
+For 41 chan [0 0 ] 3 deg 1 
+Monkey logic crushed midway because of a mistake......
+Don't select reset during experiments! 
+Complete but incomplete
+Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  
+007 Selectivity starts 15:46 
+Starts s
+Consume 320 cc today 
+Ends 15:56
+Should be combined with the last experiment to do analysis…..
+Completed</t>
+  </si>
+  <si>
+    <t>RF Mapping for Ch 41 (V1), 191125(BXW) 41 [0 0 ] 3 deg 1  Starts from 50 – 150 in 40 gens
+004  Heat map 
+41 [0 0 ] 3 deg 1 
+Starts from 50 – 150 in 40 gens 
+Completed</t>
+  </si>
+  <si>
+    <t>CMA Evolution of Ch 41 (V1) evolution 191125(BXW) 41 [0 0 ] 3 deg 1  Evoked also has higher rate  
+003 
+41 [0 0 ] 3 deg 1 
+Evoked also has higher rate 
+Going up at around 8 gens. 
+Climbing towards plateau around 25 gens. 
+Climbing again at around 20 gens 
+Climb again at around 30 gens? 
+Stops at 35 
+Completed</t>
+  </si>
+  <si>
+    <t>manifold for first Evolution Ch 44 (V1) 191126(CRP) images presented at 1-deg 44 (0,0) 1 MU 5/5 pasupathy shapes doing great!
+005 at 
+manifold for first evolution, images presented at 1-deg
+44 (0,0) 1 MU 5/5
+pasupathy shapes doing great!
+5 completed blocks</t>
+  </si>
+  <si>
+    <t>Evolution Ch 44 (V1) 191126(CRP) evolution 44 (0,0) 1 1 , MU 5/5 (hash)
+002 at 1255 PM
+evolution
+44 (0,0) 1 1 , MU 5/5 (hash)
+Will go to 30 completed generations
+about 200 spikes per s
+Project_BigEvo</t>
+  </si>
+  <si>
+    <t>manifold for second Evolution Ch 44 (V1) 191126(CRP) images presented at 3-deg 44 (0,0) 3 1, MU 5/5 (hash) 5 completed blocks at
+006 at 203 PM
+manifold for second evolution, images presented at 3-deg
+44 (0,0) 3 1, MU 5/5 (hash)
+5 completed blocks at</t>
+  </si>
+  <si>
+    <t>Evolution Ch 44 (V1) 191126(CRP) heatmap for evolution 44 (0,0) 3 1, MU 5/5 (hash)
+004 at 141 PM
+heatmap for evolution 44 (0,0) 3 1, MU 5/5 (hash)</t>
+  </si>
+  <si>
+    <t>Evolution Ch 44 (V1) 191126(CRP) 44 (0,0) 3 1, MU 5/5 (hash) interesting! Very suppressed by surround!
+003 at 116 PM
+44 (0,0) 3 1, MU 5/5 (hash)
+interesting! Very suppressed by surround!
+Project_BigEvo</t>
   </si>
   <si>
     <t>005  starts 12:36  Manifold for 1st Evolution 
@@ -2268,13 +3424,13 @@
 Blasting him, 300 ms, going to block 50 then calling it a day</t>
   </si>
   <si>
-    <t>Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
-  </si>
-  <si>
-    <t>Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
-  </si>
-  <si>
-    <t>Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
+    <t xml:space="preserve">Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
   </si>
   <si>
     <t>001 RFMapper 11:02 AM starts 
@@ -3289,6 +4445,227 @@
 completed</t>
   </si>
   <si>
+    <t>up @ 230
+001 @ 235 PM, rf mapping, new su @ ch. 6,1.5-2 deg @ (-1 ,+1)
+not participating very Well... adding acq. rew,
+COMPLETED. QA</t>
+  </si>
+  <si>
+    <t>002@250 PM, 5(-0.6, 0.9) 3, 1 su 1/5
+ABORTED</t>
+  </si>
+  <si>
+    <t>003@2:55 PM, restarted with Ch.6 (-0.6, +0.9) 3,1 su 1/5 . Went for 30 gen.
+COMPLETED. QA.</t>
+  </si>
+  <si>
+    <t>004 @ 3:08 Pm, 6 (-0.6, +0.9) 31
+3:21, complain y…
+COMPLETED. QA.</t>
+  </si>
+  <si>
+    <t>005@3:27 PM , same as above: 6-0:6, +0:9), ,3 1, 1/5 su
+COMPLETED. QA</t>
+  </si>
+  <si>
+    <t>np @9:55 AM
+001 rf mapping, 1 and 5 look promising . Though he's clearly been off for a few days.</t>
+  </si>
+  <si>
+    <t>002@10:14AM
+5(-1,1) 3 1 cMAES SU 2/5
+COMPLETED</t>
+  </si>
+  <si>
+    <t>003@10:27 AM
+same as above
+COMPLETED</t>
+  </si>
+  <si>
+    <t>004 @ 1041 AM, same as above. same result
+COMPLETED</t>
+  </si>
+  <si>
+    <t>005 generate integrated 28 (-0.5, 0.9) 31 Mu 3/5 .
+1. Taking nap -11:10, introducing acq rew-
+COMPLETED</t>
+  </si>
+  <si>
+    <t>006@11:15 AM
+same as above
+11 :23 very complainy, block 10. Let's see if we can push to 20.
+signal dropping. May be related to his (mis) behavior . Finishing at~ 11:45. This evolution was WILD, up and down.
+COMPLETED</t>
+  </si>
+  <si>
+    <t>hp~ 2:05 PM
+001 @2:13 PM, rf mapping
+COMPLETED</t>
+  </si>
+  <si>
+    <t>002 @ 2:31) PM
+generate integrated 20(-0.5,+1.0) 3 1 5/5 hash. Done block 32
+COMPLETED</t>
+  </si>
+  <si>
+    <t>003 @ 2:46 PM, same as above
+COMPLETED</t>
+  </si>
+  <si>
+    <t>004 @3:03 PM, same as above
+COMPLETED</t>
+  </si>
+  <si>
+    <t>.rf map start @9:47
+1, 3, 5 degrees
+5 blocks stop@9:53</t>
+  </si>
+  <si>
+    <t>gi start @10:02
+ch7 su 1/5(0,0.3) 3,1. CMAES
+Yay climbing already at block 8
+28 blocks complete stopped at 1014</t>
+  </si>
+  <si>
+    <t>Gi start at 1015. Same as above ch 7  (0, 0.3)
+28 blocks complete at 1026</t>
+  </si>
+  <si>
+    <t>Gi start at 1026 same as above
+Ch 7 (0,0.3)
+30 blocks complete at 1039</t>
+  </si>
+  <si>
+    <t>Ch 52(0,2.8) su.3/5 Start at 1041.
+Starting to protest. We will see how far we get
+20 blocks complete at 1056</t>
+  </si>
+  <si>
+    <t>Same as above start at 1057
+Ch 52 (0, 2.8) SU 31
+Stop at 1112</t>
+  </si>
+  <si>
+    <t>Same as above start at 1112. Ch 52
+Ch 52 (0, 2.8) SU 3 1
+Stop at 1130. 20 blocks complete
+hp@942 AM, rf mapping, new s U @ 1
+Maintenance experiment   
+002 another quick RF
+maintenance experiment
+003- generate integrated, but sU is not responsive, trying again.
+1(0,-1) 2,1 CMAES
+complainy@10:23
+10:49 still complaining
+monkey quits
+aborted</t>
+  </si>
+  <si>
+    <t>Start: 11:38
+5 blocks completed
+1, 3, and 5 degrees</t>
+  </si>
+  <si>
+    <t>Start: 11:48 am
+Ch. 25 [0 0] 3 1, hash with a sparse SU that doesn't appear to be visually driven, evolving from whole channel
+Block 23, evolution climbing, hasn't surpassed natural images yet
+He's working surprisingly well!  Good boy 😊
+SU looks like it may be possible to drive up and capture... will try again evolving from just SU
+PSTH visually responsive, more of a sustained response than some of the other channels
+Stopped at 35 blocks, complete</t>
+  </si>
+  <si>
+    <t>Start: 12:08 pm
+Ch. 25 [0 0] 3 1, one SU (1/5, very suppressed), one hash (4/5), evolving from SU alone this time
+Block 10, and it's definitely climbing!  PSTH for the SU is developing very nicely.  He's start to get a bit restless, but he goes back to working well relatively quickly
+Beautiful evolution!  SU now firing very consistently, evolution has FAR surpassed natural images, keeps on climbing, we're at nearly 30 spikes/s now at block 24, compared to the maybe 1 spike/s we started with
+Evolving a pink/red/brown eye
+40 blocks, complete!</t>
+  </si>
+  <si>
+    <t>Start: 12:28 pm
+Ch. 25 [0 0] 3 1, one SU (1/5, very suppressed at baseline), one hash (4/5), evolving from SU again
+Starting again at &lt;1 spike/s, and he's still working well!  150 ms reward, accuracy at 82%, he's had about 150 cc water
+This evolution is going more slowly—block 14 and still flat, generator just hasn't grabbed on to the right features yet, SU is still firing sparsely, so we haven't lost the cell
+Still hasn't climbed, must be stuck on a trajectory the cell doesn't care about.  Stopping at block 25 and restarting again</t>
+  </si>
+  <si>
+    <t>Start: 12:43 pm
+Ch. 25 [0 0] 3 1, one SU (1/5, very suppressed at baseline), one hash (4/5), evolving from SU again
+He's being grumpy, but he's still willing to work
+And we are back in business!  Starting to finally climb again at block 10
+He's shaking a lot more now, reward at 300 ms, he's had about 300 cc so far
+Block 20, 350 ms reward, fighting a bit, but when he's working, he works really well
+Added 50 cc of water, he's really being very cooperative today!  Still climbing at block 30
+Added another 150 cc, but he's almost done!  Had to get air bubbles out of the lixit
+Jumped up again at block 46!  He's working really, really well
+Stopped at block 50, completed</t>
+  </si>
+  <si>
+    <t>Rf map start at11:32
+Chlorhexidine today.
+4 blocks complete at 1142</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 1151.
+Ch 39 (0 0) 3 1 cmaes. SU 1/5 visually responsive but not great rf
+Climbing fast
+31 blocks complete at 1206</t>
+  </si>
+  <si>
+    <t>Generate integrated 2nd time start at 1206
+Ch 39 (0 0) 3 1 cmaes. SU 1/5
+Again climbing fast.
+Stopped at 1224</t>
+  </si>
+  <si>
+    <t>In rig at 912
+Rf map start at 920. 1, 3, 8 degrees.
+4 blocks complete stop at 928</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 9:35.
+CH 17. Great SU 1/5. Visually responsive
+17 (-2, 0) 3 1 CMAES
+Taking off almost immediately, this is a good one
+Still climbing at block 18,
+He is already shaking, its only been 40 minutes and 40 mLs
+Image kinda looks like a pink face!
+He has 35 rew and 20 aq rew.
+Stop at 957. 36 blocks complete</t>
+  </si>
+  <si>
+    <t>004 – generate integrated at 1154 AM
+49 (0,0) 3 1, hash 5
+/5
+completed</t>
+  </si>
+  <si>
+    <t>Same as above
+Completed</t>
+  </si>
+  <si>
+    <t>Rf mapper basic start at 1035. Plan today is to do some V4 multiple evo.
+Cleaned with chlorhexidine. 4 blocks complete at 1042</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 10:49.
+Ch 55 (0, 0) 3 1 CMAES. SU 2/5, looks sperate on cluster but not so much on wavelength, we will see. It is climbing, has black and white shapes.
+Starting to shake only 30 min in. His eye signal looks good and hes working fine. Still climbing at block 28.
+33 blocks com stop at 1106.</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 11:07.
+Ch 55 (0, 0) 3 1 CMAES. SU 2/5. 2nd evolution
+Climbing at block 6. it sounds more visually responsive as we go, good sign.
+This evolution has some pink and blue hues forming. 33 blocks complete at 1125.</t>
+  </si>
+  <si>
+    <t>Generate integrated start at 11:26.
+Ch 55 (0, 0) 3 1 CMAES. SU 2/5. 3rd evolution
+Almost there... he is about done. Interesting this image looks more brown/red than white. 32 com at 1148.</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -3313,861 +4690,14 @@
     <t>Style</t>
   </si>
   <si>
-    <t>CMA Evolution of Ch 6 191003(CRP). generate PCs for later PC space tuning  001 parallel evolution
-Ch 6 (-0.5,0) 3 1 SU 1/5
-7 MINUTES in, he's at 20%, because he keeps trying to drift to the center of the image, and his fixation window prevents him from doing so
-23 minutes in, 207 PM, 26%
-43 minutes in, currently on block 36.
-he pretty much shakes the chair continuously now, bangs the collar chain about
-46 minutes in, block 39.
-70 rew baseline, 15 per consecutive trial, up to 155
-completed
-entered into matlab</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 6 evolution 191003(CRP). Fewer Reps 408 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively, +10 last gen +12 gabor + 23 reference image}  002 manifold selectivity
-started at 234 PM,
-alas, not working well. Has done 33 trials. We need many many more…
-192 correct trials in 20 minutes
-307 correct trials in 30 minutes. Ok, that's  10 trials a minute. Another 10 minutes?</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 5 evolution 191007(CRP). Fewer Reps 373 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,  005
-finishing around 3:15 PM, so that's 1 hour and 45 minutes or so</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 20 evolution 191008(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
-006 - selectivity with manifold
-1246, shakes begin, 100 cc consumed
-91 correct trials, block one completed
-48% performance, took almost 10 minutes for this block. Oof.
-will try to get to block 5 (4 * 91 + 1 = 365  correct trials)
-113 PM, block 5 (424 correct trials), bumped him up to 200 ms rew + acquisition
-he's had almost 200 cc.</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 5 191007(CRP). generate PCs for later PC space tuning Evolution, 
-003
-(2)
-Ch 5 (-0.5,0) 3 1 , MU 3/5
-shakey, oh so shakey. May be training day.
-monkey misbehaving, will stop at block 20 and try to do
-nice evo
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 29 191002. generate PCs for later PC space tuning 
-Testing Binxu's PC-sampling method
-started at 234 PM
-Ch. 29 (-0.5,0) 3 1, SU 2/5
-evolution continues to go up as of block 27
-performance is low: 318/1037. Oof
-256, shake and bake 
-increased fixation window to 1-deg radius
-2:34, 33 blocks completed, seems to be rising still
-314, increased reward to 70 + acquisition
-Completed
-entered into matlab</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen} 
-003 started at 324, Binxu manifold
-374 unique images, and he's not fixating great, so we may not finish this experiment in terms of enough reps
-must work until 4 PM at least
-terribly behaved. Increased reward to 170 ms. He's good at training me…
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 20 191008(CRP). generate PCs for later PC space tuning
-003
-1214 PM
-Chan 20 (-0.5,0) 3 1
-hash 4/5
-seems very visually responsive
-7 minutes in, 13 blocks, 62%
-shroud of turin face evolved
-completed
-entered into matlab</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 19 evolution 191009(BXW). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
-003
-Selectivity 
-Perform really well and quick 
-Start 14:54PM 
-320: has done 5 full reps
-has been working for 1 hour 40 minutes
-Norm 401
-nice evo
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 19 191009(CRP). generate PCs for later PC space tuning
-002 
-Chan 19 (-0.5,0) 3 1
-MU 5/5
-started at 150 PM
-69% performance. 
-evolution plateauing early…
-it's rising very slowly. Trying to make a little face.
-minute 25, generation 41, still not a super stimulus
-super stimulus as of two generations ago (225 PM)
-it's been 35 minutes so here come the shakes
-Completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 13 evolution 191010(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
-003 147 PM
-selectivity manifold
-201 PM, 100 cc, first shake
-been shaking periodically but performance 67%
-finished at 228 PM
-Norm 386
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 13 191010(CRP). generate PCs for later PC space tuning
-002, 111 PM
-the hash is very responsive
-13 (-0.5,0) 3 1
-MU 5/5
-002 (2)
-137 PM, block 48, good evolution, has been at 71%
-ended at 146 PM
-Nice evo
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 28 evolution 191011(CRP). Fewer Reps 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
-002 manifold selectivity
-started at 145 PM
-repetition 3, at 155 PM, bumping
-lost IP address - experiment was frozen for a bit of time. Should still be ok, though
-Norm 300 ! Not very large</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 28 191011(CRP). generate PCs for later PC space tuning
-001
-117 pm
-CH 28, (-0.5,0) 3 1 mu 3/5
-nicely responsive, kind of brisk
-shaking already, 122 PM
-143 ended
-Completed
-entered into matlab</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 15 evolution 191015(CRP BXW). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
-005 starts 14:59
-Ch 15 (-0.5, 0) 3 1
-Shakes a bit at first
-Shakes strongly at around 15:16 
-But give up soon.....
-Add quisition reward 25
-Ends with 6 reps + 
-Goodenough
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 15 191015(CRP BXW). generate PCs for later PC space tuning
-003 starts at 14:26
-ch 15 (-0.5,0) 3 1
-quite responsive, consistent with previous manifold data
-Starts to slowly grow up at ~ block 5
-Match nature images at around block 10 (7min) 
-PSTH of evolved and natural images match quite well!
-Works quite well today! Very quiet
-Double the rate at around  25-30 block
-Natual image firing rate seems  to go down
-40 generations 
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 17 191016(CRP). generate PCs for later PC space tuning
-001
-220 PM
-17 (-0.5,0) 3 1
-4/5 hash
-Pretty visually responsive
-climbing very slowly, block 35
-at block 80, a windows update thing appeared. 
-Completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 17 evolution 191016(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
-002 
-selectivity. Started at 319 PM
-Norm 421
-by block 4, 332 PM, he's had almost 200 cc.
-300 cc, ended at 351 PM
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 63 evolution 191017(CRP). 363 images {11*11 in PC2,PC3; PC49 PC50; RND12 space respectively,
-Started manifold testing at 401 PM
-by 413 PM, we have 2 blocks completed. Around 120 cc consumed. At block 4, I will bump him up
-completed
-NO REFERENCE IMAGES</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 63 191017(CRP). generate PCs for later PC space tuning
-006 evolution 
-63 (-1,-3) 3 1
-SU 2/5
-very  visually responsive, evolving
-353, bumping bumping
-super stimulus at block 31, about 100 cc consumed. Maybe a few more generations to confirm we have plateaued 
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 26 191030(CRP). generate PCs for later PC space tuning
-001 at 1017 AM
-26 (0,0) 4 1 SU 1/5
-sparse but visually responsive
-Performing at 61%, 10 minutes in, 14 generations
-1034 AM, 67% performance
-looks like a pair of eyes</t>
-  </si>
-  <si>
-    <t>Following Evolution of Ch 26  191030(CRP) Explore in the PC2-3 space only and add the pasupathy images to it. white background 4 rotations.
-003 at 1124 PM
-selectivity - manifold and pasupathies
-26 (0,0) 4
-PC2-3
-15 minutes in, has had around 200 cc so far
-70%, but I have him at 170 ms rew + acq rate
-Completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 20 evolution 191031(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-004 selectivity
-20 (-3, 0) 4 1, SU 1/5
-completed
-REFERENCES INCLUDED</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 20 191031(CRP). generate PCs for later PC space tuning
-002 at 1:30 PM
-evolution
-20 (-3, 0) 4 1, SU 1/5
-evolved pair of black eyes at the edge of the picture. Not a lot of invariance. Probably could come back to 3-deg.
-will do up to block 51
-Completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 40 evolution 191105(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-004 at 1150 AM
-40 (-0.3,0) 2 1
-selectivity using PC2 manifolds for evolution 191105_Beto_generate_parallel(1)
-7 reps after 31 minutes. Interesting results
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 40 evolution 191105(CRP). generate PCs for later PC space tuning
-003 at 1123 AM
-evolution
-40 (-0.3,0) 2 1,  Hash 4/5
-67%, 17 minutes in, block 26. Has been fairly flat for a bit, but just trying to get to 30
-made it to 29, then he fell asleep. But rates really plateaued, so fine
-completed, entered into Matlab</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 42 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-005 at 150 PM
-selectivity for manifold, using
-Ch 42 (-0.3, -1.0) 2 1,  MU 5/5
-PC2 images
-at 81%
-4 blocks completed so far, 14 minutes in. We can probably stop at 5 blocks completed and start another evo, although he seems to be starting to complain
-completed at 5 reps
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 42 evolution 191106(CRP). generate PCs for later PC space tuning
-003 at 113 PM
-evolution
-42 (-0.3, -1.0) 2 1, MU 5/5
-weakly visually responsive
-Climbing slowly but surely
-completed at gen 45
-entered into Matlab</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 35 evolution 191106(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-008 at 242 PM
-manifold
-35 (0,-0.5) 2 1, MU 5/5
-191106_Beto_generate_parallel
-let's see if we can get at least 2 reps, but may have to continue tomorrow. Maybe it'll show the same results
-REALLY GETS HIS WIND BACK WITH 200 ms rew plus acq reward
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 35 evolution 191106(CRP). generate PCs for later PC space tuning
-007 at 219 PM
-evolution
-35 (0,-0.5) 2 1, MU 5/5
-looks responsive
-23 completed generations, and looks fairly asymptoted
-it's 138 minutes and I don't think he'll give us much more.
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 36 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-006 at 106 PM
-selectivity
-36 (-0.3,-1.0) 1.5, 1, MU 5/5
-completed after 5 reps
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 36 evolution 191107(CRP). generate PCs for later PC space tuning
-004 at 1230 PM
-36 (-0.3,-1.0) 1.5, 1, MU 5/5
-Seems pretty visually responsive to the synthetic textures, even from the outset
-ok will stop at 30 completed blocks
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 34 evolution 191107(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-012 at 219 PM
-manifold selectivity
-34 (-0.2,-0.4) 1.5 1, MU 3/5 
-completed 2 reps already, going for more
-increased reward to 180 + acq reward
-300 cc so far
-229 PM
-this channel shows some pasupathies that contain something in its preferred stimulus!
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 34 evolution 191107(CRP). generate PCs for later PC space tuning
-010 at 150 PM
-evolution
-34 (-0.2,-0.4) 1.5 1, MU 3/5 
-fairly visually responsive
-performance at 77%
-202 PM currently at 21 blocks completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 37 evolution 191108(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-004 at 1109 
-selectivity over manifold
-37 (0,-1) 1.5 1, MU 4/5 hash
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 37 evolution 191108(CRP). generate PCs for later PC space tuning
-003 at 10:30 AM
-evolution
-37 (0,-1) 1.5 1, MU 4/5 hash
-weakly visually responsive, but sure
-hash goes nice and quiet when he naps
-10 minutes in, 63% participation
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 49 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-006  13:28  Manifold 
-norm 359
-49 [-4.3 -5.5] 3 1
-Performance at around 70% 
-17 mins 
-Just got around 110mL. Still have time for more work
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 49 (V4) evolution 191111(BXW). generate PCs for later PC space tuning
-003 starts 12:38 PM 
-49 (-4.4,-5.4) 3 1, quite single unit 
-responsive and nice PSTH
-going up at gen 5 ! Good 
-Saturated?! All white in the field?
-Gradually going up again at around gen 15! 
-Meandering between 25-30 gen 
-The increased firing rate is majorly on the initial response. 
-However starting from 30 gen it's climbing up again. 
-Seems more and more later time bin activity is recruited !! A dual peak activity???
-30 gen it's 
-35 gen it starts going up again. And the peak become wider, and much more sustained! 
-Even at 40 it can still go up! 
-Seems saturated around ~50. 
-Really the response get much more sustained at later phase of the exp. (Stimuli driven? What changed?
-Or just inner state?)
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 60 (V4) evolution 191111(BXW). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-011 at 224 PM
-manifold for 
-60 (-2.3,-3) 3 1
-he's complaining and moving…has had around 250 cc
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 60 (V4) evolution 191111(BXW). generate PCs for later PC space tuning
-010 generate_parallel at 14:05
-chan 60 [-2.3, -3] 3 deg multiunit-4/5
-There is an obvious off response from gratings. 
-And the on response to evolved and gratings are largely similar. 
-Going up at gen 5 
-Getting more and more sustained in later generations.
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 56 (V4) evolution 191112(CRP). 121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-004 at 102 pm ish
-manifold
-ch 56 (-3,-2.4) 3
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 56 (V4) evolution 191112(CRP). generate PCs for later PC space tuning
-002 at 1206 PM
-evolution
-56 (-3,-2.4) 3 1, Hash 4/5
-1218 PM, sleeping  a lot, 61% performance. Maybe a one evolution day
-really late taking off, but there it is</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-006 Selective Basic starts 12:39
-Norm 348
-colorful images are generated
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 54 (V4) evolution 191113(BXW). [-4.8 -6.3] 3  generate PCs for later PC space tuning
-004 generate parallel starts 11:54
-chan 54 [-4.8 -6.3] 3 deg 
-Definitely visually responsive ~100 rate. 
- evoke more sustained response, synthesized evoke more initial response. Very different time course from pasupathy and the synthesized images. 
-PSTH not changing much till 5 gen. 
-The off response get changed a little bit. 
-At gen 10, it starts to add up a bit. 
-The dynamics starts to change! From more transient resonse to more delayed sustained response. 
-Evolution is not super successful . 
-Starts to go up after 15 gen. 
-More and more sustained response is evoked by the later generation evoked images! Feedback recurrent thing?
-Become very sustained at around 30 gens ! (first peak doesn't change much! But the later activity is recruited. )
-22 min 35 gens
-Got a super contrast black white image! 
-~40 gens! Still meandering 
-completed</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 54 (V4) evolution 191113(BXW). chan 54 [-4.8 -6.3] -1.5:0.5:1.5
-005 RF mapping 
-chan 54 [-4.8 -6.3] -1.5:0.5:1.5  
-3 size image
-actually right down! Black whit part
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-012 selectivity  starts 13:55
-MU 58 [-3 -4 ] 3 deg 
-Norm 308 
-Goes to 30mL 
-Consume 380 mL today!! 
-Completed</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 58 (V4) evolution 191113(BXW). chan MU 58 [-3 -4] 3 deg -1.5:0.5:1.5
-011 rf mapping 
-MU 58 [-3 -4] 3 deg
-Localize to top left of the image. 
-So it's some white thing ? No? 
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 58 MU (V4) evolution 191113(BXW). [-3 -4] 3  generate PCs for later PC space tuning
-010 generate parallel start 13:22
-MU 58 [-3 -4] 3 deg 
-Responsive visually!! 
-(gets to 200mL)
-Both Gabor and synthesisze shows similar time course. 
-Starts climbing up at around 5 gens 
-Activity during 100-150 ms gets recruited more and more! 
-The synthesized become much more sustained and longer than the gabors around 8 gen. 
-Also got a quite Dark and White image thing! 
-Maybe plateaued ~16 
-Bumping up the reward around 17gen. Starts working again. 
-Gets quite saturated at 25gens. 
-Going up again! At around 27 gen
-Gets super sustained! Going up quite a bit.  
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-007 at 118 PM
-selectivity - manifold
-ch 50 (-5,-6) 3 -degrees
-surprisingly, the pasupathy shapes are just as effective here! She'll be happy
-Completed</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 50 (V4) evolution 191114(CRP). chan MU ch 50 (-5,-6) -1.5:0.5:1.5
-006 at 111 PM
-rf mapping - heatmap
-ch 50 (-5,-6) -1.5:0.5:1.5
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 50 (V4) evolution 191114(CRP). ch 50 (-5,-6) 3 -degrees  generate PCs for later PC space tuning
-004 at 1226
-evolution
-50 (-5,-6) 3 1, MU 3.5/5
-climbing very slowly. He's not working great - 60% participation
-late spike, at around generation 45</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 57 (V4) evolution 191114(CRP). ch 57 (-3,-6) 3 1, SU 2/5 generate PCs for later PC space tuning (this exp failed to pair with Manifold)
-009 at 151 PM
-Evolution
-ch 57 (-3,-6) 3 1, SU 2/5, very visually responsive
-it's evolving, but the monkey appears to want to finish now
-should try this again tomorrow to complete manifold. Actually, might want to start this evolution tomorrow using the current genotypes, or something from generation 20
-Completed</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 57 (V4) evolution 191115(CRP). ch  57 (-3,-4) 4-deg, grid -2:0.5:2
-004 at 146 PM
-heatmap
-57 (-3,-4) 4-deg, grid -2:0.5:2
-42%, wants to look at it
-eye recalibration. Maybe an offset?</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-005 at 157 PM
-manifold selectivity 
-56 (-3,-4) 4-deg (????? Is it 57 or 56)
-Norm 424
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 57 (V4) evolution 191115(CRP). ch 57 (-3,-4) 4 1, MU 5/5 generate PCs for later PC space tuning
-003 at 1256 PM
-57 (-3,-4) 4 1, MU 5/5
-Much more sustained activity
-climbing slowly but ok
-he's taking very long naps. Seems like a one-evolution day
-Go to gen 72, norm 424
-Completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-006 Selectivity Basic starts 14:14
-Norm 319 
-6-7 gens good
- Completed</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU -1.5:0.5:1.5
-004 RF mapping for heatmap starts 14:05
-chan 55 [-2.5 -2.8] 1 3 MU 
-PSTH waveform looks just like the evolved one! 
-Norm 319
-Surprisingly, it's not the most salient part in our eye! It's the black and white thing. 
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 55 (V4) evolution 191118(BXW). ch  55 [-2.5 -2.8] 1 3 MU  generate PCs for later PC space tuning
-003  Evolution 
-Starts 13:38 PM - 2:01 
-chan 55 [-2.5 -2.8] 1 3 MU 
-Both curve going up right away ! Cool  
-Sleep at 13:41 
-Climb up really quick! 
-Also gets more sustained, the peak extended
-Recurrency
-Gets the visual cortex to fire sustainedly 
-What does that mean?
-Around 20 generation gets a even higher secondary peak around 100ms ! (TaisingLee's feedback result?)
-Nearly plateau around 25-30 generations. 
-Secondary peak gets insanely high! 
-Monkey works quite well today! 
-The evolution seems quite successful and sustained now! 
-Completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-008 at 105 PM
-manifold, selectivity, for
-ch 26 (-2.1 -0.6) 3 1, SU 1/5
-upped reward to 120 ms, has had 200 cc almost?!
-131 PM, almost done, 6 full reps, 300 cc
-completed</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5 -1.5:0.5:1.5
-007 at 1254 
-heatmap for ch 26 (-2.1 -0.6) 3 1, SU 1/5
-he's fixating terribly…
-finished, 4 reps
-completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 26 (IT) evolution 191119(CRP). ch 26 (-2.1 -0.6) 3 1, SU 1/5  generate PCs for later PC space tuning
-006 at 1212 PM
-evolution
-ch 26 (-2.1 -0.6) 3 1, SU 1/5
-looks to have a strong off-response. Maybe we should change window
-completed</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-007 Manifold experiment starts 
-39 [0 0] 3
-PC23 manifold for the 1st experiment 
-Continues - 15:50
-Norm 297
-Complete</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5 -1.5:0.5:1.5
-004 RF mapping 14:41 starts
-For the 3 deg image in 1st evolution today 
-39 [0 0 ] 3 
-1.5:0.5:1.5
-Complete</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 3 1 4/5  generate PCs for later PC space tuning
-002 at 203 PM
-Generate
-ch 39, MU 4/5
-responsive
-(0,0) 3 1
-Complete
-Project_BigEvo</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-006 Manifold experiment starts 14:57 
-39 [0 0] 1 
-PC23 manifold for the 2nd evolution. 
-Seems more plateaued as many V1 evolutions 
-Norm 302 
-Complete</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5 -1.5:0.5:1.5
-005 RF mapping 
-For the 1 deg evolved image from the 2nd evolution today. 
-39 [0 0 ] 1  
--0.5:0.25:0.5
-Seems he is quite attentive for this experiment! Why 
-Eye movement seems to be too large for the mapping to work 
-Complete</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 39 (V1) evolution 191120(CRP BXW). ch 39, MU (0,0) 1 1 4/5  generate PCs for later PC space tuning
-003 at 221 PM
-evolution
-ch 39 (0,0) 1 1
-test to see if we can evolve something as efficiently as with 
-Plateaued around 23 gens. ~ 300 activations. 
-Higher initial response. 
-~ stop ~ 31 
-Complete</t>
-  </si>
-  <si>
-    <t>Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-008 at 206 PM
-45 (-0.3,0.2) 3 1 
-manifold
-reward at 130 ms plus acq
-working well, at 86%, has had around 200 cc so far
-Completed</t>
-  </si>
-  <si>
-    <t>RFMapping Heatmap of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5) -1.5:0.5:1.5
-005 at 123 PM
-Heatmap (0,0) -1.5:0.5:1.5
-45 (0,0) 3 1, hash (MU 5/5)
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 3 1, hash (MU 5/5)  generate PCs for later PC space tuning
-004 at 
-evolution
-45 (0,0) 3 1, hash (MU 5/5)
-started initial responses at around 80 and 120
-lost eye movements! Paused experiment
-looks like it got there faster:
-will go up to 30 completed blocks, then heatmap with this evolution
-Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derived from PCs of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  -degrees  121 images from PC23 space, add the pasupathy images to it. white background 4 rotations.
-Manifold with 1-deg
-006 at 136 PM
-first evolution image, at 
-looks peaky-ish?
-shaking a bit, bumped him to 100 once he resumed work. 
-Put him up to 130, he's been working a while… only had 175 mL. </t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 45 (V1) evolution 191121(CRP). ch 45 (0,0) 1 1, hash (MU 5/5)  generate PCs for later PC space tuning
-003 at 1242
-evolution 
-45 (0,0) 1 1, hash (MU 5/5)
-responses much higher, at 70 and 120, so stimulus better positioned
-He's taking a nap, 68% performance so far
-we'll go to generation 30 then try again with 3-deg stimulus
-Completed</t>
-  </si>
-  <si>
-    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 1-deg evolution 48 (0,0) 1 1 , hash (MU 5/5)
-006 at 1252
-manifold for 1-deg evolution
-48 (0,0) 1 1 , hash (MU 5/5)
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48 (0,0) 1 1 , hash (MU 5/5)  generate PCs for later PC space tuning Had an error about missing a generator picture. Not sure what that was about.responsive enough, I guess:
-002 at 1143 AM
-evolution
-48 (0,0) 1 1 , hash (MU 5/5)
-Had an error about missing a generator picture. Not sure what that was about.
-responsive enough, I guess:</t>
-  </si>
-  <si>
-    <t>Derived from Ch 48 (V1) evolution 191122(CRP) manifold for 3-deg evolution 48 (0,0) 3 1 , hash (MU 5/5)
-007 at 109 PM
-manifold for 3-deg evolution
-48 (0,0) 3 1 , hash (MU 5/5)
-Completed</t>
-  </si>
-  <si>
-    <t>RFMapping Ch 48 (V1) evolution 191122(CRP) heatmap  48 (-1.5:0.5:1.5) at 3 deg
-004 at 1231 PM
-heatmap 
-48 (-1.5:0.5:1.5) at 3 deg
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 48 (V1) evolution 191122(CRP). ch 48  evolution 48 (0,0) 3 1 , hash (MU 5/5) .
- 003 at 1205 PM
-evolution
-48 (0,0) 3 1 , hash (MU 5/5)
-initial responses seem a bit lower - maybe about 40 spikes/s vs 50-60 in the previous experiment. We want to know how long before we get past 100 sp/s (took about 6 generations before)
-huh, got to 120 in 7 generations…
-has been going for 22 minutes, taking long naps, 27 completed</t>
-  </si>
-  <si>
-    <t>Selectivity for the first exp CMA Evolution of Ch 41 (V1) evolution 191125(BXW). For 41 chan [0 0 ] 1 deg 1
-005 Selectivity for the first exp  
-For 41 chan [0 0 ] 1 deg 1  
-Completed</t>
-  </si>
-  <si>
-    <t>CMA Evolution of 2nd Ch 41 (V1) evolution 191125(BXW) 1 deg evolution  41 [0 0] 1 deg 1 002 starts 14:54
-1 deg evolution 
-41 [0 0] 1 deg 1 
-Note some artifacts related to the magnets, rewards or the sounds. 
-There is a huge amplitude response for such things. 
-Successful, growing features. 
-[ seems the baseline images are just too bad for evoking activities in these channels
-Evolv from 50 – 150 
-Completed</t>
-  </si>
-  <si>
-    <t>Evolution Ch 44 (V1) 191126(CRP) 44 (0,0) 3 1, MU 5/5 (hash) interesting! Very suppressed by surround!
-003 at 116 PM
-44 (0,0) 3 1, MU 5/5 (hash)
-interesting! Very suppressed by surround!
-Project_BigEvo</t>
-  </si>
-  <si>
-    <t>Evolution Ch 44 (V1) 191126(CRP) heatmap for evolution 44 (0,0) 3 1, MU 5/5 (hash)
-004 at 141 PM
-heatmap for evolution 44 (0,0) 3 1, MU 5/5 (hash)</t>
-  </si>
-  <si>
-    <t>manifold for second Evolution Ch 44 (V1) 191126(CRP) images presented at 3-deg 44 (0,0) 3 1, MU 5/5 (hash) 5 completed blocks at
-006 at 203 PM
-manifold for second evolution, images presented at 3-deg
-44 (0,0) 3 1, MU 5/5 (hash)
-5 completed blocks at</t>
-  </si>
-  <si>
-    <t>Evolution Ch 44 (V1) 191126(CRP) evolution 44 (0,0) 1 1 , MU 5/5 (hash)
-002 at 1255 PM
-evolution
-44 (0,0) 1 1 , MU 5/5 (hash)
-Will go to 30 completed generations
-about 200 spikes per s
-Project_BigEvo</t>
-  </si>
-  <si>
-    <t>manifold for first Evolution Ch 44 (V1) 191126(CRP) images presented at 1-deg 44 (0,0) 1 MU 5/5 pasupathy shapes doing great!
-005 at 
-manifold for first evolution, images presented at 1-deg
-44 (0,0) 1 MU 5/5
-pasupathy shapes doing great!
-5 completed blocks</t>
-  </si>
-  <si>
-    <t>CMA Evolution of Ch 41 (V1) evolution 191125(BXW) 41 [0 0 ] 3 deg 1  Evoked also has higher rate  
-003 
-41 [0 0 ] 3 deg 1 
-Evoked also has higher rate 
-Going up at around 8 gens. 
-Climbing towards plateau around 25 gens. 
-Climbing again at around 20 gens 
-Climb again at around 30 gens? 
-Stops at 35 
-Completed</t>
-  </si>
-  <si>
-    <t>RF Mapping for Ch 41 (V1), 191125(BXW) 41 [0 0 ] 3 deg 1  Starts from 50 – 150 in 40 gens
-004  Heat map 
-41 [0 0 ] 3 deg 1 
-Starts from 50 – 150 in 40 gens 
-Completed</t>
-  </si>
-  <si>
-    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1 
-006 Selectivity Manifold Experiment  for the second evolution  bvb 
-For 41 chan [0 0 ] 3 deg 1 
-Monkey logic crushed midway because of a mistake......
-Don't select reset during experiments! 
-Complete but incomplete</t>
-  </si>
-  <si>
-    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  
-007 Selectivity starts 15:46 
-Starts s
-Consume 320 cc today 
-Ends 15:56
-Should be combined with the last experiment to do analysis…..
-Completed</t>
-  </si>
-  <si>
-    <t>Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW). Combined. 
-Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1 
-006 Selectivity Manifold Experiment  for the second evolution  bvb 
-For 41 chan [0 0 ] 3 deg 1 
-Monkey logic crushed midway because of a mistake......
-Don't select reset during experiments! 
-Complete but incomplete
-Selectivity Manifold Experiment  for the CMA Evolution of Ch 41 (V1) evolution 191125(BXW)  For 41 chan [0 0 ] 3 deg 1  
-007 Selectivity starts 15:46 
-Starts s
-Consume 320 cc today 
-Ends 15:56
-Should be combined with the last experiment to do analysis…..
-Completed</t>
+    <t>Seq_Evol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4219,33 +4749,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4287,7 +4806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4319,27 +4838,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4371,24 +4872,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4564,22 +5047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4605,21 +5080,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>878</v>
+        <v>582</v>
+      </c>
+      <c r="D2" t="s">
+        <v>808</v>
       </c>
       <c r="E2" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4631,21 +5106,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>877</v>
+        <v>583</v>
+      </c>
+      <c r="D3" t="s">
+        <v>809</v>
       </c>
       <c r="E3" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4657,21 +5132,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>873</v>
+        <v>584</v>
+      </c>
+      <c r="D4" t="s">
+        <v>810</v>
       </c>
       <c r="E4" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -4683,21 +5158,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>872</v>
+        <v>585</v>
+      </c>
+      <c r="D5" t="s">
+        <v>811</v>
       </c>
       <c r="E5" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4709,21 +5184,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>510</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>874</v>
+        <v>586</v>
+      </c>
+      <c r="D6" t="s">
+        <v>812</v>
       </c>
       <c r="E6" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4735,21 +5210,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>876</v>
+        <v>587</v>
+      </c>
+      <c r="D7" t="s">
+        <v>813</v>
       </c>
       <c r="E7" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -4761,21 +5236,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>875</v>
+        <v>588</v>
+      </c>
+      <c r="D8" t="s">
+        <v>814</v>
       </c>
       <c r="E8" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -4787,21 +5262,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>513</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>879</v>
+        <v>589</v>
+      </c>
+      <c r="D9" t="s">
+        <v>815</v>
       </c>
       <c r="E9" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -4813,21 +5288,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>514</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>880</v>
+        <v>590</v>
+      </c>
+      <c r="D10" t="s">
+        <v>816</v>
       </c>
       <c r="E10" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4839,21 +5314,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>515</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>881</v>
+        <v>591</v>
+      </c>
+      <c r="D11" t="s">
+        <v>817</v>
       </c>
       <c r="E11" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4865,21 +5340,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>882</v>
+        <v>592</v>
+      </c>
+      <c r="D12" t="s">
+        <v>818</v>
       </c>
       <c r="E12" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -4891,21 +5366,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>883</v>
+        <v>593</v>
+      </c>
+      <c r="D13" t="s">
+        <v>819</v>
       </c>
       <c r="E13" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -4917,21 +5392,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
-        <v>518</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>884</v>
+        <v>594</v>
+      </c>
+      <c r="D14" t="s">
+        <v>820</v>
       </c>
       <c r="E14" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -4943,21 +5418,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>885</v>
+        <v>595</v>
+      </c>
+      <c r="D15" t="s">
+        <v>821</v>
       </c>
       <c r="E15" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -4969,21 +5444,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="C16" t="s">
-        <v>520</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>886</v>
+        <v>596</v>
+      </c>
+      <c r="D16" t="s">
+        <v>822</v>
       </c>
       <c r="E16" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -4995,21 +5470,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>887</v>
+        <v>597</v>
+      </c>
+      <c r="D17" t="s">
+        <v>823</v>
       </c>
       <c r="E17" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -5021,21 +5496,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
-        <v>522</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>889</v>
+        <v>598</v>
+      </c>
+      <c r="D18" t="s">
+        <v>824</v>
       </c>
       <c r="E18" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -5047,21 +5522,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>523</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>888</v>
+        <v>599</v>
+      </c>
+      <c r="D19" t="s">
+        <v>825</v>
       </c>
       <c r="E19" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -5073,21 +5548,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
-        <v>524</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>890</v>
+        <v>600</v>
+      </c>
+      <c r="D20" t="s">
+        <v>826</v>
       </c>
       <c r="E20" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -5099,21 +5574,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
-        <v>525</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>891</v>
+        <v>601</v>
+      </c>
+      <c r="D21" t="s">
+        <v>827</v>
       </c>
       <c r="E21" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -5125,21 +5600,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
-        <v>526</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>893</v>
+        <v>602</v>
+      </c>
+      <c r="D22" t="s">
+        <v>828</v>
       </c>
       <c r="E22" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -5151,21 +5626,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
-        <v>527</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>892</v>
+        <v>603</v>
+      </c>
+      <c r="D23" t="s">
+        <v>829</v>
       </c>
       <c r="E23" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -5177,21 +5652,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>528</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>894</v>
+        <v>604</v>
+      </c>
+      <c r="D24" t="s">
+        <v>830</v>
       </c>
       <c r="E24" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -5203,21 +5678,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>895</v>
+        <v>605</v>
+      </c>
+      <c r="D25" t="s">
+        <v>831</v>
       </c>
       <c r="E25" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -5229,21 +5704,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>896</v>
+        <v>606</v>
+      </c>
+      <c r="D26" t="s">
+        <v>832</v>
       </c>
       <c r="E26" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -5255,21 +5730,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
-        <v>531</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>897</v>
+        <v>607</v>
+      </c>
+      <c r="D27" t="s">
+        <v>833</v>
       </c>
       <c r="E27" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -5281,21 +5756,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>898</v>
+        <v>608</v>
+      </c>
+      <c r="D28" t="s">
+        <v>834</v>
       </c>
       <c r="E28" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -5307,21 +5782,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>899</v>
+        <v>609</v>
+      </c>
+      <c r="D29" t="s">
+        <v>835</v>
       </c>
       <c r="E29" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -5333,21 +5808,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>534</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>900</v>
+        <v>610</v>
+      </c>
+      <c r="D30" t="s">
+        <v>836</v>
       </c>
       <c r="E30" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -5359,21 +5834,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C31" t="s">
-        <v>535</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>901</v>
+        <v>611</v>
+      </c>
+      <c r="D31" t="s">
+        <v>837</v>
       </c>
       <c r="E31" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -5385,21 +5860,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
-        <v>536</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>902</v>
+        <v>612</v>
+      </c>
+      <c r="D32" t="s">
+        <v>838</v>
       </c>
       <c r="E32" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -5411,21 +5886,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
-        <v>537</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>903</v>
+        <v>613</v>
+      </c>
+      <c r="D33" t="s">
+        <v>839</v>
       </c>
       <c r="E33" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -5437,21 +5912,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
-        <v>538</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>904</v>
+        <v>614</v>
+      </c>
+      <c r="D34" t="s">
+        <v>840</v>
       </c>
       <c r="E34" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -5463,21 +5938,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C35" t="s">
-        <v>539</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>905</v>
+        <v>615</v>
+      </c>
+      <c r="D35" t="s">
+        <v>841</v>
       </c>
       <c r="E35" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -5489,21 +5964,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C36" t="s">
-        <v>540</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>906</v>
+        <v>616</v>
+      </c>
+      <c r="D36" t="s">
+        <v>842</v>
       </c>
       <c r="E36" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -5515,21 +5990,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="C37" t="s">
-        <v>541</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>907</v>
+        <v>617</v>
+      </c>
+      <c r="D37" t="s">
+        <v>843</v>
       </c>
       <c r="E37" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -5541,21 +6016,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
-        <v>542</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>908</v>
+        <v>618</v>
+      </c>
+      <c r="D38" t="s">
+        <v>844</v>
       </c>
       <c r="E38" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -5567,21 +6042,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>543</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>909</v>
+        <v>619</v>
+      </c>
+      <c r="D39" t="s">
+        <v>845</v>
       </c>
       <c r="E39" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -5593,21 +6068,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>544</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>910</v>
+        <v>620</v>
+      </c>
+      <c r="D40" t="s">
+        <v>846</v>
       </c>
       <c r="E40" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -5619,21 +6094,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>545</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>911</v>
+        <v>621</v>
+      </c>
+      <c r="D41" t="s">
+        <v>847</v>
       </c>
       <c r="E41" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -5645,21 +6120,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="C42" t="s">
-        <v>546</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>912</v>
+        <v>622</v>
+      </c>
+      <c r="D42" t="s">
+        <v>848</v>
       </c>
       <c r="E42" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -5671,21 +6146,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C43" t="s">
-        <v>547</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>913</v>
+        <v>623</v>
+      </c>
+      <c r="D43" t="s">
+        <v>849</v>
       </c>
       <c r="E43" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -5697,21 +6172,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C44" t="s">
-        <v>548</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>914</v>
+        <v>624</v>
+      </c>
+      <c r="D44" t="s">
+        <v>850</v>
       </c>
       <c r="E44" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -5723,21 +6198,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="C45" t="s">
-        <v>549</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>916</v>
+        <v>625</v>
+      </c>
+      <c r="D45" t="s">
+        <v>851</v>
       </c>
       <c r="E45" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -5749,21 +6224,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
-        <v>550</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>915</v>
+        <v>626</v>
+      </c>
+      <c r="D46" t="s">
+        <v>852</v>
       </c>
       <c r="E46" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -5775,21 +6250,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
-        <v>551</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>917</v>
+        <v>627</v>
+      </c>
+      <c r="D47" t="s">
+        <v>853</v>
       </c>
       <c r="E47" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -5801,21 +6276,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C48" t="s">
-        <v>552</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>918</v>
+        <v>628</v>
+      </c>
+      <c r="D48" t="s">
+        <v>854</v>
       </c>
       <c r="E48" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -5827,21 +6302,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C49" t="s">
-        <v>553</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>919</v>
+        <v>629</v>
+      </c>
+      <c r="D49" t="s">
+        <v>855</v>
       </c>
       <c r="E49" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -5853,21 +6328,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="C50" t="s">
-        <v>554</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>920</v>
+        <v>630</v>
+      </c>
+      <c r="D50" t="s">
+        <v>856</v>
       </c>
       <c r="E50" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -5879,21 +6354,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s">
-        <v>555</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>921</v>
+        <v>631</v>
+      </c>
+      <c r="D51" t="s">
+        <v>857</v>
       </c>
       <c r="E51" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -5905,21 +6380,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C52" t="s">
-        <v>556</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>922</v>
+        <v>632</v>
+      </c>
+      <c r="D52" t="s">
+        <v>858</v>
       </c>
       <c r="E52" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -5931,18 +6406,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="C53" t="s">
-        <v>557</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>923</v>
+        <v>633</v>
+      </c>
+      <c r="D53" t="s">
+        <v>859</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -5954,21 +6429,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="C54" t="s">
-        <v>558</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>925</v>
+        <v>634</v>
+      </c>
+      <c r="D54" t="s">
+        <v>860</v>
       </c>
       <c r="E54" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -5980,21 +6455,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="C55" t="s">
-        <v>559</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>924</v>
+        <v>635</v>
+      </c>
+      <c r="D55" t="s">
+        <v>861</v>
       </c>
       <c r="E55" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -6006,21 +6481,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="C56" t="s">
-        <v>560</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>926</v>
+        <v>636</v>
+      </c>
+      <c r="D56" t="s">
+        <v>862</v>
       </c>
       <c r="E56" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -6032,21 +6507,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C57" t="s">
-        <v>561</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>927</v>
+        <v>637</v>
+      </c>
+      <c r="D57" t="s">
+        <v>863</v>
       </c>
       <c r="E57" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -6058,21 +6533,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="C58" t="s">
-        <v>562</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>928</v>
+        <v>638</v>
+      </c>
+      <c r="D58" t="s">
+        <v>864</v>
       </c>
       <c r="E58" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -6084,21 +6559,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>563</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>929</v>
+        <v>639</v>
+      </c>
+      <c r="D59" t="s">
+        <v>865</v>
       </c>
       <c r="E59" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -6110,21 +6585,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="C60" t="s">
-        <v>564</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>930</v>
+        <v>640</v>
+      </c>
+      <c r="D60" t="s">
+        <v>866</v>
       </c>
       <c r="E60" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -6136,21 +6611,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="C61" t="s">
-        <v>565</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>931</v>
+        <v>641</v>
+      </c>
+      <c r="D61" t="s">
+        <v>867</v>
       </c>
       <c r="E61" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -6162,21 +6637,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="C62" t="s">
-        <v>566</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>932</v>
+        <v>642</v>
+      </c>
+      <c r="D62" t="s">
+        <v>868</v>
       </c>
       <c r="E62" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -6188,21 +6663,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="C63" t="s">
-        <v>567</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>933</v>
+        <v>643</v>
+      </c>
+      <c r="D63" t="s">
+        <v>869</v>
       </c>
       <c r="E63" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -6214,21 +6689,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="C64" t="s">
-        <v>568</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>934</v>
+        <v>644</v>
+      </c>
+      <c r="D64" t="s">
+        <v>870</v>
       </c>
       <c r="E64" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -6240,21 +6715,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="C65" t="s">
-        <v>569</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>935</v>
+        <v>645</v>
+      </c>
+      <c r="D65" t="s">
+        <v>871</v>
       </c>
       <c r="E65" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -6266,21 +6741,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C66" t="s">
-        <v>570</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>936</v>
+        <v>646</v>
+      </c>
+      <c r="D66" t="s">
+        <v>872</v>
       </c>
       <c r="E66" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -6292,21 +6767,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C67" t="s">
-        <v>568</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>937</v>
+        <v>644</v>
+      </c>
+      <c r="D67" t="s">
+        <v>873</v>
       </c>
       <c r="E67" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -6318,21 +6793,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="C68" t="s">
-        <v>571</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>938</v>
+        <v>647</v>
+      </c>
+      <c r="D68" t="s">
+        <v>874</v>
       </c>
       <c r="E68" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -6344,21 +6819,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C69" t="s">
-        <v>572</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>939</v>
+        <v>648</v>
+      </c>
+      <c r="D69" t="s">
+        <v>875</v>
       </c>
       <c r="E69" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -6370,21 +6845,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="C70" t="s">
-        <v>573</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>940</v>
+        <v>649</v>
+      </c>
+      <c r="D70" t="s">
+        <v>876</v>
       </c>
       <c r="E70" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -6396,21 +6871,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="C71" t="s">
-        <v>574</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>941</v>
+        <v>650</v>
+      </c>
+      <c r="D71" t="s">
+        <v>877</v>
       </c>
       <c r="E71" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -6422,21 +6897,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C72" t="s">
-        <v>575</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>942</v>
+        <v>651</v>
+      </c>
+      <c r="D72" t="s">
+        <v>878</v>
       </c>
       <c r="E72" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -6448,21 +6923,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C73" t="s">
-        <v>576</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>943</v>
+        <v>652</v>
+      </c>
+      <c r="D73" t="s">
+        <v>879</v>
       </c>
       <c r="E73" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -6474,21 +6949,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C74" t="s">
-        <v>577</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>944</v>
+        <v>653</v>
+      </c>
+      <c r="D74" t="s">
+        <v>880</v>
       </c>
       <c r="E74" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -6500,21 +6975,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s">
-        <v>578</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>945</v>
+        <v>654</v>
+      </c>
+      <c r="D75" t="s">
+        <v>881</v>
       </c>
       <c r="E75" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -6526,21 +7001,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C76" t="s">
-        <v>579</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>946</v>
+        <v>655</v>
+      </c>
+      <c r="D76" t="s">
+        <v>882</v>
       </c>
       <c r="E76" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -6552,21 +7027,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="C77" t="s">
-        <v>580</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>947</v>
+        <v>656</v>
+      </c>
+      <c r="D77" t="s">
+        <v>883</v>
       </c>
       <c r="E77" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -6578,21 +7053,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C78" t="s">
-        <v>581</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>948</v>
+        <v>657</v>
+      </c>
+      <c r="D78" t="s">
+        <v>884</v>
       </c>
       <c r="E78" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -6604,21 +7079,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="C79" t="s">
-        <v>582</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>949</v>
+        <v>658</v>
+      </c>
+      <c r="D79" t="s">
+        <v>885</v>
       </c>
       <c r="E79" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -6630,21 +7105,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C80" t="s">
-        <v>583</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>950</v>
+        <v>659</v>
+      </c>
+      <c r="D80" t="s">
+        <v>886</v>
       </c>
       <c r="E80" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -6656,18 +7131,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="C81" t="s">
-        <v>584</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>958</v>
+        <v>660</v>
+      </c>
+      <c r="D81" t="s">
+        <v>887</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -6679,18 +7154,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="C82" t="s">
-        <v>584</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>959</v>
+        <v>660</v>
+      </c>
+      <c r="D82" t="s">
+        <v>888</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -6702,21 +7177,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C83" t="s">
-        <v>584</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>960</v>
+        <v>660</v>
+      </c>
+      <c r="D83" t="s">
+        <v>889</v>
       </c>
       <c r="E83" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -6728,21 +7203,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="C84" t="s">
-        <v>585</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>957</v>
+        <v>661</v>
+      </c>
+      <c r="D84" t="s">
+        <v>890</v>
       </c>
       <c r="E84" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -6754,21 +7229,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="C85" t="s">
-        <v>586</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>956</v>
+        <v>662</v>
+      </c>
+      <c r="D85" t="s">
+        <v>891</v>
       </c>
       <c r="E85" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -6780,21 +7255,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="C86" t="s">
-        <v>587</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>955</v>
+        <v>663</v>
+      </c>
+      <c r="D86" t="s">
+        <v>892</v>
       </c>
       <c r="E86" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -6806,21 +7281,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="C87" t="s">
-        <v>588</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>954</v>
+        <v>664</v>
+      </c>
+      <c r="D87" t="s">
+        <v>893</v>
       </c>
       <c r="E87" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -6832,21 +7307,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="C88" t="s">
-        <v>589</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>953</v>
+        <v>665</v>
+      </c>
+      <c r="D88" t="s">
+        <v>894</v>
       </c>
       <c r="E88" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -6858,21 +7333,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="C89" t="s">
-        <v>590</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>952</v>
+        <v>666</v>
+      </c>
+      <c r="D89" t="s">
+        <v>895</v>
       </c>
       <c r="E89" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -6884,21 +7359,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C90" t="s">
-        <v>591</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>951</v>
+        <v>667</v>
+      </c>
+      <c r="D90" t="s">
+        <v>896</v>
       </c>
       <c r="E90" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -6910,21 +7385,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="C91" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="D91" t="s">
-        <v>704</v>
+        <v>897</v>
       </c>
       <c r="E91" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -6936,21 +7411,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C92" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="D92" t="s">
-        <v>705</v>
+        <v>898</v>
       </c>
       <c r="E92" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -6962,21 +7437,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="C93" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="D93" t="s">
-        <v>706</v>
+        <v>899</v>
       </c>
       <c r="E93" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -6988,21 +7463,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="C94" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="D94" t="s">
-        <v>707</v>
+        <v>900</v>
       </c>
       <c r="E94" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -7014,21 +7489,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="C95" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="D95" t="s">
-        <v>708</v>
+        <v>901</v>
       </c>
       <c r="E95" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -7040,21 +7515,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C96" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="D96" t="s">
-        <v>709</v>
+        <v>902</v>
       </c>
       <c r="E96" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -7066,21 +7541,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C97" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="D97" t="s">
-        <v>710</v>
+        <v>903</v>
       </c>
       <c r="E97" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -7092,21 +7567,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="C98" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="D98" t="s">
-        <v>711</v>
+        <v>904</v>
       </c>
       <c r="E98" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -7118,21 +7593,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="C99" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="D99" t="s">
-        <v>712</v>
+        <v>905</v>
       </c>
       <c r="E99" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -7144,21 +7619,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s">
-        <v>601</v>
+        <v>677</v>
       </c>
       <c r="D100" t="s">
-        <v>713</v>
+        <v>906</v>
       </c>
       <c r="E100" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -7170,41 +7645,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="C101" t="s">
-        <v>602</v>
+        <v>678</v>
       </c>
       <c r="D101" t="s">
-        <v>714</v>
+        <v>907</v>
       </c>
       <c r="E101" t="s">
-        <v>865</v>
+        <v>1096</v>
       </c>
       <c r="F101">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="D102" t="s">
-        <v>715</v>
+        <v>908</v>
       </c>
       <c r="E102" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -7216,21 +7691,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="D103" t="s">
-        <v>716</v>
+        <v>909</v>
       </c>
       <c r="E103" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -7242,21 +7717,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="C104" t="s">
-        <v>605</v>
+        <v>681</v>
       </c>
       <c r="D104" t="s">
-        <v>717</v>
+        <v>910</v>
       </c>
       <c r="E104" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -7268,21 +7743,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
-        <v>606</v>
+        <v>682</v>
       </c>
       <c r="D105" t="s">
-        <v>718</v>
+        <v>911</v>
       </c>
       <c r="E105" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -7294,21 +7769,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="D106" t="s">
-        <v>719</v>
+        <v>912</v>
       </c>
       <c r="E106" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -7320,21 +7795,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
-        <v>607</v>
+        <v>683</v>
       </c>
       <c r="D107" t="s">
-        <v>720</v>
+        <v>913</v>
       </c>
       <c r="E107" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -7346,61 +7821,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C108" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="D108" t="s">
-        <v>721</v>
+        <v>914</v>
       </c>
       <c r="E108" t="s">
-        <v>865</v>
+        <v>1096</v>
       </c>
       <c r="F108">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="D109" t="s">
-        <v>722</v>
+        <v>915</v>
       </c>
       <c r="E109" t="s">
-        <v>865</v>
+        <v>1096</v>
       </c>
       <c r="F109">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="D110" t="s">
-        <v>723</v>
+        <v>916</v>
       </c>
       <c r="E110" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -7412,21 +7887,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="D111" t="s">
-        <v>724</v>
+        <v>917</v>
       </c>
       <c r="E111" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -7438,21 +7913,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="C112" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="D112" t="s">
-        <v>725</v>
+        <v>918</v>
       </c>
       <c r="E112" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -7464,21 +7939,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="C113" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="D113" t="s">
-        <v>726</v>
+        <v>919</v>
       </c>
       <c r="E113" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -7490,21 +7965,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="D114" t="s">
-        <v>727</v>
+        <v>920</v>
       </c>
       <c r="E114" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -7516,21 +7991,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C115" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="D115" t="s">
-        <v>728</v>
+        <v>921</v>
       </c>
       <c r="E115" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -7542,41 +8017,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="C116" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="D116" t="s">
-        <v>729</v>
+        <v>922</v>
       </c>
       <c r="E116" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C117" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="D117" t="s">
-        <v>730</v>
+        <v>923</v>
       </c>
       <c r="E117" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -7588,41 +8063,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="D118" t="s">
-        <v>731</v>
+        <v>924</v>
       </c>
       <c r="E118" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="D119" t="s">
-        <v>732</v>
+        <v>925</v>
       </c>
       <c r="E119" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -7634,21 +8109,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="C120" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="D120" t="s">
-        <v>733</v>
+        <v>926</v>
       </c>
       <c r="E120" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -7660,41 +8135,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="C121" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="D121" t="s">
-        <v>734</v>
+        <v>927</v>
       </c>
       <c r="E121" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="C122" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="D122" t="s">
-        <v>735</v>
+        <v>928</v>
       </c>
       <c r="E122" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -7706,18 +8181,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="C123" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="D123" t="s">
-        <v>736</v>
+        <v>929</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -7726,61 +8201,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="C124" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="D124" t="s">
-        <v>737</v>
+        <v>930</v>
       </c>
       <c r="E124" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="C125" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="D125" t="s">
-        <v>738</v>
+        <v>931</v>
       </c>
       <c r="E125" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C126" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="D126" t="s">
-        <v>739</v>
+        <v>932</v>
       </c>
       <c r="E126" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -7792,35 +8267,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="C127" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="D127" t="s">
-        <v>740</v>
+        <v>933</v>
       </c>
       <c r="E127" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C128" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="D128" t="s">
-        <v>741</v>
+        <v>934</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -7829,21 +8304,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="C129" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="D129" t="s">
-        <v>742</v>
+        <v>935</v>
       </c>
       <c r="E129" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -7855,55 +8330,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C130" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="D130" t="s">
-        <v>743</v>
+        <v>936</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="C131" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="D131" t="s">
-        <v>744</v>
+        <v>937</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="C132" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="D132" t="s">
-        <v>745</v>
+        <v>938</v>
       </c>
       <c r="E132" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -7915,21 +8390,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="C133" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="D133" t="s">
-        <v>746</v>
+        <v>939</v>
       </c>
       <c r="E133" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -7941,61 +8416,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="C134" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="D134" t="s">
-        <v>747</v>
+        <v>940</v>
       </c>
       <c r="E134" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="H134">
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C135" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="D135" t="s">
-        <v>748</v>
+        <v>941</v>
       </c>
       <c r="E135" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="C136" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="D136" t="s">
-        <v>749</v>
+        <v>942</v>
       </c>
       <c r="E136" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -8007,21 +8482,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="C137" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="D137" t="s">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="E137" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -8033,21 +8508,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="C138" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="D138" t="s">
-        <v>751</v>
+        <v>944</v>
       </c>
       <c r="E138" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -8059,21 +8534,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="C139" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="D139" t="s">
-        <v>752</v>
+        <v>945</v>
       </c>
       <c r="E139" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -8085,61 +8560,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="C140" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="D140" t="s">
-        <v>753</v>
+        <v>946</v>
       </c>
       <c r="E140" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="H140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="C141" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="D141" t="s">
-        <v>754</v>
+        <v>947</v>
       </c>
       <c r="E141" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="C142" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="D142" t="s">
-        <v>755</v>
+        <v>948</v>
       </c>
       <c r="E142" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -8151,21 +8626,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="C143" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="D143" t="s">
-        <v>756</v>
+        <v>949</v>
       </c>
       <c r="E143" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -8177,61 +8652,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="C144" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="D144" t="s">
-        <v>757</v>
+        <v>950</v>
       </c>
       <c r="E144" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="H144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="C145" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="D145" t="s">
-        <v>758</v>
+        <v>951</v>
       </c>
       <c r="E145" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="C146" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="D146" t="s">
-        <v>759</v>
+        <v>952</v>
       </c>
       <c r="E146" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -8243,21 +8718,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="C147" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="D147" t="s">
-        <v>760</v>
+        <v>953</v>
       </c>
       <c r="E147" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -8269,21 +8744,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="C148" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="D148" t="s">
-        <v>761</v>
+        <v>954</v>
       </c>
       <c r="E148" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -8295,61 +8770,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="C149" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="D149" t="s">
-        <v>762</v>
+        <v>955</v>
       </c>
       <c r="E149" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="H149">
         <v>0.75</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="C150" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="D150" t="s">
-        <v>763</v>
+        <v>956</v>
       </c>
       <c r="E150" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="C151" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="D151" t="s">
-        <v>764</v>
+        <v>957</v>
       </c>
       <c r="E151" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -8361,21 +8836,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="C152" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="D152" t="s">
-        <v>765</v>
+        <v>958</v>
       </c>
       <c r="E152" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -8387,35 +8862,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="D153" t="s">
-        <v>766</v>
+        <v>959</v>
       </c>
       <c r="E153" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="D154" t="s">
-        <v>767</v>
+        <v>960</v>
       </c>
       <c r="E154" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -8427,100 +8902,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="D155" t="s">
-        <v>768</v>
+        <v>961</v>
       </c>
       <c r="E155" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="D156" t="s">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="E156" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="C157" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="D157" t="s">
-        <v>770</v>
+        <v>963</v>
       </c>
       <c r="G157">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="C158" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="D158" t="s">
-        <v>771</v>
+        <v>964</v>
       </c>
       <c r="E158" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="D159" t="s">
-        <v>772</v>
+        <v>965</v>
       </c>
       <c r="E159" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="C160" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="D160" t="s">
-        <v>773</v>
+        <v>966</v>
       </c>
       <c r="E160" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -8529,55 +9004,55 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="C161" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="D161" t="s">
-        <v>774</v>
+        <v>967</v>
       </c>
       <c r="E161" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="C162" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="D162" t="s">
-        <v>775</v>
+        <v>968</v>
       </c>
       <c r="E162" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="C163" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="D163" t="s">
-        <v>776</v>
+        <v>969</v>
       </c>
       <c r="E163" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -8586,21 +9061,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="C164" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="D164" t="s">
-        <v>777</v>
+        <v>970</v>
       </c>
       <c r="E164" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -8609,49 +9084,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="D165" t="s">
-        <v>778</v>
+        <v>971</v>
       </c>
       <c r="E165" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="D166" t="s">
-        <v>779</v>
+        <v>972</v>
       </c>
       <c r="E166" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="C167" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="D167" t="s">
-        <v>780</v>
+        <v>973</v>
       </c>
       <c r="E167" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -8660,55 +9135,55 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="C168" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="D168" t="s">
-        <v>781</v>
+        <v>974</v>
       </c>
       <c r="E168" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="C169" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="D169" t="s">
-        <v>782</v>
+        <v>975</v>
       </c>
       <c r="E169" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="C170" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="D170" t="s">
-        <v>783</v>
+        <v>976</v>
       </c>
       <c r="E170" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -8720,21 +9195,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="C171" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="D171" t="s">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="E171" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -8746,21 +9221,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="C172" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="D172" t="s">
-        <v>785</v>
+        <v>978</v>
       </c>
       <c r="E172" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -8772,174 +9247,174 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="C173" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="D173" t="s">
-        <v>786</v>
+        <v>979</v>
       </c>
       <c r="E173" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="C174" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="D174" t="s">
-        <v>787</v>
+        <v>980</v>
       </c>
       <c r="E174" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="C175" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="D175" t="s">
-        <v>788</v>
+        <v>981</v>
       </c>
       <c r="E175" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="C176" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="D176" t="s">
-        <v>789</v>
+        <v>982</v>
       </c>
       <c r="E176" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="C177" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="D177" t="s">
-        <v>790</v>
+        <v>983</v>
       </c>
       <c r="E177" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="C178" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="D178" t="s">
-        <v>791</v>
+        <v>984</v>
       </c>
       <c r="E178" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="C179" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="D179" t="s">
-        <v>792</v>
+        <v>985</v>
       </c>
       <c r="E179" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="C180" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="D180" t="s">
-        <v>793</v>
+        <v>986</v>
       </c>
       <c r="E180" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="C181" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
       <c r="D181" t="s">
-        <v>794</v>
+        <v>987</v>
       </c>
       <c r="E181" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="C182" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="D182" t="s">
-        <v>795</v>
+        <v>988</v>
       </c>
       <c r="E182" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8951,21 +9426,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="C183" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="D183" t="s">
-        <v>796</v>
+        <v>989</v>
       </c>
       <c r="E183" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -8977,21 +9452,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="C184" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="D184" t="s">
-        <v>797</v>
+        <v>990</v>
       </c>
       <c r="E184" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -9003,21 +9478,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="C185" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="D185" t="s">
-        <v>798</v>
+        <v>991</v>
       </c>
       <c r="E185" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -9029,21 +9504,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="C186" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="D186" t="s">
-        <v>799</v>
+        <v>992</v>
       </c>
       <c r="E186" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -9055,72 +9530,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="C187" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="D187" t="s">
-        <v>800</v>
+        <v>993</v>
       </c>
       <c r="E187" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="C188" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="D188" t="s">
-        <v>801</v>
+        <v>994</v>
       </c>
       <c r="E188" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="D189" t="s">
-        <v>802</v>
+        <v>995</v>
       </c>
       <c r="E189" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="C190" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="D190" t="s">
-        <v>803</v>
+        <v>996</v>
       </c>
       <c r="E190" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -9132,21 +9607,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="C191" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="D191" t="s">
-        <v>804</v>
+        <v>997</v>
       </c>
       <c r="E191" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -9158,21 +9633,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="C192" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="D192" t="s">
-        <v>805</v>
+        <v>998</v>
       </c>
       <c r="E192" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -9184,89 +9659,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="C193" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="D193" t="s">
-        <v>806</v>
+        <v>999</v>
       </c>
       <c r="E193" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="C194" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="D194" t="s">
-        <v>807</v>
+        <v>1000</v>
       </c>
       <c r="E194" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="C195" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="D195" t="s">
-        <v>808</v>
+        <v>1001</v>
       </c>
       <c r="E195" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="C196" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="D196" t="s">
-        <v>809</v>
+        <v>1002</v>
       </c>
       <c r="E196" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="C197" t="s">
-        <v>672</v>
+        <v>748</v>
       </c>
       <c r="D197" t="s">
-        <v>810</v>
+        <v>1003</v>
       </c>
       <c r="E197" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -9278,21 +9753,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="C198" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="D198" t="s">
-        <v>811</v>
+        <v>1004</v>
       </c>
       <c r="E198" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -9304,21 +9779,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="C199" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="D199" t="s">
-        <v>812</v>
+        <v>1005</v>
       </c>
       <c r="E199" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -9330,63 +9805,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="D200" t="s">
-        <v>813</v>
+        <v>1006</v>
       </c>
       <c r="E200" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="D201" t="s">
-        <v>814</v>
+        <v>1007</v>
       </c>
       <c r="E201" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="D202" t="s">
-        <v>815</v>
+        <v>1008</v>
       </c>
       <c r="E202" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="C203" t="s">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="D203" t="s">
-        <v>816</v>
+        <v>1009</v>
       </c>
       <c r="E203" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -9398,21 +9873,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="C204" t="s">
-        <v>676</v>
+        <v>752</v>
       </c>
       <c r="D204" t="s">
-        <v>817</v>
+        <v>1010</v>
       </c>
       <c r="E204" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -9424,21 +9899,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="C205" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="D205" t="s">
-        <v>818</v>
+        <v>1011</v>
       </c>
       <c r="E205" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -9450,49 +9925,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="D206" t="s">
-        <v>819</v>
+        <v>1012</v>
       </c>
       <c r="E206" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="D207" t="s">
-        <v>820</v>
+        <v>1013</v>
       </c>
       <c r="E207" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="C208" t="s">
-        <v>678</v>
+        <v>754</v>
       </c>
       <c r="D208" t="s">
-        <v>821</v>
+        <v>1014</v>
       </c>
       <c r="E208" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F208">
         <v>14</v>
@@ -9504,21 +9979,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="C209" t="s">
-        <v>679</v>
+        <v>755</v>
       </c>
       <c r="D209" t="s">
-        <v>822</v>
+        <v>1015</v>
       </c>
       <c r="E209" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F209">
         <v>15</v>
@@ -9530,21 +10005,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="C210" t="s">
-        <v>680</v>
+        <v>756</v>
       </c>
       <c r="D210" t="s">
-        <v>823</v>
+        <v>1016</v>
       </c>
       <c r="E210" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F210">
         <v>16</v>
@@ -9556,63 +10031,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>466</v>
+        <v>504</v>
       </c>
       <c r="D211" t="s">
-        <v>824</v>
+        <v>1017</v>
       </c>
       <c r="E211" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="D212" t="s">
-        <v>825</v>
+        <v>1018</v>
       </c>
       <c r="E212" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="D213" t="s">
-        <v>826</v>
+        <v>1019</v>
       </c>
       <c r="E213" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="C214" t="s">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="D214" t="s">
-        <v>827</v>
+        <v>1020</v>
       </c>
       <c r="E214" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F214">
         <v>17</v>
@@ -9624,35 +10099,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="C215" t="s">
-        <v>682</v>
+        <v>758</v>
       </c>
       <c r="D215" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="C216" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="D216" t="s">
-        <v>829</v>
+        <v>1022</v>
       </c>
       <c r="E216" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F216">
         <v>18</v>
@@ -9664,63 +10139,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="D217" t="s">
-        <v>830</v>
+        <v>1023</v>
       </c>
       <c r="E217" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="D218" t="s">
-        <v>831</v>
+        <v>1024</v>
       </c>
       <c r="E218" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="D219" t="s">
-        <v>832</v>
+        <v>1025</v>
       </c>
       <c r="E219" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="C220" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="D220" t="s">
-        <v>833</v>
+        <v>1026</v>
       </c>
       <c r="E220" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -9732,21 +10207,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="C221" t="s">
-        <v>685</v>
+        <v>761</v>
       </c>
       <c r="D221" t="s">
-        <v>834</v>
+        <v>1027</v>
       </c>
       <c r="E221" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F221">
         <v>20</v>
@@ -9758,21 +10233,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="C222" t="s">
-        <v>686</v>
+        <v>762</v>
       </c>
       <c r="D222" t="s">
-        <v>835</v>
+        <v>1028</v>
       </c>
       <c r="E222" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F222">
         <v>21</v>
@@ -9784,49 +10259,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="D223" t="s">
-        <v>836</v>
+        <v>1029</v>
       </c>
       <c r="E223" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="D224" t="s">
-        <v>837</v>
+        <v>1030</v>
       </c>
       <c r="E224" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="C225" t="s">
-        <v>687</v>
+        <v>763</v>
       </c>
       <c r="D225" t="s">
-        <v>838</v>
+        <v>1031</v>
       </c>
       <c r="E225" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F225">
         <v>22</v>
@@ -9838,21 +10313,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="C226" t="s">
-        <v>688</v>
+        <v>764</v>
       </c>
       <c r="D226" t="s">
-        <v>839</v>
+        <v>1032</v>
       </c>
       <c r="E226" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F226">
         <v>23</v>
@@ -9864,21 +10339,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>233</v>
       </c>
       <c r="B227" t="s">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C227" t="s">
-        <v>689</v>
+        <v>765</v>
       </c>
       <c r="D227" t="s">
-        <v>840</v>
+        <v>1033</v>
       </c>
       <c r="E227" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F227">
         <v>24</v>
@@ -9890,49 +10365,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>234</v>
       </c>
       <c r="B228" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="D228" t="s">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="E228" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="D229" t="s">
-        <v>842</v>
+        <v>1035</v>
       </c>
       <c r="E229" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="C230" t="s">
-        <v>690</v>
+        <v>766</v>
       </c>
       <c r="D230" t="s">
-        <v>843</v>
+        <v>1036</v>
       </c>
       <c r="E230" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F230">
         <v>25</v>
@@ -9944,21 +10419,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="C231" t="s">
-        <v>691</v>
+        <v>767</v>
       </c>
       <c r="D231" t="s">
-        <v>844</v>
+        <v>1037</v>
       </c>
       <c r="E231" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F231">
         <v>26</v>
@@ -9970,49 +10445,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="D232" t="s">
-        <v>845</v>
+        <v>1038</v>
       </c>
       <c r="E232" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="D233" t="s">
-        <v>846</v>
+        <v>1039</v>
       </c>
       <c r="E233" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="C234" t="s">
-        <v>692</v>
+        <v>768</v>
       </c>
       <c r="D234" t="s">
-        <v>847</v>
+        <v>1040</v>
       </c>
       <c r="E234" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F234">
         <v>27</v>
@@ -10024,21 +10499,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>241</v>
       </c>
       <c r="B235" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="C235" t="s">
-        <v>693</v>
+        <v>769</v>
       </c>
       <c r="D235" t="s">
-        <v>848</v>
+        <v>1041</v>
       </c>
       <c r="E235" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F235">
         <v>28</v>
@@ -10050,21 +10525,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="C236" t="s">
-        <v>694</v>
+        <v>770</v>
       </c>
       <c r="D236" t="s">
-        <v>849</v>
+        <v>1042</v>
       </c>
       <c r="E236" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F236">
         <v>29</v>
@@ -10076,35 +10551,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>243</v>
       </c>
       <c r="B237" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="D237" t="s">
-        <v>850</v>
+        <v>1043</v>
       </c>
       <c r="E237" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>244</v>
       </c>
       <c r="B238" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="C238" t="s">
-        <v>695</v>
+        <v>771</v>
       </c>
       <c r="D238" t="s">
-        <v>851</v>
+        <v>1044</v>
       </c>
       <c r="E238" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F238">
         <v>30</v>
@@ -10116,60 +10591,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="C239" t="s">
-        <v>696</v>
+        <v>772</v>
       </c>
       <c r="D239" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="D240" t="s">
-        <v>853</v>
+        <v>1046</v>
       </c>
       <c r="E240" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>247</v>
       </c>
       <c r="B241" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="D241" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>248</v>
       </c>
       <c r="B242" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="C242" t="s">
-        <v>697</v>
+        <v>773</v>
       </c>
       <c r="D242" t="s">
-        <v>855</v>
+        <v>1048</v>
       </c>
       <c r="E242" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F242">
         <v>31</v>
@@ -10181,21 +10656,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="C243" t="s">
-        <v>698</v>
+        <v>774</v>
       </c>
       <c r="D243" t="s">
-        <v>856</v>
+        <v>1049</v>
       </c>
       <c r="E243" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -10207,21 +10682,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>250</v>
       </c>
       <c r="B244" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="C244" t="s">
-        <v>699</v>
+        <v>775</v>
       </c>
       <c r="D244" t="s">
-        <v>857</v>
+        <v>1050</v>
       </c>
       <c r="E244" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F244">
         <v>33</v>
@@ -10233,35 +10708,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>251</v>
       </c>
       <c r="B245" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="D245" t="s">
-        <v>858</v>
+        <v>1051</v>
       </c>
       <c r="E245" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>252</v>
       </c>
       <c r="B246" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="C246" t="s">
-        <v>700</v>
+        <v>776</v>
       </c>
       <c r="D246" t="s">
-        <v>859</v>
+        <v>1052</v>
       </c>
       <c r="E246" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F246">
         <v>34</v>
@@ -10273,21 +10748,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="C247" t="s">
-        <v>701</v>
+        <v>777</v>
       </c>
       <c r="D247" t="s">
-        <v>860</v>
+        <v>1053</v>
       </c>
       <c r="E247" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F247">
         <v>35</v>
@@ -10299,21 +10774,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>254</v>
       </c>
       <c r="B248" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="C248" t="s">
-        <v>702</v>
+        <v>778</v>
       </c>
       <c r="D248" t="s">
-        <v>861</v>
+        <v>1054</v>
       </c>
       <c r="E248" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
       <c r="F248">
         <v>36</v>
@@ -10325,35 +10800,654 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>255</v>
       </c>
       <c r="B249" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="D249" t="s">
-        <v>862</v>
+        <v>1055</v>
       </c>
       <c r="E249" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>256</v>
       </c>
       <c r="B250" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="C250" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="D250" t="s">
-        <v>863</v>
+        <v>1056</v>
       </c>
       <c r="E250" t="s">
-        <v>871</v>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>257</v>
+      </c>
+      <c r="B251" t="s">
+        <v>544</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>258</v>
+      </c>
+      <c r="B252" t="s">
+        <v>545</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>259</v>
+      </c>
+      <c r="B253" t="s">
+        <v>546</v>
+      </c>
+      <c r="C253" t="s">
+        <v>780</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>260</v>
+      </c>
+      <c r="B254" t="s">
+        <v>547</v>
+      </c>
+      <c r="C254" t="s">
+        <v>781</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>261</v>
+      </c>
+      <c r="B255" t="s">
+        <v>548</v>
+      </c>
+      <c r="C255" t="s">
+        <v>782</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>262</v>
+      </c>
+      <c r="B256" t="s">
+        <v>549</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257" t="s">
+        <v>550</v>
+      </c>
+      <c r="C257" t="s">
+        <v>783</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>264</v>
+      </c>
+      <c r="B258" t="s">
+        <v>551</v>
+      </c>
+      <c r="C258" t="s">
+        <v>784</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>265</v>
+      </c>
+      <c r="B259" t="s">
+        <v>552</v>
+      </c>
+      <c r="C259" t="s">
+        <v>785</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>266</v>
+      </c>
+      <c r="B260" t="s">
+        <v>553</v>
+      </c>
+      <c r="C260" t="s">
+        <v>786</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>267</v>
+      </c>
+      <c r="B261" t="s">
+        <v>554</v>
+      </c>
+      <c r="C261" t="s">
+        <v>787</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>268</v>
+      </c>
+      <c r="B262" t="s">
+        <v>555</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>269</v>
+      </c>
+      <c r="B263" t="s">
+        <v>556</v>
+      </c>
+      <c r="C263" t="s">
+        <v>788</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264" t="s">
+        <v>557</v>
+      </c>
+      <c r="C264" t="s">
+        <v>789</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>271</v>
+      </c>
+      <c r="B265" t="s">
+        <v>558</v>
+      </c>
+      <c r="C265" t="s">
+        <v>788</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>272</v>
+      </c>
+      <c r="B266" t="s">
+        <v>559</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>273</v>
+      </c>
+      <c r="B267" t="s">
+        <v>560</v>
+      </c>
+      <c r="C267" t="s">
+        <v>790</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268" t="s">
+        <v>561</v>
+      </c>
+      <c r="C268" t="s">
+        <v>791</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>275</v>
+      </c>
+      <c r="B269" t="s">
+        <v>562</v>
+      </c>
+      <c r="C269" t="s">
+        <v>792</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>276</v>
+      </c>
+      <c r="B270" t="s">
+        <v>563</v>
+      </c>
+      <c r="C270" t="s">
+        <v>793</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>277</v>
+      </c>
+      <c r="B271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C271" t="s">
+        <v>794</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>278</v>
+      </c>
+      <c r="B272" t="s">
+        <v>565</v>
+      </c>
+      <c r="C272" t="s">
+        <v>795</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273" t="s">
+        <v>566</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>280</v>
+      </c>
+      <c r="B274" t="s">
+        <v>567</v>
+      </c>
+      <c r="C274" t="s">
+        <v>796</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275" t="s">
+        <v>568</v>
+      </c>
+      <c r="C275" t="s">
+        <v>797</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276" t="s">
+        <v>569</v>
+      </c>
+      <c r="C276" t="s">
+        <v>798</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277" t="s">
+        <v>570</v>
+      </c>
+      <c r="C277" t="s">
+        <v>799</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" t="s">
+        <v>571</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279" t="s">
+        <v>572</v>
+      </c>
+      <c r="C279" t="s">
+        <v>800</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280" t="s">
+        <v>573</v>
+      </c>
+      <c r="C280" t="s">
+        <v>801</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>287</v>
+      </c>
+      <c r="B281" t="s">
+        <v>574</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282" t="s">
+        <v>575</v>
+      </c>
+      <c r="C282" t="s">
+        <v>802</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>289</v>
+      </c>
+      <c r="B283" t="s">
+        <v>576</v>
+      </c>
+      <c r="C283" t="s">
+        <v>803</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284" t="s">
+        <v>577</v>
+      </c>
+      <c r="C284" t="s">
+        <v>804</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>291</v>
+      </c>
+      <c r="B285" t="s">
+        <v>578</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286" t="s">
+        <v>579</v>
+      </c>
+      <c r="C286" t="s">
+        <v>805</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>293</v>
+      </c>
+      <c r="B287" t="s">
+        <v>580</v>
+      </c>
+      <c r="C287" t="s">
+        <v>806</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" t="s">
+        <v>581</v>
+      </c>
+      <c r="C288" t="s">
+        <v>807</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8313209-6A12-42F6-8039-3084311171A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1980" yWindow="1950" windowWidth="18855" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1134">
   <si>
     <t>ephysFN</t>
   </si>
@@ -901,6 +907,30 @@
     <t>Beto-15062020-004</t>
   </si>
   <si>
+    <t>Beto-20072020-001</t>
+  </si>
+  <si>
+    <t>Beto-20072020-002</t>
+  </si>
+  <si>
+    <t>Beto-20072020-003</t>
+  </si>
+  <si>
+    <t>Beto-22072020-001</t>
+  </si>
+  <si>
+    <t>Beto-22072020-002</t>
+  </si>
+  <si>
+    <t>Beto-22072020-003</t>
+  </si>
+  <si>
+    <t>Beto-23072020-001</t>
+  </si>
+  <si>
+    <t>Beto-23072020-002</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1762,6 +1792,30 @@
     <t>200615_Beto_generate_integrated(4)</t>
   </si>
   <si>
+    <t>200720_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200720_Beto_generate_BigGAN(1)</t>
+  </si>
+  <si>
+    <t>200720_Beto_generate_integrated</t>
+  </si>
+  <si>
+    <t>200722_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200722_Beto_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>200722_Beto_generate_BigGAN(1)</t>
+  </si>
+  <si>
+    <t>200723_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200723_Beto_generate_BigGAN</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -2092,7 +2146,7 @@
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-23-Beto-01\2020-01-23-12-36-03</t>
   </si>
   <si>
-    <t xml:space="preserve">. </t>
+    <t>. </t>
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-01-27-Beto-01\2020-01-27-11-23-03</t>
@@ -2438,6 +2492,21 @@
   </si>
   <si>
     <t>N:\Stimuli\2019-12-Evolutions\2020-06-15-Beto-03\2020-06-15-11-26-32</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-20-Beto-01\2020-07-20-12-40-51</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Evolutions\2020-07-20-Beto-02\2020-07-20-12-58-55</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Beto-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Beto-02</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-23-Beto-01\2020-07-23-15-59-3</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen} 
@@ -3424,13 +3493,13 @@
 Blasting him, 300 ms, going to block 50 then calling it a day</t>
   </si>
   <si>
-    <t xml:space="preserve">Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
+    <t>Rf basic Start 11:11, 35 ms reward. New units in 41, rf looks weird tho Stopped at 11:17, 4 blocks complete </t>
+  </si>
+  <si>
+    <t>Generate integrate. Ch 5 hash (1/5) [-1.5, 1] 3 1; GA vs CMAES, bigset05 first 10 images Start at 11:23. Carlos recalibrated eye at block 2. working well 45 ms reward . Evolved images are climbing…..block 16, #1(black line) is top line Block 27: Black line is wayyy above the rest and still climbing. Reward at 50 at block 30,  Stopped at 12:04, 40 blocks completed </t>
+  </si>
+  <si>
+    <t>Generate integrated. Ch 20. hash 1/5. [-2, 1.5] 3 1. start at 12:06 Bigset20 first 10 images, reward at 90. starting to shake chair Upped to 130 reward. Added aq reward at block 16. 170 ms at block 20. Evolved images are climbing, both above natural now Hmm, nether really taking off yet. Block 28, 220+30 One image is more contrasting (white background, pink and dark colored object) Other image is more gray/pink and blended. monkey quitting. Experiment has enough blocks to call it completed, but we're really struggling to get the last few trials. Let's see if we make it to block 35.  </t>
   </si>
   <si>
     <t>001 RFMapper 11:02 AM starts 
@@ -4666,6 +4735,76 @@
 Almost there... he is about done. Interesting this image looks more brown/red than white. 32 com at 1148.</t>
   </si>
   <si>
+    <t>07/20/20. Chlorhexidine. In rig at 1218.
+Rf mapper start at 12:29.
+5 blocks complete stop at 1234. complete</t>
+  </si>
+  <si>
+    <t>Generate big gan. Start at 12:40.
+CH 20 (-0.5 1) 3 1 hash 
+CMAES
+'BigGAN_class'  
+truncnorm.random([1,128]) * 0.7
+Default CMAES parameters
+init_sigma = 0.06;
+% optim_norm = 0.7;
+At block 6, its making a black object (dog, bird, backpack)
+Block 10, still black object.
+Omg, it might actually be climbing at block 12. Block 17, def climbing! Still black object on white background. I am just going to let it go and see how long it climbs.
+Little shakes at 1250.
+Still climbing at block 27.
+41 blocks complete stop at 1256.  complete
+entered into Matlab (BigGan)</t>
+  </si>
+  <si>
+    <t>Same thing, same pics, just cmaes regular generate int in FC6
+Start at 1258.
+CH 20 (-0.5, 1) 3 1 CMAES, hash
+Block 6, dark reddish evolution, block 10, still dark reddish image, doesn’t really look like much. Possibly starting to climb around 12.
+Little nap at 108. Shakes at 112
+Still climbing at block 27. But still making a red colored object, not black. Block 34, looking a little dark/black. I think it is done climbing.
+Still going up at 39. Stop 42 block at 123.  complete
+entered into Matlab (BigGan)</t>
+  </si>
+  <si>
+    <t>Hp at 1001
+001 at 1003 AM. Looks like channel 5 today, su
+although RF looking sad...
+5 (-0.7,1) 2
+completed</t>
+  </si>
+  <si>
+    <t>002 at 1014 on 07/22/2020
+5 (-0.7, 1) 3 2 CMAES,
+fc6
+biggan
+Completed
+Entered into Matlab</t>
+  </si>
+  <si>
+    <t>Chan 2 at 11:00 on 07/22/2020
+5 (-0.7, 1) 6 2 (bigGAN, first set)
+5 (0,0) 6 2 (bigGAN, second set)
+We want to see if it will put the feature in the location of the RF
+End at 11:34
+Drank 350 ml
+Margins nice and clean
+completed</t>
+  </si>
+  <si>
+    <t>Hp at around 340 PM
+001 at 352 PM
+rf maping
+29 looking great at (-0.8,1)</t>
+  </si>
+  <si>
+    <t>002 at 359 PM
+29 (-0.8 1) 3 2 CMAES with both
+fc6 (1) 
+biggan_class (2)
+great psths so far</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -4691,13 +4830,16 @@
   </si>
   <si>
     <t>Seq_Evol</t>
+  </si>
+  <si>
+    <t>BigGAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4756,15 +4898,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4806,7 +4956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4838,9 +4988,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4872,6 +5040,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5047,14 +5233,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H288"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="G297" sqref="G297"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5080,21 +5273,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="D2" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="E2" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5106,21 +5299,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="D3" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="E3" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5132,21 +5325,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="E4" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -5158,21 +5351,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="D5" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="E5" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -5184,21 +5377,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="D6" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="E6" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -5210,21 +5403,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D7" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
       <c r="E7" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -5236,21 +5429,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="E8" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -5262,21 +5455,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="D9" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
       <c r="E9" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -5288,21 +5481,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="D10" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
       <c r="E10" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5314,21 +5507,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="D11" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
       <c r="E11" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5340,21 +5533,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="D12" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
       <c r="E12" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -5366,21 +5559,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="D13" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="E13" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -5392,21 +5585,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="D14" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="E14" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -5418,21 +5611,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="D15" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
       <c r="E15" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -5444,21 +5637,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="D16" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="E16" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -5470,21 +5663,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C17" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="D17" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
       <c r="E17" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -5496,21 +5689,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="D18" t="s">
-        <v>824</v>
+        <v>845</v>
       </c>
       <c r="E18" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -5522,21 +5715,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D19" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="E19" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -5548,21 +5741,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="D20" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
       <c r="E20" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -5574,21 +5767,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="D21" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="E21" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -5600,21 +5793,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D22" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="E22" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -5626,21 +5819,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C23" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="D23" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
       <c r="E23" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -5652,21 +5845,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="D24" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="E24" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -5678,21 +5871,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C25" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D25" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="E25" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -5704,21 +5897,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C26" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D26" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
       <c r="E26" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -5730,21 +5923,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C27" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="D27" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
       <c r="E27" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -5756,21 +5949,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="D28" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="E28" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -5782,21 +5975,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D29" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="E29" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -5808,21 +6001,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C30" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="D30" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
       <c r="E30" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -5834,21 +6027,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D31" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="E31" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -5860,21 +6053,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C32" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="D32" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="E32" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -5886,21 +6079,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C33" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="D33" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="E33" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -5912,21 +6105,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D34" t="s">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="E34" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -5938,21 +6131,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="D35" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
       <c r="E35" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -5964,21 +6157,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D36" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="E36" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -5990,21 +6183,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="D37" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="E37" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -6016,21 +6209,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="D38" t="s">
-        <v>844</v>
+        <v>865</v>
       </c>
       <c r="E38" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -6042,21 +6235,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="D39" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
       <c r="E39" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -6068,21 +6261,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="D40" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
       <c r="E40" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -6094,21 +6287,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="D41" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="E41" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -6120,21 +6313,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="D42" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="E42" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -6146,21 +6339,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="D43" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="E43" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -6172,21 +6365,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="D44" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
       <c r="E44" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -6198,21 +6391,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C45" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="D45" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
       <c r="E45" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -6224,21 +6417,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C46" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="D46" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
       <c r="E46" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -6250,21 +6443,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C47" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="D47" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="E47" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -6276,21 +6469,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C48" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D48" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="E48" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -6302,21 +6495,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C49" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="D49" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="E49" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -6328,21 +6521,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C50" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D50" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="E50" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -6354,21 +6547,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C51" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="D51" t="s">
-        <v>857</v>
+        <v>878</v>
       </c>
       <c r="E51" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -6380,21 +6573,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C52" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="D52" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="E52" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -6406,18 +6599,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="D53" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -6429,21 +6622,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D54" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
       <c r="E54" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -6455,21 +6648,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="D55" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="E55" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -6481,21 +6674,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="D56" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
       <c r="E56" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -6507,21 +6700,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C57" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="D57" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
       <c r="E57" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -6533,21 +6726,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C58" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="D58" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
       <c r="E58" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -6559,21 +6752,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C59" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D59" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E59" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -6585,21 +6778,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C60" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="D60" t="s">
-        <v>866</v>
+        <v>887</v>
       </c>
       <c r="E60" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -6611,21 +6804,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C61" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="D61" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="E61" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -6637,21 +6830,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="D62" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="E62" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -6663,21 +6856,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="D63" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="E63" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -6689,21 +6882,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C64" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D64" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="E64" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -6715,21 +6908,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C65" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="D65" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="E65" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -6741,21 +6934,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C66" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="D66" t="s">
-        <v>872</v>
+        <v>893</v>
       </c>
       <c r="E66" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -6767,21 +6960,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C67" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D67" t="s">
-        <v>873</v>
+        <v>894</v>
       </c>
       <c r="E67" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -6793,21 +6986,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="D68" t="s">
-        <v>874</v>
+        <v>895</v>
       </c>
       <c r="E68" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -6819,21 +7012,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D69" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="E69" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -6845,21 +7038,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C70" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="D70" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
       <c r="E70" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -6871,21 +7064,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C71" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="D71" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
       <c r="E71" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -6897,21 +7090,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C72" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="D72" t="s">
-        <v>878</v>
+        <v>899</v>
       </c>
       <c r="E72" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -6923,21 +7116,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C73" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D73" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="E73" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -6949,21 +7142,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C74" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="D74" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="E74" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -6975,21 +7168,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C75" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="D75" t="s">
-        <v>881</v>
+        <v>902</v>
       </c>
       <c r="E75" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -7001,21 +7194,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="D76" t="s">
-        <v>882</v>
+        <v>903</v>
       </c>
       <c r="E76" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -7027,21 +7220,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="D77" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="E77" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -7053,21 +7246,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="D78" t="s">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="E78" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -7079,21 +7272,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="D79" t="s">
-        <v>885</v>
+        <v>906</v>
       </c>
       <c r="E79" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -7105,21 +7298,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C80" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="D80" t="s">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="E80" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -7131,18 +7324,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C81" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="D81" t="s">
-        <v>887</v>
+        <v>908</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -7154,18 +7347,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C82" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="D82" t="s">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -7177,21 +7370,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C83" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="D83" t="s">
-        <v>889</v>
+        <v>910</v>
       </c>
       <c r="E83" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -7203,21 +7396,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="D84" t="s">
-        <v>890</v>
+        <v>911</v>
       </c>
       <c r="E84" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -7229,21 +7422,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C85" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="D85" t="s">
-        <v>891</v>
+        <v>912</v>
       </c>
       <c r="E85" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -7255,21 +7448,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C86" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="D86" t="s">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="E86" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -7281,21 +7474,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C87" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="D87" t="s">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="E87" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -7307,21 +7500,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C88" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="D88" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="E88" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -7333,21 +7526,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C89" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="D89" t="s">
-        <v>895</v>
+        <v>916</v>
       </c>
       <c r="E89" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -7359,21 +7552,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C90" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="D90" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="E90" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -7385,21 +7578,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C91" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="D91" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="E91" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -7411,21 +7604,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C92" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="D92" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="E92" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -7437,21 +7630,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C93" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="D93" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
       <c r="E93" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -7463,21 +7656,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C94" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="D94" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
       <c r="E94" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -7489,21 +7682,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C95" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="D95" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="E95" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -7515,21 +7708,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C96" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="D96" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="E96" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -7541,21 +7734,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C97" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="D97" t="s">
-        <v>903</v>
+        <v>924</v>
       </c>
       <c r="E97" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -7567,21 +7760,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C98" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="D98" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
       <c r="E98" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -7593,21 +7786,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="D99" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
       <c r="E99" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -7619,21 +7812,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C100" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="D100" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="E100" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F100">
         <v>41</v>
@@ -7645,41 +7838,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C101" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="D101" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
       <c r="E101" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
       <c r="F101">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C102" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="D102" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="E102" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F102">
         <v>42</v>
@@ -7691,21 +7884,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C103" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D103" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="E103" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F103">
         <v>42</v>
@@ -7717,21 +7910,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C104" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="D104" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
       <c r="E104" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F104">
         <v>42</v>
@@ -7743,21 +7936,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C105" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="D105" t="s">
-        <v>911</v>
+        <v>932</v>
       </c>
       <c r="E105" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F105">
         <v>43</v>
@@ -7769,21 +7962,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C106" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D106" t="s">
-        <v>912</v>
+        <v>933</v>
       </c>
       <c r="E106" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F106">
         <v>43</v>
@@ -7795,21 +7988,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C107" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="D107" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
       <c r="E107" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F107">
         <v>43</v>
@@ -7821,61 +8014,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C108" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="D108" t="s">
-        <v>914</v>
+        <v>935</v>
       </c>
       <c r="E108" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
       <c r="F108">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C109" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="D109" t="s">
-        <v>915</v>
+        <v>936</v>
       </c>
       <c r="E109" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
       <c r="F109">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C110" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="D110" t="s">
-        <v>916</v>
+        <v>937</v>
       </c>
       <c r="E110" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F110">
         <v>44</v>
@@ -7887,21 +8080,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C111" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="D111" t="s">
-        <v>917</v>
+        <v>938</v>
       </c>
       <c r="E111" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F111">
         <v>44</v>
@@ -7913,21 +8106,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C112" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="D112" t="s">
-        <v>918</v>
+        <v>939</v>
       </c>
       <c r="E112" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F112">
         <v>44</v>
@@ -7939,21 +8132,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C113" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="D113" t="s">
-        <v>919</v>
+        <v>940</v>
       </c>
       <c r="E113" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F113">
         <v>45</v>
@@ -7965,21 +8158,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C114" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="D114" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
       <c r="E114" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F114">
         <v>45</v>
@@ -7991,21 +8184,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C115" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="D115" t="s">
-        <v>921</v>
+        <v>942</v>
       </c>
       <c r="E115" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="F115">
         <v>45</v>
@@ -8017,41 +8210,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C116" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="D116" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="E116" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="D117" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="E117" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -8063,41 +8256,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C118" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="D118" t="s">
-        <v>924</v>
+        <v>945</v>
       </c>
       <c r="E118" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="D119" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
       <c r="E119" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -8109,21 +8302,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C120" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="D120" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="E120" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -8135,41 +8328,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C121" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="D121" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="E121" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C122" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="D122" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
       <c r="E122" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -8181,18 +8374,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C123" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="D123" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="G123">
         <v>41</v>
@@ -8201,61 +8394,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C124" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="D124" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="E124" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C125" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="D125" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
       <c r="E125" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C126" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="D126" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="E126" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -8267,35 +8460,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C127" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="D127" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="E127" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C128" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="D128" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="G128">
         <v>26</v>
@@ -8304,21 +8497,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C129" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="D129" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
       <c r="E129" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -8330,55 +8523,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C130" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="D130" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C131" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="D131" t="s">
-        <v>937</v>
+        <v>958</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="D132" t="s">
-        <v>938</v>
+        <v>959</v>
       </c>
       <c r="E132" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -8390,21 +8583,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C133" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="D133" t="s">
-        <v>939</v>
+        <v>960</v>
       </c>
       <c r="E133" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -8416,61 +8609,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C134" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="D134" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
       <c r="E134" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="H134">
         <v>0.75</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C135" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="D135" t="s">
-        <v>941</v>
+        <v>962</v>
       </c>
       <c r="E135" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C136" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="D136" t="s">
-        <v>942</v>
+        <v>963</v>
       </c>
       <c r="E136" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -8482,21 +8675,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C137" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="D137" t="s">
-        <v>943</v>
+        <v>964</v>
       </c>
       <c r="E137" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -8508,21 +8701,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C138" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="D138" t="s">
-        <v>944</v>
+        <v>965</v>
       </c>
       <c r="E138" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -8534,21 +8727,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C139" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="D139" t="s">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="E139" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -8560,61 +8753,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C140" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="D140" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="E140" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="H140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C141" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="D141" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
       <c r="E141" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C142" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="D142" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
       <c r="E142" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -8626,21 +8819,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C143" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="D143" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
       <c r="E143" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -8652,61 +8845,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C144" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="D144" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="E144" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="H144">
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C145" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="D145" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
       <c r="E145" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C146" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="D146" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
       <c r="E146" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="F146">
         <v>101</v>
@@ -8718,21 +8911,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C147" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="D147" t="s">
-        <v>953</v>
+        <v>974</v>
       </c>
       <c r="E147" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -8744,21 +8937,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C148" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="D148" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
       <c r="E148" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -8770,61 +8963,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C149" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="D149" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
       <c r="E149" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="H149">
         <v>0.75</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C150" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="D150" t="s">
-        <v>956</v>
+        <v>977</v>
       </c>
       <c r="E150" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C151" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="D151" t="s">
-        <v>957</v>
+        <v>978</v>
       </c>
       <c r="E151" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -8836,21 +9029,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C152" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="D152" t="s">
-        <v>958</v>
+        <v>979</v>
       </c>
       <c r="E152" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -8862,35 +9055,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D153" t="s">
-        <v>959</v>
+        <v>980</v>
       </c>
       <c r="E153" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C154" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="D154" t="s">
-        <v>960</v>
+        <v>981</v>
       </c>
       <c r="E154" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F154">
         <v>3</v>
@@ -8902,100 +9095,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D155" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
       <c r="E155" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D156" t="s">
-        <v>962</v>
+        <v>983</v>
       </c>
       <c r="E156" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C157" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="D157" t="s">
-        <v>963</v>
+        <v>984</v>
       </c>
       <c r="G157">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C158" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D158" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="E158" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D159" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
       <c r="E159" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C160" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="D160" t="s">
-        <v>966</v>
+        <v>987</v>
       </c>
       <c r="E160" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -9004,55 +9197,55 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C161" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="D161" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
       <c r="E161" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C162" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="D162" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
       <c r="E162" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C163" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="D163" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
       <c r="E163" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -9061,21 +9254,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C164" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="D164" t="s">
-        <v>970</v>
+        <v>991</v>
       </c>
       <c r="E164" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -9084,49 +9277,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D165" t="s">
-        <v>971</v>
+        <v>992</v>
       </c>
       <c r="E165" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D166" t="s">
-        <v>972</v>
+        <v>993</v>
       </c>
       <c r="E166" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C167" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="D167" t="s">
-        <v>973</v>
+        <v>994</v>
       </c>
       <c r="E167" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -9135,55 +9328,55 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C168" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="D168" t="s">
-        <v>974</v>
+        <v>995</v>
       </c>
       <c r="E168" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C169" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="D169" t="s">
-        <v>975</v>
+        <v>996</v>
       </c>
       <c r="E169" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C170" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="D170" t="s">
-        <v>976</v>
+        <v>997</v>
       </c>
       <c r="E170" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -9195,21 +9388,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C171" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="D171" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
       <c r="E171" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -9221,21 +9414,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="D172" t="s">
-        <v>978</v>
+        <v>999</v>
       </c>
       <c r="E172" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -9247,174 +9440,174 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C173" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="D173" t="s">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="E173" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C174" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="D174" t="s">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="E174" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C175" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="D175" t="s">
-        <v>981</v>
+        <v>1002</v>
       </c>
       <c r="E175" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C176" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="D176" t="s">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="E176" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C177" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="D177" t="s">
-        <v>983</v>
+        <v>1004</v>
       </c>
       <c r="E177" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C178" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="D178" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
       <c r="E178" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C179" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="D179" t="s">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="E179" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C180" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="D180" t="s">
-        <v>986</v>
+        <v>1007</v>
       </c>
       <c r="E180" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C181" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="D181" t="s">
-        <v>987</v>
+        <v>1008</v>
       </c>
       <c r="E181" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C182" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="D182" t="s">
-        <v>988</v>
+        <v>1009</v>
       </c>
       <c r="E182" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -9426,21 +9619,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C183" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="D183" t="s">
-        <v>989</v>
+        <v>1010</v>
       </c>
       <c r="E183" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -9452,21 +9645,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C184" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="D184" t="s">
-        <v>990</v>
+        <v>1011</v>
       </c>
       <c r="E184" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -9478,21 +9671,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C185" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="D185" t="s">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="E185" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -9504,21 +9697,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C186" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="D186" t="s">
-        <v>992</v>
+        <v>1013</v>
       </c>
       <c r="E186" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F186">
         <v>4</v>
@@ -9530,72 +9723,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C187" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="D187" t="s">
-        <v>993</v>
+        <v>1014</v>
       </c>
       <c r="E187" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C188" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="D188" t="s">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="E188" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C189" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="D189" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="E189" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C190" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="D190" t="s">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="E190" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F190">
         <v>5</v>
@@ -9607,21 +9800,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C191" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="D191" t="s">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="E191" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -9633,21 +9826,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C192" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="D192" t="s">
-        <v>998</v>
+        <v>1019</v>
       </c>
       <c r="E192" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -9659,89 +9852,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C193" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D193" t="s">
-        <v>999</v>
+        <v>1020</v>
       </c>
       <c r="E193" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C194" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D194" t="s">
-        <v>1000</v>
+        <v>1021</v>
       </c>
       <c r="E194" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C195" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D195" t="s">
-        <v>1001</v>
+        <v>1022</v>
       </c>
       <c r="E195" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C196" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D196" t="s">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="E196" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C197" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="D197" t="s">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="E197" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -9753,21 +9946,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C198" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="D198" t="s">
-        <v>1004</v>
+        <v>1025</v>
       </c>
       <c r="E198" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -9779,21 +9972,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C199" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="D199" t="s">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="E199" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -9805,63 +9998,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D200" t="s">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="E200" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D201" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="E201" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D202" t="s">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="E202" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C203" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="D203" t="s">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="E203" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F203">
         <v>11</v>
@@ -9873,21 +10066,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C204" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="D204" t="s">
-        <v>1010</v>
+        <v>1031</v>
       </c>
       <c r="E204" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F204">
         <v>12</v>
@@ -9899,21 +10092,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C205" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="D205" t="s">
-        <v>1011</v>
+        <v>1032</v>
       </c>
       <c r="E205" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F205">
         <v>13</v>
@@ -9925,49 +10118,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D206" t="s">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="E206" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D207" t="s">
-        <v>1013</v>
+        <v>1034</v>
       </c>
       <c r="E207" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C208" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="D208" t="s">
-        <v>1014</v>
+        <v>1035</v>
       </c>
       <c r="E208" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F208">
         <v>14</v>
@@ -9979,21 +10172,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C209" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="D209" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
       <c r="E209" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F209">
         <v>15</v>
@@ -10005,21 +10198,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C210" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="D210" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="E210" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F210">
         <v>16</v>
@@ -10031,63 +10224,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D211" t="s">
-        <v>1017</v>
+        <v>1038</v>
       </c>
       <c r="E211" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D212" t="s">
-        <v>1018</v>
+        <v>1039</v>
       </c>
       <c r="E212" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D213" t="s">
-        <v>1019</v>
+        <v>1040</v>
       </c>
       <c r="E213" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C214" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="D214" t="s">
-        <v>1020</v>
+        <v>1041</v>
       </c>
       <c r="E214" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F214">
         <v>17</v>
@@ -10099,35 +10292,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C215" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="D215" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C216" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D216" t="s">
-        <v>1022</v>
+        <v>1043</v>
       </c>
       <c r="E216" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F216">
         <v>18</v>
@@ -10139,63 +10332,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D217" t="s">
-        <v>1023</v>
+        <v>1044</v>
       </c>
       <c r="E217" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D218" t="s">
-        <v>1024</v>
+        <v>1045</v>
       </c>
       <c r="E218" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D219" t="s">
-        <v>1025</v>
+        <v>1046</v>
       </c>
       <c r="E219" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C220" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="D220" t="s">
-        <v>1026</v>
+        <v>1047</v>
       </c>
       <c r="E220" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F220">
         <v>19</v>
@@ -10207,21 +10400,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C221" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D221" t="s">
-        <v>1027</v>
+        <v>1048</v>
       </c>
       <c r="E221" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F221">
         <v>20</v>
@@ -10233,21 +10426,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C222" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="D222" t="s">
-        <v>1028</v>
+        <v>1049</v>
       </c>
       <c r="E222" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F222">
         <v>21</v>
@@ -10259,49 +10452,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D223" t="s">
-        <v>1029</v>
+        <v>1050</v>
       </c>
       <c r="E223" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D224" t="s">
-        <v>1030</v>
+        <v>1051</v>
       </c>
       <c r="E224" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C225" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="D225" t="s">
-        <v>1031</v>
+        <v>1052</v>
       </c>
       <c r="E225" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F225">
         <v>22</v>
@@ -10313,21 +10506,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C226" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="D226" t="s">
-        <v>1032</v>
+        <v>1053</v>
       </c>
       <c r="E226" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F226">
         <v>23</v>
@@ -10339,21 +10532,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>233</v>
       </c>
       <c r="B227" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C227" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="D227" t="s">
-        <v>1033</v>
+        <v>1054</v>
       </c>
       <c r="E227" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F227">
         <v>24</v>
@@ -10365,49 +10558,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>234</v>
       </c>
       <c r="B228" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D228" t="s">
-        <v>1034</v>
+        <v>1055</v>
       </c>
       <c r="E228" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D229" t="s">
-        <v>1035</v>
+        <v>1056</v>
       </c>
       <c r="E229" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C230" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="D230" t="s">
-        <v>1036</v>
+        <v>1057</v>
       </c>
       <c r="E230" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F230">
         <v>25</v>
@@ -10419,21 +10612,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C231" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="D231" t="s">
-        <v>1037</v>
+        <v>1058</v>
       </c>
       <c r="E231" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F231">
         <v>26</v>
@@ -10445,49 +10638,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D232" t="s">
-        <v>1038</v>
+        <v>1059</v>
       </c>
       <c r="E232" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D233" t="s">
-        <v>1039</v>
+        <v>1060</v>
       </c>
       <c r="E233" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C234" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="D234" t="s">
-        <v>1040</v>
+        <v>1061</v>
       </c>
       <c r="E234" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F234">
         <v>27</v>
@@ -10499,21 +10692,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
       <c r="B235" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C235" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="D235" t="s">
-        <v>1041</v>
+        <v>1062</v>
       </c>
       <c r="E235" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F235">
         <v>28</v>
@@ -10525,21 +10718,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C236" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="D236" t="s">
-        <v>1042</v>
+        <v>1063</v>
       </c>
       <c r="E236" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F236">
         <v>29</v>
@@ -10551,35 +10744,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>243</v>
       </c>
       <c r="B237" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D237" t="s">
-        <v>1043</v>
+        <v>1064</v>
       </c>
       <c r="E237" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
       <c r="B238" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C238" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="D238" t="s">
-        <v>1044</v>
+        <v>1065</v>
       </c>
       <c r="E238" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F238">
         <v>30</v>
@@ -10591,60 +10784,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C239" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="D239" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D240" t="s">
-        <v>1046</v>
+        <v>1067</v>
       </c>
       <c r="E240" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
       <c r="B241" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D241" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
       <c r="B242" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C242" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="D242" t="s">
-        <v>1048</v>
+        <v>1069</v>
       </c>
       <c r="E242" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F242">
         <v>31</v>
@@ -10656,21 +10849,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C243" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="D243" t="s">
-        <v>1049</v>
+        <v>1070</v>
       </c>
       <c r="E243" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F243">
         <v>32</v>
@@ -10682,21 +10875,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
       <c r="B244" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C244" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="D244" t="s">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="E244" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F244">
         <v>33</v>
@@ -10708,35 +10901,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>251</v>
       </c>
       <c r="B245" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D245" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="E245" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>252</v>
       </c>
       <c r="B246" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C246" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="D246" t="s">
-        <v>1052</v>
+        <v>1073</v>
       </c>
       <c r="E246" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F246">
         <v>34</v>
@@ -10748,21 +10941,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C247" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="D247" t="s">
-        <v>1053</v>
+        <v>1074</v>
       </c>
       <c r="E247" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F247">
         <v>35</v>
@@ -10774,21 +10967,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>254</v>
       </c>
       <c r="B248" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C248" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="D248" t="s">
-        <v>1054</v>
+        <v>1075</v>
       </c>
       <c r="E248" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="F248">
         <v>36</v>
@@ -10800,654 +10993,811 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>255</v>
       </c>
       <c r="B249" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D249" t="s">
-        <v>1055</v>
+        <v>1076</v>
       </c>
       <c r="E249" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>256</v>
       </c>
       <c r="B250" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C250" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="D250" t="s">
-        <v>1056</v>
+        <v>1077</v>
       </c>
       <c r="E250" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
       <c r="B251" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D251" t="s">
-        <v>1057</v>
+        <v>1078</v>
       </c>
       <c r="E251" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>258</v>
       </c>
       <c r="B252" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D252" t="s">
-        <v>1058</v>
+        <v>1079</v>
       </c>
       <c r="E252" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>259</v>
       </c>
       <c r="B253" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C253" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="D253" t="s">
-        <v>1059</v>
+        <v>1080</v>
       </c>
       <c r="E253" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>260</v>
       </c>
       <c r="B254" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C254" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="D254" t="s">
-        <v>1060</v>
+        <v>1081</v>
       </c>
       <c r="E254" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>261</v>
       </c>
       <c r="B255" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="C255" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="D255" t="s">
-        <v>1061</v>
+        <v>1082</v>
       </c>
       <c r="E255" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>262</v>
       </c>
       <c r="B256" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D256" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="E256" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>263</v>
       </c>
       <c r="B257" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C257" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="D257" t="s">
-        <v>1063</v>
+        <v>1084</v>
       </c>
       <c r="E257" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>264</v>
       </c>
       <c r="B258" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C258" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="D258" t="s">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="E258" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>265</v>
       </c>
       <c r="B259" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C259" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="D259" t="s">
-        <v>1065</v>
+        <v>1086</v>
       </c>
       <c r="E259" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>266</v>
       </c>
       <c r="B260" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C260" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="D260" t="s">
-        <v>1066</v>
+        <v>1087</v>
       </c>
       <c r="E260" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>267</v>
       </c>
       <c r="B261" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="C261" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="D261" t="s">
-        <v>1067</v>
+        <v>1088</v>
       </c>
       <c r="E261" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>268</v>
       </c>
       <c r="B262" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="D262" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="E262" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>269</v>
       </c>
       <c r="B263" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="C263" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="D263" t="s">
-        <v>1069</v>
+        <v>1090</v>
       </c>
       <c r="E263" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>270</v>
       </c>
       <c r="B264" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C264" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="D264" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="E264" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>271</v>
       </c>
       <c r="B265" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C265" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="D265" t="s">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="E265" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>272</v>
       </c>
       <c r="B266" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="D266" t="s">
-        <v>1072</v>
+        <v>1093</v>
       </c>
       <c r="E266" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>273</v>
       </c>
       <c r="B267" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C267" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="D267" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
       <c r="E267" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C268" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="D268" t="s">
-        <v>1074</v>
+        <v>1095</v>
       </c>
       <c r="E268" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>275</v>
       </c>
       <c r="B269" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C269" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="D269" t="s">
-        <v>1075</v>
+        <v>1096</v>
       </c>
       <c r="E269" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>276</v>
       </c>
       <c r="B270" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C270" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="D270" t="s">
-        <v>1076</v>
+        <v>1097</v>
       </c>
       <c r="E270" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>277</v>
       </c>
       <c r="B271" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C271" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D271" t="s">
-        <v>1077</v>
+        <v>1098</v>
       </c>
       <c r="E271" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>278</v>
       </c>
       <c r="B272" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C272" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="D272" t="s">
-        <v>1078</v>
+        <v>1099</v>
       </c>
       <c r="E272" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>279</v>
       </c>
       <c r="B273" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D273" t="s">
-        <v>1079</v>
+        <v>1100</v>
       </c>
       <c r="E273" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>280</v>
       </c>
       <c r="B274" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C274" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="D274" t="s">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="E274" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>281</v>
       </c>
       <c r="B275" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C275" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="D275" t="s">
-        <v>1081</v>
+        <v>1102</v>
       </c>
       <c r="E275" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>282</v>
       </c>
       <c r="B276" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C276" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D276" t="s">
-        <v>1082</v>
+        <v>1103</v>
       </c>
       <c r="E276" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>283</v>
       </c>
       <c r="B277" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C277" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="D277" t="s">
-        <v>1083</v>
+        <v>1104</v>
       </c>
       <c r="E277" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>284</v>
       </c>
       <c r="B278" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D278" t="s">
-        <v>1084</v>
+        <v>1105</v>
       </c>
       <c r="E278" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>285</v>
       </c>
       <c r="B279" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C279" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="D279" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
       <c r="E279" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C280" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D280" t="s">
-        <v>1086</v>
+        <v>1107</v>
       </c>
       <c r="E280" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>287</v>
       </c>
       <c r="B281" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D281" t="s">
-        <v>1087</v>
+        <v>1108</v>
       </c>
       <c r="E281" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>288</v>
       </c>
       <c r="B282" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C282" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="D282" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
       <c r="E282" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>289</v>
       </c>
       <c r="B283" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="C283" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D283" t="s">
-        <v>1089</v>
+        <v>1110</v>
       </c>
       <c r="E283" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>290</v>
       </c>
       <c r="B284" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="C284" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D284" t="s">
-        <v>1090</v>
+        <v>1111</v>
       </c>
       <c r="E284" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>291</v>
       </c>
       <c r="B285" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D285" t="s">
-        <v>1091</v>
+        <v>1112</v>
       </c>
       <c r="E285" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>292</v>
       </c>
       <c r="B286" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C286" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D286" t="s">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="E286" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>293</v>
       </c>
       <c r="B287" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C287" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D287" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
       <c r="E287" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>294</v>
       </c>
       <c r="B288" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C288" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D288" t="s">
-        <v>1094</v>
+        <v>1115</v>
       </c>
       <c r="E288" t="s">
-        <v>1103</v>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>295</v>
+      </c>
+      <c r="B289" t="s">
+        <v>590</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>296</v>
+      </c>
+      <c r="B290" t="s">
+        <v>591</v>
+      </c>
+      <c r="C290" t="s">
+        <v>824</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>297</v>
+      </c>
+      <c r="B291" t="s">
+        <v>592</v>
+      </c>
+      <c r="C291" t="s">
+        <v>825</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>298</v>
+      </c>
+      <c r="B292" t="s">
+        <v>593</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>299</v>
+      </c>
+      <c r="B293" t="s">
+        <v>594</v>
+      </c>
+      <c r="C293" t="s">
+        <v>826</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>300</v>
+      </c>
+      <c r="B294" t="s">
+        <v>595</v>
+      </c>
+      <c r="C294" t="s">
+        <v>827</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>301</v>
+      </c>
+      <c r="B295" t="s">
+        <v>596</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>302</v>
+      </c>
+      <c r="B296" t="s">
+        <v>597</v>
+      </c>
+      <c r="C296" t="s">
+        <v>828</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F296">
+        <v>3</v>
+      </c>
+      <c r="G296">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSpecTable_Augment.xlsx
+++ b/ExpSpecTable_Augment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8313209-6A12-42F6-8039-3084311171A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B30ADD-2689-4C8D-9DD6-EA145925627B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1950" windowWidth="18855" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1167">
   <si>
     <t>ephysFN</t>
   </si>
@@ -931,6 +931,33 @@
     <t>Beto-23072020-002</t>
   </si>
   <si>
+    <t>Beto-27072020-001</t>
+  </si>
+  <si>
+    <t>Beto-27072020-002</t>
+  </si>
+  <si>
+    <t>Beto-27072020-003</t>
+  </si>
+  <si>
+    <t>Beto-27072020-004</t>
+  </si>
+  <si>
+    <t>Beto-28072020-002</t>
+  </si>
+  <si>
+    <t>Beto-28072020-003</t>
+  </si>
+  <si>
+    <t>Beto-28072020-004</t>
+  </si>
+  <si>
+    <t>Beto-28072020-005</t>
+  </si>
+  <si>
+    <t>Beto-28072020-006</t>
+  </si>
+  <si>
     <t>191002_Beto_selectivity_basic(1)</t>
   </si>
   <si>
@@ -1816,6 +1843,33 @@
     <t>200723_Beto_generate_BigGAN</t>
   </si>
   <si>
+    <t>200727_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200727_Beto_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>200727_Beto_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200727_Beto_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200728_Beto_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>200728_Beto_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>200728_Beto_selectivity_basic</t>
+  </si>
+  <si>
+    <t>200728_Beto_selectivity_basic(1)</t>
+  </si>
+  <si>
+    <t>200728_Beto_generate_BigGAN(1)</t>
+  </si>
+  <si>
     <t>\\storage1.ris.wustl.edu\crponce\Active\Stimuli\2019-Selectivity\2019-10-02a-beto</t>
   </si>
   <si>
@@ -2500,13 +2554,19 @@
     <t>N:\Stimuli\2020-Evolutions\2020-07-20-Beto-02\2020-07-20-12-58-55</t>
   </si>
   <si>
-    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Beto-01</t>
-  </si>
-  <si>
-    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Beto-02</t>
-  </si>
-  <si>
     <t>N:\Stimuli\2020-BigGAN\2020-07-23-Beto-01\2020-07-23-15-59-3</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Selectivity\pilotLFP_ORB\2020-07-27-Beto-01</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-Hessian\beto-200727-selectivity</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-28-Beto-01\2020-07-28-14-54-46</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-28-Beto-02\2020-07-28-15-38-41</t>
   </si>
   <si>
     <t>Derived from PCs of Ch 29 evolution 191002. 373 images {11*11 in PC2,PC3; PC49 PC50; RND RND space respectively, +10 last gen} 
@@ -4805,6 +4865,70 @@
 great psths so far</t>
   </si>
   <si>
+    <t>Hp 205
+001 at 216 PM rf mapping
+26 looking good at –1.2,0</t>
+  </si>
+  <si>
+    <t>002 biggan and fc6 evolution using ch 26 at 229 PM
+26 (-1.1,0) 3 1 CMAES with fc6 (first) and BG (second),5/5 hash
+good psth
+working at 75%, which is damn good
+259 PM , 73% has had ~110 cc</t>
+  </si>
+  <si>
+    <t>003 at 303 PM
+lfp selectivity</t>
+  </si>
+  <si>
+    <t>004 exp at 15:27 
+Hessian Manifold Tuning exp
+Start Hess computation at 3:18, Major axis are dog head direction, orientation and size.
+A lot of images but hopefully it will be meaningful
+Hope we can reach block 3. He is working with great performance today!
+20 mins kind of finished 3 reps. Finished 300 mL now.
+31 mins 81% performance.</t>
+  </si>
+  <si>
+    <t>Hp at ~230 PM
+002 at 240 PM rf mapping
+245 No participation, ~12 rewards in 5 minutes
+now he's going
+15 looking good (-0.5,1)</t>
+  </si>
+  <si>
+    <t>003 at 254 PM
+generate 15 (-0.5,1) 3 1  using
+CMAES for fc6 (first thread) and
+CMAES-ZOHA for BigGan, with the latter being the class and noise vector space together
+BigGAN  noise x Class  space ZOHA x CMAES evolution
+he's at 77% on this experiment.
+FC6 is super successful !
+Recruit quite a bit of late activity
+28 mins in total</t>
+  </si>
+  <si>
+    <t>004 LFP selectivity
+[0 0] 3 degrees, set D
+Start: 3:26 pm
+92% total accuracy at block 3
+5 blocks, complete, 85% final accuracy</t>
+  </si>
+  <si>
+    <t>005 LFP selectivity
+[0 0] 3 degrees, set E
+Start: 3:30 pm
+5 blocks, complete, 75% final accuracy</t>
+  </si>
+  <si>
+    <t>006 BigGAN generate
+BigGAN  Class  space CMAES evolution
+BigGAN  noise x Class  space CMAES x CMAES evolution
+Seems like the 1st and the 2nd thread found some gradient around gen 21
+The images go up and down for a whiile.
+180 mL now!</t>
+  </si>
+  <si>
     <t>Manifold</t>
   </si>
   <si>
@@ -4833,6 +4957,18 @@
   </si>
   <si>
     <t>BigGAN</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-27-Beto-01\2020-07-27-14-29-47</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Beto-01\2020-07-22-10-14-22</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\2020-BigGAN\2020-07-22-Beto-02\2020-07-22-11-00-09</t>
+  </si>
+  <si>
+    <t>BigGAN_Hessian</t>
   </si>
 </sst>
 </file>
@@ -5234,17 +5370,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H296"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="G297" sqref="G297"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5278,16 +5413,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="D2" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="E2" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5304,16 +5439,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="D3" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="E3" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5330,16 +5465,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D4" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="E4" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -5356,16 +5491,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="D5" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
       <c r="E5" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -5382,16 +5517,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="D6" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="E6" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -5408,16 +5543,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="D7" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="E7" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -5434,16 +5569,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="D8" t="s">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="E8" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -5460,16 +5595,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="D9" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="E9" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -5486,16 +5621,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="D10" t="s">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="E10" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5512,16 +5647,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="D11" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="E11" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5538,16 +5673,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="D12" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="E12" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -5564,16 +5699,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="D13" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="E13" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -5590,16 +5725,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D14" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="E14" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -5616,16 +5751,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="D15" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="E15" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -5642,16 +5777,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D16" t="s">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="E16" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -5668,16 +5803,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="D17" t="s">
-        <v>844</v>
+        <v>864</v>
       </c>
       <c r="E17" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -5694,16 +5829,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="D18" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="E18" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -5720,16 +5855,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="D19" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="E19" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -5746,16 +5881,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="D20" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="E20" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -5772,16 +5907,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="D21" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="E21" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -5798,16 +5933,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C22" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="D22" t="s">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="E22" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -5824,16 +5959,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="D23" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="E23" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -5850,16 +5985,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="D24" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
       <c r="E24" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F24">
         <v>12</v>
@@ -5876,16 +6011,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C25" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="D25" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="E25" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -5902,16 +6037,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="D26" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="E26" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -5928,16 +6063,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C27" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="D27" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="E27" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -5954,16 +6089,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="D28" t="s">
-        <v>855</v>
+        <v>875</v>
       </c>
       <c r="E28" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -5980,16 +6115,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="D29" t="s">
-        <v>856</v>
+        <v>876</v>
       </c>
       <c r="E29" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -6006,16 +6141,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C30" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="D30" t="s">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="E30" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -6032,16 +6167,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="D31" t="s">
-        <v>858</v>
+        <v>878</v>
       </c>
       <c r="E31" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -6058,16 +6193,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="D32" t="s">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="E32" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -6084,16 +6219,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="D33" t="s">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="E33" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -6110,16 +6245,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="D34" t="s">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="E34" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -6136,16 +6271,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C35" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="D35" t="s">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="E35" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F35">
         <v>17</v>
@@ -6162,16 +6297,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C36" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="D36" t="s">
-        <v>863</v>
+        <v>883</v>
       </c>
       <c r="E36" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F36">
         <v>18</v>
@@ -6188,16 +6323,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="D37" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="E37" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -6214,16 +6349,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C38" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="D38" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="E38" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -6240,16 +6375,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="D39" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="E39" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F39">
         <v>19</v>
@@ -6266,16 +6401,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="D40" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E40" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -6292,16 +6427,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="D41" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="E41" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F41">
         <v>20</v>
@@ -6318,16 +6453,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="D42" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="E42" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -6344,16 +6479,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C43" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D43" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="E43" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -6370,16 +6505,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C44" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="D44" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E44" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -6396,16 +6531,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C45" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="D45" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="E45" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F45">
         <v>22</v>
@@ -6422,16 +6557,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C46" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="D46" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E46" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F46">
         <v>22</v>
@@ -6448,16 +6583,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="D47" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="E47" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F47">
         <v>23</v>
@@ -6474,16 +6609,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="D48" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="E48" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F48">
         <v>23</v>
@@ -6500,16 +6635,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="D49" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="E49" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F49">
         <v>23</v>
@@ -6526,16 +6661,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C50" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="D50" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="E50" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F50">
         <v>24</v>
@@ -6552,16 +6687,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="D51" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="E51" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -6578,16 +6713,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C52" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="D52" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="E52" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F52">
         <v>24</v>
@@ -6604,13 +6739,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="D53" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="F53">
         <v>24</v>
@@ -6627,16 +6762,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="D54" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="E54" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -6653,16 +6788,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C55" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="D55" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E55" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -6679,16 +6814,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C56" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="D56" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="E56" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F56">
         <v>25</v>
@@ -6705,16 +6840,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C57" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="D57" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="E57" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F57">
         <v>26</v>
@@ -6731,16 +6866,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C58" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="D58" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="E58" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F58">
         <v>26</v>
@@ -6757,16 +6892,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="D59" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="E59" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F59">
         <v>26</v>
@@ -6783,16 +6918,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C60" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="D60" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="E60" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F60">
         <v>27</v>
@@ -6809,16 +6944,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C61" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="D61" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E61" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F61">
         <v>27</v>
@@ -6835,16 +6970,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C62" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="D62" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="E62" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F62">
         <v>27</v>
@@ -6861,16 +6996,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C63" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="D63" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="E63" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -6887,16 +7022,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="D64" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="E64" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -6913,16 +7048,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="D65" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="E65" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -6939,16 +7074,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="D66" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="E66" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F66">
         <v>29</v>
@@ -6965,16 +7100,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="D67" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="E67" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -6991,16 +7126,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="D68" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="E68" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F68">
         <v>29</v>
@@ -7017,16 +7152,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="D69" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="E69" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -7043,16 +7178,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C70" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D70" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="E70" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -7069,16 +7204,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C71" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="D71" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="E71" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F71">
         <v>30</v>
@@ -7095,16 +7230,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C72" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="D72" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="E72" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F72">
         <v>31</v>
@@ -7121,16 +7256,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C73" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="D73" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E73" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F73">
         <v>31</v>
@@ -7147,16 +7282,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C74" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="D74" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E74" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F74">
         <v>32</v>
@@ -7173,16 +7308,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C75" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="D75" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="E75" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F75">
         <v>32</v>
@@ -7199,16 +7334,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C76" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="D76" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="E76" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F76">
         <v>33</v>
@@ -7225,16 +7360,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C77" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="D77" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E77" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F77">
         <v>33</v>
@@ -7251,16 +7386,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C78" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="D78" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="E78" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -7277,16 +7412,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C79" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="D79" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="E79" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -7303,16 +7438,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="D80" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="E80" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F80">
         <v>34</v>
@@ -7329,13 +7464,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C81" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="D81" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="F81">
         <v>35</v>
@@ -7352,13 +7487,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C82" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="D82" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="F82">
         <v>35</v>
@@ -7375,16 +7510,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C83" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="D83" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="E83" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F83">
         <v>35</v>
@@ -7401,16 +7536,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C84" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D84" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="E84" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F84">
         <v>35</v>
@@ -7427,16 +7562,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C85" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="D85" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="E85" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F85">
         <v>35</v>
@@ -7453,16 +7588,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C86" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="D86" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="E86" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F86">
         <v>36</v>
@@ -7479,16 +7614,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C87" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="D87" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="E87" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -7505,16 +7640,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C88" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="D88" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="E88" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F88">
         <v>37</v>
@@ -7531,16 +7666,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="D89" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="E89" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -7557,16 +7692,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="D90" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="E90" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F90">
         <v>37</v>
@@ -7583,16 +7718,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C91" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="D91" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="E91" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -7609,16 +7744,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C92" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="D92" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="E92" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -7635,16 +7770,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C93" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="D93" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="E93" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -7661,16 +7796,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C94" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="D94" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="E94" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -7687,16 +7822,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C95" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="D95" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="E95" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F95">
         <v>39</v>
@@ -7713,16 +7848,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C96" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="D96" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="E96" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -7739,16 +7874,16 @@
         <v>103</v>
       </c>
       <c r="B97"